--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="B25" s="87" t="n">
-        <v>7.3</v>
+        <v>7.28</v>
       </c>
       <c r="C25" s="87" t="n">
         <v>7.29</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.02</v>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>0.27</v>
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-8.51</v>
+        <v>-8.93</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-8.51</v>
@@ -8554,7 +8554,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-4.96</v>
+        <v>-3.1</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-4.96</v>
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>93.06999999999999</v>
+        <v>93.39</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>93.06999999999999</v>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-10.29</v>
+        <v>-10.37</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-10.29</v>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-4.81</v>
+        <v>-3.68</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-4.81</v>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>71.01000000000001</v>
+        <v>74.47</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>71.01000000000001</v>
@@ -9353,7 +9353,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-11.46</v>
+        <v>-11.77</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-11.46</v>
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-6.58</v>
+        <v>-4.03</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-6.58</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>94.42</v>
+        <v>89.7</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>94.42</v>
@@ -11145,7 +11145,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-4.33</v>
+        <v>-4.63</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-4.27</v>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>1.72</v>
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>76.31999999999999</v>
+        <v>74.69</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>71.61</v>
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>2.8</v>
@@ -11690,7 +11690,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>17.3</v>
+        <v>16.74</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>15.5</v>
@@ -11787,7 +11787,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>75.12</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>72.92</v>
@@ -11880,14 +11880,14 @@
     <row r="51">
       <c r="A51" s="90" t="inlineStr">
         <is>
-          <t>今日买报：us30:RNG60:-10.29&lt;=-10</t>
+          <t>今日买报：us30:RNG60:-10.37&lt;=-10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：us500:RS2:93.07&gt;=85</t>
+          <t>今日卖报：us500:RS2:93.39&gt;=85</t>
         </is>
       </c>
     </row>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -800,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="47" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3993,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>-0.17</v>
+        <v>-0.23</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.04</v>
@@ -4090,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>0.19</v>
@@ -8457,7 +8456,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-8.93</v>
+        <v>-7.94</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-8.93</v>
@@ -8554,7 +8553,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-3.1</v>
+        <v>-2.93</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-3.1</v>
@@ -8651,7 +8650,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>93.39</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>93.39</v>
@@ -8899,13 +8898,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="96" t="inlineStr">
+      <c r="A23" s="76" t="inlineStr">
         <is>
           <t>us30:RNG60</t>
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-10.37</v>
+        <v>-9.02</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-10.37</v>
@@ -9002,7 +9001,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-3.68</v>
+        <v>-3.63</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-3.68</v>
@@ -9099,7 +9098,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>74.47</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>74.47</v>
@@ -9353,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-11.77</v>
+        <v>-11.04</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-11.77</v>
@@ -9450,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-4.03</v>
+        <v>-4.27</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-4.03</v>
@@ -9547,7 +9546,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>89.7</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>89.7</v>
@@ -10697,7 +10696,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>6.44</v>
@@ -10794,7 +10793,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>0.35</v>
@@ -10891,7 +10890,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>68.87</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>68.39</v>
@@ -11145,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-4.81</v>
+        <v>-4.96</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-4.63</v>
@@ -11242,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>2.74</v>
@@ -11339,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>73.18000000000001</v>
+        <v>70.16</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>74.69</v>
@@ -11593,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>2.51</v>
@@ -11690,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>16.42</v>
+        <v>16.47</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>16.74</v>
@@ -11787,7 +11786,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>76.11</v>
+        <v>76.25</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>73.43000000000001</v>
@@ -11880,14 +11879,14 @@
     <row r="51">
       <c r="A51" s="90" t="inlineStr">
         <is>
-          <t>今日买报：us30:RNG60:-10.37&lt;=-10</t>
+          <t>今日买报：</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：us500:RS2:93.39&gt;=85</t>
+          <t>今日卖报：us500:RS2:96.43&gt;=85</t>
         </is>
       </c>
     </row>
@@ -15503,13 +15502,13 @@
       <c r="G2" s="36" t="n">
         <v>66</v>
       </c>
-      <c r="H2" s="97" t="n">
+      <c r="H2" s="96" t="n">
         <v>22.3514585</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>7.06</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="97">
         <f>(1+H2/100)^(1/(YEAR(D2)-YEAR(C2)))-1</f>
         <v/>
       </c>
@@ -15541,13 +15540,13 @@
       <c r="G3" s="39" t="n">
         <v>73</v>
       </c>
-      <c r="H3" s="99" t="n">
+      <c r="H3" s="98" t="n">
         <v>35.0298984</v>
       </c>
       <c r="I3" s="39" t="n">
         <v>11.41</v>
       </c>
-      <c r="J3" s="98">
+      <c r="J3" s="97">
         <f>(1+H3/100)^(1/(YEAR(D3)-YEAR(C3)))-1</f>
         <v/>
       </c>
@@ -15579,13 +15578,13 @@
       <c r="G4" s="39" t="n">
         <v>85</v>
       </c>
-      <c r="H4" s="99" t="n">
+      <c r="H4" s="98" t="n">
         <v>122.4911655</v>
       </c>
       <c r="I4" s="39" t="n">
         <v>76.98</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="99">
         <f>(1+H4/100)^(1/(YEAR(D4)-YEAR(C4)))-1</f>
         <v/>
       </c>
@@ -15617,13 +15616,13 @@
       <c r="G5" s="39" t="n">
         <v>96</v>
       </c>
-      <c r="H5" s="99" t="n">
+      <c r="H5" s="98" t="n">
         <v>136.13543</v>
       </c>
       <c r="I5" s="39" t="n">
         <v>100.05</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="99">
         <f>(1+H5/100)^(1/(YEAR(D5)-YEAR(C5)))-1</f>
         <v/>
       </c>
@@ -15655,13 +15654,13 @@
       <c r="G6" s="39" t="n">
         <v>95</v>
       </c>
-      <c r="H6" s="99" t="n">
+      <c r="H6" s="98" t="n">
         <v>95.7546074</v>
       </c>
       <c r="I6" s="39" t="n">
         <v>44.37</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="99">
         <f>(1+H6/100)^(1/(YEAR(D6)-YEAR(C6)))-1</f>
         <v/>
       </c>
@@ -15693,13 +15692,13 @@
       <c r="G7" s="39" t="n">
         <v>86</v>
       </c>
-      <c r="H7" s="99" t="n">
+      <c r="H7" s="98" t="n">
         <v>123.8525927</v>
       </c>
       <c r="I7" s="39" t="n">
         <v>63.41</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="99">
         <f>(1+H7/100)^(1/(YEAR(D7)-YEAR(C7)))-1</f>
         <v/>
       </c>
@@ -15731,13 +15730,13 @@
       <c r="G8" s="39" t="n">
         <v>87</v>
       </c>
-      <c r="H8" s="99" t="n">
+      <c r="H8" s="98" t="n">
         <v>81.41461922000001</v>
       </c>
       <c r="I8" s="39" t="n">
         <v>26.39</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="99">
         <f>(1+H8/100)^(1/(YEAR(D8)-YEAR(C8)))-1</f>
         <v/>
       </c>
@@ -15769,13 +15768,13 @@
       <c r="G9" s="39" t="n">
         <v>83</v>
       </c>
-      <c r="H9" s="99" t="n">
+      <c r="H9" s="98" t="n">
         <v>47.02060524</v>
       </c>
       <c r="I9" s="39" t="n">
         <v>37.82</v>
       </c>
-      <c r="J9" s="100">
+      <c r="J9" s="99">
         <f>(1+H9/100)^(1/(YEAR(D9)-YEAR(C9)))-1</f>
         <v/>
       </c>
@@ -15806,13 +15805,13 @@
       <c r="G10" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H10" s="101" t="n">
+      <c r="H10" s="100" t="n">
         <v>27.8860732</v>
       </c>
       <c r="I10" s="24" t="n">
         <v>-10.97</v>
       </c>
-      <c r="J10" s="102" t="n">
+      <c r="J10" s="101" t="n">
         <v>0.278860732</v>
       </c>
     </row>
@@ -15843,13 +15842,13 @@
       <c r="G11" s="24" t="n">
         <v>93</v>
       </c>
-      <c r="H11" s="101" t="n">
+      <c r="H11" s="100" t="n">
         <v>17.4948656</v>
       </c>
       <c r="I11" s="24" t="n">
         <v>-7.7</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="101">
         <f>(1+H11/100)^(1/(YEAR(D11)-YEAR(C11)))-1</f>
         <v/>
       </c>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.23</v>
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-9.02</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-9.02</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-3.63</v>
+        <v>-2.69</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-3.63</v>
@@ -9092,13 +9092,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="76" t="inlineStr">
+      <c r="A25" s="95" t="inlineStr">
         <is>
           <t>us30:RS3</t>
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>82.65000000000001</v>
+        <v>85.86</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>82.65000000000001</v>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-11.04</v>
+        <v>-10.03</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-11.04</v>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-4.27</v>
+        <v>-4.04</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-4.27</v>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>93.43000000000001</v>
+        <v>83.88</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>93.43000000000001</v>
@@ -11144,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-3.2</v>
+        <v>-3.32</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-4.96</v>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>2.01</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>75.18000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>70.16</v>
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>3.19</v>
+        <v>4.99</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>3.19</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>16.47</v>
+        <v>17.49</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>16.47</v>
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>76.25</v>
+        <v>77.56</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>76.25</v>
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:96.43&gt;=85</t>
+          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:96.43&gt;=85;us30:RS3:85.86&gt;=85</t>
         </is>
       </c>
     </row>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -6351,152 +6351,152 @@
       </c>
       <c r="B1" s="77" t="inlineStr">
         <is>
+          <t>250501</t>
+        </is>
+      </c>
+      <c r="C1" s="77" t="inlineStr">
+        <is>
           <t>250430</t>
         </is>
       </c>
-      <c r="C1" s="77" t="inlineStr">
+      <c r="D1" s="77" t="inlineStr">
         <is>
           <t>250429</t>
         </is>
       </c>
-      <c r="D1" s="77" t="inlineStr">
+      <c r="E1" s="77" t="inlineStr">
         <is>
           <t>250428</t>
         </is>
       </c>
-      <c r="E1" s="77" t="inlineStr">
+      <c r="F1" s="77" t="inlineStr">
         <is>
           <t>250427</t>
         </is>
       </c>
-      <c r="F1" s="77" t="inlineStr">
+      <c r="G1" s="77" t="inlineStr">
         <is>
           <t>250425</t>
         </is>
       </c>
-      <c r="G1" s="77" t="inlineStr">
+      <c r="H1" s="77" t="inlineStr">
         <is>
           <t>250424</t>
         </is>
       </c>
-      <c r="H1" s="77" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>250423</t>
         </is>
       </c>
-      <c r="I1" s="77" t="inlineStr">
+      <c r="J1" s="77" t="inlineStr">
         <is>
           <t>250422</t>
         </is>
       </c>
-      <c r="J1" s="77" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>250421</t>
         </is>
       </c>
-      <c r="K1" s="77" t="inlineStr">
+      <c r="L1" s="77" t="inlineStr">
         <is>
           <t>250420</t>
         </is>
       </c>
-      <c r="L1" s="77" t="inlineStr">
+      <c r="M1" s="77" t="inlineStr">
         <is>
           <t>250418</t>
         </is>
       </c>
-      <c r="M1" s="77" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>250417</t>
         </is>
       </c>
-      <c r="N1" s="77" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>250416</t>
         </is>
       </c>
-      <c r="O1" s="77" t="inlineStr">
+      <c r="P1" s="77" t="inlineStr">
         <is>
           <t>250415</t>
         </is>
       </c>
-      <c r="P1" s="77" t="inlineStr">
+      <c r="Q1" s="77" t="inlineStr">
         <is>
           <t>250414</t>
         </is>
       </c>
-      <c r="Q1" s="77" t="inlineStr">
+      <c r="R1" s="77" t="inlineStr">
         <is>
           <t>250413</t>
         </is>
       </c>
-      <c r="R1" s="77" t="inlineStr">
+      <c r="S1" s="77" t="inlineStr">
         <is>
           <t>250411</t>
         </is>
       </c>
-      <c r="S1" s="77" t="inlineStr">
+      <c r="T1" s="77" t="inlineStr">
         <is>
           <t>250410</t>
         </is>
       </c>
-      <c r="T1" s="77" t="inlineStr">
+      <c r="U1" s="77" t="inlineStr">
         <is>
           <t>250409</t>
         </is>
       </c>
-      <c r="U1" s="77" t="inlineStr">
+      <c r="V1" s="77" t="inlineStr">
         <is>
           <t>250408</t>
         </is>
       </c>
-      <c r="V1" s="77" t="inlineStr">
+      <c r="W1" s="77" t="inlineStr">
         <is>
           <t>250407</t>
         </is>
       </c>
-      <c r="W1" s="77" t="inlineStr">
+      <c r="X1" s="77" t="inlineStr">
         <is>
           <t>250406</t>
         </is>
       </c>
-      <c r="X1" s="77" t="inlineStr">
+      <c r="Y1" s="77" t="inlineStr">
         <is>
           <t>250404</t>
         </is>
       </c>
-      <c r="Y1" s="77" t="inlineStr">
+      <c r="Z1" s="77" t="inlineStr">
         <is>
           <t>250403</t>
         </is>
       </c>
-      <c r="Z1" s="77" t="inlineStr">
+      <c r="AA1" s="77" t="inlineStr">
         <is>
           <t>250402</t>
         </is>
       </c>
-      <c r="AA1" s="77" t="inlineStr">
+      <c r="AB1" s="77" t="inlineStr">
         <is>
           <t>250401</t>
         </is>
       </c>
-      <c r="AB1" s="77" t="inlineStr">
+      <c r="AC1" s="77" t="inlineStr">
         <is>
           <t>250331</t>
         </is>
       </c>
-      <c r="AC1" s="77" t="inlineStr">
+      <c r="AD1" s="77" t="inlineStr">
         <is>
           <t>250328</t>
         </is>
       </c>
-      <c r="AD1" s="77" t="inlineStr">
+      <c r="AE1" s="77" t="inlineStr">
         <is>
           <t>250327</t>
-        </is>
-      </c>
-      <c r="AE1" s="77" t="inlineStr">
-        <is>
-          <t>250326</t>
         </is>
       </c>
     </row>
@@ -6511,134 +6511,134 @@
           <t>green</t>
         </is>
       </c>
-      <c r="C2" s="92" t="inlineStr">
+      <c r="C2" s="91" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="D2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D2" s="92" t="inlineStr">
+      <c r="E2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E2" s="92" t="inlineStr">
+      <c r="F2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F2" s="92" t="inlineStr">
+      <c r="G2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G2" s="93" t="inlineStr">
+      <c r="H2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H2" s="93" t="inlineStr">
+      <c r="I2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I2" s="93" t="inlineStr">
+      <c r="J2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J2" s="93" t="inlineStr">
+      <c r="K2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K2" s="93" t="inlineStr">
+      <c r="L2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L2" s="93" t="inlineStr">
+      <c r="M2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M2" s="93" t="inlineStr">
+      <c r="N2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N2" s="93" t="inlineStr">
+      <c r="O2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O2" s="92" t="inlineStr">
+      <c r="P2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P2" s="92" t="inlineStr">
+      <c r="Q2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q2" s="92" t="inlineStr">
+      <c r="R2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R2" s="92" t="inlineStr">
+      <c r="S2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S2" s="92" t="inlineStr">
+      <c r="T2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T2" s="92" t="inlineStr">
+      <c r="U2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U2" s="91" t="inlineStr">
+      <c r="V2" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V2" s="91" t="inlineStr">
+      <c r="W2" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W2" s="92" t="inlineStr">
+      <c r="X2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X2" s="92" t="inlineStr">
+      <c r="Y2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y2" s="92" t="inlineStr">
+      <c r="Z2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z2" s="92" t="inlineStr">
+      <c r="AA2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA2" s="92" t="inlineStr">
+      <c r="AB2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB2" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC2" s="91" t="inlineStr">
@@ -6667,67 +6667,67 @@
         <v>0.87</v>
       </c>
       <c r="C3" s="94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D3" s="94" t="n">
         <v>1.05</v>
       </c>
-      <c r="D3" s="94" t="n">
+      <c r="E3" s="94" t="n">
         <v>1.8</v>
-      </c>
-      <c r="E3" s="94" t="n">
-        <v>2.53</v>
       </c>
       <c r="F3" s="94" t="n">
         <v>2.53</v>
       </c>
       <c r="G3" s="94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H3" s="94" t="n">
         <v>1.69</v>
       </c>
-      <c r="H3" s="94" t="n">
+      <c r="I3" s="94" t="n">
         <v>1.6</v>
       </c>
-      <c r="I3" s="94" t="n">
+      <c r="J3" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="J3" s="94" t="n">
+      <c r="K3" s="94" t="n">
         <v>1.71</v>
-      </c>
-      <c r="K3" s="94" t="n">
-        <v>1.54</v>
       </c>
       <c r="L3" s="94" t="n">
         <v>1.54</v>
       </c>
       <c r="M3" s="94" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N3" s="94" t="n">
         <v>1.22</v>
       </c>
-      <c r="N3" s="94" t="n">
+      <c r="O3" s="94" t="n">
         <v>3.65</v>
       </c>
-      <c r="O3" s="94" t="n">
+      <c r="P3" s="94" t="n">
         <v>3.13</v>
       </c>
-      <c r="P3" s="94" t="n">
+      <c r="Q3" s="94" t="n">
         <v>1.6</v>
-      </c>
-      <c r="Q3" s="94" t="n">
-        <v>0.25</v>
       </c>
       <c r="R3" s="94" t="n">
         <v>0.25</v>
       </c>
       <c r="S3" s="94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T3" s="94" t="n">
         <v>-0.19</v>
       </c>
-      <c r="T3" s="94" t="n">
+      <c r="U3" s="94" t="n">
         <v>-0.63</v>
       </c>
-      <c r="U3" s="94" t="n">
+      <c r="V3" s="94" t="n">
         <v>-2.05</v>
       </c>
-      <c r="V3" s="94" t="n">
+      <c r="W3" s="94" t="n">
         <v>-5.09</v>
-      </c>
-      <c r="W3" s="94" t="n">
-        <v>-0.29</v>
       </c>
       <c r="X3" s="94" t="n">
         <v>-0.29</v>
@@ -6736,22 +6736,22 @@
         <v>-0.29</v>
       </c>
       <c r="Z3" s="94" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AA3" s="94" t="n">
         <v>-1.68</v>
       </c>
-      <c r="AA3" s="94" t="n">
+      <c r="AB3" s="94" t="n">
         <v>-1.52</v>
       </c>
-      <c r="AB3" s="94" t="n">
+      <c r="AC3" s="94" t="n">
         <v>-1.83</v>
       </c>
-      <c r="AC3" s="94" t="n">
+      <c r="AD3" s="94" t="n">
         <v>-1.24</v>
       </c>
-      <c r="AD3" s="94" t="n">
+      <c r="AE3" s="94" t="n">
         <v>-0.58</v>
-      </c>
-      <c r="AE3" s="94" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -6767,64 +6767,64 @@
         <v>0.21</v>
       </c>
       <c r="D4" s="94" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="94" t="n">
         <v>0.68</v>
-      </c>
-      <c r="E4" s="94" t="n">
-        <v>0.26</v>
       </c>
       <c r="F4" s="94" t="n">
         <v>0.26</v>
       </c>
       <c r="G4" s="94" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H4" s="94" t="n">
         <v>-0.75</v>
       </c>
-      <c r="H4" s="94" t="n">
+      <c r="I4" s="94" t="n">
         <v>-0.1</v>
       </c>
-      <c r="I4" s="94" t="n">
+      <c r="J4" s="94" t="n">
         <v>0.59</v>
       </c>
-      <c r="J4" s="94" t="n">
+      <c r="K4" s="94" t="n">
         <v>-0.34</v>
-      </c>
-      <c r="K4" s="94" t="n">
-        <v>-0.28</v>
       </c>
       <c r="L4" s="94" t="n">
         <v>-0.28</v>
       </c>
       <c r="M4" s="94" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="N4" s="94" t="n">
         <v>0.37</v>
       </c>
-      <c r="N4" s="94" t="n">
+      <c r="O4" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="O4" s="94" t="n">
+      <c r="P4" s="94" t="n">
         <v>3.1</v>
       </c>
-      <c r="P4" s="94" t="n">
+      <c r="Q4" s="94" t="n">
         <v>1.87</v>
-      </c>
-      <c r="Q4" s="94" t="n">
-        <v>1.15</v>
       </c>
       <c r="R4" s="94" t="n">
         <v>1.15</v>
       </c>
       <c r="S4" s="94" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T4" s="94" t="n">
         <v>-1.85</v>
       </c>
-      <c r="T4" s="94" t="n">
+      <c r="U4" s="94" t="n">
         <v>-0.96</v>
       </c>
-      <c r="U4" s="94" t="n">
+      <c r="V4" s="94" t="n">
         <v>-4.74</v>
       </c>
-      <c r="V4" s="94" t="n">
+      <c r="W4" s="94" t="n">
         <v>-4.98</v>
-      </c>
-      <c r="W4" s="94" t="n">
-        <v>-4.23</v>
       </c>
       <c r="X4" s="94" t="n">
         <v>-4.23</v>
@@ -6833,22 +6833,22 @@
         <v>-4.23</v>
       </c>
       <c r="Z4" s="94" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="AA4" s="94" t="n">
         <v>0.41</v>
       </c>
-      <c r="AA4" s="94" t="n">
+      <c r="AB4" s="94" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="AB4" s="94" t="n">
+      <c r="AC4" s="94" t="n">
         <v>11.16</v>
       </c>
-      <c r="AC4" s="94" t="n">
+      <c r="AD4" s="94" t="n">
         <v>15.71</v>
       </c>
-      <c r="AD4" s="94" t="n">
+      <c r="AE4" s="94" t="n">
         <v>17.83</v>
-      </c>
-      <c r="AE4" s="94" t="n">
-        <v>22.55</v>
       </c>
     </row>
     <row r="5">
@@ -6861,67 +6861,67 @@
         <v>16.68</v>
       </c>
       <c r="C5" s="94" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="D5" s="94" t="n">
         <v>32</v>
       </c>
-      <c r="D5" s="94" t="n">
+      <c r="E5" s="94" t="n">
         <v>37.27</v>
-      </c>
-      <c r="E5" s="94" t="n">
-        <v>63.72</v>
       </c>
       <c r="F5" s="94" t="n">
         <v>63.72</v>
       </c>
       <c r="G5" s="94" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="H5" s="94" t="n">
         <v>75.73</v>
       </c>
-      <c r="H5" s="94" t="n">
+      <c r="I5" s="94" t="n">
         <v>74.39</v>
       </c>
-      <c r="I5" s="94" t="n">
+      <c r="J5" s="94" t="n">
         <v>85.98</v>
       </c>
-      <c r="J5" s="94" t="n">
+      <c r="K5" s="94" t="n">
         <v>81.19</v>
-      </c>
-      <c r="K5" s="94" t="n">
-        <v>68.56</v>
       </c>
       <c r="L5" s="94" t="n">
         <v>68.56</v>
       </c>
       <c r="M5" s="94" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="N5" s="94" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="N5" s="94" t="n">
+      <c r="O5" s="94" t="n">
         <v>74.51000000000001</v>
       </c>
-      <c r="O5" s="94" t="n">
+      <c r="P5" s="94" t="n">
         <v>70.33</v>
       </c>
-      <c r="P5" s="94" t="n">
+      <c r="Q5" s="94" t="n">
         <v>68.31999999999999</v>
-      </c>
-      <c r="Q5" s="94" t="n">
-        <v>58.9</v>
       </c>
       <c r="R5" s="94" t="n">
         <v>58.9</v>
       </c>
       <c r="S5" s="94" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="T5" s="94" t="n">
         <v>53.42</v>
       </c>
-      <c r="T5" s="94" t="n">
+      <c r="U5" s="94" t="n">
         <v>39.94</v>
       </c>
-      <c r="U5" s="94" t="n">
+      <c r="V5" s="94" t="n">
         <v>23.39</v>
       </c>
-      <c r="V5" s="94" t="n">
+      <c r="W5" s="94" t="n">
         <v>2.01</v>
-      </c>
-      <c r="W5" s="94" t="n">
-        <v>29.66</v>
       </c>
       <c r="X5" s="94" t="n">
         <v>29.66</v>
@@ -6930,22 +6930,22 @@
         <v>29.66</v>
       </c>
       <c r="Z5" s="94" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AA5" s="94" t="n">
         <v>42.58</v>
       </c>
-      <c r="AA5" s="94" t="n">
+      <c r="AB5" s="94" t="n">
         <v>38.88</v>
       </c>
-      <c r="AB5" s="94" t="n">
+      <c r="AC5" s="94" t="n">
         <v>9.85</v>
       </c>
-      <c r="AC5" s="94" t="n">
+      <c r="AD5" s="94" t="n">
         <v>16.11</v>
       </c>
-      <c r="AD5" s="94" t="n">
+      <c r="AE5" s="94" t="n">
         <v>41.34</v>
-      </c>
-      <c r="AE5" s="94" t="n">
-        <v>23.32</v>
       </c>
     </row>
     <row r="6">
@@ -6959,149 +6959,149 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C6" s="91" t="inlineStr">
+      <c r="C6" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="D6" s="91" t="inlineStr">
+      <c r="E6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="E6" s="91" t="inlineStr">
+      <c r="F6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="F6" s="91" t="inlineStr">
+      <c r="G6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="G6" s="91" t="inlineStr">
+      <c r="H6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="H6" s="92" t="inlineStr">
+      <c r="I6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I6" s="93" t="inlineStr">
+      <c r="J6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J6" s="93" t="inlineStr">
+      <c r="K6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K6" s="92" t="inlineStr">
+      <c r="L6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L6" s="92" t="inlineStr">
+      <c r="M6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M6" s="93" t="inlineStr">
+      <c r="N6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N6" s="93" t="inlineStr">
+      <c r="O6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O6" s="92" t="inlineStr">
+      <c r="P6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P6" s="93" t="inlineStr">
+      <c r="Q6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q6" s="93" t="inlineStr">
+      <c r="R6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R6" s="93" t="inlineStr">
+      <c r="S6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S6" s="92" t="inlineStr">
+      <c r="T6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T6" s="92" t="inlineStr">
+      <c r="U6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U6" s="91" t="inlineStr">
+      <c r="V6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V6" s="91" t="inlineStr">
+      <c r="W6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W6" s="92" t="inlineStr">
+      <c r="X6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X6" s="92" t="inlineStr">
+      <c r="Y6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y6" s="92" t="inlineStr">
+      <c r="Z6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z6" s="92" t="inlineStr">
+      <c r="AA6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA6" s="92" t="inlineStr">
+      <c r="AB6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB6" s="92" t="inlineStr">
+      <c r="AC6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC6" s="92" t="inlineStr">
+      <c r="AD6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD6" s="92" t="inlineStr">
+      <c r="AE6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AE6" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -7115,67 +7115,67 @@
         <v>6</v>
       </c>
       <c r="C7" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="94" t="n">
         <v>2.98</v>
       </c>
-      <c r="D7" s="94" t="n">
+      <c r="E7" s="94" t="n">
         <v>3.8</v>
-      </c>
-      <c r="E7" s="94" t="n">
-        <v>3</v>
       </c>
       <c r="F7" s="94" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="94" t="n">
         <v>2.77</v>
       </c>
-      <c r="H7" s="94" t="n">
+      <c r="I7" s="94" t="n">
         <v>4.58</v>
       </c>
-      <c r="I7" s="94" t="n">
+      <c r="J7" s="94" t="n">
         <v>5.21</v>
       </c>
-      <c r="J7" s="94" t="n">
+      <c r="K7" s="94" t="n">
         <v>6.59</v>
-      </c>
-      <c r="K7" s="94" t="n">
-        <v>3.16</v>
       </c>
       <c r="L7" s="94" t="n">
         <v>3.16</v>
       </c>
       <c r="M7" s="94" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N7" s="94" t="n">
         <v>3.57</v>
       </c>
-      <c r="N7" s="94" t="n">
+      <c r="O7" s="94" t="n">
         <v>6.54</v>
       </c>
-      <c r="O7" s="94" t="n">
+      <c r="P7" s="94" t="n">
         <v>5.86</v>
       </c>
-      <c r="P7" s="94" t="n">
+      <c r="Q7" s="94" t="n">
         <v>5.5</v>
-      </c>
-      <c r="Q7" s="94" t="n">
-        <v>4.83</v>
       </c>
       <c r="R7" s="94" t="n">
         <v>4.83</v>
       </c>
       <c r="S7" s="94" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="T7" s="94" t="n">
         <v>2.66</v>
       </c>
-      <c r="T7" s="94" t="n">
+      <c r="U7" s="94" t="n">
         <v>4.46</v>
       </c>
-      <c r="U7" s="94" t="n">
+      <c r="V7" s="94" t="n">
         <v>-0.18</v>
       </c>
-      <c r="V7" s="94" t="n">
+      <c r="W7" s="94" t="n">
         <v>-3.26</v>
-      </c>
-      <c r="W7" s="94" t="n">
-        <v>2.95</v>
       </c>
       <c r="X7" s="94" t="n">
         <v>2.95</v>
@@ -7184,22 +7184,22 @@
         <v>2.95</v>
       </c>
       <c r="Z7" s="94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA7" s="94" t="n">
         <v>0.21</v>
       </c>
-      <c r="AA7" s="94" t="n">
+      <c r="AB7" s="94" t="n">
         <v>0.57</v>
       </c>
-      <c r="AB7" s="94" t="n">
+      <c r="AC7" s="94" t="n">
         <v>-0.42</v>
       </c>
-      <c r="AC7" s="94" t="n">
+      <c r="AD7" s="94" t="n">
         <v>1.19</v>
       </c>
-      <c r="AD7" s="94" t="n">
+      <c r="AE7" s="94" t="n">
         <v>2.62</v>
-      </c>
-      <c r="AE7" s="94" t="n">
-        <v>3.05</v>
       </c>
     </row>
     <row r="8">
@@ -7212,67 +7212,67 @@
         <v>7.73</v>
       </c>
       <c r="C8" s="94" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D8" s="94" t="n">
         <v>3.55</v>
       </c>
-      <c r="D8" s="94" t="n">
+      <c r="E8" s="94" t="n">
         <v>4.59</v>
-      </c>
-      <c r="E8" s="94" t="n">
-        <v>2.99</v>
       </c>
       <c r="F8" s="94" t="n">
         <v>2.99</v>
       </c>
       <c r="G8" s="94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H8" s="94" t="n">
         <v>1.7</v>
       </c>
-      <c r="H8" s="94" t="n">
+      <c r="I8" s="94" t="n">
         <v>2.16</v>
       </c>
-      <c r="I8" s="94" t="n">
+      <c r="J8" s="94" t="n">
         <v>3.95</v>
       </c>
-      <c r="J8" s="94" t="n">
+      <c r="K8" s="94" t="n">
         <v>4.11</v>
-      </c>
-      <c r="K8" s="94" t="n">
-        <v>2.31</v>
       </c>
       <c r="L8" s="94" t="n">
         <v>2.31</v>
       </c>
       <c r="M8" s="94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="N8" s="94" t="n">
         <v>1.64</v>
       </c>
-      <c r="N8" s="94" t="n">
+      <c r="O8" s="94" t="n">
         <v>3.66</v>
       </c>
-      <c r="O8" s="94" t="n">
+      <c r="P8" s="94" t="n">
         <v>14.47</v>
       </c>
-      <c r="P8" s="94" t="n">
+      <c r="Q8" s="94" t="n">
         <v>15.83</v>
-      </c>
-      <c r="Q8" s="94" t="n">
-        <v>12.56</v>
       </c>
       <c r="R8" s="94" t="n">
         <v>12.56</v>
       </c>
       <c r="S8" s="94" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="T8" s="94" t="n">
         <v>7.05</v>
       </c>
-      <c r="T8" s="94" t="n">
+      <c r="U8" s="94" t="n">
         <v>9.09</v>
       </c>
-      <c r="U8" s="94" t="n">
+      <c r="V8" s="94" t="n">
         <v>-1.48</v>
       </c>
-      <c r="V8" s="94" t="n">
+      <c r="W8" s="94" t="n">
         <v>-7.38</v>
-      </c>
-      <c r="W8" s="94" t="n">
-        <v>-0.58</v>
       </c>
       <c r="X8" s="94" t="n">
         <v>-0.58</v>
@@ -7281,22 +7281,22 @@
         <v>-0.58</v>
       </c>
       <c r="Z8" s="94" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="AA8" s="94" t="n">
         <v>17.24</v>
       </c>
-      <c r="AA8" s="94" t="n">
+      <c r="AB8" s="94" t="n">
         <v>38.43</v>
       </c>
-      <c r="AB8" s="94" t="n">
+      <c r="AC8" s="94" t="n">
         <v>47.55</v>
       </c>
-      <c r="AC8" s="94" t="n">
+      <c r="AD8" s="94" t="n">
         <v>54.27</v>
       </c>
-      <c r="AD8" s="94" t="n">
+      <c r="AE8" s="94" t="n">
         <v>56</v>
-      </c>
-      <c r="AE8" s="94" t="n">
-        <v>60.03</v>
       </c>
     </row>
     <row r="9">
@@ -7309,67 +7309,67 @@
         <v>59.87</v>
       </c>
       <c r="C9" s="94" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="D9" s="94" t="n">
         <v>42.94</v>
       </c>
-      <c r="D9" s="94" t="n">
+      <c r="E9" s="94" t="n">
         <v>40.49</v>
-      </c>
-      <c r="E9" s="94" t="n">
-        <v>42.96</v>
       </c>
       <c r="F9" s="94" t="n">
         <v>42.96</v>
       </c>
       <c r="G9" s="94" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="H9" s="94" t="n">
         <v>40.89</v>
       </c>
-      <c r="H9" s="94" t="n">
+      <c r="I9" s="94" t="n">
         <v>52.16</v>
       </c>
-      <c r="I9" s="94" t="n">
+      <c r="J9" s="94" t="n">
         <v>56.97</v>
       </c>
-      <c r="J9" s="94" t="n">
+      <c r="K9" s="94" t="n">
         <v>60.99</v>
-      </c>
-      <c r="K9" s="94" t="n">
-        <v>51.77</v>
       </c>
       <c r="L9" s="94" t="n">
         <v>51.77</v>
       </c>
       <c r="M9" s="94" t="n">
+        <v>51.77</v>
+      </c>
+      <c r="N9" s="94" t="n">
         <v>60.45</v>
       </c>
-      <c r="N9" s="94" t="n">
+      <c r="O9" s="94" t="n">
         <v>58.91</v>
       </c>
-      <c r="O9" s="94" t="n">
+      <c r="P9" s="94" t="n">
         <v>53.78</v>
       </c>
-      <c r="P9" s="94" t="n">
+      <c r="Q9" s="94" t="n">
         <v>59.56</v>
-      </c>
-      <c r="Q9" s="94" t="n">
-        <v>58.4</v>
       </c>
       <c r="R9" s="94" t="n">
         <v>58.4</v>
       </c>
       <c r="S9" s="94" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="T9" s="94" t="n">
         <v>49.1</v>
       </c>
-      <c r="T9" s="94" t="n">
+      <c r="U9" s="94" t="n">
         <v>43.89</v>
       </c>
-      <c r="U9" s="94" t="n">
+      <c r="V9" s="94" t="n">
         <v>18.5</v>
       </c>
-      <c r="V9" s="94" t="n">
+      <c r="W9" s="94" t="n">
         <v>4.98</v>
-      </c>
-      <c r="W9" s="94" t="n">
-        <v>22.95</v>
       </c>
       <c r="X9" s="94" t="n">
         <v>22.95</v>
@@ -7378,22 +7378,22 @@
         <v>22.95</v>
       </c>
       <c r="Z9" s="94" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="AA9" s="94" t="n">
         <v>26.81</v>
       </c>
-      <c r="AA9" s="94" t="n">
+      <c r="AB9" s="94" t="n">
         <v>28.13</v>
       </c>
-      <c r="AB9" s="94" t="n">
+      <c r="AC9" s="94" t="n">
         <v>25.11</v>
       </c>
-      <c r="AC9" s="94" t="n">
+      <c r="AD9" s="94" t="n">
         <v>29.08</v>
       </c>
-      <c r="AD9" s="94" t="n">
+      <c r="AE9" s="94" t="n">
         <v>36.65</v>
-      </c>
-      <c r="AE9" s="94" t="n">
-        <v>19.14</v>
       </c>
     </row>
     <row r="10">
@@ -7407,149 +7407,149 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C10" s="92" t="inlineStr">
+      <c r="C10" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D10" s="92" t="inlineStr">
+      <c r="E10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E10" s="93" t="inlineStr">
+      <c r="F10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F10" s="93" t="inlineStr">
+      <c r="G10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G10" s="92" t="inlineStr">
+      <c r="H10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H10" s="93" t="inlineStr">
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I10" s="92" t="inlineStr">
+      <c r="J10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J10" s="92" t="inlineStr">
+      <c r="K10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K10" s="92" t="inlineStr">
+      <c r="L10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L10" s="92" t="inlineStr">
+      <c r="M10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M10" s="92" t="inlineStr">
+      <c r="N10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N10" s="92" t="inlineStr">
+      <c r="O10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O10" s="92" t="inlineStr">
+      <c r="P10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P10" s="92" t="inlineStr">
+      <c r="Q10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q10" s="92" t="inlineStr">
+      <c r="R10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R10" s="92" t="inlineStr">
+      <c r="S10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S10" s="92" t="inlineStr">
+      <c r="T10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T10" s="91" t="inlineStr">
+      <c r="U10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U10" s="91" t="inlineStr">
+      <c r="V10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V10" s="91" t="inlineStr">
+      <c r="W10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W10" s="91" t="inlineStr">
+      <c r="X10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X10" s="91" t="inlineStr">
+      <c r="Y10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y10" s="91" t="inlineStr">
+      <c r="Z10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z10" s="92" t="inlineStr">
+      <c r="AA10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA10" s="91" t="inlineStr">
+      <c r="AB10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB10" s="91" t="inlineStr">
+      <c r="AC10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC10" s="91" t="inlineStr">
+      <c r="AD10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD10" s="92" t="inlineStr">
+      <c r="AE10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AE10" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -7563,67 +7563,67 @@
         <v>-5.61</v>
       </c>
       <c r="C11" s="94" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="D11" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="D11" s="94" t="n">
+      <c r="E11" s="94" t="n">
         <v>-7.59</v>
-      </c>
-      <c r="E11" s="94" t="n">
-        <v>-7.32</v>
       </c>
       <c r="F11" s="94" t="n">
         <v>-7.32</v>
       </c>
       <c r="G11" s="94" t="n">
+        <v>-7.32</v>
+      </c>
+      <c r="H11" s="94" t="n">
         <v>-8.359999999999999</v>
       </c>
-      <c r="H11" s="94" t="n">
+      <c r="I11" s="94" t="n">
         <v>-7.39</v>
       </c>
-      <c r="I11" s="94" t="n">
+      <c r="J11" s="94" t="n">
         <v>-6.72</v>
       </c>
-      <c r="J11" s="94" t="n">
+      <c r="K11" s="94" t="n">
         <v>-5.22</v>
-      </c>
-      <c r="K11" s="94" t="n">
-        <v>-6.08</v>
       </c>
       <c r="L11" s="94" t="n">
         <v>-6.08</v>
       </c>
       <c r="M11" s="94" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="N11" s="94" t="n">
         <v>-8.039999999999999</v>
       </c>
-      <c r="N11" s="94" t="n">
+      <c r="O11" s="94" t="n">
         <v>-3.8</v>
       </c>
-      <c r="O11" s="94" t="n">
+      <c r="P11" s="94" t="n">
         <v>-2.27</v>
       </c>
-      <c r="P11" s="94" t="n">
+      <c r="Q11" s="94" t="n">
         <v>-3.87</v>
-      </c>
-      <c r="Q11" s="94" t="n">
-        <v>-4.09</v>
       </c>
       <c r="R11" s="94" t="n">
         <v>-4.09</v>
       </c>
       <c r="S11" s="94" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="T11" s="94" t="n">
         <v>-6.3</v>
       </c>
-      <c r="T11" s="94" t="n">
+      <c r="U11" s="94" t="n">
         <v>-7.74</v>
       </c>
-      <c r="U11" s="94" t="n">
+      <c r="V11" s="94" t="n">
         <v>-8.710000000000001</v>
       </c>
-      <c r="V11" s="94" t="n">
+      <c r="W11" s="94" t="n">
         <v>-12.29</v>
-      </c>
-      <c r="W11" s="94" t="n">
-        <v>-3.56</v>
       </c>
       <c r="X11" s="94" t="n">
         <v>-3.56</v>
@@ -7632,22 +7632,22 @@
         <v>-3.56</v>
       </c>
       <c r="Z11" s="94" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="AA11" s="94" t="n">
         <v>-4.61</v>
       </c>
-      <c r="AA11" s="94" t="n">
+      <c r="AB11" s="94" t="n">
         <v>-4.67</v>
       </c>
-      <c r="AB11" s="94" t="n">
+      <c r="AC11" s="94" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AC11" s="94" t="n">
+      <c r="AD11" s="94" t="n">
         <v>-3.32</v>
       </c>
-      <c r="AD11" s="94" t="n">
+      <c r="AE11" s="94" t="n">
         <v>-3.09</v>
-      </c>
-      <c r="AE11" s="94" t="n">
-        <v>-2.2</v>
       </c>
     </row>
     <row r="12">
@@ -7660,67 +7660,67 @@
         <v>-8.27</v>
       </c>
       <c r="C12" s="94" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="D12" s="94" t="n">
         <v>-10.74</v>
       </c>
-      <c r="D12" s="94" t="n">
+      <c r="E12" s="94" t="n">
         <v>-10.09</v>
-      </c>
-      <c r="E12" s="94" t="n">
-        <v>-10.57</v>
       </c>
       <c r="F12" s="94" t="n">
         <v>-10.57</v>
       </c>
       <c r="G12" s="94" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="H12" s="94" t="n">
         <v>-13.16</v>
       </c>
-      <c r="H12" s="94" t="n">
+      <c r="I12" s="94" t="n">
         <v>-12.94</v>
       </c>
-      <c r="I12" s="94" t="n">
+      <c r="J12" s="94" t="n">
         <v>-11.34</v>
       </c>
-      <c r="J12" s="94" t="n">
+      <c r="K12" s="94" t="n">
         <v>-11.83</v>
-      </c>
-      <c r="K12" s="94" t="n">
-        <v>-13.67</v>
       </c>
       <c r="L12" s="94" t="n">
         <v>-13.67</v>
       </c>
       <c r="M12" s="94" t="n">
+        <v>-13.67</v>
+      </c>
+      <c r="N12" s="94" t="n">
         <v>-13.64</v>
       </c>
-      <c r="N12" s="94" t="n">
+      <c r="O12" s="94" t="n">
         <v>-13.12</v>
       </c>
-      <c r="O12" s="94" t="n">
+      <c r="P12" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="P12" s="94" t="n">
+      <c r="Q12" s="94" t="n">
         <v>-5.25</v>
-      </c>
-      <c r="Q12" s="94" t="n">
-        <v>-7.65</v>
       </c>
       <c r="R12" s="94" t="n">
         <v>-7.65</v>
       </c>
       <c r="S12" s="94" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T12" s="94" t="n">
         <v>-11.82</v>
       </c>
-      <c r="T12" s="94" t="n">
+      <c r="U12" s="94" t="n">
         <v>-11.54</v>
       </c>
-      <c r="U12" s="94" t="n">
+      <c r="V12" s="94" t="n">
         <v>-16.84</v>
       </c>
-      <c r="V12" s="94" t="n">
+      <c r="W12" s="94" t="n">
         <v>-20.74</v>
-      </c>
-      <c r="W12" s="94" t="n">
-        <v>-19.01</v>
       </c>
       <c r="X12" s="94" t="n">
         <v>-19.01</v>
@@ -7729,22 +7729,22 @@
         <v>-19.01</v>
       </c>
       <c r="Z12" s="94" t="n">
+        <v>-19.01</v>
+      </c>
+      <c r="AA12" s="94" t="n">
         <v>-3.24</v>
       </c>
-      <c r="AA12" s="94" t="n">
+      <c r="AB12" s="94" t="n">
         <v>11.48</v>
       </c>
-      <c r="AB12" s="94" t="n">
+      <c r="AC12" s="94" t="n">
         <v>22.73</v>
       </c>
-      <c r="AC12" s="94" t="n">
+      <c r="AD12" s="94" t="n">
         <v>29.65</v>
       </c>
-      <c r="AD12" s="94" t="n">
+      <c r="AE12" s="94" t="n">
         <v>32.8</v>
-      </c>
-      <c r="AE12" s="94" t="n">
-        <v>39.82</v>
       </c>
     </row>
     <row r="13">
@@ -7757,67 +7757,67 @@
         <v>67.06</v>
       </c>
       <c r="C13" s="94" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="D13" s="94" t="n">
         <v>41.37</v>
       </c>
-      <c r="D13" s="94" t="n">
+      <c r="E13" s="94" t="n">
         <v>45.04</v>
-      </c>
-      <c r="E13" s="94" t="n">
-        <v>64.22</v>
       </c>
       <c r="F13" s="94" t="n">
         <v>64.22</v>
       </c>
       <c r="G13" s="94" t="n">
+        <v>64.22</v>
+      </c>
+      <c r="H13" s="94" t="n">
         <v>52.12</v>
       </c>
-      <c r="H13" s="94" t="n">
+      <c r="I13" s="94" t="n">
         <v>70.87</v>
       </c>
-      <c r="I13" s="94" t="n">
+      <c r="J13" s="94" t="n">
         <v>53.47</v>
       </c>
-      <c r="J13" s="94" t="n">
+      <c r="K13" s="94" t="n">
         <v>76.97</v>
-      </c>
-      <c r="K13" s="94" t="n">
-        <v>47.71</v>
       </c>
       <c r="L13" s="94" t="n">
         <v>47.71</v>
       </c>
       <c r="M13" s="94" t="n">
+        <v>47.71</v>
+      </c>
+      <c r="N13" s="94" t="n">
         <v>38.86</v>
       </c>
-      <c r="N13" s="94" t="n">
+      <c r="O13" s="94" t="n">
         <v>36.55</v>
       </c>
-      <c r="O13" s="94" t="n">
+      <c r="P13" s="94" t="n">
         <v>56.28</v>
       </c>
-      <c r="P13" s="94" t="n">
+      <c r="Q13" s="94" t="n">
         <v>58.55</v>
-      </c>
-      <c r="Q13" s="94" t="n">
-        <v>55.42</v>
       </c>
       <c r="R13" s="94" t="n">
         <v>55.42</v>
       </c>
       <c r="S13" s="94" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="T13" s="94" t="n">
         <v>44.39</v>
       </c>
-      <c r="T13" s="94" t="n">
+      <c r="U13" s="94" t="n">
         <v>23.88</v>
       </c>
-      <c r="U13" s="94" t="n">
+      <c r="V13" s="94" t="n">
         <v>14.93</v>
       </c>
-      <c r="V13" s="94" t="n">
+      <c r="W13" s="94" t="n">
         <v>0.64</v>
-      </c>
-      <c r="W13" s="94" t="n">
-        <v>5.09</v>
       </c>
       <c r="X13" s="94" t="n">
         <v>5.09</v>
@@ -7826,22 +7826,22 @@
         <v>5.09</v>
       </c>
       <c r="Z13" s="94" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AA13" s="94" t="n">
         <v>16.8</v>
       </c>
-      <c r="AA13" s="94" t="n">
+      <c r="AB13" s="94" t="n">
         <v>6.77</v>
       </c>
-      <c r="AB13" s="94" t="n">
+      <c r="AC13" s="94" t="n">
         <v>7.15</v>
       </c>
-      <c r="AC13" s="94" t="n">
+      <c r="AD13" s="94" t="n">
         <v>14.43</v>
       </c>
-      <c r="AD13" s="94" t="n">
+      <c r="AE13" s="94" t="n">
         <v>27.11</v>
-      </c>
-      <c r="AE13" s="94" t="n">
-        <v>11.06</v>
       </c>
     </row>
     <row r="14">
@@ -7885,104 +7885,104 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I14" s="92" t="inlineStr">
+      <c r="I14" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J14" s="92" t="inlineStr">
+      <c r="K14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K14" s="92" t="inlineStr">
+      <c r="L14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L14" s="92" t="inlineStr">
+      <c r="M14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M14" s="92" t="inlineStr">
+      <c r="N14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N14" s="92" t="inlineStr">
+      <c r="O14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O14" s="92" t="inlineStr">
+      <c r="P14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P14" s="92" t="inlineStr">
+      <c r="Q14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q14" s="92" t="inlineStr">
+      <c r="R14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R14" s="92" t="inlineStr">
+      <c r="S14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S14" s="92" t="inlineStr">
+      <c r="T14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T14" s="91" t="inlineStr">
+      <c r="U14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U14" s="91" t="inlineStr">
+      <c r="V14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V14" s="91" t="inlineStr">
+      <c r="W14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W14" s="91" t="inlineStr">
+      <c r="X14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X14" s="91" t="inlineStr">
+      <c r="Y14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y14" s="91" t="inlineStr">
+      <c r="Z14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z14" s="92" t="inlineStr">
+      <c r="AA14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA14" s="92" t="inlineStr">
+      <c r="AB14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB14" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC14" s="91" t="inlineStr">
@@ -8011,28 +8011,28 @@
         <v>9.369999999999999</v>
       </c>
       <c r="C15" s="94" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D15" s="94" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="D15" s="94" t="n">
+      <c r="E15" s="94" t="n">
         <v>9.5</v>
-      </c>
-      <c r="E15" s="94" t="n">
-        <v>11.57</v>
       </c>
       <c r="F15" s="94" t="n">
         <v>11.57</v>
       </c>
       <c r="G15" s="94" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="H15" s="94" t="n">
         <v>10.77</v>
       </c>
-      <c r="H15" s="94" t="n">
+      <c r="I15" s="94" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="I15" s="94" t="n">
+      <c r="J15" s="94" t="n">
         <v>8.210000000000001</v>
-      </c>
-      <c r="J15" s="94" t="n">
-        <v>9.25</v>
       </c>
       <c r="K15" s="94" t="n">
         <v>9.25</v>
@@ -8044,34 +8044,34 @@
         <v>9.25</v>
       </c>
       <c r="N15" s="94" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O15" s="94" t="n">
         <v>7.86</v>
       </c>
-      <c r="O15" s="94" t="n">
+      <c r="P15" s="94" t="n">
         <v>11.3</v>
       </c>
-      <c r="P15" s="94" t="n">
+      <c r="Q15" s="94" t="n">
         <v>11.43</v>
-      </c>
-      <c r="Q15" s="94" t="n">
-        <v>10.81</v>
       </c>
       <c r="R15" s="94" t="n">
         <v>10.81</v>
       </c>
       <c r="S15" s="94" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="T15" s="94" t="n">
         <v>8.48</v>
       </c>
-      <c r="T15" s="94" t="n">
+      <c r="U15" s="94" t="n">
         <v>5.32</v>
       </c>
-      <c r="U15" s="94" t="n">
+      <c r="V15" s="94" t="n">
         <v>4.4</v>
       </c>
-      <c r="V15" s="94" t="n">
+      <c r="W15" s="94" t="n">
         <v>1.96</v>
-      </c>
-      <c r="W15" s="94" t="n">
-        <v>16.06</v>
       </c>
       <c r="X15" s="94" t="n">
         <v>16.06</v>
@@ -8080,22 +8080,22 @@
         <v>16.06</v>
       </c>
       <c r="Z15" s="94" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="AA15" s="94" t="n">
         <v>17.42</v>
       </c>
-      <c r="AA15" s="94" t="n">
+      <c r="AB15" s="94" t="n">
         <v>18.26</v>
       </c>
-      <c r="AB15" s="94" t="n">
+      <c r="AC15" s="94" t="n">
         <v>15.25</v>
       </c>
-      <c r="AC15" s="94" t="n">
+      <c r="AD15" s="94" t="n">
         <v>16.89</v>
       </c>
-      <c r="AD15" s="94" t="n">
+      <c r="AE15" s="94" t="n">
         <v>17.36</v>
-      </c>
-      <c r="AE15" s="94" t="n">
-        <v>16.84</v>
       </c>
     </row>
     <row r="16">
@@ -8108,28 +8108,28 @@
         <v>8.869999999999999</v>
       </c>
       <c r="C16" s="94" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D16" s="94" t="n">
         <v>7.99</v>
       </c>
-      <c r="D16" s="94" t="n">
+      <c r="E16" s="94" t="n">
         <v>6.14</v>
-      </c>
-      <c r="E16" s="94" t="n">
-        <v>6.71</v>
       </c>
       <c r="F16" s="94" t="n">
         <v>6.71</v>
       </c>
       <c r="G16" s="94" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="H16" s="94" t="n">
         <v>6.41</v>
       </c>
-      <c r="H16" s="94" t="n">
+      <c r="I16" s="94" t="n">
         <v>7.73</v>
       </c>
-      <c r="I16" s="94" t="n">
+      <c r="J16" s="94" t="n">
         <v>3.86</v>
-      </c>
-      <c r="J16" s="94" t="n">
-        <v>4.37</v>
       </c>
       <c r="K16" s="94" t="n">
         <v>4.37</v>
@@ -8141,34 +8141,34 @@
         <v>4.37</v>
       </c>
       <c r="N16" s="94" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O16" s="94" t="n">
         <v>2.83</v>
       </c>
-      <c r="O16" s="94" t="n">
+      <c r="P16" s="94" t="n">
         <v>3.18</v>
       </c>
-      <c r="P16" s="94" t="n">
+      <c r="Q16" s="94" t="n">
         <v>6.67</v>
-      </c>
-      <c r="Q16" s="94" t="n">
-        <v>3.09</v>
       </c>
       <c r="R16" s="94" t="n">
         <v>3.09</v>
       </c>
       <c r="S16" s="94" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="T16" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="T16" s="94" t="n">
+      <c r="U16" s="94" t="n">
         <v>-3.93</v>
       </c>
-      <c r="U16" s="94" t="n">
+      <c r="V16" s="94" t="n">
         <v>-5.29</v>
       </c>
-      <c r="V16" s="94" t="n">
+      <c r="W16" s="94" t="n">
         <v>-3.92</v>
-      </c>
-      <c r="W16" s="94" t="n">
-        <v>9.19</v>
       </c>
       <c r="X16" s="94" t="n">
         <v>9.19</v>
@@ -8177,22 +8177,22 @@
         <v>9.19</v>
       </c>
       <c r="Z16" s="94" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AA16" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="AA16" s="94" t="n">
+      <c r="AB16" s="94" t="n">
         <v>2.07</v>
       </c>
-      <c r="AB16" s="94" t="n">
+      <c r="AC16" s="94" t="n">
         <v>4.55</v>
       </c>
-      <c r="AC16" s="94" t="n">
+      <c r="AD16" s="94" t="n">
         <v>4.38</v>
       </c>
-      <c r="AD16" s="94" t="n">
+      <c r="AE16" s="94" t="n">
         <v>11.57</v>
-      </c>
-      <c r="AE16" s="94" t="n">
-        <v>13.82</v>
       </c>
     </row>
     <row r="17">
@@ -8205,28 +8205,28 @@
         <v>74.8</v>
       </c>
       <c r="C17" s="94" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D17" s="94" t="n">
         <v>68.73999999999999</v>
       </c>
-      <c r="D17" s="94" t="n">
+      <c r="E17" s="94" t="n">
         <v>66.8</v>
-      </c>
-      <c r="E17" s="94" t="n">
-        <v>67.56</v>
       </c>
       <c r="F17" s="94" t="n">
         <v>67.56</v>
       </c>
       <c r="G17" s="94" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="H17" s="94" t="n">
         <v>65.14</v>
       </c>
-      <c r="H17" s="94" t="n">
+      <c r="I17" s="94" t="n">
         <v>74.75</v>
       </c>
-      <c r="I17" s="94" t="n">
+      <c r="J17" s="94" t="n">
         <v>61.35</v>
-      </c>
-      <c r="J17" s="94" t="n">
-        <v>55.56</v>
       </c>
       <c r="K17" s="94" t="n">
         <v>55.56</v>
@@ -8238,34 +8238,34 @@
         <v>55.56</v>
       </c>
       <c r="N17" s="94" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="O17" s="94" t="n">
         <v>42.49</v>
       </c>
-      <c r="O17" s="94" t="n">
+      <c r="P17" s="94" t="n">
         <v>57.97</v>
       </c>
-      <c r="P17" s="94" t="n">
+      <c r="Q17" s="94" t="n">
         <v>56.55</v>
-      </c>
-      <c r="Q17" s="94" t="n">
-        <v>41.26</v>
       </c>
       <c r="R17" s="94" t="n">
         <v>41.26</v>
       </c>
       <c r="S17" s="94" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="T17" s="94" t="n">
         <v>33.08</v>
       </c>
-      <c r="T17" s="94" t="n">
+      <c r="U17" s="94" t="n">
         <v>17.68</v>
       </c>
-      <c r="U17" s="94" t="n">
+      <c r="V17" s="94" t="n">
         <v>12.74</v>
       </c>
-      <c r="V17" s="94" t="n">
+      <c r="W17" s="94" t="n">
         <v>3.21</v>
-      </c>
-      <c r="W17" s="94" t="n">
-        <v>18.53</v>
       </c>
       <c r="X17" s="94" t="n">
         <v>18.53</v>
@@ -8274,22 +8274,22 @@
         <v>18.53</v>
       </c>
       <c r="Z17" s="94" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AA17" s="94" t="n">
         <v>31.84</v>
       </c>
-      <c r="AA17" s="94" t="n">
+      <c r="AB17" s="94" t="n">
         <v>32.06</v>
       </c>
-      <c r="AB17" s="94" t="n">
+      <c r="AC17" s="94" t="n">
         <v>24.45</v>
       </c>
-      <c r="AC17" s="94" t="n">
+      <c r="AD17" s="94" t="n">
         <v>34.7</v>
       </c>
-      <c r="AD17" s="94" t="n">
+      <c r="AE17" s="94" t="n">
         <v>41.1</v>
-      </c>
-      <c r="AE17" s="94" t="n">
-        <v>35.5</v>
       </c>
     </row>
     <row r="18">
@@ -8333,119 +8333,119 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I18" s="92" t="inlineStr">
+      <c r="I18" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J18" s="91" t="inlineStr">
+      <c r="K18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" s="92" t="inlineStr">
+      <c r="L18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L18" s="92" t="inlineStr">
+      <c r="M18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M18" s="92" t="inlineStr">
+      <c r="N18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N18" s="91" t="inlineStr">
+      <c r="O18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O18" s="93" t="inlineStr">
+      <c r="P18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P18" s="93" t="inlineStr">
+      <c r="Q18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q18" s="92" t="inlineStr">
+      <c r="R18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R18" s="92" t="inlineStr">
+      <c r="S18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S18" s="92" t="inlineStr">
+      <c r="T18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T18" s="93" t="inlineStr">
+      <c r="U18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U18" s="91" t="inlineStr">
+      <c r="V18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V18" s="91" t="inlineStr">
+      <c r="W18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W18" s="91" t="inlineStr">
+      <c r="X18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X18" s="91" t="inlineStr">
+      <c r="Y18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y18" s="91" t="inlineStr">
+      <c r="Z18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z18" s="92" t="inlineStr">
+      <c r="AA18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA18" s="91" t="inlineStr">
+      <c r="AB18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB18" s="91" t="inlineStr">
+      <c r="AC18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC18" s="91" t="inlineStr">
+      <c r="AD18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD18" s="91" t="inlineStr">
+      <c r="AE18" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AE18" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -8456,34 +8456,34 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="C19" s="94" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="D19" s="94" t="n">
         <v>-7.94</v>
       </c>
-      <c r="C19" s="94" t="n">
-        <v>-7.94</v>
-      </c>
-      <c r="D19" s="94" t="n">
+      <c r="E19" s="94" t="n">
         <v>-8.93</v>
-      </c>
-      <c r="E19" s="94" t="n">
-        <v>-8.51</v>
       </c>
       <c r="F19" s="94" t="n">
         <v>-8.51</v>
       </c>
       <c r="G19" s="94" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="H19" s="94" t="n">
         <v>-9.609999999999999</v>
       </c>
-      <c r="H19" s="94" t="n">
+      <c r="I19" s="94" t="n">
         <v>-10.59</v>
       </c>
-      <c r="I19" s="94" t="n">
+      <c r="J19" s="94" t="n">
         <v>-13.33</v>
       </c>
-      <c r="J19" s="94" t="n">
+      <c r="K19" s="94" t="n">
         <v>-15.7</v>
-      </c>
-      <c r="K19" s="94" t="n">
-        <v>-13.2</v>
       </c>
       <c r="L19" s="94" t="n">
         <v>-13.2</v>
@@ -8492,58 +8492,58 @@
         <v>-13.2</v>
       </c>
       <c r="N19" s="94" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="O19" s="94" t="n">
         <v>-12.79</v>
       </c>
-      <c r="O19" s="94" t="n">
+      <c r="P19" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="P19" s="94" t="n">
+      <c r="Q19" s="94" t="n">
         <v>-8.949999999999999</v>
-      </c>
-      <c r="Q19" s="94" t="n">
-        <v>-9.859999999999999</v>
       </c>
       <c r="R19" s="94" t="n">
         <v>-9.859999999999999</v>
       </c>
       <c r="S19" s="94" t="n">
+        <v>-9.859999999999999</v>
+      </c>
+      <c r="T19" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="T19" s="94" t="n">
+      <c r="U19" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="U19" s="94" t="n">
+      <c r="V19" s="94" t="n">
         <v>-14.49</v>
       </c>
-      <c r="V19" s="94" t="n">
+      <c r="W19" s="94" t="n">
         <v>-14.46</v>
-      </c>
-      <c r="W19" s="94" t="n">
-        <v>-14.13</v>
       </c>
       <c r="X19" s="94" t="n">
         <v>-14.13</v>
       </c>
       <c r="Y19" s="94" t="n">
+        <v>-14.13</v>
+      </c>
+      <c r="Z19" s="94" t="n">
         <v>-9.69</v>
       </c>
-      <c r="Z19" s="94" t="n">
+      <c r="AA19" s="94" t="n">
         <v>-4.57</v>
       </c>
-      <c r="AA19" s="94" t="n">
+      <c r="AB19" s="94" t="n">
         <v>-4.01</v>
       </c>
-      <c r="AB19" s="94" t="n">
+      <c r="AC19" s="94" t="n">
         <v>-4.59</v>
       </c>
-      <c r="AC19" s="94" t="n">
+      <c r="AD19" s="94" t="n">
         <v>-5.52</v>
       </c>
-      <c r="AD19" s="94" t="n">
+      <c r="AE19" s="94" t="n">
         <v>-4.65</v>
-      </c>
-      <c r="AE19" s="94" t="n">
-        <v>-5.39</v>
       </c>
     </row>
     <row r="20">
@@ -8553,34 +8553,34 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="C20" s="94" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="D20" s="94" t="n">
         <v>-2.93</v>
       </c>
-      <c r="C20" s="94" t="n">
-        <v>-2.93</v>
-      </c>
-      <c r="D20" s="94" t="n">
+      <c r="E20" s="94" t="n">
         <v>-3.1</v>
-      </c>
-      <c r="E20" s="94" t="n">
-        <v>-4.96</v>
       </c>
       <c r="F20" s="94" t="n">
         <v>-4.96</v>
       </c>
       <c r="G20" s="94" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="H20" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="H20" s="94" t="n">
+      <c r="I20" s="94" t="n">
         <v>-7.69</v>
       </c>
-      <c r="I20" s="94" t="n">
+      <c r="J20" s="94" t="n">
         <v>-8.960000000000001</v>
       </c>
-      <c r="J20" s="94" t="n">
+      <c r="K20" s="94" t="n">
         <v>-11.22</v>
-      </c>
-      <c r="K20" s="94" t="n">
-        <v>-8.880000000000001</v>
       </c>
       <c r="L20" s="94" t="n">
         <v>-8.880000000000001</v>
@@ -8589,58 +8589,58 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="N20" s="94" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="O20" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="O20" s="94" t="n">
+      <c r="P20" s="94" t="n">
         <v>-7.81</v>
       </c>
-      <c r="P20" s="94" t="n">
+      <c r="Q20" s="94" t="n">
         <v>-7.82</v>
-      </c>
-      <c r="Q20" s="94" t="n">
-        <v>-8.18</v>
       </c>
       <c r="R20" s="94" t="n">
         <v>-8.18</v>
       </c>
       <c r="S20" s="94" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="T20" s="94" t="n">
         <v>-9.83</v>
       </c>
-      <c r="T20" s="94" t="n">
+      <c r="U20" s="94" t="n">
         <v>-6.16</v>
       </c>
-      <c r="U20" s="94" t="n">
+      <c r="V20" s="94" t="n">
         <v>-14.97</v>
       </c>
-      <c r="V20" s="94" t="n">
+      <c r="W20" s="94" t="n">
         <v>-12.95</v>
-      </c>
-      <c r="W20" s="94" t="n">
-        <v>-12.21</v>
       </c>
       <c r="X20" s="94" t="n">
         <v>-12.21</v>
       </c>
       <c r="Y20" s="94" t="n">
+        <v>-12.21</v>
+      </c>
+      <c r="Z20" s="94" t="n">
         <v>-6.83</v>
       </c>
-      <c r="Z20" s="94" t="n">
+      <c r="AA20" s="94" t="n">
         <v>-1.39</v>
       </c>
-      <c r="AA20" s="94" t="n">
+      <c r="AB20" s="94" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AB20" s="94" t="n">
+      <c r="AC20" s="94" t="n">
         <v>-2.42</v>
       </c>
-      <c r="AC20" s="94" t="n">
+      <c r="AD20" s="94" t="n">
         <v>-2.09</v>
       </c>
-      <c r="AD20" s="94" t="n">
+      <c r="AE20" s="94" t="n">
         <v>-0.28</v>
-      </c>
-      <c r="AE20" s="94" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="21">
@@ -8650,34 +8650,34 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="C21" s="94" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="D21" s="94" t="n">
         <v>96.43000000000001</v>
       </c>
-      <c r="C21" s="94" t="n">
-        <v>96.43000000000001</v>
-      </c>
-      <c r="D21" s="94" t="n">
+      <c r="E21" s="94" t="n">
         <v>93.39</v>
-      </c>
-      <c r="E21" s="94" t="n">
-        <v>93.06999999999999</v>
       </c>
       <c r="F21" s="94" t="n">
         <v>93.06999999999999</v>
       </c>
       <c r="G21" s="94" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="H21" s="94" t="n">
         <v>90.36</v>
       </c>
-      <c r="H21" s="94" t="n">
+      <c r="I21" s="94" t="n">
         <v>79.64</v>
       </c>
-      <c r="I21" s="94" t="n">
+      <c r="J21" s="94" t="n">
         <v>63.01</v>
       </c>
-      <c r="J21" s="94" t="n">
+      <c r="K21" s="94" t="n">
         <v>7.46</v>
-      </c>
-      <c r="K21" s="94" t="n">
-        <v>26.79</v>
       </c>
       <c r="L21" s="94" t="n">
         <v>26.79</v>
@@ -8686,58 +8686,58 @@
         <v>26.79</v>
       </c>
       <c r="N21" s="94" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="O21" s="94" t="n">
         <v>21.03</v>
       </c>
-      <c r="O21" s="94" t="n">
+      <c r="P21" s="94" t="n">
         <v>65.61</v>
       </c>
-      <c r="P21" s="94" t="n">
+      <c r="Q21" s="94" t="n">
         <v>71.45999999999999</v>
-      </c>
-      <c r="Q21" s="94" t="n">
-        <v>64.18000000000001</v>
       </c>
       <c r="R21" s="94" t="n">
         <v>64.18000000000001</v>
       </c>
       <c r="S21" s="94" t="n">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="T21" s="94" t="n">
         <v>49.87</v>
       </c>
-      <c r="T21" s="94" t="n">
+      <c r="U21" s="94" t="n">
         <v>82.54000000000001</v>
       </c>
-      <c r="U21" s="94" t="n">
+      <c r="V21" s="94" t="n">
         <v>1.75</v>
       </c>
-      <c r="V21" s="94" t="n">
+      <c r="W21" s="94" t="n">
         <v>2.85</v>
-      </c>
-      <c r="W21" s="94" t="n">
-        <v>2.99</v>
       </c>
       <c r="X21" s="94" t="n">
         <v>2.99</v>
       </c>
       <c r="Y21" s="94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z21" s="94" t="n">
         <v>9.18</v>
       </c>
-      <c r="Z21" s="94" t="n">
+      <c r="AA21" s="94" t="n">
         <v>76.8</v>
       </c>
-      <c r="AA21" s="94" t="n">
+      <c r="AB21" s="94" t="n">
         <v>52.81</v>
       </c>
-      <c r="AB21" s="94" t="n">
+      <c r="AC21" s="94" t="n">
         <v>33.59</v>
       </c>
-      <c r="AC21" s="94" t="n">
+      <c r="AD21" s="94" t="n">
         <v>5.59</v>
       </c>
-      <c r="AD21" s="94" t="n">
+      <c r="AE21" s="94" t="n">
         <v>23.94</v>
-      </c>
-      <c r="AE21" s="94" t="n">
-        <v>33.06</v>
       </c>
     </row>
     <row r="22">
@@ -8776,124 +8776,124 @@
           <t>red</t>
         </is>
       </c>
-      <c r="H22" s="92" t="inlineStr">
+      <c r="H22" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I22" s="92" t="inlineStr">
+      <c r="J22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J22" s="91" t="inlineStr">
+      <c r="K22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K22" s="91" t="inlineStr">
+      <c r="L22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L22" s="91" t="inlineStr">
+      <c r="M22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M22" s="91" t="inlineStr">
+      <c r="N22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N22" s="91" t="inlineStr">
+      <c r="O22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O22" s="93" t="inlineStr">
+      <c r="P22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P22" s="93" t="inlineStr">
+      <c r="Q22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q22" s="92" t="inlineStr">
+      <c r="R22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R22" s="92" t="inlineStr">
+      <c r="S22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S22" s="92" t="inlineStr">
+      <c r="T22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T22" s="93" t="inlineStr">
+      <c r="U22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U22" s="91" t="inlineStr">
+      <c r="V22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V22" s="91" t="inlineStr">
+      <c r="W22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W22" s="91" t="inlineStr">
+      <c r="X22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X22" s="91" t="inlineStr">
+      <c r="Y22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y22" s="91" t="inlineStr">
+      <c r="Z22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z22" s="93" t="inlineStr">
+      <c r="AA22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AA22" s="91" t="inlineStr">
+      <c r="AB22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB22" s="91" t="inlineStr">
+      <c r="AC22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC22" s="91" t="inlineStr">
+      <c r="AD22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD22" s="92" t="inlineStr">
+      <c r="AE22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AE22" s="93" t="inlineStr">
-        <is>
-          <t>red</t>
         </is>
       </c>
     </row>
@@ -8907,31 +8907,31 @@
         <v>-8.449999999999999</v>
       </c>
       <c r="C23" s="94" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="D23" s="94" t="n">
         <v>-9.02</v>
       </c>
-      <c r="D23" s="94" t="n">
+      <c r="E23" s="94" t="n">
         <v>-10.37</v>
-      </c>
-      <c r="E23" s="94" t="n">
-        <v>-10.29</v>
       </c>
       <c r="F23" s="94" t="n">
         <v>-10.29</v>
       </c>
       <c r="G23" s="94" t="n">
+        <v>-10.29</v>
+      </c>
+      <c r="H23" s="94" t="n">
         <v>-10.61</v>
       </c>
-      <c r="H23" s="94" t="n">
+      <c r="I23" s="94" t="n">
         <v>-11.42</v>
       </c>
-      <c r="I23" s="94" t="n">
+      <c r="J23" s="94" t="n">
         <v>-11.79</v>
       </c>
-      <c r="J23" s="94" t="n">
+      <c r="K23" s="94" t="n">
         <v>-14.35</v>
-      </c>
-      <c r="K23" s="94" t="n">
-        <v>-11.36</v>
       </c>
       <c r="L23" s="94" t="n">
         <v>-11.36</v>
@@ -8940,58 +8940,58 @@
         <v>-11.36</v>
       </c>
       <c r="N23" s="94" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="O23" s="94" t="n">
         <v>-9.9</v>
       </c>
-      <c r="O23" s="94" t="n">
+      <c r="P23" s="94" t="n">
         <v>-7.17</v>
       </c>
-      <c r="P23" s="94" t="n">
+      <c r="Q23" s="94" t="n">
         <v>-6.09</v>
-      </c>
-      <c r="Q23" s="94" t="n">
-        <v>-6.96</v>
       </c>
       <c r="R23" s="94" t="n">
         <v>-6.96</v>
       </c>
       <c r="S23" s="94" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="T23" s="94" t="n">
         <v>-6.88</v>
       </c>
-      <c r="T23" s="94" t="n">
+      <c r="U23" s="94" t="n">
         <v>-3.99</v>
       </c>
-      <c r="U23" s="94" t="n">
+      <c r="V23" s="94" t="n">
         <v>-10.24</v>
       </c>
-      <c r="V23" s="94" t="n">
+      <c r="W23" s="94" t="n">
         <v>-10.95</v>
-      </c>
-      <c r="W23" s="94" t="n">
-        <v>-9.91</v>
       </c>
       <c r="X23" s="94" t="n">
         <v>-9.91</v>
       </c>
       <c r="Y23" s="94" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="Z23" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="Z23" s="94" t="n">
+      <c r="AA23" s="94" t="n">
         <v>-1.19</v>
       </c>
-      <c r="AA23" s="94" t="n">
+      <c r="AB23" s="94" t="n">
         <v>-0.95</v>
       </c>
-      <c r="AB23" s="94" t="n">
+      <c r="AC23" s="94" t="n">
         <v>-1.28</v>
       </c>
-      <c r="AC23" s="94" t="n">
+      <c r="AD23" s="94" t="n">
         <v>-2.32</v>
       </c>
-      <c r="AD23" s="94" t="n">
+      <c r="AE23" s="94" t="n">
         <v>-1.61</v>
-      </c>
-      <c r="AE23" s="94" t="n">
-        <v>-2.01</v>
       </c>
     </row>
     <row r="24">
@@ -9004,31 +9004,31 @@
         <v>-2.69</v>
       </c>
       <c r="C24" s="94" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="D24" s="94" t="n">
         <v>-3.63</v>
       </c>
-      <c r="D24" s="94" t="n">
+      <c r="E24" s="94" t="n">
         <v>-3.68</v>
-      </c>
-      <c r="E24" s="94" t="n">
-        <v>-4.81</v>
       </c>
       <c r="F24" s="94" t="n">
         <v>-4.81</v>
       </c>
       <c r="G24" s="94" t="n">
+        <v>-4.81</v>
+      </c>
+      <c r="H24" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="H24" s="94" t="n">
+      <c r="I24" s="94" t="n">
         <v>-6.56</v>
       </c>
-      <c r="I24" s="94" t="n">
+      <c r="J24" s="94" t="n">
         <v>-6.95</v>
       </c>
-      <c r="J24" s="94" t="n">
+      <c r="K24" s="94" t="n">
         <v>-9.92</v>
-      </c>
-      <c r="K24" s="94" t="n">
-        <v>-7.93</v>
       </c>
       <c r="L24" s="94" t="n">
         <v>-7.93</v>
@@ -9037,58 +9037,58 @@
         <v>-7.93</v>
       </c>
       <c r="N24" s="94" t="n">
+        <v>-7.93</v>
+      </c>
+      <c r="O24" s="94" t="n">
         <v>-7.58</v>
       </c>
-      <c r="O24" s="94" t="n">
+      <c r="P24" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="P24" s="94" t="n">
+      <c r="Q24" s="94" t="n">
         <v>-6.36</v>
-      </c>
-      <c r="Q24" s="94" t="n">
-        <v>-7</v>
       </c>
       <c r="R24" s="94" t="n">
         <v>-7</v>
       </c>
       <c r="S24" s="94" t="n">
+        <v>-7</v>
+      </c>
+      <c r="T24" s="94" t="n">
         <v>-8.09</v>
       </c>
-      <c r="T24" s="94" t="n">
+      <c r="U24" s="94" t="n">
         <v>-4.99</v>
       </c>
-      <c r="U24" s="94" t="n">
+      <c r="V24" s="94" t="n">
         <v>-12.58</v>
       </c>
-      <c r="V24" s="94" t="n">
+      <c r="W24" s="94" t="n">
         <v>-11.43</v>
-      </c>
-      <c r="W24" s="94" t="n">
-        <v>-9.75</v>
       </c>
       <c r="X24" s="94" t="n">
         <v>-9.75</v>
       </c>
       <c r="Y24" s="94" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="Z24" s="94" t="n">
         <v>-4.62</v>
       </c>
-      <c r="Z24" s="94" t="n">
+      <c r="AA24" s="94" t="n">
         <v>0.34</v>
       </c>
-      <c r="AA24" s="94" t="n">
+      <c r="AB24" s="94" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB24" s="94" t="n">
+      <c r="AC24" s="94" t="n">
         <v>-0.83</v>
       </c>
-      <c r="AC24" s="94" t="n">
+      <c r="AD24" s="94" t="n">
         <v>-1.02</v>
       </c>
-      <c r="AD24" s="94" t="n">
+      <c r="AE24" s="94" t="n">
         <v>0.24</v>
-      </c>
-      <c r="AE24" s="94" t="n">
-        <v>0.71</v>
       </c>
     </row>
     <row r="25">
@@ -9101,31 +9101,31 @@
         <v>85.86</v>
       </c>
       <c r="C25" s="94" t="n">
+        <v>85.86</v>
+      </c>
+      <c r="D25" s="94" t="n">
         <v>82.65000000000001</v>
       </c>
-      <c r="D25" s="94" t="n">
+      <c r="E25" s="94" t="n">
         <v>74.47</v>
-      </c>
-      <c r="E25" s="94" t="n">
-        <v>71.01000000000001</v>
       </c>
       <c r="F25" s="94" t="n">
         <v>71.01000000000001</v>
       </c>
       <c r="G25" s="94" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="H25" s="94" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="H25" s="94" t="n">
+      <c r="I25" s="94" t="n">
         <v>60.11</v>
       </c>
-      <c r="I25" s="94" t="n">
+      <c r="J25" s="94" t="n">
         <v>49.92</v>
       </c>
-      <c r="J25" s="94" t="n">
+      <c r="K25" s="94" t="n">
         <v>14.75</v>
-      </c>
-      <c r="K25" s="94" t="n">
-        <v>26.69</v>
       </c>
       <c r="L25" s="94" t="n">
         <v>26.69</v>
@@ -9134,58 +9134,58 @@
         <v>26.69</v>
       </c>
       <c r="N25" s="94" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="O25" s="94" t="n">
         <v>37.75</v>
       </c>
-      <c r="O25" s="94" t="n">
+      <c r="P25" s="94" t="n">
         <v>59.6</v>
       </c>
-      <c r="P25" s="94" t="n">
+      <c r="Q25" s="94" t="n">
         <v>65.2</v>
-      </c>
-      <c r="Q25" s="94" t="n">
-        <v>60.21</v>
       </c>
       <c r="R25" s="94" t="n">
         <v>60.21</v>
       </c>
       <c r="S25" s="94" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="T25" s="94" t="n">
         <v>50.88</v>
       </c>
-      <c r="T25" s="94" t="n">
+      <c r="U25" s="94" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="U25" s="94" t="n">
+      <c r="V25" s="94" t="n">
         <v>4.25</v>
       </c>
-      <c r="V25" s="94" t="n">
+      <c r="W25" s="94" t="n">
         <v>4.97</v>
-      </c>
-      <c r="W25" s="94" t="n">
-        <v>5.68</v>
       </c>
       <c r="X25" s="94" t="n">
         <v>5.68</v>
       </c>
       <c r="Y25" s="94" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="Z25" s="94" t="n">
         <v>14.42</v>
       </c>
-      <c r="Z25" s="94" t="n">
+      <c r="AA25" s="94" t="n">
         <v>63.09</v>
       </c>
-      <c r="AA25" s="94" t="n">
+      <c r="AB25" s="94" t="n">
         <v>46.09</v>
       </c>
-      <c r="AB25" s="94" t="n">
+      <c r="AC25" s="94" t="n">
         <v>46.81</v>
       </c>
-      <c r="AC25" s="94" t="n">
+      <c r="AD25" s="94" t="n">
         <v>15.69</v>
       </c>
-      <c r="AD25" s="94" t="n">
+      <c r="AE25" s="94" t="n">
         <v>47.29</v>
-      </c>
-      <c r="AE25" s="94" t="n">
-        <v>66.68000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -9229,99 +9229,99 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I26" s="92" t="inlineStr">
+      <c r="I26" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J26" s="91" t="inlineStr">
+      <c r="K26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K26" s="91" t="inlineStr">
+      <c r="L26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L26" s="91" t="inlineStr">
+      <c r="M26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M26" s="91" t="inlineStr">
+      <c r="N26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N26" s="91" t="inlineStr">
+      <c r="O26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O26" s="93" t="inlineStr">
+      <c r="P26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P26" s="93" t="inlineStr">
+      <c r="Q26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q26" s="92" t="inlineStr">
+      <c r="R26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R26" s="92" t="inlineStr">
+      <c r="S26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S26" s="92" t="inlineStr">
+      <c r="T26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T26" s="93" t="inlineStr">
+      <c r="U26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U26" s="91" t="inlineStr">
+      <c r="V26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V26" s="91" t="inlineStr">
+      <c r="W26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W26" s="91" t="inlineStr">
+      <c r="X26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X26" s="91" t="inlineStr">
+      <c r="Y26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y26" s="91" t="inlineStr">
+      <c r="Z26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z26" s="92" t="inlineStr">
+      <c r="AA26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AA26" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AB26" s="91" t="inlineStr">
@@ -9355,31 +9355,31 @@
         <v>-10.03</v>
       </c>
       <c r="C27" s="94" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="D27" s="94" t="n">
         <v>-11.04</v>
       </c>
-      <c r="D27" s="94" t="n">
+      <c r="E27" s="94" t="n">
         <v>-11.77</v>
-      </c>
-      <c r="E27" s="94" t="n">
-        <v>-11.46</v>
       </c>
       <c r="F27" s="94" t="n">
         <v>-11.46</v>
       </c>
       <c r="G27" s="94" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="H27" s="94" t="n">
         <v>-13.01</v>
       </c>
-      <c r="H27" s="94" t="n">
+      <c r="I27" s="94" t="n">
         <v>-13.62</v>
       </c>
-      <c r="I27" s="94" t="n">
+      <c r="J27" s="94" t="n">
         <v>-18.31</v>
       </c>
-      <c r="J27" s="94" t="n">
+      <c r="K27" s="94" t="n">
         <v>-20.86</v>
-      </c>
-      <c r="K27" s="94" t="n">
-        <v>-18.61</v>
       </c>
       <c r="L27" s="94" t="n">
         <v>-18.61</v>
@@ -9388,58 +9388,58 @@
         <v>-18.61</v>
       </c>
       <c r="N27" s="94" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="O27" s="94" t="n">
         <v>-17.46</v>
       </c>
-      <c r="O27" s="94" t="n">
+      <c r="P27" s="94" t="n">
         <v>-14.3</v>
       </c>
-      <c r="P27" s="94" t="n">
+      <c r="Q27" s="94" t="n">
         <v>-12.96</v>
-      </c>
-      <c r="Q27" s="94" t="n">
-        <v>-14.28</v>
       </c>
       <c r="R27" s="94" t="n">
         <v>-14.28</v>
       </c>
       <c r="S27" s="94" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="T27" s="94" t="n">
         <v>-13.95</v>
       </c>
-      <c r="T27" s="94" t="n">
+      <c r="U27" s="94" t="n">
         <v>-10.28</v>
       </c>
-      <c r="U27" s="94" t="n">
+      <c r="V27" s="94" t="n">
         <v>-20.32</v>
       </c>
-      <c r="V27" s="94" t="n">
+      <c r="W27" s="94" t="n">
         <v>-19.9</v>
-      </c>
-      <c r="W27" s="94" t="n">
-        <v>-20.02</v>
       </c>
       <c r="X27" s="94" t="n">
         <v>-20.02</v>
       </c>
       <c r="Y27" s="94" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="Z27" s="94" t="n">
         <v>-16.68</v>
       </c>
-      <c r="Z27" s="94" t="n">
+      <c r="AA27" s="94" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AA27" s="94" t="n">
+      <c r="AB27" s="94" t="n">
         <v>-9.5</v>
       </c>
-      <c r="AB27" s="94" t="n">
+      <c r="AC27" s="94" t="n">
         <v>-10.42</v>
       </c>
-      <c r="AC27" s="94" t="n">
+      <c r="AD27" s="94" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AD27" s="94" t="n">
+      <c r="AE27" s="94" t="n">
         <v>-9.73</v>
-      </c>
-      <c r="AE27" s="94" t="n">
-        <v>-10.6</v>
       </c>
     </row>
     <row r="28">
@@ -9452,31 +9452,31 @@
         <v>-4.04</v>
       </c>
       <c r="C28" s="94" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="D28" s="94" t="n">
         <v>-4.27</v>
       </c>
-      <c r="D28" s="94" t="n">
+      <c r="E28" s="94" t="n">
         <v>-4.03</v>
-      </c>
-      <c r="E28" s="94" t="n">
-        <v>-6.58</v>
       </c>
       <c r="F28" s="94" t="n">
         <v>-6.58</v>
       </c>
       <c r="G28" s="94" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="H28" s="94" t="n">
         <v>-8.27</v>
       </c>
-      <c r="H28" s="94" t="n">
+      <c r="I28" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="I28" s="94" t="n">
+      <c r="J28" s="94" t="n">
         <v>-11.98</v>
       </c>
-      <c r="J28" s="94" t="n">
+      <c r="K28" s="94" t="n">
         <v>-13.82</v>
-      </c>
-      <c r="K28" s="94" t="n">
-        <v>-10.89</v>
       </c>
       <c r="L28" s="94" t="n">
         <v>-10.89</v>
@@ -9485,58 +9485,58 @@
         <v>-10.89</v>
       </c>
       <c r="N28" s="94" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="O28" s="94" t="n">
         <v>-12.2</v>
       </c>
-      <c r="O28" s="94" t="n">
+      <c r="P28" s="94" t="n">
         <v>-9.26</v>
       </c>
-      <c r="P28" s="94" t="n">
+      <c r="Q28" s="94" t="n">
         <v>-8.970000000000001</v>
-      </c>
-      <c r="Q28" s="94" t="n">
-        <v>-8.98</v>
       </c>
       <c r="R28" s="94" t="n">
         <v>-8.98</v>
       </c>
       <c r="S28" s="94" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="T28" s="94" t="n">
         <v>-10.78</v>
       </c>
-      <c r="T28" s="94" t="n">
+      <c r="U28" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="U28" s="94" t="n">
+      <c r="V28" s="94" t="n">
         <v>-17.48</v>
       </c>
-      <c r="V28" s="94" t="n">
+      <c r="W28" s="94" t="n">
         <v>-14.94</v>
-      </c>
-      <c r="W28" s="94" t="n">
-        <v>-14.74</v>
       </c>
       <c r="X28" s="94" t="n">
         <v>-14.74</v>
       </c>
       <c r="Y28" s="94" t="n">
+        <v>-14.74</v>
+      </c>
+      <c r="Z28" s="94" t="n">
         <v>-9.52</v>
       </c>
-      <c r="Z28" s="94" t="n">
+      <c r="AA28" s="94" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AA28" s="94" t="n">
+      <c r="AB28" s="94" t="n">
         <v>-2.64</v>
       </c>
-      <c r="AB28" s="94" t="n">
+      <c r="AC28" s="94" t="n">
         <v>-4.62</v>
       </c>
-      <c r="AC28" s="94" t="n">
+      <c r="AD28" s="94" t="n">
         <v>-3.32</v>
       </c>
-      <c r="AD28" s="94" t="n">
+      <c r="AE28" s="94" t="n">
         <v>-0.68</v>
-      </c>
-      <c r="AE28" s="94" t="n">
-        <v>-0.06</v>
       </c>
     </row>
     <row r="29">
@@ -9549,31 +9549,31 @@
         <v>83.88</v>
       </c>
       <c r="C29" s="94" t="n">
+        <v>83.88</v>
+      </c>
+      <c r="D29" s="94" t="n">
         <v>93.43000000000001</v>
       </c>
-      <c r="D29" s="94" t="n">
+      <c r="E29" s="94" t="n">
         <v>89.7</v>
-      </c>
-      <c r="E29" s="94" t="n">
-        <v>94.42</v>
       </c>
       <c r="F29" s="94" t="n">
         <v>94.42</v>
       </c>
       <c r="G29" s="94" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="H29" s="94" t="n">
         <v>91.56</v>
       </c>
-      <c r="H29" s="94" t="n">
+      <c r="I29" s="94" t="n">
         <v>81.56</v>
       </c>
-      <c r="I29" s="94" t="n">
+      <c r="J29" s="94" t="n">
         <v>60.97</v>
       </c>
-      <c r="J29" s="94" t="n">
+      <c r="K29" s="94" t="n">
         <v>5.28</v>
-      </c>
-      <c r="K29" s="94" t="n">
-        <v>17.06</v>
       </c>
       <c r="L29" s="94" t="n">
         <v>17.06</v>
@@ -9582,58 +9582,58 @@
         <v>17.06</v>
       </c>
       <c r="N29" s="94" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="O29" s="94" t="n">
         <v>18.06</v>
       </c>
-      <c r="O29" s="94" t="n">
+      <c r="P29" s="94" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="P29" s="94" t="n">
+      <c r="Q29" s="94" t="n">
         <v>68.98</v>
-      </c>
-      <c r="Q29" s="94" t="n">
-        <v>63.72</v>
       </c>
       <c r="R29" s="94" t="n">
         <v>63.72</v>
       </c>
       <c r="S29" s="94" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="T29" s="94" t="n">
         <v>50.49</v>
       </c>
-      <c r="T29" s="94" t="n">
+      <c r="U29" s="94" t="n">
         <v>83.98</v>
       </c>
-      <c r="U29" s="94" t="n">
+      <c r="V29" s="94" t="n">
         <v>3.02</v>
       </c>
-      <c r="V29" s="94" t="n">
+      <c r="W29" s="94" t="n">
         <v>5.56</v>
-      </c>
-      <c r="W29" s="94" t="n">
-        <v>3.7</v>
       </c>
       <c r="X29" s="94" t="n">
         <v>3.7</v>
       </c>
       <c r="Y29" s="94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z29" s="94" t="n">
         <v>9.58</v>
       </c>
-      <c r="Z29" s="94" t="n">
+      <c r="AA29" s="94" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="AA29" s="94" t="n">
+      <c r="AB29" s="94" t="n">
         <v>48.94</v>
       </c>
-      <c r="AB29" s="94" t="n">
+      <c r="AC29" s="94" t="n">
         <v>5.77</v>
       </c>
-      <c r="AC29" s="94" t="n">
+      <c r="AD29" s="94" t="n">
         <v>6.18</v>
       </c>
-      <c r="AD29" s="94" t="n">
+      <c r="AE29" s="94" t="n">
         <v>22.32</v>
-      </c>
-      <c r="AE29" s="94" t="n">
-        <v>30.08</v>
       </c>
     </row>
     <row r="30">
@@ -9677,119 +9677,119 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I30" s="92" t="inlineStr">
+      <c r="I30" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J30" s="92" t="inlineStr">
+      <c r="K30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K30" s="93" t="inlineStr">
+      <c r="L30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L30" s="93" t="inlineStr">
+      <c r="M30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M30" s="93" t="inlineStr">
+      <c r="N30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N30" s="92" t="inlineStr">
+      <c r="O30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O30" s="92" t="inlineStr">
+      <c r="P30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P30" s="92" t="inlineStr">
+      <c r="Q30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q30" s="92" t="inlineStr">
+      <c r="R30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R30" s="92" t="inlineStr">
+      <c r="S30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S30" s="92" t="inlineStr">
+      <c r="T30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T30" s="91" t="inlineStr">
+      <c r="U30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U30" s="92" t="inlineStr">
+      <c r="V30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V30" s="91" t="inlineStr">
+      <c r="W30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W30" s="91" t="inlineStr">
+      <c r="X30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X30" s="91" t="inlineStr">
+      <c r="Y30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y30" s="91" t="inlineStr">
+      <c r="Z30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z30" s="91" t="inlineStr">
+      <c r="AA30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA30" s="91" t="inlineStr">
+      <c r="AB30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB30" s="91" t="inlineStr">
+      <c r="AC30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC30" s="91" t="inlineStr">
+      <c r="AD30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD30" s="92" t="inlineStr">
+      <c r="AE30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AE30" s="93" t="inlineStr">
-        <is>
-          <t>red</t>
         </is>
       </c>
     </row>
@@ -9800,94 +9800,94 @@
         </is>
       </c>
       <c r="B31" s="94" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="C31" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="C31" s="94" t="n">
+      <c r="D31" s="94" t="n">
         <v>-6.73</v>
       </c>
-      <c r="D31" s="94" t="n">
+      <c r="E31" s="94" t="n">
         <v>-9.43</v>
-      </c>
-      <c r="E31" s="94" t="n">
-        <v>-9.640000000000001</v>
       </c>
       <c r="F31" s="94" t="n">
         <v>-9.640000000000001</v>
       </c>
       <c r="G31" s="94" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="H31" s="94" t="n">
         <v>-11.1</v>
       </c>
-      <c r="H31" s="94" t="n">
+      <c r="I31" s="94" t="n">
         <v>-10.63</v>
       </c>
-      <c r="I31" s="94" t="n">
+      <c r="J31" s="94" t="n">
         <v>-13.51</v>
       </c>
-      <c r="J31" s="94" t="n">
+      <c r="K31" s="94" t="n">
         <v>-14.15</v>
-      </c>
-      <c r="K31" s="94" t="n">
-        <v>-13.08</v>
       </c>
       <c r="L31" s="94" t="n">
         <v>-13.08</v>
       </c>
       <c r="M31" s="94" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="N31" s="94" t="n">
         <v>-13.29</v>
       </c>
-      <c r="N31" s="94" t="n">
+      <c r="O31" s="94" t="n">
         <v>-13.09</v>
       </c>
-      <c r="O31" s="94" t="n">
+      <c r="P31" s="94" t="n">
         <v>-11.91</v>
       </c>
-      <c r="P31" s="94" t="n">
+      <c r="Q31" s="94" t="n">
         <v>-11.62</v>
-      </c>
-      <c r="Q31" s="94" t="n">
-        <v>-12.93</v>
       </c>
       <c r="R31" s="94" t="n">
         <v>-12.93</v>
       </c>
       <c r="S31" s="94" t="n">
+        <v>-12.93</v>
+      </c>
+      <c r="T31" s="94" t="n">
         <v>-9.98</v>
       </c>
-      <c r="T31" s="94" t="n">
+      <c r="U31" s="94" t="n">
         <v>-17.57</v>
       </c>
-      <c r="U31" s="94" t="n">
+      <c r="V31" s="94" t="n">
         <v>-15.76</v>
       </c>
-      <c r="V31" s="94" t="n">
+      <c r="W31" s="94" t="n">
         <v>-21.38</v>
-      </c>
-      <c r="W31" s="94" t="n">
-        <v>-15.51</v>
       </c>
       <c r="X31" s="94" t="n">
         <v>-15.51</v>
       </c>
       <c r="Y31" s="94" t="n">
+        <v>-15.51</v>
+      </c>
+      <c r="Z31" s="94" t="n">
         <v>-13.34</v>
       </c>
-      <c r="Z31" s="94" t="n">
+      <c r="AA31" s="94" t="n">
         <v>-9.109999999999999</v>
       </c>
-      <c r="AA31" s="94" t="n">
+      <c r="AB31" s="94" t="n">
         <v>-10.7</v>
       </c>
-      <c r="AB31" s="94" t="n">
+      <c r="AC31" s="94" t="n">
         <v>-11.58</v>
       </c>
-      <c r="AC31" s="94" t="n">
+      <c r="AD31" s="94" t="n">
         <v>-6.19</v>
       </c>
-      <c r="AD31" s="94" t="n">
+      <c r="AE31" s="94" t="n">
         <v>-3.4</v>
-      </c>
-      <c r="AE31" s="94" t="n">
-        <v>-2.59</v>
       </c>
     </row>
     <row r="32">
@@ -9897,94 +9897,94 @@
         </is>
       </c>
       <c r="B32" s="94" t="n">
+        <v>-7.67</v>
+      </c>
+      <c r="C32" s="94" t="n">
         <v>-6.31</v>
       </c>
-      <c r="C32" s="94" t="n">
+      <c r="D32" s="94" t="n">
         <v>-5.59</v>
       </c>
-      <c r="D32" s="94" t="n">
+      <c r="E32" s="94" t="n">
         <v>-5.82</v>
-      </c>
-      <c r="E32" s="94" t="n">
-        <v>-8.640000000000001</v>
       </c>
       <c r="F32" s="94" t="n">
         <v>-8.640000000000001</v>
       </c>
       <c r="G32" s="94" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="H32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="H32" s="94" t="n">
+      <c r="I32" s="94" t="n">
         <v>-10.37</v>
       </c>
-      <c r="I32" s="94" t="n">
+      <c r="J32" s="94" t="n">
         <v>-11.36</v>
       </c>
-      <c r="J32" s="94" t="n">
+      <c r="K32" s="94" t="n">
         <v>-9.58</v>
-      </c>
-      <c r="K32" s="94" t="n">
-        <v>-8.949999999999999</v>
       </c>
       <c r="L32" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="M32" s="94" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="N32" s="94" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="N32" s="94" t="n">
+      <c r="O32" s="94" t="n">
         <v>-11.69</v>
       </c>
-      <c r="O32" s="94" t="n">
+      <c r="P32" s="94" t="n">
         <v>-12.03</v>
       </c>
-      <c r="P32" s="94" t="n">
+      <c r="Q32" s="94" t="n">
         <v>-12.82</v>
-      </c>
-      <c r="Q32" s="94" t="n">
-        <v>-13.69</v>
       </c>
       <c r="R32" s="94" t="n">
         <v>-13.69</v>
       </c>
       <c r="S32" s="94" t="n">
+        <v>-13.69</v>
+      </c>
+      <c r="T32" s="94" t="n">
         <v>-11.67</v>
       </c>
-      <c r="T32" s="94" t="n">
+      <c r="U32" s="94" t="n">
         <v>-20.54</v>
       </c>
-      <c r="U32" s="94" t="n">
+      <c r="V32" s="94" t="n">
         <v>-16.65</v>
       </c>
-      <c r="V32" s="94" t="n">
+      <c r="W32" s="94" t="n">
         <v>-20.93</v>
-      </c>
-      <c r="W32" s="94" t="n">
-        <v>-14</v>
       </c>
       <c r="X32" s="94" t="n">
         <v>-14</v>
       </c>
       <c r="Y32" s="94" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Z32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="Z32" s="94" t="n">
+      <c r="AA32" s="94" t="n">
         <v>-9.17</v>
       </c>
-      <c r="AA32" s="94" t="n">
+      <c r="AB32" s="94" t="n">
         <v>-7.79</v>
       </c>
-      <c r="AB32" s="94" t="n">
+      <c r="AC32" s="94" t="n">
         <v>-7.61</v>
       </c>
-      <c r="AC32" s="94" t="n">
+      <c r="AD32" s="94" t="n">
         <v>-1.82</v>
       </c>
-      <c r="AD32" s="94" t="n">
+      <c r="AE32" s="94" t="n">
         <v>-2.2</v>
-      </c>
-      <c r="AE32" s="94" t="n">
-        <v>0.28</v>
       </c>
     </row>
     <row r="33">
@@ -9994,94 +9994,94 @@
         </is>
       </c>
       <c r="B33" s="94" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="C33" s="94" t="n">
         <v>62.56</v>
       </c>
-      <c r="C33" s="94" t="n">
+      <c r="D33" s="94" t="n">
         <v>61.46</v>
       </c>
-      <c r="D33" s="94" t="n">
+      <c r="E33" s="94" t="n">
         <v>60.72</v>
-      </c>
-      <c r="E33" s="94" t="n">
-        <v>59.65</v>
       </c>
       <c r="F33" s="94" t="n">
         <v>59.65</v>
       </c>
       <c r="G33" s="94" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="H33" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="H33" s="94" t="n">
+      <c r="I33" s="94" t="n">
         <v>52.66</v>
       </c>
-      <c r="I33" s="94" t="n">
+      <c r="J33" s="94" t="n">
         <v>46.9</v>
       </c>
-      <c r="J33" s="94" t="n">
+      <c r="K33" s="94" t="n">
         <v>47.37</v>
-      </c>
-      <c r="K33" s="94" t="n">
-        <v>50.8</v>
       </c>
       <c r="L33" s="94" t="n">
         <v>50.8</v>
       </c>
       <c r="M33" s="94" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="N33" s="94" t="n">
         <v>48.19</v>
       </c>
-      <c r="N33" s="94" t="n">
+      <c r="O33" s="94" t="n">
         <v>44.82</v>
       </c>
-      <c r="O33" s="94" t="n">
+      <c r="P33" s="94" t="n">
         <v>46.88</v>
       </c>
-      <c r="P33" s="94" t="n">
+      <c r="Q33" s="94" t="n">
         <v>45.04</v>
-      </c>
-      <c r="Q33" s="94" t="n">
-        <v>42.57</v>
       </c>
       <c r="R33" s="94" t="n">
         <v>42.57</v>
       </c>
       <c r="S33" s="94" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="T33" s="94" t="n">
         <v>47.45</v>
       </c>
-      <c r="T33" s="94" t="n">
+      <c r="U33" s="94" t="n">
         <v>26.17</v>
       </c>
-      <c r="U33" s="94" t="n">
+      <c r="V33" s="94" t="n">
         <v>31.21</v>
       </c>
-      <c r="V33" s="94" t="n">
+      <c r="W33" s="94" t="n">
         <v>8.619999999999999</v>
-      </c>
-      <c r="W33" s="94" t="n">
-        <v>14.64</v>
       </c>
       <c r="X33" s="94" t="n">
         <v>14.64</v>
       </c>
       <c r="Y33" s="94" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="Z33" s="94" t="n">
         <v>18.88</v>
       </c>
-      <c r="Z33" s="94" t="n">
+      <c r="AA33" s="94" t="n">
         <v>25.75</v>
       </c>
-      <c r="AA33" s="94" t="n">
+      <c r="AB33" s="94" t="n">
         <v>23.21</v>
       </c>
-      <c r="AB33" s="94" t="n">
+      <c r="AC33" s="94" t="n">
         <v>23.05</v>
       </c>
-      <c r="AC33" s="94" t="n">
+      <c r="AD33" s="94" t="n">
         <v>38.53</v>
       </c>
-      <c r="AD33" s="94" t="n">
+      <c r="AE33" s="94" t="n">
         <v>52.79</v>
-      </c>
-      <c r="AE33" s="94" t="n">
-        <v>59.31</v>
       </c>
     </row>
     <row r="34">
@@ -10120,124 +10120,124 @@
           <t>red</t>
         </is>
       </c>
-      <c r="H34" s="92" t="inlineStr">
+      <c r="H34" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I34" s="92" t="inlineStr">
+      <c r="J34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J34" s="92" t="inlineStr">
+      <c r="K34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K34" s="92" t="inlineStr">
+      <c r="L34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L34" s="92" t="inlineStr">
+      <c r="M34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M34" s="92" t="inlineStr">
+      <c r="N34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N34" s="92" t="inlineStr">
+      <c r="O34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O34" s="92" t="inlineStr">
+      <c r="P34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P34" s="93" t="inlineStr">
+      <c r="Q34" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q34" s="92" t="inlineStr">
+      <c r="R34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R34" s="92" t="inlineStr">
+      <c r="S34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S34" s="92" t="inlineStr">
+      <c r="T34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T34" s="91" t="inlineStr">
+      <c r="U34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U34" s="91" t="inlineStr">
+      <c r="V34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V34" s="91" t="inlineStr">
+      <c r="W34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W34" s="91" t="inlineStr">
+      <c r="X34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X34" s="91" t="inlineStr">
+      <c r="Y34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y34" s="91" t="inlineStr">
+      <c r="Z34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z34" s="92" t="inlineStr">
+      <c r="AA34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA34" s="92" t="inlineStr">
+      <c r="AB34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB34" s="91" t="inlineStr">
+      <c r="AC34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC34" s="91" t="inlineStr">
+      <c r="AD34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD34" s="91" t="inlineStr">
+      <c r="AE34" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AE34" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -10254,61 +10254,61 @@
         <v>-2.13</v>
       </c>
       <c r="D35" s="94" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="E35" s="94" t="n">
         <v>-3.02</v>
-      </c>
-      <c r="E35" s="94" t="n">
-        <v>-2.41</v>
       </c>
       <c r="F35" s="94" t="n">
         <v>-2.41</v>
       </c>
       <c r="G35" s="94" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="H35" s="94" t="n">
         <v>-1.54</v>
       </c>
-      <c r="H35" s="94" t="n">
+      <c r="I35" s="94" t="n">
         <v>-2.82</v>
       </c>
-      <c r="I35" s="94" t="n">
+      <c r="J35" s="94" t="n">
         <v>-4.2</v>
       </c>
-      <c r="J35" s="94" t="n">
+      <c r="K35" s="94" t="n">
         <v>-3.37</v>
-      </c>
-      <c r="K35" s="94" t="n">
-        <v>-1.87</v>
       </c>
       <c r="L35" s="94" t="n">
         <v>-1.87</v>
       </c>
       <c r="M35" s="94" t="n">
-        <v>-1.53</v>
+        <v>-1.87</v>
       </c>
       <c r="N35" s="94" t="n">
         <v>-1.53</v>
       </c>
       <c r="O35" s="94" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="P35" s="94" t="n">
         <v>-0.64</v>
       </c>
-      <c r="P35" s="94" t="n">
+      <c r="Q35" s="94" t="n">
         <v>0.89</v>
-      </c>
-      <c r="Q35" s="94" t="n">
-        <v>-1.87</v>
       </c>
       <c r="R35" s="94" t="n">
         <v>-1.87</v>
       </c>
       <c r="S35" s="94" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="T35" s="94" t="n">
         <v>-6.61</v>
       </c>
-      <c r="T35" s="94" t="n">
+      <c r="U35" s="94" t="n">
         <v>-12.24</v>
       </c>
-      <c r="U35" s="94" t="n">
+      <c r="V35" s="94" t="n">
         <v>-9.109999999999999</v>
-      </c>
-      <c r="V35" s="94" t="n">
-        <v>-3.5</v>
       </c>
       <c r="W35" s="94" t="n">
         <v>-3.5</v>
@@ -10317,25 +10317,25 @@
         <v>-3.5</v>
       </c>
       <c r="Y35" s="94" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="Z35" s="94" t="n">
         <v>-3.14</v>
       </c>
-      <c r="Z35" s="94" t="n">
+      <c r="AA35" s="94" t="n">
         <v>4.03</v>
       </c>
-      <c r="AA35" s="94" t="n">
+      <c r="AB35" s="94" t="n">
         <v>3.56</v>
       </c>
-      <c r="AB35" s="94" t="n">
+      <c r="AC35" s="94" t="n">
         <v>2.49</v>
       </c>
-      <c r="AC35" s="94" t="n">
+      <c r="AD35" s="94" t="n">
         <v>3.5</v>
       </c>
-      <c r="AD35" s="94" t="n">
+      <c r="AE35" s="94" t="n">
         <v>3.91</v>
-      </c>
-      <c r="AE35" s="94" t="n">
-        <v>5.22</v>
       </c>
     </row>
     <row r="36">
@@ -10351,61 +10351,61 @@
         <v>-2.28</v>
       </c>
       <c r="D36" s="94" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="E36" s="94" t="n">
         <v>-2.98</v>
-      </c>
-      <c r="E36" s="94" t="n">
-        <v>-2.34</v>
       </c>
       <c r="F36" s="94" t="n">
         <v>-2.34</v>
       </c>
       <c r="G36" s="94" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="H36" s="94" t="n">
         <v>-3.05</v>
       </c>
-      <c r="H36" s="94" t="n">
+      <c r="I36" s="94" t="n">
         <v>-3.49</v>
       </c>
-      <c r="I36" s="94" t="n">
+      <c r="J36" s="94" t="n">
         <v>-4.44</v>
       </c>
-      <c r="J36" s="94" t="n">
+      <c r="K36" s="94" t="n">
         <v>-4</v>
-      </c>
-      <c r="K36" s="94" t="n">
-        <v>-4.07</v>
       </c>
       <c r="L36" s="94" t="n">
         <v>-4.07</v>
       </c>
       <c r="M36" s="94" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="N36" s="94" t="n">
         <v>-4.15</v>
       </c>
-      <c r="N36" s="94" t="n">
+      <c r="O36" s="94" t="n">
         <v>-5.43</v>
       </c>
-      <c r="O36" s="94" t="n">
+      <c r="P36" s="94" t="n">
         <v>-4.49</v>
       </c>
-      <c r="P36" s="94" t="n">
+      <c r="Q36" s="94" t="n">
         <v>-3.5</v>
-      </c>
-      <c r="Q36" s="94" t="n">
-        <v>-4.46</v>
       </c>
       <c r="R36" s="94" t="n">
         <v>-4.46</v>
       </c>
       <c r="S36" s="94" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="T36" s="94" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="T36" s="94" t="n">
+      <c r="U36" s="94" t="n">
         <v>-14.93</v>
       </c>
-      <c r="U36" s="94" t="n">
+      <c r="V36" s="94" t="n">
         <v>-12.08</v>
-      </c>
-      <c r="V36" s="94" t="n">
-        <v>-5.88</v>
       </c>
       <c r="W36" s="94" t="n">
         <v>-5.88</v>
@@ -10414,25 +10414,25 @@
         <v>-5.88</v>
       </c>
       <c r="Y36" s="94" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="Z36" s="94" t="n">
         <v>-4.06</v>
       </c>
-      <c r="Z36" s="94" t="n">
+      <c r="AA36" s="94" t="n">
         <v>3.6</v>
       </c>
-      <c r="AA36" s="94" t="n">
+      <c r="AB36" s="94" t="n">
         <v>3.73</v>
       </c>
-      <c r="AB36" s="94" t="n">
+      <c r="AC36" s="94" t="n">
         <v>2.85</v>
       </c>
-      <c r="AC36" s="94" t="n">
+      <c r="AD36" s="94" t="n">
         <v>3.08</v>
       </c>
-      <c r="AD36" s="94" t="n">
+      <c r="AE36" s="94" t="n">
         <v>2.79</v>
-      </c>
-      <c r="AE36" s="94" t="n">
-        <v>2.62</v>
       </c>
     </row>
     <row r="37">
@@ -10448,61 +10448,61 @@
         <v>64.98</v>
       </c>
       <c r="D37" s="94" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="E37" s="94" t="n">
         <v>67.08</v>
-      </c>
-      <c r="E37" s="94" t="n">
-        <v>74.89</v>
       </c>
       <c r="F37" s="94" t="n">
         <v>74.89</v>
       </c>
       <c r="G37" s="94" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="H37" s="94" t="n">
         <v>69.08</v>
       </c>
-      <c r="H37" s="94" t="n">
+      <c r="I37" s="94" t="n">
         <v>54.26</v>
       </c>
-      <c r="I37" s="94" t="n">
+      <c r="J37" s="94" t="n">
         <v>28.66</v>
       </c>
-      <c r="J37" s="94" t="n">
+      <c r="K37" s="94" t="n">
         <v>39.12</v>
-      </c>
-      <c r="K37" s="94" t="n">
-        <v>55.49</v>
       </c>
       <c r="L37" s="94" t="n">
         <v>55.49</v>
       </c>
       <c r="M37" s="94" t="n">
+        <v>55.49</v>
+      </c>
+      <c r="N37" s="94" t="n">
         <v>53.48</v>
       </c>
-      <c r="N37" s="94" t="n">
+      <c r="O37" s="94" t="n">
         <v>47.61</v>
       </c>
-      <c r="O37" s="94" t="n">
+      <c r="P37" s="94" t="n">
         <v>60.4</v>
       </c>
-      <c r="P37" s="94" t="n">
+      <c r="Q37" s="94" t="n">
         <v>70.22</v>
-      </c>
-      <c r="Q37" s="94" t="n">
-        <v>64.94</v>
       </c>
       <c r="R37" s="94" t="n">
         <v>64.94</v>
       </c>
       <c r="S37" s="94" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="T37" s="94" t="n">
         <v>47.09</v>
       </c>
-      <c r="T37" s="94" t="n">
+      <c r="U37" s="94" t="n">
         <v>1.27</v>
       </c>
-      <c r="U37" s="94" t="n">
+      <c r="V37" s="94" t="n">
         <v>1.81</v>
-      </c>
-      <c r="V37" s="94" t="n">
-        <v>4.29</v>
       </c>
       <c r="W37" s="94" t="n">
         <v>4.29</v>
@@ -10511,25 +10511,25 @@
         <v>4.29</v>
       </c>
       <c r="Y37" s="94" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Z37" s="94" t="n">
         <v>5.54</v>
       </c>
-      <c r="Z37" s="94" t="n">
+      <c r="AA37" s="94" t="n">
         <v>50.33</v>
       </c>
-      <c r="AA37" s="94" t="n">
+      <c r="AB37" s="94" t="n">
         <v>48.76</v>
       </c>
-      <c r="AB37" s="94" t="n">
+      <c r="AC37" s="94" t="n">
         <v>8.33</v>
       </c>
-      <c r="AC37" s="94" t="n">
+      <c r="AD37" s="94" t="n">
         <v>17.82</v>
       </c>
-      <c r="AD37" s="94" t="n">
+      <c r="AE37" s="94" t="n">
         <v>32.69</v>
-      </c>
-      <c r="AE37" s="94" t="n">
-        <v>40.84</v>
       </c>
     </row>
     <row r="38">
@@ -10568,109 +10568,109 @@
           <t>blue</t>
         </is>
       </c>
-      <c r="H38" s="93" t="inlineStr">
+      <c r="H38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="I38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I38" s="93" t="inlineStr">
+      <c r="J38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J38" s="93" t="inlineStr">
+      <c r="K38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K38" s="93" t="inlineStr">
+      <c r="L38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L38" s="93" t="inlineStr">
+      <c r="M38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M38" s="93" t="inlineStr">
+      <c r="N38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N38" s="93" t="inlineStr">
+      <c r="O38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O38" s="93" t="inlineStr">
+      <c r="P38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P38" s="92" t="inlineStr">
+      <c r="Q38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q38" s="92" t="inlineStr">
+      <c r="R38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R38" s="92" t="inlineStr">
+      <c r="S38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S38" s="91" t="inlineStr">
+      <c r="T38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="T38" s="91" t="inlineStr">
+      <c r="U38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U38" s="91" t="inlineStr">
+      <c r="V38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V38" s="91" t="inlineStr">
+      <c r="W38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W38" s="91" t="inlineStr">
+      <c r="X38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X38" s="91" t="inlineStr">
+      <c r="Y38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y38" s="91" t="inlineStr">
+      <c r="Z38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z38" s="92" t="inlineStr">
+      <c r="AA38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA38" s="91" t="inlineStr">
+      <c r="AB38" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AB38" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
       <c r="AC38" s="92" t="inlineStr">
@@ -10699,31 +10699,31 @@
         <v>4.85</v>
       </c>
       <c r="C39" s="94" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D39" s="94" t="n">
         <v>5.78</v>
       </c>
-      <c r="D39" s="94" t="n">
+      <c r="E39" s="94" t="n">
         <v>6.44</v>
-      </c>
-      <c r="E39" s="94" t="n">
-        <v>3.97</v>
       </c>
       <c r="F39" s="94" t="n">
         <v>3.97</v>
       </c>
       <c r="G39" s="94" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H39" s="94" t="n">
         <v>4.29</v>
       </c>
-      <c r="H39" s="94" t="n">
+      <c r="I39" s="94" t="n">
         <v>4.86</v>
       </c>
-      <c r="I39" s="94" t="n">
+      <c r="J39" s="94" t="n">
         <v>4.95</v>
       </c>
-      <c r="J39" s="94" t="n">
+      <c r="K39" s="94" t="n">
         <v>3.03</v>
-      </c>
-      <c r="K39" s="94" t="n">
-        <v>2.52</v>
       </c>
       <c r="L39" s="94" t="n">
         <v>2.52</v>
@@ -10732,13 +10732,13 @@
         <v>2.52</v>
       </c>
       <c r="N39" s="94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O39" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="O39" s="94" t="n">
+      <c r="P39" s="94" t="n">
         <v>0.01</v>
-      </c>
-      <c r="P39" s="94" t="n">
-        <v>-1.75</v>
       </c>
       <c r="Q39" s="94" t="n">
         <v>-1.75</v>
@@ -10747,43 +10747,43 @@
         <v>-1.75</v>
       </c>
       <c r="S39" s="94" t="n">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="T39" s="94" t="n">
         <v>-3.25</v>
       </c>
       <c r="U39" s="94" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="V39" s="94" t="n">
         <v>-4.07</v>
       </c>
-      <c r="V39" s="94" t="n">
+      <c r="W39" s="94" t="n">
         <v>-5.77</v>
-      </c>
-      <c r="W39" s="94" t="n">
-        <v>-3.56</v>
       </c>
       <c r="X39" s="94" t="n">
         <v>-3.56</v>
       </c>
       <c r="Y39" s="94" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="Z39" s="94" t="n">
         <v>-2.43</v>
       </c>
-      <c r="Z39" s="94" t="n">
+      <c r="AA39" s="94" t="n">
         <v>-1.73</v>
       </c>
-      <c r="AA39" s="94" t="n">
+      <c r="AB39" s="94" t="n">
         <v>-4.04</v>
-      </c>
-      <c r="AB39" s="94" t="n">
-        <v>-3.16</v>
       </c>
       <c r="AC39" s="94" t="n">
         <v>-3.16</v>
       </c>
       <c r="AD39" s="94" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="AE39" s="94" t="n">
         <v>-1.15</v>
-      </c>
-      <c r="AE39" s="94" t="n">
-        <v>-1.09</v>
       </c>
     </row>
     <row r="40">
@@ -10796,31 +10796,31 @@
         <v>0.65</v>
       </c>
       <c r="C40" s="94" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D40" s="94" t="n">
         <v>1.13</v>
       </c>
-      <c r="D40" s="94" t="n">
+      <c r="E40" s="94" t="n">
         <v>0.35</v>
-      </c>
-      <c r="E40" s="94" t="n">
-        <v>-1.44</v>
       </c>
       <c r="F40" s="94" t="n">
         <v>-1.44</v>
       </c>
       <c r="G40" s="94" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="H40" s="94" t="n">
         <v>-0.25</v>
       </c>
-      <c r="H40" s="94" t="n">
+      <c r="I40" s="94" t="n">
         <v>0.9</v>
       </c>
-      <c r="I40" s="94" t="n">
+      <c r="J40" s="94" t="n">
         <v>-0.59</v>
       </c>
-      <c r="J40" s="94" t="n">
+      <c r="K40" s="94" t="n">
         <v>-0.84</v>
-      </c>
-      <c r="K40" s="94" t="n">
-        <v>-2.08</v>
       </c>
       <c r="L40" s="94" t="n">
         <v>-2.08</v>
@@ -10829,13 +10829,13 @@
         <v>-2.08</v>
       </c>
       <c r="N40" s="94" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="O40" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="O40" s="94" t="n">
+      <c r="P40" s="94" t="n">
         <v>-5.53</v>
-      </c>
-      <c r="P40" s="94" t="n">
-        <v>-7.22</v>
       </c>
       <c r="Q40" s="94" t="n">
         <v>-7.22</v>
@@ -10844,43 +10844,43 @@
         <v>-7.22</v>
       </c>
       <c r="S40" s="94" t="n">
-        <v>-9.390000000000001</v>
+        <v>-7.22</v>
       </c>
       <c r="T40" s="94" t="n">
         <v>-9.390000000000001</v>
       </c>
       <c r="U40" s="94" t="n">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="V40" s="94" t="n">
         <v>-9.279999999999999</v>
       </c>
-      <c r="V40" s="94" t="n">
+      <c r="W40" s="94" t="n">
         <v>-10.78</v>
-      </c>
-      <c r="W40" s="94" t="n">
-        <v>-7.39</v>
       </c>
       <c r="X40" s="94" t="n">
         <v>-7.39</v>
       </c>
       <c r="Y40" s="94" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="Z40" s="94" t="n">
         <v>-6.51</v>
       </c>
-      <c r="Z40" s="94" t="n">
+      <c r="AA40" s="94" t="n">
         <v>-5.95</v>
       </c>
-      <c r="AA40" s="94" t="n">
+      <c r="AB40" s="94" t="n">
         <v>-6.87</v>
-      </c>
-      <c r="AB40" s="94" t="n">
-        <v>-4.48</v>
       </c>
       <c r="AC40" s="94" t="n">
         <v>-4.48</v>
       </c>
       <c r="AD40" s="94" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="AE40" s="94" t="n">
         <v>-5</v>
-      </c>
-      <c r="AE40" s="94" t="n">
-        <v>-6.31</v>
       </c>
     </row>
     <row r="41">
@@ -10893,31 +10893,31 @@
         <v>68.2</v>
       </c>
       <c r="C41" s="94" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D41" s="94" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="D41" s="94" t="n">
+      <c r="E41" s="94" t="n">
         <v>68.39</v>
-      </c>
-      <c r="E41" s="94" t="n">
-        <v>63.45</v>
       </c>
       <c r="F41" s="94" t="n">
         <v>63.45</v>
       </c>
       <c r="G41" s="94" t="n">
+        <v>63.45</v>
+      </c>
+      <c r="H41" s="94" t="n">
         <v>69.14</v>
       </c>
-      <c r="H41" s="94" t="n">
+      <c r="I41" s="94" t="n">
         <v>72.26000000000001</v>
       </c>
-      <c r="I41" s="94" t="n">
+      <c r="J41" s="94" t="n">
         <v>70.26000000000001</v>
       </c>
-      <c r="J41" s="94" t="n">
+      <c r="K41" s="94" t="n">
         <v>69.55</v>
-      </c>
-      <c r="K41" s="94" t="n">
-        <v>66.25</v>
       </c>
       <c r="L41" s="94" t="n">
         <v>66.25</v>
@@ -10926,13 +10926,13 @@
         <v>66.25</v>
       </c>
       <c r="N41" s="94" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="O41" s="94" t="n">
         <v>59.21</v>
       </c>
-      <c r="O41" s="94" t="n">
+      <c r="P41" s="94" t="n">
         <v>57.58</v>
-      </c>
-      <c r="P41" s="94" t="n">
-        <v>48.04</v>
       </c>
       <c r="Q41" s="94" t="n">
         <v>48.04</v>
@@ -10941,43 +10941,43 @@
         <v>48.04</v>
       </c>
       <c r="S41" s="94" t="n">
-        <v>37.55</v>
+        <v>48.04</v>
       </c>
       <c r="T41" s="94" t="n">
         <v>37.55</v>
       </c>
       <c r="U41" s="94" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="V41" s="94" t="n">
         <v>39.64</v>
       </c>
-      <c r="V41" s="94" t="n">
+      <c r="W41" s="94" t="n">
         <v>29.52</v>
-      </c>
-      <c r="W41" s="94" t="n">
-        <v>42.69</v>
       </c>
       <c r="X41" s="94" t="n">
         <v>42.69</v>
       </c>
       <c r="Y41" s="94" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="Z41" s="94" t="n">
         <v>51.3</v>
       </c>
-      <c r="Z41" s="94" t="n">
+      <c r="AA41" s="94" t="n">
         <v>54.73</v>
       </c>
-      <c r="AA41" s="94" t="n">
+      <c r="AB41" s="94" t="n">
         <v>49.08</v>
-      </c>
-      <c r="AB41" s="94" t="n">
-        <v>66.64</v>
       </c>
       <c r="AC41" s="94" t="n">
         <v>66.64</v>
       </c>
       <c r="AD41" s="94" t="n">
+        <v>66.64</v>
+      </c>
+      <c r="AE41" s="94" t="n">
         <v>69.73</v>
-      </c>
-      <c r="AE41" s="94" t="n">
-        <v>67.48</v>
       </c>
     </row>
     <row r="42">
@@ -11021,104 +11021,104 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I42" s="92" t="inlineStr">
+      <c r="I42" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J42" s="92" t="inlineStr">
+      <c r="K42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K42" s="92" t="inlineStr">
+      <c r="L42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L42" s="92" t="inlineStr">
+      <c r="M42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M42" s="92" t="inlineStr">
+      <c r="N42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N42" s="92" t="inlineStr">
+      <c r="O42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O42" s="92" t="inlineStr">
+      <c r="P42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P42" s="92" t="inlineStr">
+      <c r="Q42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q42" s="92" t="inlineStr">
+      <c r="R42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R42" s="92" t="inlineStr">
+      <c r="S42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S42" s="92" t="inlineStr">
+      <c r="T42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T42" s="91" t="inlineStr">
+      <c r="U42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U42" s="91" t="inlineStr">
+      <c r="V42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V42" s="91" t="inlineStr">
+      <c r="W42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W42" s="91" t="inlineStr">
+      <c r="X42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X42" s="91" t="inlineStr">
+      <c r="Y42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y42" s="91" t="inlineStr">
+      <c r="Z42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z42" s="92" t="inlineStr">
+      <c r="AA42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA42" s="92" t="inlineStr">
+      <c r="AB42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB42" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC42" s="91" t="inlineStr">
@@ -11147,28 +11147,28 @@
         <v>-3.32</v>
       </c>
       <c r="C43" s="94" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="D43" s="94" t="n">
         <v>-4.96</v>
       </c>
-      <c r="D43" s="94" t="n">
+      <c r="E43" s="94" t="n">
         <v>-4.63</v>
-      </c>
-      <c r="E43" s="94" t="n">
-        <v>-4.27</v>
       </c>
       <c r="F43" s="94" t="n">
         <v>-4.27</v>
       </c>
       <c r="G43" s="94" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="H43" s="94" t="n">
         <v>-5</v>
       </c>
-      <c r="H43" s="94" t="n">
+      <c r="I43" s="94" t="n">
         <v>-5.37</v>
       </c>
-      <c r="I43" s="94" t="n">
+      <c r="J43" s="94" t="n">
         <v>-7.58</v>
-      </c>
-      <c r="J43" s="94" t="n">
-        <v>-7.69</v>
       </c>
       <c r="K43" s="94" t="n">
         <v>-7.69</v>
@@ -11180,58 +11180,58 @@
         <v>-7.69</v>
       </c>
       <c r="N43" s="94" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="O43" s="94" t="n">
         <v>-6.47</v>
       </c>
-      <c r="O43" s="94" t="n">
+      <c r="P43" s="94" t="n">
         <v>-5.6</v>
       </c>
-      <c r="P43" s="94" t="n">
+      <c r="Q43" s="94" t="n">
         <v>-5.95</v>
-      </c>
-      <c r="Q43" s="94" t="n">
-        <v>-7.85</v>
       </c>
       <c r="R43" s="94" t="n">
         <v>-7.85</v>
       </c>
       <c r="S43" s="94" t="n">
+        <v>-7.85</v>
+      </c>
+      <c r="T43" s="94" t="n">
         <v>-6.66</v>
       </c>
-      <c r="T43" s="94" t="n">
+      <c r="U43" s="94" t="n">
         <v>-8.18</v>
       </c>
-      <c r="U43" s="94" t="n">
+      <c r="V43" s="94" t="n">
         <v>-4.35</v>
       </c>
-      <c r="V43" s="94" t="n">
+      <c r="W43" s="94" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="W43" s="94" t="n">
-        <v>-2.1</v>
       </c>
       <c r="X43" s="94" t="n">
         <v>-2.1</v>
       </c>
       <c r="Y43" s="94" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="Z43" s="94" t="n">
         <v>1.45</v>
       </c>
-      <c r="Z43" s="94" t="n">
+      <c r="AA43" s="94" t="n">
         <v>5.45</v>
       </c>
-      <c r="AA43" s="94" t="n">
+      <c r="AB43" s="94" t="n">
         <v>5.17</v>
       </c>
-      <c r="AB43" s="94" t="n">
+      <c r="AC43" s="94" t="n">
         <v>4.63</v>
       </c>
-      <c r="AC43" s="94" t="n">
+      <c r="AD43" s="94" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD43" s="94" t="n">
+      <c r="AE43" s="94" t="n">
         <v>8.07</v>
-      </c>
-      <c r="AE43" s="94" t="n">
-        <v>8.81</v>
       </c>
     </row>
     <row r="44">
@@ -11244,28 +11244,28 @@
         <v>3.04</v>
       </c>
       <c r="C44" s="94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D44" s="94" t="n">
         <v>2.01</v>
       </c>
-      <c r="D44" s="94" t="n">
+      <c r="E44" s="94" t="n">
         <v>2.74</v>
-      </c>
-      <c r="E44" s="94" t="n">
-        <v>1.72</v>
       </c>
       <c r="F44" s="94" t="n">
         <v>1.72</v>
       </c>
       <c r="G44" s="94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H44" s="94" t="n">
         <v>2.07</v>
       </c>
-      <c r="H44" s="94" t="n">
+      <c r="I44" s="94" t="n">
         <v>0.73</v>
       </c>
-      <c r="I44" s="94" t="n">
+      <c r="J44" s="94" t="n">
         <v>-2.46</v>
-      </c>
-      <c r="J44" s="94" t="n">
-        <v>-3.59</v>
       </c>
       <c r="K44" s="94" t="n">
         <v>-3.59</v>
@@ -11277,58 +11277,58 @@
         <v>-3.59</v>
       </c>
       <c r="N44" s="94" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="O44" s="94" t="n">
         <v>-2.23</v>
       </c>
-      <c r="O44" s="94" t="n">
+      <c r="P44" s="94" t="n">
         <v>-2.24</v>
       </c>
-      <c r="P44" s="94" t="n">
+      <c r="Q44" s="94" t="n">
         <v>-2.99</v>
-      </c>
-      <c r="Q44" s="94" t="n">
-        <v>-5.71</v>
       </c>
       <c r="R44" s="94" t="n">
         <v>-5.71</v>
       </c>
       <c r="S44" s="94" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="T44" s="94" t="n">
         <v>-5.44</v>
       </c>
-      <c r="T44" s="94" t="n">
+      <c r="U44" s="94" t="n">
         <v>-9.85</v>
       </c>
-      <c r="U44" s="94" t="n">
+      <c r="V44" s="94" t="n">
         <v>-6.37</v>
       </c>
-      <c r="V44" s="94" t="n">
+      <c r="W44" s="94" t="n">
         <v>-7.54</v>
-      </c>
-      <c r="W44" s="94" t="n">
-        <v>-3.28</v>
       </c>
       <c r="X44" s="94" t="n">
         <v>-3.28</v>
       </c>
       <c r="Y44" s="94" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="Z44" s="94" t="n">
         <v>-0.04</v>
       </c>
-      <c r="Z44" s="94" t="n">
+      <c r="AA44" s="94" t="n">
         <v>3.71</v>
       </c>
-      <c r="AA44" s="94" t="n">
+      <c r="AB44" s="94" t="n">
         <v>4.44</v>
       </c>
-      <c r="AB44" s="94" t="n">
+      <c r="AC44" s="94" t="n">
         <v>3.05</v>
       </c>
-      <c r="AC44" s="94" t="n">
+      <c r="AD44" s="94" t="n">
         <v>5.25</v>
       </c>
-      <c r="AD44" s="94" t="n">
+      <c r="AE44" s="94" t="n">
         <v>5.47</v>
-      </c>
-      <c r="AE44" s="94" t="n">
-        <v>6.49</v>
       </c>
     </row>
     <row r="45">
@@ -11341,28 +11341,28 @@
         <v>74.3</v>
       </c>
       <c r="C45" s="94" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D45" s="94" t="n">
         <v>70.16</v>
       </c>
-      <c r="D45" s="94" t="n">
+      <c r="E45" s="94" t="n">
         <v>74.69</v>
-      </c>
-      <c r="E45" s="94" t="n">
-        <v>71.61</v>
       </c>
       <c r="F45" s="94" t="n">
         <v>71.61</v>
       </c>
       <c r="G45" s="94" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="H45" s="94" t="n">
         <v>68.91</v>
       </c>
-      <c r="H45" s="94" t="n">
+      <c r="I45" s="94" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="I45" s="94" t="n">
+      <c r="J45" s="94" t="n">
         <v>53.63</v>
-      </c>
-      <c r="J45" s="94" t="n">
-        <v>49.15</v>
       </c>
       <c r="K45" s="94" t="n">
         <v>49.15</v>
@@ -11374,58 +11374,58 @@
         <v>49.15</v>
       </c>
       <c r="N45" s="94" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="O45" s="94" t="n">
         <v>53.65</v>
       </c>
-      <c r="O45" s="94" t="n">
+      <c r="P45" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="P45" s="94" t="n">
+      <c r="Q45" s="94" t="n">
         <v>49.96</v>
-      </c>
-      <c r="Q45" s="94" t="n">
-        <v>37.67</v>
       </c>
       <c r="R45" s="94" t="n">
         <v>37.67</v>
       </c>
       <c r="S45" s="94" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="T45" s="94" t="n">
         <v>38.63</v>
       </c>
-      <c r="T45" s="94" t="n">
+      <c r="U45" s="94" t="n">
         <v>17.99</v>
       </c>
-      <c r="U45" s="94" t="n">
+      <c r="V45" s="94" t="n">
         <v>23.76</v>
       </c>
-      <c r="V45" s="94" t="n">
+      <c r="W45" s="94" t="n">
         <v>6.19</v>
-      </c>
-      <c r="W45" s="94" t="n">
-        <v>9.82</v>
       </c>
       <c r="X45" s="94" t="n">
         <v>9.82</v>
       </c>
       <c r="Y45" s="94" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="Z45" s="94" t="n">
         <v>17.48</v>
       </c>
-      <c r="Z45" s="94" t="n">
+      <c r="AA45" s="94" t="n">
         <v>34.95</v>
       </c>
-      <c r="AA45" s="94" t="n">
+      <c r="AB45" s="94" t="n">
         <v>36.94</v>
       </c>
-      <c r="AB45" s="94" t="n">
+      <c r="AC45" s="94" t="n">
         <v>18.86</v>
       </c>
-      <c r="AC45" s="94" t="n">
+      <c r="AD45" s="94" t="n">
         <v>28.39</v>
       </c>
-      <c r="AD45" s="94" t="n">
+      <c r="AE45" s="94" t="n">
         <v>37.31</v>
-      </c>
-      <c r="AE45" s="94" t="n">
-        <v>43.26</v>
       </c>
     </row>
     <row r="46">
@@ -11504,69 +11504,69 @@
           <t>red</t>
         </is>
       </c>
-      <c r="P46" s="92" t="inlineStr">
+      <c r="P46" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="Q46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q46" s="92" t="inlineStr">
+      <c r="R46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R46" s="92" t="inlineStr">
+      <c r="S46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S46" s="92" t="inlineStr">
+      <c r="T46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T46" s="91" t="inlineStr">
+      <c r="U46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U46" s="91" t="inlineStr">
+      <c r="V46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V46" s="91" t="inlineStr">
+      <c r="W46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W46" s="91" t="inlineStr">
+      <c r="X46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X46" s="91" t="inlineStr">
+      <c r="Y46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y46" s="91" t="inlineStr">
+      <c r="Z46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z46" s="92" t="inlineStr">
+      <c r="AA46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA46" s="92" t="inlineStr">
+      <c r="AB46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB46" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC46" s="91" t="inlineStr">
@@ -11595,28 +11595,28 @@
         <v>4.99</v>
       </c>
       <c r="C47" s="94" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="D47" s="94" t="n">
+      <c r="E47" s="94" t="n">
         <v>2.51</v>
-      </c>
-      <c r="E47" s="94" t="n">
-        <v>2.8</v>
       </c>
       <c r="F47" s="94" t="n">
         <v>2.8</v>
       </c>
       <c r="G47" s="94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H47" s="94" t="n">
         <v>2.96</v>
       </c>
-      <c r="H47" s="94" t="n">
+      <c r="I47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="I47" s="94" t="n">
+      <c r="J47" s="94" t="n">
         <v>-0.47</v>
-      </c>
-      <c r="J47" s="94" t="n">
-        <v>-0.96</v>
       </c>
       <c r="K47" s="94" t="n">
         <v>-0.96</v>
@@ -11628,58 +11628,58 @@
         <v>-0.96</v>
       </c>
       <c r="N47" s="94" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="O47" s="94" t="n">
         <v>0.27</v>
       </c>
-      <c r="O47" s="94" t="n">
+      <c r="P47" s="94" t="n">
         <v>1.01</v>
       </c>
-      <c r="P47" s="94" t="n">
+      <c r="Q47" s="94" t="n">
         <v>-0.17</v>
-      </c>
-      <c r="Q47" s="94" t="n">
-        <v>-2.53</v>
       </c>
       <c r="R47" s="94" t="n">
         <v>-2.53</v>
       </c>
       <c r="S47" s="94" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="T47" s="94" t="n">
         <v>-0.45</v>
       </c>
-      <c r="T47" s="94" t="n">
+      <c r="U47" s="94" t="n">
         <v>-4.39</v>
       </c>
-      <c r="U47" s="94" t="n">
+      <c r="V47" s="94" t="n">
         <v>0.04</v>
       </c>
-      <c r="V47" s="94" t="n">
+      <c r="W47" s="94" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="W47" s="94" t="n">
-        <v>2.11</v>
       </c>
       <c r="X47" s="94" t="n">
         <v>2.11</v>
       </c>
       <c r="Y47" s="94" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Z47" s="94" t="n">
         <v>6.89</v>
       </c>
-      <c r="Z47" s="94" t="n">
+      <c r="AA47" s="94" t="n">
         <v>10.14</v>
       </c>
-      <c r="AA47" s="94" t="n">
+      <c r="AB47" s="94" t="n">
         <v>10.81</v>
       </c>
-      <c r="AB47" s="94" t="n">
+      <c r="AC47" s="94" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="AC47" s="94" t="n">
+      <c r="AD47" s="94" t="n">
         <v>12.84</v>
       </c>
-      <c r="AD47" s="94" t="n">
+      <c r="AE47" s="94" t="n">
         <v>13.25</v>
-      </c>
-      <c r="AE47" s="94" t="n">
-        <v>14.72</v>
       </c>
     </row>
     <row r="48">
@@ -11692,28 +11692,28 @@
         <v>17.49</v>
       </c>
       <c r="C48" s="94" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="D48" s="94" t="n">
         <v>16.47</v>
       </c>
-      <c r="D48" s="94" t="n">
+      <c r="E48" s="94" t="n">
         <v>16.74</v>
-      </c>
-      <c r="E48" s="94" t="n">
-        <v>15.5</v>
       </c>
       <c r="F48" s="94" t="n">
         <v>15.5</v>
       </c>
       <c r="G48" s="94" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H48" s="94" t="n">
         <v>13.28</v>
       </c>
-      <c r="H48" s="94" t="n">
+      <c r="I48" s="94" t="n">
         <v>12.44</v>
       </c>
-      <c r="I48" s="94" t="n">
+      <c r="J48" s="94" t="n">
         <v>9.4</v>
-      </c>
-      <c r="J48" s="94" t="n">
-        <v>9.07</v>
       </c>
       <c r="K48" s="94" t="n">
         <v>9.07</v>
@@ -11725,58 +11725,58 @@
         <v>9.07</v>
       </c>
       <c r="N48" s="94" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="O48" s="94" t="n">
         <v>9.98</v>
       </c>
-      <c r="O48" s="94" t="n">
+      <c r="P48" s="94" t="n">
         <v>9.43</v>
       </c>
-      <c r="P48" s="94" t="n">
+      <c r="Q48" s="94" t="n">
         <v>7.67</v>
-      </c>
-      <c r="Q48" s="94" t="n">
-        <v>3.65</v>
       </c>
       <c r="R48" s="94" t="n">
         <v>3.65</v>
       </c>
       <c r="S48" s="94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T48" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="T48" s="94" t="n">
+      <c r="U48" s="94" t="n">
         <v>1.23</v>
       </c>
-      <c r="U48" s="94" t="n">
+      <c r="V48" s="94" t="n">
         <v>4.08</v>
       </c>
-      <c r="V48" s="94" t="n">
+      <c r="W48" s="94" t="n">
         <v>1.44</v>
-      </c>
-      <c r="W48" s="94" t="n">
-        <v>6.54</v>
       </c>
       <c r="X48" s="94" t="n">
         <v>6.54</v>
       </c>
       <c r="Y48" s="94" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Z48" s="94" t="n">
         <v>13.05</v>
       </c>
-      <c r="Z48" s="94" t="n">
+      <c r="AA48" s="94" t="n">
         <v>16.29</v>
       </c>
-      <c r="AA48" s="94" t="n">
+      <c r="AB48" s="94" t="n">
         <v>18.22</v>
       </c>
-      <c r="AB48" s="94" t="n">
+      <c r="AC48" s="94" t="n">
         <v>16.01</v>
       </c>
-      <c r="AC48" s="94" t="n">
+      <c r="AD48" s="94" t="n">
         <v>17.47</v>
       </c>
-      <c r="AD48" s="94" t="n">
+      <c r="AE48" s="94" t="n">
         <v>19.27</v>
-      </c>
-      <c r="AE48" s="94" t="n">
-        <v>19.17</v>
       </c>
     </row>
     <row r="49">
@@ -11789,28 +11789,28 @@
         <v>77.56</v>
       </c>
       <c r="C49" s="94" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="D49" s="94" t="n">
         <v>76.25</v>
       </c>
-      <c r="D49" s="94" t="n">
+      <c r="E49" s="94" t="n">
         <v>73.43000000000001</v>
-      </c>
-      <c r="E49" s="94" t="n">
-        <v>72.92</v>
       </c>
       <c r="F49" s="94" t="n">
         <v>72.92</v>
       </c>
       <c r="G49" s="94" t="n">
+        <v>72.92</v>
+      </c>
+      <c r="H49" s="94" t="n">
         <v>70.02</v>
       </c>
-      <c r="H49" s="94" t="n">
+      <c r="I49" s="94" t="n">
         <v>68.39</v>
       </c>
-      <c r="I49" s="94" t="n">
+      <c r="J49" s="94" t="n">
         <v>55.14</v>
-      </c>
-      <c r="J49" s="94" t="n">
-        <v>52.99</v>
       </c>
       <c r="K49" s="94" t="n">
         <v>52.99</v>
@@ -11822,58 +11822,58 @@
         <v>52.99</v>
       </c>
       <c r="N49" s="94" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="O49" s="94" t="n">
         <v>55.66</v>
       </c>
-      <c r="O49" s="94" t="n">
+      <c r="P49" s="94" t="n">
         <v>54.62</v>
       </c>
-      <c r="P49" s="94" t="n">
+      <c r="Q49" s="94" t="n">
         <v>49.48</v>
-      </c>
-      <c r="Q49" s="94" t="n">
-        <v>38.14</v>
       </c>
       <c r="R49" s="94" t="n">
         <v>38.14</v>
       </c>
       <c r="S49" s="94" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="T49" s="94" t="n">
         <v>40.61</v>
       </c>
-      <c r="T49" s="94" t="n">
+      <c r="U49" s="94" t="n">
         <v>20.28</v>
       </c>
-      <c r="U49" s="94" t="n">
+      <c r="V49" s="94" t="n">
         <v>25.19</v>
       </c>
-      <c r="V49" s="94" t="n">
+      <c r="W49" s="94" t="n">
         <v>10.68</v>
-      </c>
-      <c r="W49" s="94" t="n">
-        <v>14.84</v>
       </c>
       <c r="X49" s="94" t="n">
         <v>14.84</v>
       </c>
       <c r="Y49" s="94" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="Z49" s="94" t="n">
         <v>25.18</v>
       </c>
-      <c r="Z49" s="94" t="n">
+      <c r="AA49" s="94" t="n">
         <v>39.55</v>
       </c>
-      <c r="AA49" s="94" t="n">
+      <c r="AB49" s="94" t="n">
         <v>44.2</v>
       </c>
-      <c r="AB49" s="94" t="n">
+      <c r="AC49" s="94" t="n">
         <v>25.84</v>
       </c>
-      <c r="AC49" s="94" t="n">
+      <c r="AD49" s="94" t="n">
         <v>33</v>
       </c>
-      <c r="AD49" s="94" t="n">
+      <c r="AE49" s="94" t="n">
         <v>39.69</v>
-      </c>
-      <c r="AE49" s="94" t="n">
-        <v>45.34</v>
       </c>
     </row>
     <row r="51">
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:96.43&gt;=85;us30:RS3:85.86&gt;=85</t>
+          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:97.11&gt;=85;us30:RS3:85.86&gt;=85</t>
         </is>
       </c>
     </row>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-7.1</v>
+        <v>-7.18</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-7.1</v>
@@ -8553,7 +8553,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-2.51</v>
+        <v>-3.09</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-2.51</v>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>97.11</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>97.11</v>
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:97.11&gt;=85;us30:RS3:85.86&gt;=85</t>
+          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:98.9&gt;=85;us30:RS3:85.86&gt;=85</t>
         </is>
       </c>
     </row>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -6351,152 +6351,152 @@
       </c>
       <c r="B1" s="77" t="inlineStr">
         <is>
+          <t>250502</t>
+        </is>
+      </c>
+      <c r="C1" s="77" t="inlineStr">
+        <is>
           <t>250501</t>
         </is>
       </c>
-      <c r="C1" s="77" t="inlineStr">
+      <c r="D1" s="77" t="inlineStr">
         <is>
           <t>250430</t>
         </is>
       </c>
-      <c r="D1" s="77" t="inlineStr">
+      <c r="E1" s="77" t="inlineStr">
         <is>
           <t>250429</t>
         </is>
       </c>
-      <c r="E1" s="77" t="inlineStr">
+      <c r="F1" s="77" t="inlineStr">
         <is>
           <t>250428</t>
         </is>
       </c>
-      <c r="F1" s="77" t="inlineStr">
+      <c r="G1" s="77" t="inlineStr">
         <is>
           <t>250427</t>
         </is>
       </c>
-      <c r="G1" s="77" t="inlineStr">
+      <c r="H1" s="77" t="inlineStr">
         <is>
           <t>250425</t>
         </is>
       </c>
-      <c r="H1" s="77" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>250424</t>
         </is>
       </c>
-      <c r="I1" s="77" t="inlineStr">
+      <c r="J1" s="77" t="inlineStr">
         <is>
           <t>250423</t>
         </is>
       </c>
-      <c r="J1" s="77" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>250422</t>
         </is>
       </c>
-      <c r="K1" s="77" t="inlineStr">
+      <c r="L1" s="77" t="inlineStr">
         <is>
           <t>250421</t>
         </is>
       </c>
-      <c r="L1" s="77" t="inlineStr">
+      <c r="M1" s="77" t="inlineStr">
         <is>
           <t>250420</t>
         </is>
       </c>
-      <c r="M1" s="77" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>250418</t>
         </is>
       </c>
-      <c r="N1" s="77" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>250417</t>
         </is>
       </c>
-      <c r="O1" s="77" t="inlineStr">
+      <c r="P1" s="77" t="inlineStr">
         <is>
           <t>250416</t>
         </is>
       </c>
-      <c r="P1" s="77" t="inlineStr">
+      <c r="Q1" s="77" t="inlineStr">
         <is>
           <t>250415</t>
         </is>
       </c>
-      <c r="Q1" s="77" t="inlineStr">
+      <c r="R1" s="77" t="inlineStr">
         <is>
           <t>250414</t>
         </is>
       </c>
-      <c r="R1" s="77" t="inlineStr">
+      <c r="S1" s="77" t="inlineStr">
         <is>
           <t>250413</t>
         </is>
       </c>
-      <c r="S1" s="77" t="inlineStr">
+      <c r="T1" s="77" t="inlineStr">
         <is>
           <t>250411</t>
         </is>
       </c>
-      <c r="T1" s="77" t="inlineStr">
+      <c r="U1" s="77" t="inlineStr">
         <is>
           <t>250410</t>
         </is>
       </c>
-      <c r="U1" s="77" t="inlineStr">
+      <c r="V1" s="77" t="inlineStr">
         <is>
           <t>250409</t>
         </is>
       </c>
-      <c r="V1" s="77" t="inlineStr">
+      <c r="W1" s="77" t="inlineStr">
         <is>
           <t>250408</t>
         </is>
       </c>
-      <c r="W1" s="77" t="inlineStr">
+      <c r="X1" s="77" t="inlineStr">
         <is>
           <t>250407</t>
         </is>
       </c>
-      <c r="X1" s="77" t="inlineStr">
+      <c r="Y1" s="77" t="inlineStr">
         <is>
           <t>250406</t>
         </is>
       </c>
-      <c r="Y1" s="77" t="inlineStr">
+      <c r="Z1" s="77" t="inlineStr">
         <is>
           <t>250404</t>
         </is>
       </c>
-      <c r="Z1" s="77" t="inlineStr">
+      <c r="AA1" s="77" t="inlineStr">
         <is>
           <t>250403</t>
         </is>
       </c>
-      <c r="AA1" s="77" t="inlineStr">
+      <c r="AB1" s="77" t="inlineStr">
         <is>
           <t>250402</t>
         </is>
       </c>
-      <c r="AB1" s="77" t="inlineStr">
+      <c r="AC1" s="77" t="inlineStr">
         <is>
           <t>250401</t>
         </is>
       </c>
-      <c r="AC1" s="77" t="inlineStr">
+      <c r="AD1" s="77" t="inlineStr">
         <is>
           <t>250331</t>
         </is>
       </c>
-      <c r="AD1" s="77" t="inlineStr">
+      <c r="AE1" s="77" t="inlineStr">
         <is>
           <t>250328</t>
-        </is>
-      </c>
-      <c r="AE1" s="77" t="inlineStr">
-        <is>
-          <t>250327</t>
         </is>
       </c>
     </row>
@@ -6516,134 +6516,134 @@
           <t>green</t>
         </is>
       </c>
-      <c r="D2" s="92" t="inlineStr">
+      <c r="D2" s="91" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="E2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E2" s="92" t="inlineStr">
+      <c r="F2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F2" s="92" t="inlineStr">
+      <c r="G2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G2" s="92" t="inlineStr">
+      <c r="H2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H2" s="93" t="inlineStr">
+      <c r="I2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I2" s="93" t="inlineStr">
+      <c r="J2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J2" s="93" t="inlineStr">
+      <c r="K2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K2" s="93" t="inlineStr">
+      <c r="L2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L2" s="93" t="inlineStr">
+      <c r="M2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M2" s="93" t="inlineStr">
+      <c r="N2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N2" s="93" t="inlineStr">
+      <c r="O2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O2" s="93" t="inlineStr">
+      <c r="P2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P2" s="92" t="inlineStr">
+      <c r="Q2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q2" s="92" t="inlineStr">
+      <c r="R2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R2" s="92" t="inlineStr">
+      <c r="S2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S2" s="92" t="inlineStr">
+      <c r="T2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T2" s="92" t="inlineStr">
+      <c r="U2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U2" s="92" t="inlineStr">
+      <c r="V2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V2" s="91" t="inlineStr">
+      <c r="W2" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W2" s="91" t="inlineStr">
+      <c r="X2" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X2" s="92" t="inlineStr">
+      <c r="Y2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y2" s="92" t="inlineStr">
+      <c r="Z2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z2" s="92" t="inlineStr">
+      <c r="AA2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA2" s="92" t="inlineStr">
+      <c r="AB2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB2" s="92" t="inlineStr">
+      <c r="AC2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC2" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AD2" s="91" t="inlineStr">
@@ -6670,67 +6670,67 @@
         <v>0.87</v>
       </c>
       <c r="D3" s="94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E3" s="94" t="n">
         <v>1.05</v>
       </c>
-      <c r="E3" s="94" t="n">
+      <c r="F3" s="94" t="n">
         <v>1.8</v>
-      </c>
-      <c r="F3" s="94" t="n">
-        <v>2.53</v>
       </c>
       <c r="G3" s="94" t="n">
         <v>2.53</v>
       </c>
       <c r="H3" s="94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I3" s="94" t="n">
         <v>1.69</v>
       </c>
-      <c r="I3" s="94" t="n">
+      <c r="J3" s="94" t="n">
         <v>1.6</v>
       </c>
-      <c r="J3" s="94" t="n">
+      <c r="K3" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="K3" s="94" t="n">
+      <c r="L3" s="94" t="n">
         <v>1.71</v>
-      </c>
-      <c r="L3" s="94" t="n">
-        <v>1.54</v>
       </c>
       <c r="M3" s="94" t="n">
         <v>1.54</v>
       </c>
       <c r="N3" s="94" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O3" s="94" t="n">
         <v>1.22</v>
       </c>
-      <c r="O3" s="94" t="n">
+      <c r="P3" s="94" t="n">
         <v>3.65</v>
       </c>
-      <c r="P3" s="94" t="n">
+      <c r="Q3" s="94" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q3" s="94" t="n">
+      <c r="R3" s="94" t="n">
         <v>1.6</v>
-      </c>
-      <c r="R3" s="94" t="n">
-        <v>0.25</v>
       </c>
       <c r="S3" s="94" t="n">
         <v>0.25</v>
       </c>
       <c r="T3" s="94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U3" s="94" t="n">
         <v>-0.19</v>
       </c>
-      <c r="U3" s="94" t="n">
+      <c r="V3" s="94" t="n">
         <v>-0.63</v>
       </c>
-      <c r="V3" s="94" t="n">
+      <c r="W3" s="94" t="n">
         <v>-2.05</v>
       </c>
-      <c r="W3" s="94" t="n">
+      <c r="X3" s="94" t="n">
         <v>-5.09</v>
-      </c>
-      <c r="X3" s="94" t="n">
-        <v>-0.29</v>
       </c>
       <c r="Y3" s="94" t="n">
         <v>-0.29</v>
@@ -6739,19 +6739,19 @@
         <v>-0.29</v>
       </c>
       <c r="AA3" s="94" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AB3" s="94" t="n">
         <v>-1.68</v>
       </c>
-      <c r="AB3" s="94" t="n">
+      <c r="AC3" s="94" t="n">
         <v>-1.52</v>
       </c>
-      <c r="AC3" s="94" t="n">
+      <c r="AD3" s="94" t="n">
         <v>-1.83</v>
       </c>
-      <c r="AD3" s="94" t="n">
+      <c r="AE3" s="94" t="n">
         <v>-1.24</v>
-      </c>
-      <c r="AE3" s="94" t="n">
-        <v>-0.58</v>
       </c>
     </row>
     <row r="4">
@@ -6770,64 +6770,64 @@
         <v>0.21</v>
       </c>
       <c r="E4" s="94" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F4" s="94" t="n">
         <v>0.68</v>
-      </c>
-      <c r="F4" s="94" t="n">
-        <v>0.26</v>
       </c>
       <c r="G4" s="94" t="n">
         <v>0.26</v>
       </c>
       <c r="H4" s="94" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I4" s="94" t="n">
         <v>-0.75</v>
       </c>
-      <c r="I4" s="94" t="n">
+      <c r="J4" s="94" t="n">
         <v>-0.1</v>
       </c>
-      <c r="J4" s="94" t="n">
+      <c r="K4" s="94" t="n">
         <v>0.59</v>
       </c>
-      <c r="K4" s="94" t="n">
+      <c r="L4" s="94" t="n">
         <v>-0.34</v>
-      </c>
-      <c r="L4" s="94" t="n">
-        <v>-0.28</v>
       </c>
       <c r="M4" s="94" t="n">
         <v>-0.28</v>
       </c>
       <c r="N4" s="94" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="O4" s="94" t="n">
         <v>0.37</v>
       </c>
-      <c r="O4" s="94" t="n">
+      <c r="P4" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="P4" s="94" t="n">
+      <c r="Q4" s="94" t="n">
         <v>3.1</v>
       </c>
-      <c r="Q4" s="94" t="n">
+      <c r="R4" s="94" t="n">
         <v>1.87</v>
-      </c>
-      <c r="R4" s="94" t="n">
-        <v>1.15</v>
       </c>
       <c r="S4" s="94" t="n">
         <v>1.15</v>
       </c>
       <c r="T4" s="94" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U4" s="94" t="n">
         <v>-1.85</v>
       </c>
-      <c r="U4" s="94" t="n">
+      <c r="V4" s="94" t="n">
         <v>-0.96</v>
       </c>
-      <c r="V4" s="94" t="n">
+      <c r="W4" s="94" t="n">
         <v>-4.74</v>
       </c>
-      <c r="W4" s="94" t="n">
+      <c r="X4" s="94" t="n">
         <v>-4.98</v>
-      </c>
-      <c r="X4" s="94" t="n">
-        <v>-4.23</v>
       </c>
       <c r="Y4" s="94" t="n">
         <v>-4.23</v>
@@ -6836,19 +6836,19 @@
         <v>-4.23</v>
       </c>
       <c r="AA4" s="94" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="AB4" s="94" t="n">
         <v>0.41</v>
       </c>
-      <c r="AB4" s="94" t="n">
+      <c r="AC4" s="94" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="AC4" s="94" t="n">
+      <c r="AD4" s="94" t="n">
         <v>11.16</v>
       </c>
-      <c r="AD4" s="94" t="n">
+      <c r="AE4" s="94" t="n">
         <v>15.71</v>
-      </c>
-      <c r="AE4" s="94" t="n">
-        <v>17.83</v>
       </c>
     </row>
     <row r="5">
@@ -6864,67 +6864,67 @@
         <v>16.68</v>
       </c>
       <c r="D5" s="94" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="E5" s="94" t="n">
         <v>32</v>
       </c>
-      <c r="E5" s="94" t="n">
+      <c r="F5" s="94" t="n">
         <v>37.27</v>
-      </c>
-      <c r="F5" s="94" t="n">
-        <v>63.72</v>
       </c>
       <c r="G5" s="94" t="n">
         <v>63.72</v>
       </c>
       <c r="H5" s="94" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="I5" s="94" t="n">
         <v>75.73</v>
       </c>
-      <c r="I5" s="94" t="n">
+      <c r="J5" s="94" t="n">
         <v>74.39</v>
       </c>
-      <c r="J5" s="94" t="n">
+      <c r="K5" s="94" t="n">
         <v>85.98</v>
       </c>
-      <c r="K5" s="94" t="n">
+      <c r="L5" s="94" t="n">
         <v>81.19</v>
-      </c>
-      <c r="L5" s="94" t="n">
-        <v>68.56</v>
       </c>
       <c r="M5" s="94" t="n">
         <v>68.56</v>
       </c>
       <c r="N5" s="94" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="O5" s="94" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="O5" s="94" t="n">
+      <c r="P5" s="94" t="n">
         <v>74.51000000000001</v>
       </c>
-      <c r="P5" s="94" t="n">
+      <c r="Q5" s="94" t="n">
         <v>70.33</v>
       </c>
-      <c r="Q5" s="94" t="n">
+      <c r="R5" s="94" t="n">
         <v>68.31999999999999</v>
-      </c>
-      <c r="R5" s="94" t="n">
-        <v>58.9</v>
       </c>
       <c r="S5" s="94" t="n">
         <v>58.9</v>
       </c>
       <c r="T5" s="94" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="U5" s="94" t="n">
         <v>53.42</v>
       </c>
-      <c r="U5" s="94" t="n">
+      <c r="V5" s="94" t="n">
         <v>39.94</v>
       </c>
-      <c r="V5" s="94" t="n">
+      <c r="W5" s="94" t="n">
         <v>23.39</v>
       </c>
-      <c r="W5" s="94" t="n">
+      <c r="X5" s="94" t="n">
         <v>2.01</v>
-      </c>
-      <c r="X5" s="94" t="n">
-        <v>29.66</v>
       </c>
       <c r="Y5" s="94" t="n">
         <v>29.66</v>
@@ -6933,19 +6933,19 @@
         <v>29.66</v>
       </c>
       <c r="AA5" s="94" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AB5" s="94" t="n">
         <v>42.58</v>
       </c>
-      <c r="AB5" s="94" t="n">
+      <c r="AC5" s="94" t="n">
         <v>38.88</v>
       </c>
-      <c r="AC5" s="94" t="n">
+      <c r="AD5" s="94" t="n">
         <v>9.85</v>
       </c>
-      <c r="AD5" s="94" t="n">
+      <c r="AE5" s="94" t="n">
         <v>16.11</v>
-      </c>
-      <c r="AE5" s="94" t="n">
-        <v>41.34</v>
       </c>
     </row>
     <row r="6">
@@ -6964,109 +6964,109 @@
           <t>red</t>
         </is>
       </c>
-      <c r="D6" s="91" t="inlineStr">
+      <c r="D6" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="E6" s="91" t="inlineStr">
+      <c r="F6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="F6" s="91" t="inlineStr">
+      <c r="G6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="G6" s="91" t="inlineStr">
+      <c r="H6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="H6" s="91" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="I6" s="92" t="inlineStr">
+      <c r="J6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J6" s="93" t="inlineStr">
+      <c r="K6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K6" s="93" t="inlineStr">
+      <c r="L6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L6" s="92" t="inlineStr">
+      <c r="M6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M6" s="92" t="inlineStr">
+      <c r="N6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N6" s="93" t="inlineStr">
+      <c r="O6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O6" s="93" t="inlineStr">
+      <c r="P6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P6" s="92" t="inlineStr">
+      <c r="Q6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q6" s="93" t="inlineStr">
+      <c r="R6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R6" s="93" t="inlineStr">
+      <c r="S6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S6" s="93" t="inlineStr">
+      <c r="T6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="T6" s="92" t="inlineStr">
+      <c r="U6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U6" s="92" t="inlineStr">
+      <c r="V6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V6" s="91" t="inlineStr">
+      <c r="W6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W6" s="91" t="inlineStr">
+      <c r="X6" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="X6" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
       <c r="Y6" s="92" t="inlineStr">
@@ -7118,67 +7118,67 @@
         <v>6</v>
       </c>
       <c r="D7" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="94" t="n">
         <v>2.98</v>
       </c>
-      <c r="E7" s="94" t="n">
+      <c r="F7" s="94" t="n">
         <v>3.8</v>
-      </c>
-      <c r="F7" s="94" t="n">
-        <v>3</v>
       </c>
       <c r="G7" s="94" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="94" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="94" t="n">
         <v>2.77</v>
       </c>
-      <c r="I7" s="94" t="n">
+      <c r="J7" s="94" t="n">
         <v>4.58</v>
       </c>
-      <c r="J7" s="94" t="n">
+      <c r="K7" s="94" t="n">
         <v>5.21</v>
       </c>
-      <c r="K7" s="94" t="n">
+      <c r="L7" s="94" t="n">
         <v>6.59</v>
-      </c>
-      <c r="L7" s="94" t="n">
-        <v>3.16</v>
       </c>
       <c r="M7" s="94" t="n">
         <v>3.16</v>
       </c>
       <c r="N7" s="94" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O7" s="94" t="n">
         <v>3.57</v>
       </c>
-      <c r="O7" s="94" t="n">
+      <c r="P7" s="94" t="n">
         <v>6.54</v>
       </c>
-      <c r="P7" s="94" t="n">
+      <c r="Q7" s="94" t="n">
         <v>5.86</v>
       </c>
-      <c r="Q7" s="94" t="n">
+      <c r="R7" s="94" t="n">
         <v>5.5</v>
-      </c>
-      <c r="R7" s="94" t="n">
-        <v>4.83</v>
       </c>
       <c r="S7" s="94" t="n">
         <v>4.83</v>
       </c>
       <c r="T7" s="94" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="U7" s="94" t="n">
         <v>2.66</v>
       </c>
-      <c r="U7" s="94" t="n">
+      <c r="V7" s="94" t="n">
         <v>4.46</v>
       </c>
-      <c r="V7" s="94" t="n">
+      <c r="W7" s="94" t="n">
         <v>-0.18</v>
       </c>
-      <c r="W7" s="94" t="n">
+      <c r="X7" s="94" t="n">
         <v>-3.26</v>
-      </c>
-      <c r="X7" s="94" t="n">
-        <v>2.95</v>
       </c>
       <c r="Y7" s="94" t="n">
         <v>2.95</v>
@@ -7187,19 +7187,19 @@
         <v>2.95</v>
       </c>
       <c r="AA7" s="94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB7" s="94" t="n">
         <v>0.21</v>
       </c>
-      <c r="AB7" s="94" t="n">
+      <c r="AC7" s="94" t="n">
         <v>0.57</v>
       </c>
-      <c r="AC7" s="94" t="n">
+      <c r="AD7" s="94" t="n">
         <v>-0.42</v>
       </c>
-      <c r="AD7" s="94" t="n">
+      <c r="AE7" s="94" t="n">
         <v>1.19</v>
-      </c>
-      <c r="AE7" s="94" t="n">
-        <v>2.62</v>
       </c>
     </row>
     <row r="8">
@@ -7215,67 +7215,67 @@
         <v>7.73</v>
       </c>
       <c r="D8" s="94" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E8" s="94" t="n">
         <v>3.55</v>
       </c>
-      <c r="E8" s="94" t="n">
+      <c r="F8" s="94" t="n">
         <v>4.59</v>
-      </c>
-      <c r="F8" s="94" t="n">
-        <v>2.99</v>
       </c>
       <c r="G8" s="94" t="n">
         <v>2.99</v>
       </c>
       <c r="H8" s="94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I8" s="94" t="n">
         <v>1.7</v>
       </c>
-      <c r="I8" s="94" t="n">
+      <c r="J8" s="94" t="n">
         <v>2.16</v>
       </c>
-      <c r="J8" s="94" t="n">
+      <c r="K8" s="94" t="n">
         <v>3.95</v>
       </c>
-      <c r="K8" s="94" t="n">
+      <c r="L8" s="94" t="n">
         <v>4.11</v>
-      </c>
-      <c r="L8" s="94" t="n">
-        <v>2.31</v>
       </c>
       <c r="M8" s="94" t="n">
         <v>2.31</v>
       </c>
       <c r="N8" s="94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="O8" s="94" t="n">
         <v>1.64</v>
       </c>
-      <c r="O8" s="94" t="n">
+      <c r="P8" s="94" t="n">
         <v>3.66</v>
       </c>
-      <c r="P8" s="94" t="n">
+      <c r="Q8" s="94" t="n">
         <v>14.47</v>
       </c>
-      <c r="Q8" s="94" t="n">
+      <c r="R8" s="94" t="n">
         <v>15.83</v>
-      </c>
-      <c r="R8" s="94" t="n">
-        <v>12.56</v>
       </c>
       <c r="S8" s="94" t="n">
         <v>12.56</v>
       </c>
       <c r="T8" s="94" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="U8" s="94" t="n">
         <v>7.05</v>
       </c>
-      <c r="U8" s="94" t="n">
+      <c r="V8" s="94" t="n">
         <v>9.09</v>
       </c>
-      <c r="V8" s="94" t="n">
+      <c r="W8" s="94" t="n">
         <v>-1.48</v>
       </c>
-      <c r="W8" s="94" t="n">
+      <c r="X8" s="94" t="n">
         <v>-7.38</v>
-      </c>
-      <c r="X8" s="94" t="n">
-        <v>-0.58</v>
       </c>
       <c r="Y8" s="94" t="n">
         <v>-0.58</v>
@@ -7284,19 +7284,19 @@
         <v>-0.58</v>
       </c>
       <c r="AA8" s="94" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="AB8" s="94" t="n">
         <v>17.24</v>
       </c>
-      <c r="AB8" s="94" t="n">
+      <c r="AC8" s="94" t="n">
         <v>38.43</v>
       </c>
-      <c r="AC8" s="94" t="n">
+      <c r="AD8" s="94" t="n">
         <v>47.55</v>
       </c>
-      <c r="AD8" s="94" t="n">
+      <c r="AE8" s="94" t="n">
         <v>54.27</v>
-      </c>
-      <c r="AE8" s="94" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -7312,67 +7312,67 @@
         <v>59.87</v>
       </c>
       <c r="D9" s="94" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="E9" s="94" t="n">
         <v>42.94</v>
       </c>
-      <c r="E9" s="94" t="n">
+      <c r="F9" s="94" t="n">
         <v>40.49</v>
-      </c>
-      <c r="F9" s="94" t="n">
-        <v>42.96</v>
       </c>
       <c r="G9" s="94" t="n">
         <v>42.96</v>
       </c>
       <c r="H9" s="94" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="I9" s="94" t="n">
         <v>40.89</v>
       </c>
-      <c r="I9" s="94" t="n">
+      <c r="J9" s="94" t="n">
         <v>52.16</v>
       </c>
-      <c r="J9" s="94" t="n">
+      <c r="K9" s="94" t="n">
         <v>56.97</v>
       </c>
-      <c r="K9" s="94" t="n">
+      <c r="L9" s="94" t="n">
         <v>60.99</v>
-      </c>
-      <c r="L9" s="94" t="n">
-        <v>51.77</v>
       </c>
       <c r="M9" s="94" t="n">
         <v>51.77</v>
       </c>
       <c r="N9" s="94" t="n">
+        <v>51.77</v>
+      </c>
+      <c r="O9" s="94" t="n">
         <v>60.45</v>
       </c>
-      <c r="O9" s="94" t="n">
+      <c r="P9" s="94" t="n">
         <v>58.91</v>
       </c>
-      <c r="P9" s="94" t="n">
+      <c r="Q9" s="94" t="n">
         <v>53.78</v>
       </c>
-      <c r="Q9" s="94" t="n">
+      <c r="R9" s="94" t="n">
         <v>59.56</v>
-      </c>
-      <c r="R9" s="94" t="n">
-        <v>58.4</v>
       </c>
       <c r="S9" s="94" t="n">
         <v>58.4</v>
       </c>
       <c r="T9" s="94" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="U9" s="94" t="n">
         <v>49.1</v>
       </c>
-      <c r="U9" s="94" t="n">
+      <c r="V9" s="94" t="n">
         <v>43.89</v>
       </c>
-      <c r="V9" s="94" t="n">
+      <c r="W9" s="94" t="n">
         <v>18.5</v>
       </c>
-      <c r="W9" s="94" t="n">
+      <c r="X9" s="94" t="n">
         <v>4.98</v>
-      </c>
-      <c r="X9" s="94" t="n">
-        <v>22.95</v>
       </c>
       <c r="Y9" s="94" t="n">
         <v>22.95</v>
@@ -7381,19 +7381,19 @@
         <v>22.95</v>
       </c>
       <c r="AA9" s="94" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="AB9" s="94" t="n">
         <v>26.81</v>
       </c>
-      <c r="AB9" s="94" t="n">
+      <c r="AC9" s="94" t="n">
         <v>28.13</v>
       </c>
-      <c r="AC9" s="94" t="n">
+      <c r="AD9" s="94" t="n">
         <v>25.11</v>
       </c>
-      <c r="AD9" s="94" t="n">
+      <c r="AE9" s="94" t="n">
         <v>29.08</v>
-      </c>
-      <c r="AE9" s="94" t="n">
-        <v>36.65</v>
       </c>
     </row>
     <row r="10">
@@ -7412,144 +7412,144 @@
           <t>red</t>
         </is>
       </c>
-      <c r="D10" s="92" t="inlineStr">
+      <c r="D10" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E10" s="92" t="inlineStr">
+      <c r="F10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F10" s="93" t="inlineStr">
+      <c r="G10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G10" s="93" t="inlineStr">
+      <c r="H10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H10" s="92" t="inlineStr">
+      <c r="I10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I10" s="93" t="inlineStr">
+      <c r="J10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J10" s="92" t="inlineStr">
+      <c r="K10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K10" s="92" t="inlineStr">
+      <c r="L10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L10" s="92" t="inlineStr">
+      <c r="M10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M10" s="92" t="inlineStr">
+      <c r="N10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N10" s="92" t="inlineStr">
+      <c r="O10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O10" s="92" t="inlineStr">
+      <c r="P10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P10" s="92" t="inlineStr">
+      <c r="Q10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q10" s="92" t="inlineStr">
+      <c r="R10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R10" s="92" t="inlineStr">
+      <c r="S10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S10" s="92" t="inlineStr">
+      <c r="T10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T10" s="92" t="inlineStr">
+      <c r="U10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U10" s="91" t="inlineStr">
+      <c r="V10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V10" s="91" t="inlineStr">
+      <c r="W10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W10" s="91" t="inlineStr">
+      <c r="X10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X10" s="91" t="inlineStr">
+      <c r="Y10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y10" s="91" t="inlineStr">
+      <c r="Z10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z10" s="91" t="inlineStr">
+      <c r="AA10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA10" s="92" t="inlineStr">
+      <c r="AB10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB10" s="91" t="inlineStr">
+      <c r="AC10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC10" s="91" t="inlineStr">
+      <c r="AD10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD10" s="91" t="inlineStr">
+      <c r="AE10" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AE10" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -7566,67 +7566,67 @@
         <v>-5.61</v>
       </c>
       <c r="D11" s="94" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="E11" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="E11" s="94" t="n">
+      <c r="F11" s="94" t="n">
         <v>-7.59</v>
-      </c>
-      <c r="F11" s="94" t="n">
-        <v>-7.32</v>
       </c>
       <c r="G11" s="94" t="n">
         <v>-7.32</v>
       </c>
       <c r="H11" s="94" t="n">
+        <v>-7.32</v>
+      </c>
+      <c r="I11" s="94" t="n">
         <v>-8.359999999999999</v>
       </c>
-      <c r="I11" s="94" t="n">
+      <c r="J11" s="94" t="n">
         <v>-7.39</v>
       </c>
-      <c r="J11" s="94" t="n">
+      <c r="K11" s="94" t="n">
         <v>-6.72</v>
       </c>
-      <c r="K11" s="94" t="n">
+      <c r="L11" s="94" t="n">
         <v>-5.22</v>
-      </c>
-      <c r="L11" s="94" t="n">
-        <v>-6.08</v>
       </c>
       <c r="M11" s="94" t="n">
         <v>-6.08</v>
       </c>
       <c r="N11" s="94" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="O11" s="94" t="n">
         <v>-8.039999999999999</v>
       </c>
-      <c r="O11" s="94" t="n">
+      <c r="P11" s="94" t="n">
         <v>-3.8</v>
       </c>
-      <c r="P11" s="94" t="n">
+      <c r="Q11" s="94" t="n">
         <v>-2.27</v>
       </c>
-      <c r="Q11" s="94" t="n">
+      <c r="R11" s="94" t="n">
         <v>-3.87</v>
-      </c>
-      <c r="R11" s="94" t="n">
-        <v>-4.09</v>
       </c>
       <c r="S11" s="94" t="n">
         <v>-4.09</v>
       </c>
       <c r="T11" s="94" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="U11" s="94" t="n">
         <v>-6.3</v>
       </c>
-      <c r="U11" s="94" t="n">
+      <c r="V11" s="94" t="n">
         <v>-7.74</v>
       </c>
-      <c r="V11" s="94" t="n">
+      <c r="W11" s="94" t="n">
         <v>-8.710000000000001</v>
       </c>
-      <c r="W11" s="94" t="n">
+      <c r="X11" s="94" t="n">
         <v>-12.29</v>
-      </c>
-      <c r="X11" s="94" t="n">
-        <v>-3.56</v>
       </c>
       <c r="Y11" s="94" t="n">
         <v>-3.56</v>
@@ -7635,19 +7635,19 @@
         <v>-3.56</v>
       </c>
       <c r="AA11" s="94" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="AB11" s="94" t="n">
         <v>-4.61</v>
       </c>
-      <c r="AB11" s="94" t="n">
+      <c r="AC11" s="94" t="n">
         <v>-4.67</v>
       </c>
-      <c r="AC11" s="94" t="n">
+      <c r="AD11" s="94" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AD11" s="94" t="n">
+      <c r="AE11" s="94" t="n">
         <v>-3.32</v>
-      </c>
-      <c r="AE11" s="94" t="n">
-        <v>-3.09</v>
       </c>
     </row>
     <row r="12">
@@ -7663,67 +7663,67 @@
         <v>-8.27</v>
       </c>
       <c r="D12" s="94" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="E12" s="94" t="n">
         <v>-10.74</v>
       </c>
-      <c r="E12" s="94" t="n">
+      <c r="F12" s="94" t="n">
         <v>-10.09</v>
-      </c>
-      <c r="F12" s="94" t="n">
-        <v>-10.57</v>
       </c>
       <c r="G12" s="94" t="n">
         <v>-10.57</v>
       </c>
       <c r="H12" s="94" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="I12" s="94" t="n">
         <v>-13.16</v>
       </c>
-      <c r="I12" s="94" t="n">
+      <c r="J12" s="94" t="n">
         <v>-12.94</v>
       </c>
-      <c r="J12" s="94" t="n">
+      <c r="K12" s="94" t="n">
         <v>-11.34</v>
       </c>
-      <c r="K12" s="94" t="n">
+      <c r="L12" s="94" t="n">
         <v>-11.83</v>
-      </c>
-      <c r="L12" s="94" t="n">
-        <v>-13.67</v>
       </c>
       <c r="M12" s="94" t="n">
         <v>-13.67</v>
       </c>
       <c r="N12" s="94" t="n">
+        <v>-13.67</v>
+      </c>
+      <c r="O12" s="94" t="n">
         <v>-13.64</v>
       </c>
-      <c r="O12" s="94" t="n">
+      <c r="P12" s="94" t="n">
         <v>-13.12</v>
       </c>
-      <c r="P12" s="94" t="n">
+      <c r="Q12" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="Q12" s="94" t="n">
+      <c r="R12" s="94" t="n">
         <v>-5.25</v>
-      </c>
-      <c r="R12" s="94" t="n">
-        <v>-7.65</v>
       </c>
       <c r="S12" s="94" t="n">
         <v>-7.65</v>
       </c>
       <c r="T12" s="94" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="U12" s="94" t="n">
         <v>-11.82</v>
       </c>
-      <c r="U12" s="94" t="n">
+      <c r="V12" s="94" t="n">
         <v>-11.54</v>
       </c>
-      <c r="V12" s="94" t="n">
+      <c r="W12" s="94" t="n">
         <v>-16.84</v>
       </c>
-      <c r="W12" s="94" t="n">
+      <c r="X12" s="94" t="n">
         <v>-20.74</v>
-      </c>
-      <c r="X12" s="94" t="n">
-        <v>-19.01</v>
       </c>
       <c r="Y12" s="94" t="n">
         <v>-19.01</v>
@@ -7732,19 +7732,19 @@
         <v>-19.01</v>
       </c>
       <c r="AA12" s="94" t="n">
+        <v>-19.01</v>
+      </c>
+      <c r="AB12" s="94" t="n">
         <v>-3.24</v>
       </c>
-      <c r="AB12" s="94" t="n">
+      <c r="AC12" s="94" t="n">
         <v>11.48</v>
       </c>
-      <c r="AC12" s="94" t="n">
+      <c r="AD12" s="94" t="n">
         <v>22.73</v>
       </c>
-      <c r="AD12" s="94" t="n">
+      <c r="AE12" s="94" t="n">
         <v>29.65</v>
-      </c>
-      <c r="AE12" s="94" t="n">
-        <v>32.8</v>
       </c>
     </row>
     <row r="13">
@@ -7760,67 +7760,67 @@
         <v>67.06</v>
       </c>
       <c r="D13" s="94" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="E13" s="94" t="n">
         <v>41.37</v>
       </c>
-      <c r="E13" s="94" t="n">
+      <c r="F13" s="94" t="n">
         <v>45.04</v>
-      </c>
-      <c r="F13" s="94" t="n">
-        <v>64.22</v>
       </c>
       <c r="G13" s="94" t="n">
         <v>64.22</v>
       </c>
       <c r="H13" s="94" t="n">
+        <v>64.22</v>
+      </c>
+      <c r="I13" s="94" t="n">
         <v>52.12</v>
       </c>
-      <c r="I13" s="94" t="n">
+      <c r="J13" s="94" t="n">
         <v>70.87</v>
       </c>
-      <c r="J13" s="94" t="n">
+      <c r="K13" s="94" t="n">
         <v>53.47</v>
       </c>
-      <c r="K13" s="94" t="n">
+      <c r="L13" s="94" t="n">
         <v>76.97</v>
-      </c>
-      <c r="L13" s="94" t="n">
-        <v>47.71</v>
       </c>
       <c r="M13" s="94" t="n">
         <v>47.71</v>
       </c>
       <c r="N13" s="94" t="n">
+        <v>47.71</v>
+      </c>
+      <c r="O13" s="94" t="n">
         <v>38.86</v>
       </c>
-      <c r="O13" s="94" t="n">
+      <c r="P13" s="94" t="n">
         <v>36.55</v>
       </c>
-      <c r="P13" s="94" t="n">
+      <c r="Q13" s="94" t="n">
         <v>56.28</v>
       </c>
-      <c r="Q13" s="94" t="n">
+      <c r="R13" s="94" t="n">
         <v>58.55</v>
-      </c>
-      <c r="R13" s="94" t="n">
-        <v>55.42</v>
       </c>
       <c r="S13" s="94" t="n">
         <v>55.42</v>
       </c>
       <c r="T13" s="94" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="U13" s="94" t="n">
         <v>44.39</v>
       </c>
-      <c r="U13" s="94" t="n">
+      <c r="V13" s="94" t="n">
         <v>23.88</v>
       </c>
-      <c r="V13" s="94" t="n">
+      <c r="W13" s="94" t="n">
         <v>14.93</v>
       </c>
-      <c r="W13" s="94" t="n">
+      <c r="X13" s="94" t="n">
         <v>0.64</v>
-      </c>
-      <c r="X13" s="94" t="n">
-        <v>5.09</v>
       </c>
       <c r="Y13" s="94" t="n">
         <v>5.09</v>
@@ -7829,19 +7829,19 @@
         <v>5.09</v>
       </c>
       <c r="AA13" s="94" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AB13" s="94" t="n">
         <v>16.8</v>
       </c>
-      <c r="AB13" s="94" t="n">
+      <c r="AC13" s="94" t="n">
         <v>6.77</v>
       </c>
-      <c r="AC13" s="94" t="n">
+      <c r="AD13" s="94" t="n">
         <v>7.15</v>
       </c>
-      <c r="AD13" s="94" t="n">
+      <c r="AE13" s="94" t="n">
         <v>14.43</v>
-      </c>
-      <c r="AE13" s="94" t="n">
-        <v>27.11</v>
       </c>
     </row>
     <row r="14">
@@ -7890,104 +7890,104 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J14" s="92" t="inlineStr">
+      <c r="J14" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K14" s="92" t="inlineStr">
+      <c r="L14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L14" s="92" t="inlineStr">
+      <c r="M14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M14" s="92" t="inlineStr">
+      <c r="N14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N14" s="92" t="inlineStr">
+      <c r="O14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O14" s="92" t="inlineStr">
+      <c r="P14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P14" s="92" t="inlineStr">
+      <c r="Q14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q14" s="92" t="inlineStr">
+      <c r="R14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R14" s="92" t="inlineStr">
+      <c r="S14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S14" s="92" t="inlineStr">
+      <c r="T14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T14" s="92" t="inlineStr">
+      <c r="U14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U14" s="91" t="inlineStr">
+      <c r="V14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V14" s="91" t="inlineStr">
+      <c r="W14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W14" s="91" t="inlineStr">
+      <c r="X14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X14" s="91" t="inlineStr">
+      <c r="Y14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y14" s="91" t="inlineStr">
+      <c r="Z14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z14" s="91" t="inlineStr">
+      <c r="AA14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA14" s="92" t="inlineStr">
+      <c r="AB14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB14" s="92" t="inlineStr">
+      <c r="AC14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC14" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AD14" s="91" t="inlineStr">
@@ -8008,34 +8008,34 @@
         </is>
       </c>
       <c r="B15" s="94" t="n">
-        <v>9.369999999999999</v>
+        <v>11.31</v>
       </c>
       <c r="C15" s="94" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="D15" s="94" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E15" s="94" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="E15" s="94" t="n">
+      <c r="F15" s="94" t="n">
         <v>9.5</v>
-      </c>
-      <c r="F15" s="94" t="n">
-        <v>11.57</v>
       </c>
       <c r="G15" s="94" t="n">
         <v>11.57</v>
       </c>
       <c r="H15" s="94" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="I15" s="94" t="n">
         <v>10.77</v>
       </c>
-      <c r="I15" s="94" t="n">
+      <c r="J15" s="94" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="J15" s="94" t="n">
+      <c r="K15" s="94" t="n">
         <v>8.210000000000001</v>
-      </c>
-      <c r="K15" s="94" t="n">
-        <v>9.25</v>
       </c>
       <c r="L15" s="94" t="n">
         <v>9.25</v>
@@ -8047,34 +8047,34 @@
         <v>9.25</v>
       </c>
       <c r="O15" s="94" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="P15" s="94" t="n">
         <v>7.86</v>
       </c>
-      <c r="P15" s="94" t="n">
+      <c r="Q15" s="94" t="n">
         <v>11.3</v>
       </c>
-      <c r="Q15" s="94" t="n">
+      <c r="R15" s="94" t="n">
         <v>11.43</v>
-      </c>
-      <c r="R15" s="94" t="n">
-        <v>10.81</v>
       </c>
       <c r="S15" s="94" t="n">
         <v>10.81</v>
       </c>
       <c r="T15" s="94" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="U15" s="94" t="n">
         <v>8.48</v>
       </c>
-      <c r="U15" s="94" t="n">
+      <c r="V15" s="94" t="n">
         <v>5.32</v>
       </c>
-      <c r="V15" s="94" t="n">
+      <c r="W15" s="94" t="n">
         <v>4.4</v>
       </c>
-      <c r="W15" s="94" t="n">
+      <c r="X15" s="94" t="n">
         <v>1.96</v>
-      </c>
-      <c r="X15" s="94" t="n">
-        <v>16.06</v>
       </c>
       <c r="Y15" s="94" t="n">
         <v>16.06</v>
@@ -8083,19 +8083,19 @@
         <v>16.06</v>
       </c>
       <c r="AA15" s="94" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="AB15" s="94" t="n">
         <v>17.42</v>
       </c>
-      <c r="AB15" s="94" t="n">
+      <c r="AC15" s="94" t="n">
         <v>18.26</v>
       </c>
-      <c r="AC15" s="94" t="n">
+      <c r="AD15" s="94" t="n">
         <v>15.25</v>
       </c>
-      <c r="AD15" s="94" t="n">
+      <c r="AE15" s="94" t="n">
         <v>16.89</v>
-      </c>
-      <c r="AE15" s="94" t="n">
-        <v>17.36</v>
       </c>
     </row>
     <row r="16">
@@ -8105,34 +8105,34 @@
         </is>
       </c>
       <c r="B16" s="94" t="n">
-        <v>8.869999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="C16" s="94" t="n">
         <v>8.869999999999999</v>
       </c>
       <c r="D16" s="94" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E16" s="94" t="n">
         <v>7.99</v>
       </c>
-      <c r="E16" s="94" t="n">
+      <c r="F16" s="94" t="n">
         <v>6.14</v>
-      </c>
-      <c r="F16" s="94" t="n">
-        <v>6.71</v>
       </c>
       <c r="G16" s="94" t="n">
         <v>6.71</v>
       </c>
       <c r="H16" s="94" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="I16" s="94" t="n">
         <v>6.41</v>
       </c>
-      <c r="I16" s="94" t="n">
+      <c r="J16" s="94" t="n">
         <v>7.73</v>
       </c>
-      <c r="J16" s="94" t="n">
+      <c r="K16" s="94" t="n">
         <v>3.86</v>
-      </c>
-      <c r="K16" s="94" t="n">
-        <v>4.37</v>
       </c>
       <c r="L16" s="94" t="n">
         <v>4.37</v>
@@ -8144,34 +8144,34 @@
         <v>4.37</v>
       </c>
       <c r="O16" s="94" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="P16" s="94" t="n">
         <v>2.83</v>
       </c>
-      <c r="P16" s="94" t="n">
+      <c r="Q16" s="94" t="n">
         <v>3.18</v>
       </c>
-      <c r="Q16" s="94" t="n">
+      <c r="R16" s="94" t="n">
         <v>6.67</v>
-      </c>
-      <c r="R16" s="94" t="n">
-        <v>3.09</v>
       </c>
       <c r="S16" s="94" t="n">
         <v>3.09</v>
       </c>
       <c r="T16" s="94" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U16" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="U16" s="94" t="n">
+      <c r="V16" s="94" t="n">
         <v>-3.93</v>
       </c>
-      <c r="V16" s="94" t="n">
+      <c r="W16" s="94" t="n">
         <v>-5.29</v>
       </c>
-      <c r="W16" s="94" t="n">
+      <c r="X16" s="94" t="n">
         <v>-3.92</v>
-      </c>
-      <c r="X16" s="94" t="n">
-        <v>9.19</v>
       </c>
       <c r="Y16" s="94" t="n">
         <v>9.19</v>
@@ -8180,19 +8180,19 @@
         <v>9.19</v>
       </c>
       <c r="AA16" s="94" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AB16" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="AB16" s="94" t="n">
+      <c r="AC16" s="94" t="n">
         <v>2.07</v>
       </c>
-      <c r="AC16" s="94" t="n">
+      <c r="AD16" s="94" t="n">
         <v>4.55</v>
       </c>
-      <c r="AD16" s="94" t="n">
+      <c r="AE16" s="94" t="n">
         <v>4.38</v>
-      </c>
-      <c r="AE16" s="94" t="n">
-        <v>11.57</v>
       </c>
     </row>
     <row r="17">
@@ -8202,34 +8202,34 @@
         </is>
       </c>
       <c r="B17" s="94" t="n">
-        <v>74.8</v>
+        <v>86.7</v>
       </c>
       <c r="C17" s="94" t="n">
         <v>74.8</v>
       </c>
       <c r="D17" s="94" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E17" s="94" t="n">
         <v>68.73999999999999</v>
       </c>
-      <c r="E17" s="94" t="n">
+      <c r="F17" s="94" t="n">
         <v>66.8</v>
-      </c>
-      <c r="F17" s="94" t="n">
-        <v>67.56</v>
       </c>
       <c r="G17" s="94" t="n">
         <v>67.56</v>
       </c>
       <c r="H17" s="94" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="I17" s="94" t="n">
         <v>65.14</v>
       </c>
-      <c r="I17" s="94" t="n">
+      <c r="J17" s="94" t="n">
         <v>74.75</v>
       </c>
-      <c r="J17" s="94" t="n">
+      <c r="K17" s="94" t="n">
         <v>61.35</v>
-      </c>
-      <c r="K17" s="94" t="n">
-        <v>55.56</v>
       </c>
       <c r="L17" s="94" t="n">
         <v>55.56</v>
@@ -8241,34 +8241,34 @@
         <v>55.56</v>
       </c>
       <c r="O17" s="94" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="P17" s="94" t="n">
         <v>42.49</v>
       </c>
-      <c r="P17" s="94" t="n">
+      <c r="Q17" s="94" t="n">
         <v>57.97</v>
       </c>
-      <c r="Q17" s="94" t="n">
+      <c r="R17" s="94" t="n">
         <v>56.55</v>
-      </c>
-      <c r="R17" s="94" t="n">
-        <v>41.26</v>
       </c>
       <c r="S17" s="94" t="n">
         <v>41.26</v>
       </c>
       <c r="T17" s="94" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="U17" s="94" t="n">
         <v>33.08</v>
       </c>
-      <c r="U17" s="94" t="n">
+      <c r="V17" s="94" t="n">
         <v>17.68</v>
       </c>
-      <c r="V17" s="94" t="n">
+      <c r="W17" s="94" t="n">
         <v>12.74</v>
       </c>
-      <c r="W17" s="94" t="n">
+      <c r="X17" s="94" t="n">
         <v>3.21</v>
-      </c>
-      <c r="X17" s="94" t="n">
-        <v>18.53</v>
       </c>
       <c r="Y17" s="94" t="n">
         <v>18.53</v>
@@ -8277,19 +8277,19 @@
         <v>18.53</v>
       </c>
       <c r="AA17" s="94" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AB17" s="94" t="n">
         <v>31.84</v>
       </c>
-      <c r="AB17" s="94" t="n">
+      <c r="AC17" s="94" t="n">
         <v>32.06</v>
       </c>
-      <c r="AC17" s="94" t="n">
+      <c r="AD17" s="94" t="n">
         <v>24.45</v>
       </c>
-      <c r="AD17" s="94" t="n">
+      <c r="AE17" s="94" t="n">
         <v>34.7</v>
-      </c>
-      <c r="AE17" s="94" t="n">
-        <v>41.1</v>
       </c>
     </row>
     <row r="18">
@@ -8338,99 +8338,99 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J18" s="92" t="inlineStr">
+      <c r="J18" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K18" s="91" t="inlineStr">
+      <c r="L18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L18" s="92" t="inlineStr">
+      <c r="M18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M18" s="92" t="inlineStr">
+      <c r="N18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N18" s="92" t="inlineStr">
+      <c r="O18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O18" s="91" t="inlineStr">
+      <c r="P18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="P18" s="93" t="inlineStr">
+      <c r="Q18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q18" s="93" t="inlineStr">
+      <c r="R18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R18" s="92" t="inlineStr">
+      <c r="S18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S18" s="92" t="inlineStr">
+      <c r="T18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T18" s="92" t="inlineStr">
+      <c r="U18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U18" s="93" t="inlineStr">
+      <c r="V18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V18" s="91" t="inlineStr">
+      <c r="W18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W18" s="91" t="inlineStr">
+      <c r="X18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X18" s="91" t="inlineStr">
+      <c r="Y18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y18" s="91" t="inlineStr">
+      <c r="Z18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z18" s="91" t="inlineStr">
+      <c r="AA18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA18" s="92" t="inlineStr">
+      <c r="AB18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB18" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC18" s="91" t="inlineStr">
@@ -8459,34 +8459,34 @@
         <v>-7.18</v>
       </c>
       <c r="C19" s="94" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="D19" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="D19" s="94" t="n">
+      <c r="E19" s="94" t="n">
         <v>-7.94</v>
       </c>
-      <c r="E19" s="94" t="n">
+      <c r="F19" s="94" t="n">
         <v>-8.93</v>
-      </c>
-      <c r="F19" s="94" t="n">
-        <v>-8.51</v>
       </c>
       <c r="G19" s="94" t="n">
         <v>-8.51</v>
       </c>
       <c r="H19" s="94" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="I19" s="94" t="n">
         <v>-9.609999999999999</v>
       </c>
-      <c r="I19" s="94" t="n">
+      <c r="J19" s="94" t="n">
         <v>-10.59</v>
       </c>
-      <c r="J19" s="94" t="n">
+      <c r="K19" s="94" t="n">
         <v>-13.33</v>
       </c>
-      <c r="K19" s="94" t="n">
+      <c r="L19" s="94" t="n">
         <v>-15.7</v>
-      </c>
-      <c r="L19" s="94" t="n">
-        <v>-13.2</v>
       </c>
       <c r="M19" s="94" t="n">
         <v>-13.2</v>
@@ -8495,55 +8495,55 @@
         <v>-13.2</v>
       </c>
       <c r="O19" s="94" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="P19" s="94" t="n">
         <v>-12.79</v>
       </c>
-      <c r="P19" s="94" t="n">
+      <c r="Q19" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="Q19" s="94" t="n">
+      <c r="R19" s="94" t="n">
         <v>-8.949999999999999</v>
-      </c>
-      <c r="R19" s="94" t="n">
-        <v>-9.859999999999999</v>
       </c>
       <c r="S19" s="94" t="n">
         <v>-9.859999999999999</v>
       </c>
       <c r="T19" s="94" t="n">
+        <v>-9.859999999999999</v>
+      </c>
+      <c r="U19" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="U19" s="94" t="n">
+      <c r="V19" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="V19" s="94" t="n">
+      <c r="W19" s="94" t="n">
         <v>-14.49</v>
       </c>
-      <c r="W19" s="94" t="n">
+      <c r="X19" s="94" t="n">
         <v>-14.46</v>
-      </c>
-      <c r="X19" s="94" t="n">
-        <v>-14.13</v>
       </c>
       <c r="Y19" s="94" t="n">
         <v>-14.13</v>
       </c>
       <c r="Z19" s="94" t="n">
+        <v>-14.13</v>
+      </c>
+      <c r="AA19" s="94" t="n">
         <v>-9.69</v>
       </c>
-      <c r="AA19" s="94" t="n">
+      <c r="AB19" s="94" t="n">
         <v>-4.57</v>
       </c>
-      <c r="AB19" s="94" t="n">
+      <c r="AC19" s="94" t="n">
         <v>-4.01</v>
       </c>
-      <c r="AC19" s="94" t="n">
+      <c r="AD19" s="94" t="n">
         <v>-4.59</v>
       </c>
-      <c r="AD19" s="94" t="n">
+      <c r="AE19" s="94" t="n">
         <v>-5.52</v>
-      </c>
-      <c r="AE19" s="94" t="n">
-        <v>-4.65</v>
       </c>
     </row>
     <row r="20">
@@ -8556,34 +8556,34 @@
         <v>-3.09</v>
       </c>
       <c r="C20" s="94" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="D20" s="94" t="n">
         <v>-2.51</v>
       </c>
-      <c r="D20" s="94" t="n">
+      <c r="E20" s="94" t="n">
         <v>-2.93</v>
       </c>
-      <c r="E20" s="94" t="n">
+      <c r="F20" s="94" t="n">
         <v>-3.1</v>
-      </c>
-      <c r="F20" s="94" t="n">
-        <v>-4.96</v>
       </c>
       <c r="G20" s="94" t="n">
         <v>-4.96</v>
       </c>
       <c r="H20" s="94" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="I20" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="I20" s="94" t="n">
+      <c r="J20" s="94" t="n">
         <v>-7.69</v>
       </c>
-      <c r="J20" s="94" t="n">
+      <c r="K20" s="94" t="n">
         <v>-8.960000000000001</v>
       </c>
-      <c r="K20" s="94" t="n">
+      <c r="L20" s="94" t="n">
         <v>-11.22</v>
-      </c>
-      <c r="L20" s="94" t="n">
-        <v>-8.880000000000001</v>
       </c>
       <c r="M20" s="94" t="n">
         <v>-8.880000000000001</v>
@@ -8592,55 +8592,55 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="O20" s="94" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="P20" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="P20" s="94" t="n">
+      <c r="Q20" s="94" t="n">
         <v>-7.81</v>
       </c>
-      <c r="Q20" s="94" t="n">
+      <c r="R20" s="94" t="n">
         <v>-7.82</v>
-      </c>
-      <c r="R20" s="94" t="n">
-        <v>-8.18</v>
       </c>
       <c r="S20" s="94" t="n">
         <v>-8.18</v>
       </c>
       <c r="T20" s="94" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="U20" s="94" t="n">
         <v>-9.83</v>
       </c>
-      <c r="U20" s="94" t="n">
+      <c r="V20" s="94" t="n">
         <v>-6.16</v>
       </c>
-      <c r="V20" s="94" t="n">
+      <c r="W20" s="94" t="n">
         <v>-14.97</v>
       </c>
-      <c r="W20" s="94" t="n">
+      <c r="X20" s="94" t="n">
         <v>-12.95</v>
-      </c>
-      <c r="X20" s="94" t="n">
-        <v>-12.21</v>
       </c>
       <c r="Y20" s="94" t="n">
         <v>-12.21</v>
       </c>
       <c r="Z20" s="94" t="n">
+        <v>-12.21</v>
+      </c>
+      <c r="AA20" s="94" t="n">
         <v>-6.83</v>
       </c>
-      <c r="AA20" s="94" t="n">
+      <c r="AB20" s="94" t="n">
         <v>-1.39</v>
       </c>
-      <c r="AB20" s="94" t="n">
+      <c r="AC20" s="94" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AC20" s="94" t="n">
+      <c r="AD20" s="94" t="n">
         <v>-2.42</v>
       </c>
-      <c r="AD20" s="94" t="n">
+      <c r="AE20" s="94" t="n">
         <v>-2.09</v>
-      </c>
-      <c r="AE20" s="94" t="n">
-        <v>-0.28</v>
       </c>
     </row>
     <row r="21">
@@ -8653,34 +8653,34 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C21" s="94" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D21" s="94" t="n">
         <v>97.11</v>
       </c>
-      <c r="D21" s="94" t="n">
+      <c r="E21" s="94" t="n">
         <v>96.43000000000001</v>
       </c>
-      <c r="E21" s="94" t="n">
+      <c r="F21" s="94" t="n">
         <v>93.39</v>
-      </c>
-      <c r="F21" s="94" t="n">
-        <v>93.06999999999999</v>
       </c>
       <c r="G21" s="94" t="n">
         <v>93.06999999999999</v>
       </c>
       <c r="H21" s="94" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="I21" s="94" t="n">
         <v>90.36</v>
       </c>
-      <c r="I21" s="94" t="n">
+      <c r="J21" s="94" t="n">
         <v>79.64</v>
       </c>
-      <c r="J21" s="94" t="n">
+      <c r="K21" s="94" t="n">
         <v>63.01</v>
       </c>
-      <c r="K21" s="94" t="n">
+      <c r="L21" s="94" t="n">
         <v>7.46</v>
-      </c>
-      <c r="L21" s="94" t="n">
-        <v>26.79</v>
       </c>
       <c r="M21" s="94" t="n">
         <v>26.79</v>
@@ -8689,55 +8689,55 @@
         <v>26.79</v>
       </c>
       <c r="O21" s="94" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="P21" s="94" t="n">
         <v>21.03</v>
       </c>
-      <c r="P21" s="94" t="n">
+      <c r="Q21" s="94" t="n">
         <v>65.61</v>
       </c>
-      <c r="Q21" s="94" t="n">
+      <c r="R21" s="94" t="n">
         <v>71.45999999999999</v>
-      </c>
-      <c r="R21" s="94" t="n">
-        <v>64.18000000000001</v>
       </c>
       <c r="S21" s="94" t="n">
         <v>64.18000000000001</v>
       </c>
       <c r="T21" s="94" t="n">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="U21" s="94" t="n">
         <v>49.87</v>
       </c>
-      <c r="U21" s="94" t="n">
+      <c r="V21" s="94" t="n">
         <v>82.54000000000001</v>
       </c>
-      <c r="V21" s="94" t="n">
+      <c r="W21" s="94" t="n">
         <v>1.75</v>
       </c>
-      <c r="W21" s="94" t="n">
+      <c r="X21" s="94" t="n">
         <v>2.85</v>
-      </c>
-      <c r="X21" s="94" t="n">
-        <v>2.99</v>
       </c>
       <c r="Y21" s="94" t="n">
         <v>2.99</v>
       </c>
       <c r="Z21" s="94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA21" s="94" t="n">
         <v>9.18</v>
       </c>
-      <c r="AA21" s="94" t="n">
+      <c r="AB21" s="94" t="n">
         <v>76.8</v>
       </c>
-      <c r="AB21" s="94" t="n">
+      <c r="AC21" s="94" t="n">
         <v>52.81</v>
       </c>
-      <c r="AC21" s="94" t="n">
+      <c r="AD21" s="94" t="n">
         <v>33.59</v>
       </c>
-      <c r="AD21" s="94" t="n">
+      <c r="AE21" s="94" t="n">
         <v>5.59</v>
-      </c>
-      <c r="AE21" s="94" t="n">
-        <v>23.94</v>
       </c>
     </row>
     <row r="22">
@@ -8781,119 +8781,119 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I22" s="92" t="inlineStr">
+      <c r="I22" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J22" s="92" t="inlineStr">
+      <c r="K22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K22" s="91" t="inlineStr">
+      <c r="L22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L22" s="91" t="inlineStr">
+      <c r="M22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M22" s="91" t="inlineStr">
+      <c r="N22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N22" s="91" t="inlineStr">
+      <c r="O22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O22" s="91" t="inlineStr">
+      <c r="P22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="P22" s="93" t="inlineStr">
+      <c r="Q22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q22" s="93" t="inlineStr">
+      <c r="R22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R22" s="92" t="inlineStr">
+      <c r="S22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S22" s="92" t="inlineStr">
+      <c r="T22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T22" s="92" t="inlineStr">
+      <c r="U22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U22" s="93" t="inlineStr">
+      <c r="V22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V22" s="91" t="inlineStr">
+      <c r="W22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W22" s="91" t="inlineStr">
+      <c r="X22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X22" s="91" t="inlineStr">
+      <c r="Y22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y22" s="91" t="inlineStr">
+      <c r="Z22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z22" s="91" t="inlineStr">
+      <c r="AA22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA22" s="93" t="inlineStr">
+      <c r="AB22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB22" s="91" t="inlineStr">
+      <c r="AC22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC22" s="91" t="inlineStr">
+      <c r="AD22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD22" s="91" t="inlineStr">
+      <c r="AE22" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AE22" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -8904,37 +8904,37 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
+        <v>-8.539999999999999</v>
+      </c>
+      <c r="C23" s="94" t="n">
+        <v>-8.539999999999999</v>
+      </c>
+      <c r="D23" s="94" t="n">
         <v>-8.449999999999999</v>
       </c>
-      <c r="C23" s="94" t="n">
-        <v>-8.449999999999999</v>
-      </c>
-      <c r="D23" s="94" t="n">
+      <c r="E23" s="94" t="n">
         <v>-9.02</v>
       </c>
-      <c r="E23" s="94" t="n">
+      <c r="F23" s="94" t="n">
         <v>-10.37</v>
-      </c>
-      <c r="F23" s="94" t="n">
-        <v>-10.29</v>
       </c>
       <c r="G23" s="94" t="n">
         <v>-10.29</v>
       </c>
       <c r="H23" s="94" t="n">
+        <v>-10.29</v>
+      </c>
+      <c r="I23" s="94" t="n">
         <v>-10.61</v>
       </c>
-      <c r="I23" s="94" t="n">
+      <c r="J23" s="94" t="n">
         <v>-11.42</v>
       </c>
-      <c r="J23" s="94" t="n">
+      <c r="K23" s="94" t="n">
         <v>-11.79</v>
       </c>
-      <c r="K23" s="94" t="n">
+      <c r="L23" s="94" t="n">
         <v>-14.35</v>
-      </c>
-      <c r="L23" s="94" t="n">
-        <v>-11.36</v>
       </c>
       <c r="M23" s="94" t="n">
         <v>-11.36</v>
@@ -8943,55 +8943,55 @@
         <v>-11.36</v>
       </c>
       <c r="O23" s="94" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="P23" s="94" t="n">
         <v>-9.9</v>
       </c>
-      <c r="P23" s="94" t="n">
+      <c r="Q23" s="94" t="n">
         <v>-7.17</v>
       </c>
-      <c r="Q23" s="94" t="n">
+      <c r="R23" s="94" t="n">
         <v>-6.09</v>
-      </c>
-      <c r="R23" s="94" t="n">
-        <v>-6.96</v>
       </c>
       <c r="S23" s="94" t="n">
         <v>-6.96</v>
       </c>
       <c r="T23" s="94" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="U23" s="94" t="n">
         <v>-6.88</v>
       </c>
-      <c r="U23" s="94" t="n">
+      <c r="V23" s="94" t="n">
         <v>-3.99</v>
       </c>
-      <c r="V23" s="94" t="n">
+      <c r="W23" s="94" t="n">
         <v>-10.24</v>
       </c>
-      <c r="W23" s="94" t="n">
+      <c r="X23" s="94" t="n">
         <v>-10.95</v>
-      </c>
-      <c r="X23" s="94" t="n">
-        <v>-9.91</v>
       </c>
       <c r="Y23" s="94" t="n">
         <v>-9.91</v>
       </c>
       <c r="Z23" s="94" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="AA23" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="AA23" s="94" t="n">
+      <c r="AB23" s="94" t="n">
         <v>-1.19</v>
       </c>
-      <c r="AB23" s="94" t="n">
+      <c r="AC23" s="94" t="n">
         <v>-0.95</v>
       </c>
-      <c r="AC23" s="94" t="n">
+      <c r="AD23" s="94" t="n">
         <v>-1.28</v>
       </c>
-      <c r="AD23" s="94" t="n">
+      <c r="AE23" s="94" t="n">
         <v>-2.32</v>
-      </c>
-      <c r="AE23" s="94" t="n">
-        <v>-1.61</v>
       </c>
     </row>
     <row r="24">
@@ -9001,37 +9001,37 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="C24" s="94" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="D24" s="94" t="n">
         <v>-2.69</v>
       </c>
-      <c r="C24" s="94" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="D24" s="94" t="n">
+      <c r="E24" s="94" t="n">
         <v>-3.63</v>
       </c>
-      <c r="E24" s="94" t="n">
+      <c r="F24" s="94" t="n">
         <v>-3.68</v>
-      </c>
-      <c r="F24" s="94" t="n">
-        <v>-4.81</v>
       </c>
       <c r="G24" s="94" t="n">
         <v>-4.81</v>
       </c>
       <c r="H24" s="94" t="n">
+        <v>-4.81</v>
+      </c>
+      <c r="I24" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="I24" s="94" t="n">
+      <c r="J24" s="94" t="n">
         <v>-6.56</v>
       </c>
-      <c r="J24" s="94" t="n">
+      <c r="K24" s="94" t="n">
         <v>-6.95</v>
       </c>
-      <c r="K24" s="94" t="n">
+      <c r="L24" s="94" t="n">
         <v>-9.92</v>
-      </c>
-      <c r="L24" s="94" t="n">
-        <v>-7.93</v>
       </c>
       <c r="M24" s="94" t="n">
         <v>-7.93</v>
@@ -9040,55 +9040,55 @@
         <v>-7.93</v>
       </c>
       <c r="O24" s="94" t="n">
+        <v>-7.93</v>
+      </c>
+      <c r="P24" s="94" t="n">
         <v>-7.58</v>
       </c>
-      <c r="P24" s="94" t="n">
+      <c r="Q24" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="Q24" s="94" t="n">
+      <c r="R24" s="94" t="n">
         <v>-6.36</v>
-      </c>
-      <c r="R24" s="94" t="n">
-        <v>-7</v>
       </c>
       <c r="S24" s="94" t="n">
         <v>-7</v>
       </c>
       <c r="T24" s="94" t="n">
+        <v>-7</v>
+      </c>
+      <c r="U24" s="94" t="n">
         <v>-8.09</v>
       </c>
-      <c r="U24" s="94" t="n">
+      <c r="V24" s="94" t="n">
         <v>-4.99</v>
       </c>
-      <c r="V24" s="94" t="n">
+      <c r="W24" s="94" t="n">
         <v>-12.58</v>
       </c>
-      <c r="W24" s="94" t="n">
+      <c r="X24" s="94" t="n">
         <v>-11.43</v>
-      </c>
-      <c r="X24" s="94" t="n">
-        <v>-9.75</v>
       </c>
       <c r="Y24" s="94" t="n">
         <v>-9.75</v>
       </c>
       <c r="Z24" s="94" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="AA24" s="94" t="n">
         <v>-4.62</v>
       </c>
-      <c r="AA24" s="94" t="n">
+      <c r="AB24" s="94" t="n">
         <v>0.34</v>
       </c>
-      <c r="AB24" s="94" t="n">
+      <c r="AC24" s="94" t="n">
         <v>0.09</v>
       </c>
-      <c r="AC24" s="94" t="n">
+      <c r="AD24" s="94" t="n">
         <v>-0.83</v>
       </c>
-      <c r="AD24" s="94" t="n">
+      <c r="AE24" s="94" t="n">
         <v>-1.02</v>
-      </c>
-      <c r="AE24" s="94" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="25">
@@ -9098,37 +9098,37 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
+        <v>87.84999999999999</v>
+      </c>
+      <c r="C25" s="94" t="n">
+        <v>87.84999999999999</v>
+      </c>
+      <c r="D25" s="94" t="n">
         <v>85.86</v>
       </c>
-      <c r="C25" s="94" t="n">
-        <v>85.86</v>
-      </c>
-      <c r="D25" s="94" t="n">
+      <c r="E25" s="94" t="n">
         <v>82.65000000000001</v>
       </c>
-      <c r="E25" s="94" t="n">
+      <c r="F25" s="94" t="n">
         <v>74.47</v>
-      </c>
-      <c r="F25" s="94" t="n">
-        <v>71.01000000000001</v>
       </c>
       <c r="G25" s="94" t="n">
         <v>71.01000000000001</v>
       </c>
       <c r="H25" s="94" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="I25" s="94" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="I25" s="94" t="n">
+      <c r="J25" s="94" t="n">
         <v>60.11</v>
       </c>
-      <c r="J25" s="94" t="n">
+      <c r="K25" s="94" t="n">
         <v>49.92</v>
       </c>
-      <c r="K25" s="94" t="n">
+      <c r="L25" s="94" t="n">
         <v>14.75</v>
-      </c>
-      <c r="L25" s="94" t="n">
-        <v>26.69</v>
       </c>
       <c r="M25" s="94" t="n">
         <v>26.69</v>
@@ -9137,55 +9137,55 @@
         <v>26.69</v>
       </c>
       <c r="O25" s="94" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="P25" s="94" t="n">
         <v>37.75</v>
       </c>
-      <c r="P25" s="94" t="n">
+      <c r="Q25" s="94" t="n">
         <v>59.6</v>
       </c>
-      <c r="Q25" s="94" t="n">
+      <c r="R25" s="94" t="n">
         <v>65.2</v>
-      </c>
-      <c r="R25" s="94" t="n">
-        <v>60.21</v>
       </c>
       <c r="S25" s="94" t="n">
         <v>60.21</v>
       </c>
       <c r="T25" s="94" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="U25" s="94" t="n">
         <v>50.88</v>
       </c>
-      <c r="U25" s="94" t="n">
+      <c r="V25" s="94" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="V25" s="94" t="n">
+      <c r="W25" s="94" t="n">
         <v>4.25</v>
       </c>
-      <c r="W25" s="94" t="n">
+      <c r="X25" s="94" t="n">
         <v>4.97</v>
-      </c>
-      <c r="X25" s="94" t="n">
-        <v>5.68</v>
       </c>
       <c r="Y25" s="94" t="n">
         <v>5.68</v>
       </c>
       <c r="Z25" s="94" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AA25" s="94" t="n">
         <v>14.42</v>
       </c>
-      <c r="AA25" s="94" t="n">
+      <c r="AB25" s="94" t="n">
         <v>63.09</v>
       </c>
-      <c r="AB25" s="94" t="n">
+      <c r="AC25" s="94" t="n">
         <v>46.09</v>
       </c>
-      <c r="AC25" s="94" t="n">
+      <c r="AD25" s="94" t="n">
         <v>46.81</v>
       </c>
-      <c r="AD25" s="94" t="n">
+      <c r="AE25" s="94" t="n">
         <v>15.69</v>
-      </c>
-      <c r="AE25" s="94" t="n">
-        <v>47.29</v>
       </c>
     </row>
     <row r="26">
@@ -9234,99 +9234,99 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J26" s="92" t="inlineStr">
+      <c r="J26" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K26" s="91" t="inlineStr">
+      <c r="L26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L26" s="91" t="inlineStr">
+      <c r="M26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M26" s="91" t="inlineStr">
+      <c r="N26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N26" s="91" t="inlineStr">
+      <c r="O26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O26" s="91" t="inlineStr">
+      <c r="P26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="P26" s="93" t="inlineStr">
+      <c r="Q26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q26" s="93" t="inlineStr">
+      <c r="R26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R26" s="92" t="inlineStr">
+      <c r="S26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S26" s="92" t="inlineStr">
+      <c r="T26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T26" s="92" t="inlineStr">
+      <c r="U26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U26" s="93" t="inlineStr">
+      <c r="V26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V26" s="91" t="inlineStr">
+      <c r="W26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W26" s="91" t="inlineStr">
+      <c r="X26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X26" s="91" t="inlineStr">
+      <c r="Y26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y26" s="91" t="inlineStr">
+      <c r="Z26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z26" s="91" t="inlineStr">
+      <c r="AA26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA26" s="92" t="inlineStr">
+      <c r="AB26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB26" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC26" s="91" t="inlineStr">
@@ -9352,37 +9352,37 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
+        <v>-9.890000000000001</v>
+      </c>
+      <c r="C27" s="94" t="n">
+        <v>-9.890000000000001</v>
+      </c>
+      <c r="D27" s="94" t="n">
         <v>-10.03</v>
       </c>
-      <c r="C27" s="94" t="n">
-        <v>-10.03</v>
-      </c>
-      <c r="D27" s="94" t="n">
+      <c r="E27" s="94" t="n">
         <v>-11.04</v>
       </c>
-      <c r="E27" s="94" t="n">
+      <c r="F27" s="94" t="n">
         <v>-11.77</v>
-      </c>
-      <c r="F27" s="94" t="n">
-        <v>-11.46</v>
       </c>
       <c r="G27" s="94" t="n">
         <v>-11.46</v>
       </c>
       <c r="H27" s="94" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="I27" s="94" t="n">
         <v>-13.01</v>
       </c>
-      <c r="I27" s="94" t="n">
+      <c r="J27" s="94" t="n">
         <v>-13.62</v>
       </c>
-      <c r="J27" s="94" t="n">
+      <c r="K27" s="94" t="n">
         <v>-18.31</v>
       </c>
-      <c r="K27" s="94" t="n">
+      <c r="L27" s="94" t="n">
         <v>-20.86</v>
-      </c>
-      <c r="L27" s="94" t="n">
-        <v>-18.61</v>
       </c>
       <c r="M27" s="94" t="n">
         <v>-18.61</v>
@@ -9391,55 +9391,55 @@
         <v>-18.61</v>
       </c>
       <c r="O27" s="94" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="P27" s="94" t="n">
         <v>-17.46</v>
       </c>
-      <c r="P27" s="94" t="n">
+      <c r="Q27" s="94" t="n">
         <v>-14.3</v>
       </c>
-      <c r="Q27" s="94" t="n">
+      <c r="R27" s="94" t="n">
         <v>-12.96</v>
-      </c>
-      <c r="R27" s="94" t="n">
-        <v>-14.28</v>
       </c>
       <c r="S27" s="94" t="n">
         <v>-14.28</v>
       </c>
       <c r="T27" s="94" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="U27" s="94" t="n">
         <v>-13.95</v>
       </c>
-      <c r="U27" s="94" t="n">
+      <c r="V27" s="94" t="n">
         <v>-10.28</v>
       </c>
-      <c r="V27" s="94" t="n">
+      <c r="W27" s="94" t="n">
         <v>-20.32</v>
       </c>
-      <c r="W27" s="94" t="n">
+      <c r="X27" s="94" t="n">
         <v>-19.9</v>
-      </c>
-      <c r="X27" s="94" t="n">
-        <v>-20.02</v>
       </c>
       <c r="Y27" s="94" t="n">
         <v>-20.02</v>
       </c>
       <c r="Z27" s="94" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="AA27" s="94" t="n">
         <v>-16.68</v>
       </c>
-      <c r="AA27" s="94" t="n">
+      <c r="AB27" s="94" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AB27" s="94" t="n">
+      <c r="AC27" s="94" t="n">
         <v>-9.5</v>
       </c>
-      <c r="AC27" s="94" t="n">
+      <c r="AD27" s="94" t="n">
         <v>-10.42</v>
       </c>
-      <c r="AD27" s="94" t="n">
+      <c r="AE27" s="94" t="n">
         <v>-11.1</v>
-      </c>
-      <c r="AE27" s="94" t="n">
-        <v>-9.73</v>
       </c>
     </row>
     <row r="28">
@@ -9449,37 +9449,37 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="C28" s="94" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="D28" s="94" t="n">
         <v>-4.04</v>
       </c>
-      <c r="C28" s="94" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="D28" s="94" t="n">
+      <c r="E28" s="94" t="n">
         <v>-4.27</v>
       </c>
-      <c r="E28" s="94" t="n">
+      <c r="F28" s="94" t="n">
         <v>-4.03</v>
-      </c>
-      <c r="F28" s="94" t="n">
-        <v>-6.58</v>
       </c>
       <c r="G28" s="94" t="n">
         <v>-6.58</v>
       </c>
       <c r="H28" s="94" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="I28" s="94" t="n">
         <v>-8.27</v>
       </c>
-      <c r="I28" s="94" t="n">
+      <c r="J28" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="J28" s="94" t="n">
+      <c r="K28" s="94" t="n">
         <v>-11.98</v>
       </c>
-      <c r="K28" s="94" t="n">
+      <c r="L28" s="94" t="n">
         <v>-13.82</v>
-      </c>
-      <c r="L28" s="94" t="n">
-        <v>-10.89</v>
       </c>
       <c r="M28" s="94" t="n">
         <v>-10.89</v>
@@ -9488,95 +9488,95 @@
         <v>-10.89</v>
       </c>
       <c r="O28" s="94" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="P28" s="94" t="n">
         <v>-12.2</v>
       </c>
-      <c r="P28" s="94" t="n">
+      <c r="Q28" s="94" t="n">
         <v>-9.26</v>
       </c>
-      <c r="Q28" s="94" t="n">
+      <c r="R28" s="94" t="n">
         <v>-8.970000000000001</v>
-      </c>
-      <c r="R28" s="94" t="n">
-        <v>-8.98</v>
       </c>
       <c r="S28" s="94" t="n">
         <v>-8.98</v>
       </c>
       <c r="T28" s="94" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="U28" s="94" t="n">
         <v>-10.78</v>
       </c>
-      <c r="U28" s="94" t="n">
+      <c r="V28" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="V28" s="94" t="n">
+      <c r="W28" s="94" t="n">
         <v>-17.48</v>
       </c>
-      <c r="W28" s="94" t="n">
+      <c r="X28" s="94" t="n">
         <v>-14.94</v>
-      </c>
-      <c r="X28" s="94" t="n">
-        <v>-14.74</v>
       </c>
       <c r="Y28" s="94" t="n">
         <v>-14.74</v>
       </c>
       <c r="Z28" s="94" t="n">
+        <v>-14.74</v>
+      </c>
+      <c r="AA28" s="94" t="n">
         <v>-9.52</v>
       </c>
-      <c r="AA28" s="94" t="n">
+      <c r="AB28" s="94" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AB28" s="94" t="n">
+      <c r="AC28" s="94" t="n">
         <v>-2.64</v>
       </c>
-      <c r="AC28" s="94" t="n">
+      <c r="AD28" s="94" t="n">
         <v>-4.62</v>
       </c>
-      <c r="AD28" s="94" t="n">
+      <c r="AE28" s="94" t="n">
         <v>-3.32</v>
       </c>
-      <c r="AE28" s="94" t="n">
-        <v>-0.68</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="76" t="inlineStr">
+      <c r="A29" s="95" t="inlineStr">
         <is>
           <t>ixic:RS2</t>
         </is>
       </c>
       <c r="B29" s="94" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="C29" s="94" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="D29" s="94" t="n">
         <v>83.88</v>
       </c>
-      <c r="C29" s="94" t="n">
-        <v>83.88</v>
-      </c>
-      <c r="D29" s="94" t="n">
+      <c r="E29" s="94" t="n">
         <v>93.43000000000001</v>
       </c>
-      <c r="E29" s="94" t="n">
+      <c r="F29" s="94" t="n">
         <v>89.7</v>
-      </c>
-      <c r="F29" s="94" t="n">
-        <v>94.42</v>
       </c>
       <c r="G29" s="94" t="n">
         <v>94.42</v>
       </c>
       <c r="H29" s="94" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="I29" s="94" t="n">
         <v>91.56</v>
       </c>
-      <c r="I29" s="94" t="n">
+      <c r="J29" s="94" t="n">
         <v>81.56</v>
       </c>
-      <c r="J29" s="94" t="n">
+      <c r="K29" s="94" t="n">
         <v>60.97</v>
       </c>
-      <c r="K29" s="94" t="n">
+      <c r="L29" s="94" t="n">
         <v>5.28</v>
-      </c>
-      <c r="L29" s="94" t="n">
-        <v>17.06</v>
       </c>
       <c r="M29" s="94" t="n">
         <v>17.06</v>
@@ -9585,55 +9585,55 @@
         <v>17.06</v>
       </c>
       <c r="O29" s="94" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="P29" s="94" t="n">
         <v>18.06</v>
       </c>
-      <c r="P29" s="94" t="n">
+      <c r="Q29" s="94" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="Q29" s="94" t="n">
+      <c r="R29" s="94" t="n">
         <v>68.98</v>
-      </c>
-      <c r="R29" s="94" t="n">
-        <v>63.72</v>
       </c>
       <c r="S29" s="94" t="n">
         <v>63.72</v>
       </c>
       <c r="T29" s="94" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="U29" s="94" t="n">
         <v>50.49</v>
       </c>
-      <c r="U29" s="94" t="n">
+      <c r="V29" s="94" t="n">
         <v>83.98</v>
       </c>
-      <c r="V29" s="94" t="n">
+      <c r="W29" s="94" t="n">
         <v>3.02</v>
       </c>
-      <c r="W29" s="94" t="n">
+      <c r="X29" s="94" t="n">
         <v>5.56</v>
-      </c>
-      <c r="X29" s="94" t="n">
-        <v>3.7</v>
       </c>
       <c r="Y29" s="94" t="n">
         <v>3.7</v>
       </c>
       <c r="Z29" s="94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA29" s="94" t="n">
         <v>9.58</v>
       </c>
-      <c r="AA29" s="94" t="n">
+      <c r="AB29" s="94" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="AB29" s="94" t="n">
+      <c r="AC29" s="94" t="n">
         <v>48.94</v>
       </c>
-      <c r="AC29" s="94" t="n">
+      <c r="AD29" s="94" t="n">
         <v>5.77</v>
       </c>
-      <c r="AD29" s="94" t="n">
+      <c r="AE29" s="94" t="n">
         <v>6.18</v>
-      </c>
-      <c r="AE29" s="94" t="n">
-        <v>22.32</v>
       </c>
     </row>
     <row r="30">
@@ -9682,114 +9682,114 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J30" s="92" t="inlineStr">
+      <c r="J30" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K30" s="92" t="inlineStr">
+      <c r="L30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L30" s="93" t="inlineStr">
+      <c r="M30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M30" s="93" t="inlineStr">
+      <c r="N30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N30" s="93" t="inlineStr">
+      <c r="O30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O30" s="92" t="inlineStr">
+      <c r="P30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P30" s="92" t="inlineStr">
+      <c r="Q30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q30" s="92" t="inlineStr">
+      <c r="R30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R30" s="92" t="inlineStr">
+      <c r="S30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S30" s="92" t="inlineStr">
+      <c r="T30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T30" s="92" t="inlineStr">
+      <c r="U30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U30" s="91" t="inlineStr">
+      <c r="V30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V30" s="92" t="inlineStr">
+      <c r="W30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W30" s="91" t="inlineStr">
+      <c r="X30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X30" s="91" t="inlineStr">
+      <c r="Y30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y30" s="91" t="inlineStr">
+      <c r="Z30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z30" s="91" t="inlineStr">
+      <c r="AA30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA30" s="91" t="inlineStr">
+      <c r="AB30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB30" s="91" t="inlineStr">
+      <c r="AC30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AC30" s="91" t="inlineStr">
+      <c r="AD30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AD30" s="91" t="inlineStr">
+      <c r="AE30" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AE30" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -9800,94 +9800,94 @@
         </is>
       </c>
       <c r="B31" s="94" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="C31" s="94" t="n">
         <v>-6.13</v>
       </c>
-      <c r="C31" s="94" t="n">
+      <c r="D31" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="D31" s="94" t="n">
+      <c r="E31" s="94" t="n">
         <v>-6.73</v>
       </c>
-      <c r="E31" s="94" t="n">
+      <c r="F31" s="94" t="n">
         <v>-9.43</v>
-      </c>
-      <c r="F31" s="94" t="n">
-        <v>-9.640000000000001</v>
       </c>
       <c r="G31" s="94" t="n">
         <v>-9.640000000000001</v>
       </c>
       <c r="H31" s="94" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="I31" s="94" t="n">
         <v>-11.1</v>
       </c>
-      <c r="I31" s="94" t="n">
+      <c r="J31" s="94" t="n">
         <v>-10.63</v>
       </c>
-      <c r="J31" s="94" t="n">
+      <c r="K31" s="94" t="n">
         <v>-13.51</v>
       </c>
-      <c r="K31" s="94" t="n">
+      <c r="L31" s="94" t="n">
         <v>-14.15</v>
-      </c>
-      <c r="L31" s="94" t="n">
-        <v>-13.08</v>
       </c>
       <c r="M31" s="94" t="n">
         <v>-13.08</v>
       </c>
       <c r="N31" s="94" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="O31" s="94" t="n">
         <v>-13.29</v>
       </c>
-      <c r="O31" s="94" t="n">
+      <c r="P31" s="94" t="n">
         <v>-13.09</v>
       </c>
-      <c r="P31" s="94" t="n">
+      <c r="Q31" s="94" t="n">
         <v>-11.91</v>
       </c>
-      <c r="Q31" s="94" t="n">
+      <c r="R31" s="94" t="n">
         <v>-11.62</v>
-      </c>
-      <c r="R31" s="94" t="n">
-        <v>-12.93</v>
       </c>
       <c r="S31" s="94" t="n">
         <v>-12.93</v>
       </c>
       <c r="T31" s="94" t="n">
+        <v>-12.93</v>
+      </c>
+      <c r="U31" s="94" t="n">
         <v>-9.98</v>
       </c>
-      <c r="U31" s="94" t="n">
+      <c r="V31" s="94" t="n">
         <v>-17.57</v>
       </c>
-      <c r="V31" s="94" t="n">
+      <c r="W31" s="94" t="n">
         <v>-15.76</v>
       </c>
-      <c r="W31" s="94" t="n">
+      <c r="X31" s="94" t="n">
         <v>-21.38</v>
-      </c>
-      <c r="X31" s="94" t="n">
-        <v>-15.51</v>
       </c>
       <c r="Y31" s="94" t="n">
         <v>-15.51</v>
       </c>
       <c r="Z31" s="94" t="n">
+        <v>-15.51</v>
+      </c>
+      <c r="AA31" s="94" t="n">
         <v>-13.34</v>
       </c>
-      <c r="AA31" s="94" t="n">
+      <c r="AB31" s="94" t="n">
         <v>-9.109999999999999</v>
       </c>
-      <c r="AB31" s="94" t="n">
+      <c r="AC31" s="94" t="n">
         <v>-10.7</v>
       </c>
-      <c r="AC31" s="94" t="n">
+      <c r="AD31" s="94" t="n">
         <v>-11.58</v>
       </c>
-      <c r="AD31" s="94" t="n">
+      <c r="AE31" s="94" t="n">
         <v>-6.19</v>
-      </c>
-      <c r="AE31" s="94" t="n">
-        <v>-3.4</v>
       </c>
     </row>
     <row r="32">
@@ -9897,94 +9897,94 @@
         </is>
       </c>
       <c r="B32" s="94" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="C32" s="94" t="n">
         <v>-7.67</v>
       </c>
-      <c r="C32" s="94" t="n">
+      <c r="D32" s="94" t="n">
         <v>-6.31</v>
       </c>
-      <c r="D32" s="94" t="n">
+      <c r="E32" s="94" t="n">
         <v>-5.59</v>
       </c>
-      <c r="E32" s="94" t="n">
+      <c r="F32" s="94" t="n">
         <v>-5.82</v>
-      </c>
-      <c r="F32" s="94" t="n">
-        <v>-8.640000000000001</v>
       </c>
       <c r="G32" s="94" t="n">
         <v>-8.640000000000001</v>
       </c>
       <c r="H32" s="94" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="I32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="I32" s="94" t="n">
+      <c r="J32" s="94" t="n">
         <v>-10.37</v>
       </c>
-      <c r="J32" s="94" t="n">
+      <c r="K32" s="94" t="n">
         <v>-11.36</v>
       </c>
-      <c r="K32" s="94" t="n">
+      <c r="L32" s="94" t="n">
         <v>-9.58</v>
-      </c>
-      <c r="L32" s="94" t="n">
-        <v>-8.949999999999999</v>
       </c>
       <c r="M32" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="N32" s="94" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="O32" s="94" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="O32" s="94" t="n">
+      <c r="P32" s="94" t="n">
         <v>-11.69</v>
       </c>
-      <c r="P32" s="94" t="n">
+      <c r="Q32" s="94" t="n">
         <v>-12.03</v>
       </c>
-      <c r="Q32" s="94" t="n">
+      <c r="R32" s="94" t="n">
         <v>-12.82</v>
-      </c>
-      <c r="R32" s="94" t="n">
-        <v>-13.69</v>
       </c>
       <c r="S32" s="94" t="n">
         <v>-13.69</v>
       </c>
       <c r="T32" s="94" t="n">
+        <v>-13.69</v>
+      </c>
+      <c r="U32" s="94" t="n">
         <v>-11.67</v>
       </c>
-      <c r="U32" s="94" t="n">
+      <c r="V32" s="94" t="n">
         <v>-20.54</v>
       </c>
-      <c r="V32" s="94" t="n">
+      <c r="W32" s="94" t="n">
         <v>-16.65</v>
       </c>
-      <c r="W32" s="94" t="n">
+      <c r="X32" s="94" t="n">
         <v>-20.93</v>
-      </c>
-      <c r="X32" s="94" t="n">
-        <v>-14</v>
       </c>
       <c r="Y32" s="94" t="n">
         <v>-14</v>
       </c>
       <c r="Z32" s="94" t="n">
+        <v>-14</v>
+      </c>
+      <c r="AA32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="AA32" s="94" t="n">
+      <c r="AB32" s="94" t="n">
         <v>-9.17</v>
       </c>
-      <c r="AB32" s="94" t="n">
+      <c r="AC32" s="94" t="n">
         <v>-7.79</v>
       </c>
-      <c r="AC32" s="94" t="n">
+      <c r="AD32" s="94" t="n">
         <v>-7.61</v>
       </c>
-      <c r="AD32" s="94" t="n">
+      <c r="AE32" s="94" t="n">
         <v>-1.82</v>
-      </c>
-      <c r="AE32" s="94" t="n">
-        <v>-2.2</v>
       </c>
     </row>
     <row r="33">
@@ -9994,94 +9994,94 @@
         </is>
       </c>
       <c r="B33" s="94" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="C33" s="94" t="n">
         <v>66.23999999999999</v>
       </c>
-      <c r="C33" s="94" t="n">
+      <c r="D33" s="94" t="n">
         <v>62.56</v>
       </c>
-      <c r="D33" s="94" t="n">
+      <c r="E33" s="94" t="n">
         <v>61.46</v>
       </c>
-      <c r="E33" s="94" t="n">
+      <c r="F33" s="94" t="n">
         <v>60.72</v>
-      </c>
-      <c r="F33" s="94" t="n">
-        <v>59.65</v>
       </c>
       <c r="G33" s="94" t="n">
         <v>59.65</v>
       </c>
       <c r="H33" s="94" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="I33" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="I33" s="94" t="n">
+      <c r="J33" s="94" t="n">
         <v>52.66</v>
       </c>
-      <c r="J33" s="94" t="n">
+      <c r="K33" s="94" t="n">
         <v>46.9</v>
       </c>
-      <c r="K33" s="94" t="n">
+      <c r="L33" s="94" t="n">
         <v>47.37</v>
-      </c>
-      <c r="L33" s="94" t="n">
-        <v>50.8</v>
       </c>
       <c r="M33" s="94" t="n">
         <v>50.8</v>
       </c>
       <c r="N33" s="94" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="O33" s="94" t="n">
         <v>48.19</v>
       </c>
-      <c r="O33" s="94" t="n">
+      <c r="P33" s="94" t="n">
         <v>44.82</v>
       </c>
-      <c r="P33" s="94" t="n">
+      <c r="Q33" s="94" t="n">
         <v>46.88</v>
       </c>
-      <c r="Q33" s="94" t="n">
+      <c r="R33" s="94" t="n">
         <v>45.04</v>
-      </c>
-      <c r="R33" s="94" t="n">
-        <v>42.57</v>
       </c>
       <c r="S33" s="94" t="n">
         <v>42.57</v>
       </c>
       <c r="T33" s="94" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="U33" s="94" t="n">
         <v>47.45</v>
       </c>
-      <c r="U33" s="94" t="n">
+      <c r="V33" s="94" t="n">
         <v>26.17</v>
       </c>
-      <c r="V33" s="94" t="n">
+      <c r="W33" s="94" t="n">
         <v>31.21</v>
       </c>
-      <c r="W33" s="94" t="n">
+      <c r="X33" s="94" t="n">
         <v>8.619999999999999</v>
-      </c>
-      <c r="X33" s="94" t="n">
-        <v>14.64</v>
       </c>
       <c r="Y33" s="94" t="n">
         <v>14.64</v>
       </c>
       <c r="Z33" s="94" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="AA33" s="94" t="n">
         <v>18.88</v>
       </c>
-      <c r="AA33" s="94" t="n">
+      <c r="AB33" s="94" t="n">
         <v>25.75</v>
       </c>
-      <c r="AB33" s="94" t="n">
+      <c r="AC33" s="94" t="n">
         <v>23.21</v>
       </c>
-      <c r="AC33" s="94" t="n">
+      <c r="AD33" s="94" t="n">
         <v>23.05</v>
       </c>
-      <c r="AD33" s="94" t="n">
+      <c r="AE33" s="94" t="n">
         <v>38.53</v>
-      </c>
-      <c r="AE33" s="94" t="n">
-        <v>52.79</v>
       </c>
     </row>
     <row r="34">
@@ -10125,109 +10125,109 @@
           <t>red</t>
         </is>
       </c>
-      <c r="I34" s="92" t="inlineStr">
+      <c r="I34" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="J34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J34" s="92" t="inlineStr">
+      <c r="K34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K34" s="92" t="inlineStr">
+      <c r="L34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L34" s="92" t="inlineStr">
+      <c r="M34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M34" s="92" t="inlineStr">
+      <c r="N34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N34" s="92" t="inlineStr">
+      <c r="O34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O34" s="92" t="inlineStr">
+      <c r="P34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P34" s="92" t="inlineStr">
+      <c r="Q34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q34" s="93" t="inlineStr">
+      <c r="R34" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R34" s="92" t="inlineStr">
+      <c r="S34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S34" s="92" t="inlineStr">
+      <c r="T34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T34" s="92" t="inlineStr">
+      <c r="U34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U34" s="91" t="inlineStr">
+      <c r="V34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V34" s="91" t="inlineStr">
+      <c r="W34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W34" s="91" t="inlineStr">
+      <c r="X34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X34" s="91" t="inlineStr">
+      <c r="Y34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y34" s="91" t="inlineStr">
+      <c r="Z34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z34" s="91" t="inlineStr">
+      <c r="AA34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA34" s="92" t="inlineStr">
+      <c r="AB34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB34" s="92" t="inlineStr">
+      <c r="AC34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC34" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AD34" s="91" t="inlineStr">
@@ -10257,61 +10257,61 @@
         <v>-2.13</v>
       </c>
       <c r="E35" s="94" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="F35" s="94" t="n">
         <v>-3.02</v>
-      </c>
-      <c r="F35" s="94" t="n">
-        <v>-2.41</v>
       </c>
       <c r="G35" s="94" t="n">
         <v>-2.41</v>
       </c>
       <c r="H35" s="94" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="I35" s="94" t="n">
         <v>-1.54</v>
       </c>
-      <c r="I35" s="94" t="n">
+      <c r="J35" s="94" t="n">
         <v>-2.82</v>
       </c>
-      <c r="J35" s="94" t="n">
+      <c r="K35" s="94" t="n">
         <v>-4.2</v>
       </c>
-      <c r="K35" s="94" t="n">
+      <c r="L35" s="94" t="n">
         <v>-3.37</v>
-      </c>
-      <c r="L35" s="94" t="n">
-        <v>-1.87</v>
       </c>
       <c r="M35" s="94" t="n">
         <v>-1.87</v>
       </c>
       <c r="N35" s="94" t="n">
-        <v>-1.53</v>
+        <v>-1.87</v>
       </c>
       <c r="O35" s="94" t="n">
         <v>-1.53</v>
       </c>
       <c r="P35" s="94" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="Q35" s="94" t="n">
         <v>-0.64</v>
       </c>
-      <c r="Q35" s="94" t="n">
+      <c r="R35" s="94" t="n">
         <v>0.89</v>
-      </c>
-      <c r="R35" s="94" t="n">
-        <v>-1.87</v>
       </c>
       <c r="S35" s="94" t="n">
         <v>-1.87</v>
       </c>
       <c r="T35" s="94" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="U35" s="94" t="n">
         <v>-6.61</v>
       </c>
-      <c r="U35" s="94" t="n">
+      <c r="V35" s="94" t="n">
         <v>-12.24</v>
       </c>
-      <c r="V35" s="94" t="n">
+      <c r="W35" s="94" t="n">
         <v>-9.109999999999999</v>
-      </c>
-      <c r="W35" s="94" t="n">
-        <v>-3.5</v>
       </c>
       <c r="X35" s="94" t="n">
         <v>-3.5</v>
@@ -10320,22 +10320,22 @@
         <v>-3.5</v>
       </c>
       <c r="Z35" s="94" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="AA35" s="94" t="n">
         <v>-3.14</v>
       </c>
-      <c r="AA35" s="94" t="n">
+      <c r="AB35" s="94" t="n">
         <v>4.03</v>
       </c>
-      <c r="AB35" s="94" t="n">
+      <c r="AC35" s="94" t="n">
         <v>3.56</v>
       </c>
-      <c r="AC35" s="94" t="n">
+      <c r="AD35" s="94" t="n">
         <v>2.49</v>
       </c>
-      <c r="AD35" s="94" t="n">
+      <c r="AE35" s="94" t="n">
         <v>3.5</v>
-      </c>
-      <c r="AE35" s="94" t="n">
-        <v>3.91</v>
       </c>
     </row>
     <row r="36">
@@ -10354,61 +10354,61 @@
         <v>-2.28</v>
       </c>
       <c r="E36" s="94" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="F36" s="94" t="n">
         <v>-2.98</v>
-      </c>
-      <c r="F36" s="94" t="n">
-        <v>-2.34</v>
       </c>
       <c r="G36" s="94" t="n">
         <v>-2.34</v>
       </c>
       <c r="H36" s="94" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="I36" s="94" t="n">
         <v>-3.05</v>
       </c>
-      <c r="I36" s="94" t="n">
+      <c r="J36" s="94" t="n">
         <v>-3.49</v>
       </c>
-      <c r="J36" s="94" t="n">
+      <c r="K36" s="94" t="n">
         <v>-4.44</v>
       </c>
-      <c r="K36" s="94" t="n">
+      <c r="L36" s="94" t="n">
         <v>-4</v>
-      </c>
-      <c r="L36" s="94" t="n">
-        <v>-4.07</v>
       </c>
       <c r="M36" s="94" t="n">
         <v>-4.07</v>
       </c>
       <c r="N36" s="94" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="O36" s="94" t="n">
         <v>-4.15</v>
       </c>
-      <c r="O36" s="94" t="n">
+      <c r="P36" s="94" t="n">
         <v>-5.43</v>
       </c>
-      <c r="P36" s="94" t="n">
+      <c r="Q36" s="94" t="n">
         <v>-4.49</v>
       </c>
-      <c r="Q36" s="94" t="n">
+      <c r="R36" s="94" t="n">
         <v>-3.5</v>
-      </c>
-      <c r="R36" s="94" t="n">
-        <v>-4.46</v>
       </c>
       <c r="S36" s="94" t="n">
         <v>-4.46</v>
       </c>
       <c r="T36" s="94" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="U36" s="94" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="U36" s="94" t="n">
+      <c r="V36" s="94" t="n">
         <v>-14.93</v>
       </c>
-      <c r="V36" s="94" t="n">
+      <c r="W36" s="94" t="n">
         <v>-12.08</v>
-      </c>
-      <c r="W36" s="94" t="n">
-        <v>-5.88</v>
       </c>
       <c r="X36" s="94" t="n">
         <v>-5.88</v>
@@ -10417,22 +10417,22 @@
         <v>-5.88</v>
       </c>
       <c r="Z36" s="94" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="AA36" s="94" t="n">
         <v>-4.06</v>
       </c>
-      <c r="AA36" s="94" t="n">
+      <c r="AB36" s="94" t="n">
         <v>3.6</v>
       </c>
-      <c r="AB36" s="94" t="n">
+      <c r="AC36" s="94" t="n">
         <v>3.73</v>
       </c>
-      <c r="AC36" s="94" t="n">
+      <c r="AD36" s="94" t="n">
         <v>2.85</v>
       </c>
-      <c r="AD36" s="94" t="n">
+      <c r="AE36" s="94" t="n">
         <v>3.08</v>
-      </c>
-      <c r="AE36" s="94" t="n">
-        <v>2.79</v>
       </c>
     </row>
     <row r="37">
@@ -10451,61 +10451,61 @@
         <v>64.98</v>
       </c>
       <c r="E37" s="94" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="F37" s="94" t="n">
         <v>67.08</v>
-      </c>
-      <c r="F37" s="94" t="n">
-        <v>74.89</v>
       </c>
       <c r="G37" s="94" t="n">
         <v>74.89</v>
       </c>
       <c r="H37" s="94" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="I37" s="94" t="n">
         <v>69.08</v>
       </c>
-      <c r="I37" s="94" t="n">
+      <c r="J37" s="94" t="n">
         <v>54.26</v>
       </c>
-      <c r="J37" s="94" t="n">
+      <c r="K37" s="94" t="n">
         <v>28.66</v>
       </c>
-      <c r="K37" s="94" t="n">
+      <c r="L37" s="94" t="n">
         <v>39.12</v>
-      </c>
-      <c r="L37" s="94" t="n">
-        <v>55.49</v>
       </c>
       <c r="M37" s="94" t="n">
         <v>55.49</v>
       </c>
       <c r="N37" s="94" t="n">
+        <v>55.49</v>
+      </c>
+      <c r="O37" s="94" t="n">
         <v>53.48</v>
       </c>
-      <c r="O37" s="94" t="n">
+      <c r="P37" s="94" t="n">
         <v>47.61</v>
       </c>
-      <c r="P37" s="94" t="n">
+      <c r="Q37" s="94" t="n">
         <v>60.4</v>
       </c>
-      <c r="Q37" s="94" t="n">
+      <c r="R37" s="94" t="n">
         <v>70.22</v>
-      </c>
-      <c r="R37" s="94" t="n">
-        <v>64.94</v>
       </c>
       <c r="S37" s="94" t="n">
         <v>64.94</v>
       </c>
       <c r="T37" s="94" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="U37" s="94" t="n">
         <v>47.09</v>
       </c>
-      <c r="U37" s="94" t="n">
+      <c r="V37" s="94" t="n">
         <v>1.27</v>
       </c>
-      <c r="V37" s="94" t="n">
+      <c r="W37" s="94" t="n">
         <v>1.81</v>
-      </c>
-      <c r="W37" s="94" t="n">
-        <v>4.29</v>
       </c>
       <c r="X37" s="94" t="n">
         <v>4.29</v>
@@ -10514,22 +10514,22 @@
         <v>4.29</v>
       </c>
       <c r="Z37" s="94" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AA37" s="94" t="n">
         <v>5.54</v>
       </c>
-      <c r="AA37" s="94" t="n">
+      <c r="AB37" s="94" t="n">
         <v>50.33</v>
       </c>
-      <c r="AB37" s="94" t="n">
+      <c r="AC37" s="94" t="n">
         <v>48.76</v>
       </c>
-      <c r="AC37" s="94" t="n">
+      <c r="AD37" s="94" t="n">
         <v>8.33</v>
       </c>
-      <c r="AD37" s="94" t="n">
+      <c r="AE37" s="94" t="n">
         <v>17.82</v>
-      </c>
-      <c r="AE37" s="94" t="n">
-        <v>32.69</v>
       </c>
     </row>
     <row r="38">
@@ -10573,109 +10573,109 @@
           <t>blue</t>
         </is>
       </c>
-      <c r="I38" s="93" t="inlineStr">
+      <c r="I38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="J38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J38" s="93" t="inlineStr">
+      <c r="K38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K38" s="93" t="inlineStr">
+      <c r="L38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L38" s="93" t="inlineStr">
+      <c r="M38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M38" s="93" t="inlineStr">
+      <c r="N38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N38" s="93" t="inlineStr">
+      <c r="O38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O38" s="93" t="inlineStr">
+      <c r="P38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P38" s="93" t="inlineStr">
+      <c r="Q38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q38" s="92" t="inlineStr">
+      <c r="R38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R38" s="92" t="inlineStr">
+      <c r="S38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S38" s="92" t="inlineStr">
+      <c r="T38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T38" s="91" t="inlineStr">
+      <c r="U38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U38" s="91" t="inlineStr">
+      <c r="V38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V38" s="91" t="inlineStr">
+      <c r="W38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W38" s="91" t="inlineStr">
+      <c r="X38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X38" s="91" t="inlineStr">
+      <c r="Y38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y38" s="91" t="inlineStr">
+      <c r="Z38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z38" s="91" t="inlineStr">
+      <c r="AA38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA38" s="92" t="inlineStr">
+      <c r="AB38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB38" s="91" t="inlineStr">
+      <c r="AC38" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AC38" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
       <c r="AD38" s="92" t="inlineStr">
@@ -10696,37 +10696,37 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>4.85</v>
+        <v>4.72</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>4.85</v>
       </c>
       <c r="D39" s="94" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E39" s="94" t="n">
         <v>5.78</v>
       </c>
-      <c r="E39" s="94" t="n">
+      <c r="F39" s="94" t="n">
         <v>6.44</v>
-      </c>
-      <c r="F39" s="94" t="n">
-        <v>3.97</v>
       </c>
       <c r="G39" s="94" t="n">
         <v>3.97</v>
       </c>
       <c r="H39" s="94" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="I39" s="94" t="n">
         <v>4.29</v>
       </c>
-      <c r="I39" s="94" t="n">
+      <c r="J39" s="94" t="n">
         <v>4.86</v>
       </c>
-      <c r="J39" s="94" t="n">
+      <c r="K39" s="94" t="n">
         <v>4.95</v>
       </c>
-      <c r="K39" s="94" t="n">
+      <c r="L39" s="94" t="n">
         <v>3.03</v>
-      </c>
-      <c r="L39" s="94" t="n">
-        <v>2.52</v>
       </c>
       <c r="M39" s="94" t="n">
         <v>2.52</v>
@@ -10735,13 +10735,13 @@
         <v>2.52</v>
       </c>
       <c r="O39" s="94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P39" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="P39" s="94" t="n">
+      <c r="Q39" s="94" t="n">
         <v>0.01</v>
-      </c>
-      <c r="Q39" s="94" t="n">
-        <v>-1.75</v>
       </c>
       <c r="R39" s="94" t="n">
         <v>-1.75</v>
@@ -10750,40 +10750,40 @@
         <v>-1.75</v>
       </c>
       <c r="T39" s="94" t="n">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="U39" s="94" t="n">
         <v>-3.25</v>
       </c>
       <c r="V39" s="94" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="W39" s="94" t="n">
         <v>-4.07</v>
       </c>
-      <c r="W39" s="94" t="n">
+      <c r="X39" s="94" t="n">
         <v>-5.77</v>
-      </c>
-      <c r="X39" s="94" t="n">
-        <v>-3.56</v>
       </c>
       <c r="Y39" s="94" t="n">
         <v>-3.56</v>
       </c>
       <c r="Z39" s="94" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="AA39" s="94" t="n">
         <v>-2.43</v>
       </c>
-      <c r="AA39" s="94" t="n">
+      <c r="AB39" s="94" t="n">
         <v>-1.73</v>
       </c>
-      <c r="AB39" s="94" t="n">
+      <c r="AC39" s="94" t="n">
         <v>-4.04</v>
-      </c>
-      <c r="AC39" s="94" t="n">
-        <v>-3.16</v>
       </c>
       <c r="AD39" s="94" t="n">
         <v>-3.16</v>
       </c>
       <c r="AE39" s="94" t="n">
-        <v>-1.15</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="40">
@@ -10793,37 +10793,37 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>0.65</v>
+        <v>2.03</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>0.65</v>
       </c>
       <c r="D40" s="94" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E40" s="94" t="n">
         <v>1.13</v>
       </c>
-      <c r="E40" s="94" t="n">
+      <c r="F40" s="94" t="n">
         <v>0.35</v>
-      </c>
-      <c r="F40" s="94" t="n">
-        <v>-1.44</v>
       </c>
       <c r="G40" s="94" t="n">
         <v>-1.44</v>
       </c>
       <c r="H40" s="94" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="I40" s="94" t="n">
         <v>-0.25</v>
       </c>
-      <c r="I40" s="94" t="n">
+      <c r="J40" s="94" t="n">
         <v>0.9</v>
       </c>
-      <c r="J40" s="94" t="n">
+      <c r="K40" s="94" t="n">
         <v>-0.59</v>
       </c>
-      <c r="K40" s="94" t="n">
+      <c r="L40" s="94" t="n">
         <v>-0.84</v>
-      </c>
-      <c r="L40" s="94" t="n">
-        <v>-2.08</v>
       </c>
       <c r="M40" s="94" t="n">
         <v>-2.08</v>
@@ -10832,13 +10832,13 @@
         <v>-2.08</v>
       </c>
       <c r="O40" s="94" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="P40" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="P40" s="94" t="n">
+      <c r="Q40" s="94" t="n">
         <v>-5.53</v>
-      </c>
-      <c r="Q40" s="94" t="n">
-        <v>-7.22</v>
       </c>
       <c r="R40" s="94" t="n">
         <v>-7.22</v>
@@ -10847,40 +10847,40 @@
         <v>-7.22</v>
       </c>
       <c r="T40" s="94" t="n">
-        <v>-9.390000000000001</v>
+        <v>-7.22</v>
       </c>
       <c r="U40" s="94" t="n">
         <v>-9.390000000000001</v>
       </c>
       <c r="V40" s="94" t="n">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="W40" s="94" t="n">
         <v>-9.279999999999999</v>
       </c>
-      <c r="W40" s="94" t="n">
+      <c r="X40" s="94" t="n">
         <v>-10.78</v>
-      </c>
-      <c r="X40" s="94" t="n">
-        <v>-7.39</v>
       </c>
       <c r="Y40" s="94" t="n">
         <v>-7.39</v>
       </c>
       <c r="Z40" s="94" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="AA40" s="94" t="n">
         <v>-6.51</v>
       </c>
-      <c r="AA40" s="94" t="n">
+      <c r="AB40" s="94" t="n">
         <v>-5.95</v>
       </c>
-      <c r="AB40" s="94" t="n">
+      <c r="AC40" s="94" t="n">
         <v>-6.87</v>
-      </c>
-      <c r="AC40" s="94" t="n">
-        <v>-4.48</v>
       </c>
       <c r="AD40" s="94" t="n">
         <v>-4.48</v>
       </c>
       <c r="AE40" s="94" t="n">
-        <v>-5</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="41">
@@ -10890,37 +10890,37 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>68.2</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>68.2</v>
       </c>
       <c r="D41" s="94" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E41" s="94" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="E41" s="94" t="n">
+      <c r="F41" s="94" t="n">
         <v>68.39</v>
-      </c>
-      <c r="F41" s="94" t="n">
-        <v>63.45</v>
       </c>
       <c r="G41" s="94" t="n">
         <v>63.45</v>
       </c>
       <c r="H41" s="94" t="n">
+        <v>63.45</v>
+      </c>
+      <c r="I41" s="94" t="n">
         <v>69.14</v>
       </c>
-      <c r="I41" s="94" t="n">
+      <c r="J41" s="94" t="n">
         <v>72.26000000000001</v>
       </c>
-      <c r="J41" s="94" t="n">
+      <c r="K41" s="94" t="n">
         <v>70.26000000000001</v>
       </c>
-      <c r="K41" s="94" t="n">
+      <c r="L41" s="94" t="n">
         <v>69.55</v>
-      </c>
-      <c r="L41" s="94" t="n">
-        <v>66.25</v>
       </c>
       <c r="M41" s="94" t="n">
         <v>66.25</v>
@@ -10929,13 +10929,13 @@
         <v>66.25</v>
       </c>
       <c r="O41" s="94" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="P41" s="94" t="n">
         <v>59.21</v>
       </c>
-      <c r="P41" s="94" t="n">
+      <c r="Q41" s="94" t="n">
         <v>57.58</v>
-      </c>
-      <c r="Q41" s="94" t="n">
-        <v>48.04</v>
       </c>
       <c r="R41" s="94" t="n">
         <v>48.04</v>
@@ -10944,40 +10944,40 @@
         <v>48.04</v>
       </c>
       <c r="T41" s="94" t="n">
-        <v>37.55</v>
+        <v>48.04</v>
       </c>
       <c r="U41" s="94" t="n">
         <v>37.55</v>
       </c>
       <c r="V41" s="94" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="W41" s="94" t="n">
         <v>39.64</v>
       </c>
-      <c r="W41" s="94" t="n">
+      <c r="X41" s="94" t="n">
         <v>29.52</v>
-      </c>
-      <c r="X41" s="94" t="n">
-        <v>42.69</v>
       </c>
       <c r="Y41" s="94" t="n">
         <v>42.69</v>
       </c>
       <c r="Z41" s="94" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="AA41" s="94" t="n">
         <v>51.3</v>
       </c>
-      <c r="AA41" s="94" t="n">
+      <c r="AB41" s="94" t="n">
         <v>54.73</v>
       </c>
-      <c r="AB41" s="94" t="n">
+      <c r="AC41" s="94" t="n">
         <v>49.08</v>
-      </c>
-      <c r="AC41" s="94" t="n">
-        <v>66.64</v>
       </c>
       <c r="AD41" s="94" t="n">
         <v>66.64</v>
       </c>
       <c r="AE41" s="94" t="n">
-        <v>69.73</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="42">
@@ -11026,104 +11026,104 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J42" s="92" t="inlineStr">
+      <c r="J42" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K42" s="92" t="inlineStr">
+      <c r="L42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L42" s="92" t="inlineStr">
+      <c r="M42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M42" s="92" t="inlineStr">
+      <c r="N42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N42" s="92" t="inlineStr">
+      <c r="O42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O42" s="92" t="inlineStr">
+      <c r="P42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P42" s="92" t="inlineStr">
+      <c r="Q42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q42" s="92" t="inlineStr">
+      <c r="R42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R42" s="92" t="inlineStr">
+      <c r="S42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S42" s="92" t="inlineStr">
+      <c r="T42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T42" s="92" t="inlineStr">
+      <c r="U42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U42" s="91" t="inlineStr">
+      <c r="V42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V42" s="91" t="inlineStr">
+      <c r="W42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W42" s="91" t="inlineStr">
+      <c r="X42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X42" s="91" t="inlineStr">
+      <c r="Y42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y42" s="91" t="inlineStr">
+      <c r="Z42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z42" s="91" t="inlineStr">
+      <c r="AA42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA42" s="92" t="inlineStr">
+      <c r="AB42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB42" s="92" t="inlineStr">
+      <c r="AC42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC42" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AD42" s="91" t="inlineStr">
@@ -11150,28 +11150,28 @@
         <v>-3.32</v>
       </c>
       <c r="D43" s="94" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="E43" s="94" t="n">
         <v>-4.96</v>
       </c>
-      <c r="E43" s="94" t="n">
+      <c r="F43" s="94" t="n">
         <v>-4.63</v>
-      </c>
-      <c r="F43" s="94" t="n">
-        <v>-4.27</v>
       </c>
       <c r="G43" s="94" t="n">
         <v>-4.27</v>
       </c>
       <c r="H43" s="94" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="I43" s="94" t="n">
         <v>-5</v>
       </c>
-      <c r="I43" s="94" t="n">
+      <c r="J43" s="94" t="n">
         <v>-5.37</v>
       </c>
-      <c r="J43" s="94" t="n">
+      <c r="K43" s="94" t="n">
         <v>-7.58</v>
-      </c>
-      <c r="K43" s="94" t="n">
-        <v>-7.69</v>
       </c>
       <c r="L43" s="94" t="n">
         <v>-7.69</v>
@@ -11183,55 +11183,55 @@
         <v>-7.69</v>
       </c>
       <c r="O43" s="94" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="P43" s="94" t="n">
         <v>-6.47</v>
       </c>
-      <c r="P43" s="94" t="n">
+      <c r="Q43" s="94" t="n">
         <v>-5.6</v>
       </c>
-      <c r="Q43" s="94" t="n">
+      <c r="R43" s="94" t="n">
         <v>-5.95</v>
-      </c>
-      <c r="R43" s="94" t="n">
-        <v>-7.85</v>
       </c>
       <c r="S43" s="94" t="n">
         <v>-7.85</v>
       </c>
       <c r="T43" s="94" t="n">
+        <v>-7.85</v>
+      </c>
+      <c r="U43" s="94" t="n">
         <v>-6.66</v>
       </c>
-      <c r="U43" s="94" t="n">
+      <c r="V43" s="94" t="n">
         <v>-8.18</v>
       </c>
-      <c r="V43" s="94" t="n">
+      <c r="W43" s="94" t="n">
         <v>-4.35</v>
       </c>
-      <c r="W43" s="94" t="n">
+      <c r="X43" s="94" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="X43" s="94" t="n">
-        <v>-2.1</v>
       </c>
       <c r="Y43" s="94" t="n">
         <v>-2.1</v>
       </c>
       <c r="Z43" s="94" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AA43" s="94" t="n">
         <v>1.45</v>
       </c>
-      <c r="AA43" s="94" t="n">
+      <c r="AB43" s="94" t="n">
         <v>5.45</v>
       </c>
-      <c r="AB43" s="94" t="n">
+      <c r="AC43" s="94" t="n">
         <v>5.17</v>
       </c>
-      <c r="AC43" s="94" t="n">
+      <c r="AD43" s="94" t="n">
         <v>4.63</v>
       </c>
-      <c r="AD43" s="94" t="n">
+      <c r="AE43" s="94" t="n">
         <v>8.699999999999999</v>
-      </c>
-      <c r="AE43" s="94" t="n">
-        <v>8.07</v>
       </c>
     </row>
     <row r="44">
@@ -11247,28 +11247,28 @@
         <v>3.04</v>
       </c>
       <c r="D44" s="94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E44" s="94" t="n">
         <v>2.01</v>
       </c>
-      <c r="E44" s="94" t="n">
+      <c r="F44" s="94" t="n">
         <v>2.74</v>
-      </c>
-      <c r="F44" s="94" t="n">
-        <v>1.72</v>
       </c>
       <c r="G44" s="94" t="n">
         <v>1.72</v>
       </c>
       <c r="H44" s="94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I44" s="94" t="n">
         <v>2.07</v>
       </c>
-      <c r="I44" s="94" t="n">
+      <c r="J44" s="94" t="n">
         <v>0.73</v>
       </c>
-      <c r="J44" s="94" t="n">
+      <c r="K44" s="94" t="n">
         <v>-2.46</v>
-      </c>
-      <c r="K44" s="94" t="n">
-        <v>-3.59</v>
       </c>
       <c r="L44" s="94" t="n">
         <v>-3.59</v>
@@ -11280,55 +11280,55 @@
         <v>-3.59</v>
       </c>
       <c r="O44" s="94" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="P44" s="94" t="n">
         <v>-2.23</v>
       </c>
-      <c r="P44" s="94" t="n">
+      <c r="Q44" s="94" t="n">
         <v>-2.24</v>
       </c>
-      <c r="Q44" s="94" t="n">
+      <c r="R44" s="94" t="n">
         <v>-2.99</v>
-      </c>
-      <c r="R44" s="94" t="n">
-        <v>-5.71</v>
       </c>
       <c r="S44" s="94" t="n">
         <v>-5.71</v>
       </c>
       <c r="T44" s="94" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="U44" s="94" t="n">
         <v>-5.44</v>
       </c>
-      <c r="U44" s="94" t="n">
+      <c r="V44" s="94" t="n">
         <v>-9.85</v>
       </c>
-      <c r="V44" s="94" t="n">
+      <c r="W44" s="94" t="n">
         <v>-6.37</v>
       </c>
-      <c r="W44" s="94" t="n">
+      <c r="X44" s="94" t="n">
         <v>-7.54</v>
-      </c>
-      <c r="X44" s="94" t="n">
-        <v>-3.28</v>
       </c>
       <c r="Y44" s="94" t="n">
         <v>-3.28</v>
       </c>
       <c r="Z44" s="94" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="AA44" s="94" t="n">
         <v>-0.04</v>
       </c>
-      <c r="AA44" s="94" t="n">
+      <c r="AB44" s="94" t="n">
         <v>3.71</v>
       </c>
-      <c r="AB44" s="94" t="n">
+      <c r="AC44" s="94" t="n">
         <v>4.44</v>
       </c>
-      <c r="AC44" s="94" t="n">
+      <c r="AD44" s="94" t="n">
         <v>3.05</v>
       </c>
-      <c r="AD44" s="94" t="n">
+      <c r="AE44" s="94" t="n">
         <v>5.25</v>
-      </c>
-      <c r="AE44" s="94" t="n">
-        <v>5.47</v>
       </c>
     </row>
     <row r="45">
@@ -11344,28 +11344,28 @@
         <v>74.3</v>
       </c>
       <c r="D45" s="94" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E45" s="94" t="n">
         <v>70.16</v>
       </c>
-      <c r="E45" s="94" t="n">
+      <c r="F45" s="94" t="n">
         <v>74.69</v>
-      </c>
-      <c r="F45" s="94" t="n">
-        <v>71.61</v>
       </c>
       <c r="G45" s="94" t="n">
         <v>71.61</v>
       </c>
       <c r="H45" s="94" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="I45" s="94" t="n">
         <v>68.91</v>
       </c>
-      <c r="I45" s="94" t="n">
+      <c r="J45" s="94" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="J45" s="94" t="n">
+      <c r="K45" s="94" t="n">
         <v>53.63</v>
-      </c>
-      <c r="K45" s="94" t="n">
-        <v>49.15</v>
       </c>
       <c r="L45" s="94" t="n">
         <v>49.15</v>
@@ -11377,55 +11377,55 @@
         <v>49.15</v>
       </c>
       <c r="O45" s="94" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="P45" s="94" t="n">
         <v>53.65</v>
       </c>
-      <c r="P45" s="94" t="n">
+      <c r="Q45" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="Q45" s="94" t="n">
+      <c r="R45" s="94" t="n">
         <v>49.96</v>
-      </c>
-      <c r="R45" s="94" t="n">
-        <v>37.67</v>
       </c>
       <c r="S45" s="94" t="n">
         <v>37.67</v>
       </c>
       <c r="T45" s="94" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="U45" s="94" t="n">
         <v>38.63</v>
       </c>
-      <c r="U45" s="94" t="n">
+      <c r="V45" s="94" t="n">
         <v>17.99</v>
       </c>
-      <c r="V45" s="94" t="n">
+      <c r="W45" s="94" t="n">
         <v>23.76</v>
       </c>
-      <c r="W45" s="94" t="n">
+      <c r="X45" s="94" t="n">
         <v>6.19</v>
-      </c>
-      <c r="X45" s="94" t="n">
-        <v>9.82</v>
       </c>
       <c r="Y45" s="94" t="n">
         <v>9.82</v>
       </c>
       <c r="Z45" s="94" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="AA45" s="94" t="n">
         <v>17.48</v>
       </c>
-      <c r="AA45" s="94" t="n">
+      <c r="AB45" s="94" t="n">
         <v>34.95</v>
       </c>
-      <c r="AB45" s="94" t="n">
+      <c r="AC45" s="94" t="n">
         <v>36.94</v>
       </c>
-      <c r="AC45" s="94" t="n">
+      <c r="AD45" s="94" t="n">
         <v>18.86</v>
       </c>
-      <c r="AD45" s="94" t="n">
+      <c r="AE45" s="94" t="n">
         <v>28.39</v>
-      </c>
-      <c r="AE45" s="94" t="n">
-        <v>37.31</v>
       </c>
     </row>
     <row r="46">
@@ -11509,69 +11509,69 @@
           <t>red</t>
         </is>
       </c>
-      <c r="Q46" s="92" t="inlineStr">
+      <c r="Q46" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="R46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R46" s="92" t="inlineStr">
+      <c r="S46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S46" s="92" t="inlineStr">
+      <c r="T46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T46" s="92" t="inlineStr">
+      <c r="U46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U46" s="91" t="inlineStr">
+      <c r="V46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V46" s="91" t="inlineStr">
+      <c r="W46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W46" s="91" t="inlineStr">
+      <c r="X46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X46" s="91" t="inlineStr">
+      <c r="Y46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y46" s="91" t="inlineStr">
+      <c r="Z46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z46" s="91" t="inlineStr">
+      <c r="AA46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA46" s="92" t="inlineStr">
+      <c r="AB46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB46" s="92" t="inlineStr">
+      <c r="AC46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC46" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AD46" s="91" t="inlineStr">
@@ -11598,28 +11598,28 @@
         <v>4.99</v>
       </c>
       <c r="D47" s="94" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="E47" s="94" t="n">
+      <c r="F47" s="94" t="n">
         <v>2.51</v>
-      </c>
-      <c r="F47" s="94" t="n">
-        <v>2.8</v>
       </c>
       <c r="G47" s="94" t="n">
         <v>2.8</v>
       </c>
       <c r="H47" s="94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I47" s="94" t="n">
         <v>2.96</v>
       </c>
-      <c r="I47" s="94" t="n">
+      <c r="J47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="J47" s="94" t="n">
+      <c r="K47" s="94" t="n">
         <v>-0.47</v>
-      </c>
-      <c r="K47" s="94" t="n">
-        <v>-0.96</v>
       </c>
       <c r="L47" s="94" t="n">
         <v>-0.96</v>
@@ -11631,55 +11631,55 @@
         <v>-0.96</v>
       </c>
       <c r="O47" s="94" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="P47" s="94" t="n">
         <v>0.27</v>
       </c>
-      <c r="P47" s="94" t="n">
+      <c r="Q47" s="94" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q47" s="94" t="n">
+      <c r="R47" s="94" t="n">
         <v>-0.17</v>
-      </c>
-      <c r="R47" s="94" t="n">
-        <v>-2.53</v>
       </c>
       <c r="S47" s="94" t="n">
         <v>-2.53</v>
       </c>
       <c r="T47" s="94" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="U47" s="94" t="n">
         <v>-0.45</v>
       </c>
-      <c r="U47" s="94" t="n">
+      <c r="V47" s="94" t="n">
         <v>-4.39</v>
       </c>
-      <c r="V47" s="94" t="n">
+      <c r="W47" s="94" t="n">
         <v>0.04</v>
       </c>
-      <c r="W47" s="94" t="n">
+      <c r="X47" s="94" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="X47" s="94" t="n">
-        <v>2.11</v>
       </c>
       <c r="Y47" s="94" t="n">
         <v>2.11</v>
       </c>
       <c r="Z47" s="94" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA47" s="94" t="n">
         <v>6.89</v>
       </c>
-      <c r="AA47" s="94" t="n">
+      <c r="AB47" s="94" t="n">
         <v>10.14</v>
       </c>
-      <c r="AB47" s="94" t="n">
+      <c r="AC47" s="94" t="n">
         <v>10.81</v>
       </c>
-      <c r="AC47" s="94" t="n">
+      <c r="AD47" s="94" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="AD47" s="94" t="n">
+      <c r="AE47" s="94" t="n">
         <v>12.84</v>
-      </c>
-      <c r="AE47" s="94" t="n">
-        <v>13.25</v>
       </c>
     </row>
     <row r="48">
@@ -11695,28 +11695,28 @@
         <v>17.49</v>
       </c>
       <c r="D48" s="94" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E48" s="94" t="n">
         <v>16.47</v>
       </c>
-      <c r="E48" s="94" t="n">
+      <c r="F48" s="94" t="n">
         <v>16.74</v>
-      </c>
-      <c r="F48" s="94" t="n">
-        <v>15.5</v>
       </c>
       <c r="G48" s="94" t="n">
         <v>15.5</v>
       </c>
       <c r="H48" s="94" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I48" s="94" t="n">
         <v>13.28</v>
       </c>
-      <c r="I48" s="94" t="n">
+      <c r="J48" s="94" t="n">
         <v>12.44</v>
       </c>
-      <c r="J48" s="94" t="n">
+      <c r="K48" s="94" t="n">
         <v>9.4</v>
-      </c>
-      <c r="K48" s="94" t="n">
-        <v>9.07</v>
       </c>
       <c r="L48" s="94" t="n">
         <v>9.07</v>
@@ -11728,55 +11728,55 @@
         <v>9.07</v>
       </c>
       <c r="O48" s="94" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="P48" s="94" t="n">
         <v>9.98</v>
       </c>
-      <c r="P48" s="94" t="n">
+      <c r="Q48" s="94" t="n">
         <v>9.43</v>
       </c>
-      <c r="Q48" s="94" t="n">
+      <c r="R48" s="94" t="n">
         <v>7.67</v>
-      </c>
-      <c r="R48" s="94" t="n">
-        <v>3.65</v>
       </c>
       <c r="S48" s="94" t="n">
         <v>3.65</v>
       </c>
       <c r="T48" s="94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U48" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="U48" s="94" t="n">
+      <c r="V48" s="94" t="n">
         <v>1.23</v>
       </c>
-      <c r="V48" s="94" t="n">
+      <c r="W48" s="94" t="n">
         <v>4.08</v>
       </c>
-      <c r="W48" s="94" t="n">
+      <c r="X48" s="94" t="n">
         <v>1.44</v>
-      </c>
-      <c r="X48" s="94" t="n">
-        <v>6.54</v>
       </c>
       <c r="Y48" s="94" t="n">
         <v>6.54</v>
       </c>
       <c r="Z48" s="94" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="AA48" s="94" t="n">
         <v>13.05</v>
       </c>
-      <c r="AA48" s="94" t="n">
+      <c r="AB48" s="94" t="n">
         <v>16.29</v>
       </c>
-      <c r="AB48" s="94" t="n">
+      <c r="AC48" s="94" t="n">
         <v>18.22</v>
       </c>
-      <c r="AC48" s="94" t="n">
+      <c r="AD48" s="94" t="n">
         <v>16.01</v>
       </c>
-      <c r="AD48" s="94" t="n">
+      <c r="AE48" s="94" t="n">
         <v>17.47</v>
-      </c>
-      <c r="AE48" s="94" t="n">
-        <v>19.27</v>
       </c>
     </row>
     <row r="49">
@@ -11792,28 +11792,28 @@
         <v>77.56</v>
       </c>
       <c r="D49" s="94" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="E49" s="94" t="n">
         <v>76.25</v>
       </c>
-      <c r="E49" s="94" t="n">
+      <c r="F49" s="94" t="n">
         <v>73.43000000000001</v>
-      </c>
-      <c r="F49" s="94" t="n">
-        <v>72.92</v>
       </c>
       <c r="G49" s="94" t="n">
         <v>72.92</v>
       </c>
       <c r="H49" s="94" t="n">
+        <v>72.92</v>
+      </c>
+      <c r="I49" s="94" t="n">
         <v>70.02</v>
       </c>
-      <c r="I49" s="94" t="n">
+      <c r="J49" s="94" t="n">
         <v>68.39</v>
       </c>
-      <c r="J49" s="94" t="n">
+      <c r="K49" s="94" t="n">
         <v>55.14</v>
-      </c>
-      <c r="K49" s="94" t="n">
-        <v>52.99</v>
       </c>
       <c r="L49" s="94" t="n">
         <v>52.99</v>
@@ -11825,55 +11825,55 @@
         <v>52.99</v>
       </c>
       <c r="O49" s="94" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="P49" s="94" t="n">
         <v>55.66</v>
       </c>
-      <c r="P49" s="94" t="n">
+      <c r="Q49" s="94" t="n">
         <v>54.62</v>
       </c>
-      <c r="Q49" s="94" t="n">
+      <c r="R49" s="94" t="n">
         <v>49.48</v>
-      </c>
-      <c r="R49" s="94" t="n">
-        <v>38.14</v>
       </c>
       <c r="S49" s="94" t="n">
         <v>38.14</v>
       </c>
       <c r="T49" s="94" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="U49" s="94" t="n">
         <v>40.61</v>
       </c>
-      <c r="U49" s="94" t="n">
+      <c r="V49" s="94" t="n">
         <v>20.28</v>
       </c>
-      <c r="V49" s="94" t="n">
+      <c r="W49" s="94" t="n">
         <v>25.19</v>
       </c>
-      <c r="W49" s="94" t="n">
+      <c r="X49" s="94" t="n">
         <v>10.68</v>
-      </c>
-      <c r="X49" s="94" t="n">
-        <v>14.84</v>
       </c>
       <c r="Y49" s="94" t="n">
         <v>14.84</v>
       </c>
       <c r="Z49" s="94" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="AA49" s="94" t="n">
         <v>25.18</v>
       </c>
-      <c r="AA49" s="94" t="n">
+      <c r="AB49" s="94" t="n">
         <v>39.55</v>
       </c>
-      <c r="AB49" s="94" t="n">
+      <c r="AC49" s="94" t="n">
         <v>44.2</v>
       </c>
-      <c r="AC49" s="94" t="n">
+      <c r="AD49" s="94" t="n">
         <v>25.84</v>
       </c>
-      <c r="AD49" s="94" t="n">
+      <c r="AE49" s="94" t="n">
         <v>33</v>
-      </c>
-      <c r="AE49" s="94" t="n">
-        <v>39.69</v>
       </c>
     </row>
     <row r="51">
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：hk50:RS4:74.8&gt;=73;us500:RS2:98.9&gt;=85;us30:RS3:85.86&gt;=85</t>
+          <t>今日卖报：hk50:RS4:86.7&gt;=73;us500:RS2:98.9&gt;=85;us30:RS3:87.85&gt;=85;ixic:RS2:96.5&gt;=96</t>
         </is>
       </c>
     </row>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-7.18</v>
+        <v>-6.18</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-7.18</v>
@@ -8553,7 +8553,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-3.09</v>
+        <v>-4.09</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-3.09</v>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>98.90000000000001</v>
+        <v>99.72</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>98.90000000000001</v>
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-8.539999999999999</v>
+        <v>-7.92</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-8.539999999999999</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-3.48</v>
+        <v>-5.52</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-3.48</v>
@@ -9098,7 +9098,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>87.84999999999999</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>87.84999999999999</v>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-9.890000000000001</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-9.890000000000001</v>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-3.95</v>
+        <v>-5.3</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-3.95</v>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>96.5</v>
+        <v>98.64</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>96.5</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>4.72</v>
+        <v>4.88</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>4.85</v>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>0.65</v>
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>68.98999999999999</v>
+        <v>69.62</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>68.2</v>
@@ -11144,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-3.32</v>
+        <v>-1.72</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-3.32</v>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>3.04</v>
+        <v>4.64</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>3.04</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>74.3</v>
+        <v>85.77</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>74.3</v>
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>4.99</v>
+        <v>7.35</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>4.99</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>17.49</v>
+        <v>19.89</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>17.49</v>
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>77.56</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>77.56</v>
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：hk50:RS4:86.7&gt;=73;us500:RS2:98.9&gt;=85;us30:RS3:87.85&gt;=85;ixic:RS2:96.5&gt;=96</t>
+          <t>今日卖报：hk50:RS4:86.7&gt;=73;us500:RS2:99.72&gt;=85;us30:RS3:94.99&gt;=85;ixic:RS2:98.64&gt;=96</t>
         </is>
       </c>
     </row>

--- a/report_2504.xlsx
+++ b/report_2504.xlsx
@@ -6351,152 +6351,152 @@
       </c>
       <c r="B1" s="77" t="inlineStr">
         <is>
+          <t>250505</t>
+        </is>
+      </c>
+      <c r="C1" s="77" t="inlineStr">
+        <is>
+          <t>250504</t>
+        </is>
+      </c>
+      <c r="D1" s="77" t="inlineStr">
+        <is>
           <t>250502</t>
         </is>
       </c>
-      <c r="C1" s="77" t="inlineStr">
+      <c r="E1" s="77" t="inlineStr">
         <is>
           <t>250501</t>
         </is>
       </c>
-      <c r="D1" s="77" t="inlineStr">
+      <c r="F1" s="77" t="inlineStr">
         <is>
           <t>250430</t>
         </is>
       </c>
-      <c r="E1" s="77" t="inlineStr">
+      <c r="G1" s="77" t="inlineStr">
         <is>
           <t>250429</t>
         </is>
       </c>
-      <c r="F1" s="77" t="inlineStr">
+      <c r="H1" s="77" t="inlineStr">
         <is>
           <t>250428</t>
         </is>
       </c>
-      <c r="G1" s="77" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>250427</t>
         </is>
       </c>
-      <c r="H1" s="77" t="inlineStr">
+      <c r="J1" s="77" t="inlineStr">
         <is>
           <t>250425</t>
         </is>
       </c>
-      <c r="I1" s="77" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>250424</t>
         </is>
       </c>
-      <c r="J1" s="77" t="inlineStr">
+      <c r="L1" s="77" t="inlineStr">
         <is>
           <t>250423</t>
         </is>
       </c>
-      <c r="K1" s="77" t="inlineStr">
+      <c r="M1" s="77" t="inlineStr">
         <is>
           <t>250422</t>
         </is>
       </c>
-      <c r="L1" s="77" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>250421</t>
         </is>
       </c>
-      <c r="M1" s="77" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>250420</t>
         </is>
       </c>
-      <c r="N1" s="77" t="inlineStr">
+      <c r="P1" s="77" t="inlineStr">
         <is>
           <t>250418</t>
         </is>
       </c>
-      <c r="O1" s="77" t="inlineStr">
+      <c r="Q1" s="77" t="inlineStr">
         <is>
           <t>250417</t>
         </is>
       </c>
-      <c r="P1" s="77" t="inlineStr">
+      <c r="R1" s="77" t="inlineStr">
         <is>
           <t>250416</t>
         </is>
       </c>
-      <c r="Q1" s="77" t="inlineStr">
+      <c r="S1" s="77" t="inlineStr">
         <is>
           <t>250415</t>
         </is>
       </c>
-      <c r="R1" s="77" t="inlineStr">
+      <c r="T1" s="77" t="inlineStr">
         <is>
           <t>250414</t>
         </is>
       </c>
-      <c r="S1" s="77" t="inlineStr">
+      <c r="U1" s="77" t="inlineStr">
         <is>
           <t>250413</t>
         </is>
       </c>
-      <c r="T1" s="77" t="inlineStr">
+      <c r="V1" s="77" t="inlineStr">
         <is>
           <t>250411</t>
         </is>
       </c>
-      <c r="U1" s="77" t="inlineStr">
+      <c r="W1" s="77" t="inlineStr">
         <is>
           <t>250410</t>
         </is>
       </c>
-      <c r="V1" s="77" t="inlineStr">
+      <c r="X1" s="77" t="inlineStr">
         <is>
           <t>250409</t>
         </is>
       </c>
-      <c r="W1" s="77" t="inlineStr">
+      <c r="Y1" s="77" t="inlineStr">
         <is>
           <t>250408</t>
         </is>
       </c>
-      <c r="X1" s="77" t="inlineStr">
+      <c r="Z1" s="77" t="inlineStr">
         <is>
           <t>250407</t>
         </is>
       </c>
-      <c r="Y1" s="77" t="inlineStr">
+      <c r="AA1" s="77" t="inlineStr">
         <is>
           <t>250406</t>
         </is>
       </c>
-      <c r="Z1" s="77" t="inlineStr">
+      <c r="AB1" s="77" t="inlineStr">
         <is>
           <t>250404</t>
         </is>
       </c>
-      <c r="AA1" s="77" t="inlineStr">
+      <c r="AC1" s="77" t="inlineStr">
         <is>
           <t>250403</t>
         </is>
       </c>
-      <c r="AB1" s="77" t="inlineStr">
+      <c r="AD1" s="77" t="inlineStr">
         <is>
           <t>250402</t>
         </is>
       </c>
-      <c r="AC1" s="77" t="inlineStr">
+      <c r="AE1" s="77" t="inlineStr">
         <is>
           <t>250401</t>
-        </is>
-      </c>
-      <c r="AD1" s="77" t="inlineStr">
-        <is>
-          <t>250331</t>
-        </is>
-      </c>
-      <c r="AE1" s="77" t="inlineStr">
-        <is>
-          <t>250328</t>
         </is>
       </c>
     </row>
@@ -6521,139 +6521,139 @@
           <t>green</t>
         </is>
       </c>
-      <c r="E2" s="92" t="inlineStr">
+      <c r="E2" s="91" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="F2" s="91" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="G2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F2" s="92" t="inlineStr">
+      <c r="H2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G2" s="92" t="inlineStr">
+      <c r="I2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H2" s="92" t="inlineStr">
+      <c r="J2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I2" s="93" t="inlineStr">
+      <c r="K2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J2" s="93" t="inlineStr">
+      <c r="L2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K2" s="93" t="inlineStr">
+      <c r="M2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L2" s="93" t="inlineStr">
+      <c r="N2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M2" s="93" t="inlineStr">
+      <c r="O2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N2" s="93" t="inlineStr">
+      <c r="P2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O2" s="93" t="inlineStr">
+      <c r="Q2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P2" s="93" t="inlineStr">
+      <c r="R2" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q2" s="92" t="inlineStr">
+      <c r="S2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R2" s="92" t="inlineStr">
+      <c r="T2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S2" s="92" t="inlineStr">
+      <c r="U2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T2" s="92" t="inlineStr">
+      <c r="V2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U2" s="92" t="inlineStr">
+      <c r="W2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V2" s="92" t="inlineStr">
+      <c r="X2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W2" s="91" t="inlineStr">
+      <c r="Y2" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X2" s="91" t="inlineStr">
+      <c r="Z2" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y2" s="92" t="inlineStr">
+      <c r="AA2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z2" s="92" t="inlineStr">
+      <c r="AB2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA2" s="92" t="inlineStr">
+      <c r="AC2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB2" s="92" t="inlineStr">
+      <c r="AD2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC2" s="92" t="inlineStr">
+      <c r="AE2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD2" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AE2" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -6673,85 +6673,85 @@
         <v>0.87</v>
       </c>
       <c r="E3" s="94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F3" s="94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G3" s="94" t="n">
         <v>1.05</v>
       </c>
-      <c r="F3" s="94" t="n">
+      <c r="H3" s="94" t="n">
         <v>1.8</v>
       </c>
-      <c r="G3" s="94" t="n">
+      <c r="I3" s="94" t="n">
         <v>2.53</v>
       </c>
-      <c r="H3" s="94" t="n">
+      <c r="J3" s="94" t="n">
         <v>2.53</v>
       </c>
-      <c r="I3" s="94" t="n">
+      <c r="K3" s="94" t="n">
         <v>1.69</v>
       </c>
-      <c r="J3" s="94" t="n">
+      <c r="L3" s="94" t="n">
         <v>1.6</v>
       </c>
-      <c r="K3" s="94" t="n">
+      <c r="M3" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="L3" s="94" t="n">
+      <c r="N3" s="94" t="n">
         <v>1.71</v>
       </c>
-      <c r="M3" s="94" t="n">
+      <c r="O3" s="94" t="n">
         <v>1.54</v>
       </c>
-      <c r="N3" s="94" t="n">
+      <c r="P3" s="94" t="n">
         <v>1.54</v>
       </c>
-      <c r="O3" s="94" t="n">
+      <c r="Q3" s="94" t="n">
         <v>1.22</v>
       </c>
-      <c r="P3" s="94" t="n">
+      <c r="R3" s="94" t="n">
         <v>3.65</v>
       </c>
-      <c r="Q3" s="94" t="n">
+      <c r="S3" s="94" t="n">
         <v>3.13</v>
       </c>
-      <c r="R3" s="94" t="n">
+      <c r="T3" s="94" t="n">
         <v>1.6</v>
       </c>
-      <c r="S3" s="94" t="n">
+      <c r="U3" s="94" t="n">
         <v>0.25</v>
       </c>
-      <c r="T3" s="94" t="n">
+      <c r="V3" s="94" t="n">
         <v>0.25</v>
       </c>
-      <c r="U3" s="94" t="n">
+      <c r="W3" s="94" t="n">
         <v>-0.19</v>
       </c>
-      <c r="V3" s="94" t="n">
+      <c r="X3" s="94" t="n">
         <v>-0.63</v>
       </c>
-      <c r="W3" s="94" t="n">
+      <c r="Y3" s="94" t="n">
         <v>-2.05</v>
       </c>
-      <c r="X3" s="94" t="n">
+      <c r="Z3" s="94" t="n">
         <v>-5.09</v>
-      </c>
-      <c r="Y3" s="94" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="Z3" s="94" t="n">
-        <v>-0.29</v>
       </c>
       <c r="AA3" s="94" t="n">
         <v>-0.29</v>
       </c>
       <c r="AB3" s="94" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AC3" s="94" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AD3" s="94" t="n">
         <v>-1.68</v>
       </c>
-      <c r="AC3" s="94" t="n">
+      <c r="AE3" s="94" t="n">
         <v>-1.52</v>
-      </c>
-      <c r="AD3" s="94" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="AE3" s="94" t="n">
-        <v>-1.24</v>
       </c>
     </row>
     <row r="4">
@@ -6773,82 +6773,82 @@
         <v>0.21</v>
       </c>
       <c r="F4" s="94" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G4" s="94" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H4" s="94" t="n">
         <v>0.68</v>
       </c>
-      <c r="G4" s="94" t="n">
+      <c r="I4" s="94" t="n">
         <v>0.26</v>
       </c>
-      <c r="H4" s="94" t="n">
+      <c r="J4" s="94" t="n">
         <v>0.26</v>
       </c>
-      <c r="I4" s="94" t="n">
+      <c r="K4" s="94" t="n">
         <v>-0.75</v>
       </c>
-      <c r="J4" s="94" t="n">
+      <c r="L4" s="94" t="n">
         <v>-0.1</v>
       </c>
-      <c r="K4" s="94" t="n">
+      <c r="M4" s="94" t="n">
         <v>0.59</v>
       </c>
-      <c r="L4" s="94" t="n">
+      <c r="N4" s="94" t="n">
         <v>-0.34</v>
       </c>
-      <c r="M4" s="94" t="n">
+      <c r="O4" s="94" t="n">
         <v>-0.28</v>
       </c>
-      <c r="N4" s="94" t="n">
+      <c r="P4" s="94" t="n">
         <v>-0.28</v>
       </c>
-      <c r="O4" s="94" t="n">
+      <c r="Q4" s="94" t="n">
         <v>0.37</v>
       </c>
-      <c r="P4" s="94" t="n">
+      <c r="R4" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="Q4" s="94" t="n">
+      <c r="S4" s="94" t="n">
         <v>3.1</v>
       </c>
-      <c r="R4" s="94" t="n">
+      <c r="T4" s="94" t="n">
         <v>1.87</v>
       </c>
-      <c r="S4" s="94" t="n">
+      <c r="U4" s="94" t="n">
         <v>1.15</v>
       </c>
-      <c r="T4" s="94" t="n">
+      <c r="V4" s="94" t="n">
         <v>1.15</v>
       </c>
-      <c r="U4" s="94" t="n">
+      <c r="W4" s="94" t="n">
         <v>-1.85</v>
       </c>
-      <c r="V4" s="94" t="n">
+      <c r="X4" s="94" t="n">
         <v>-0.96</v>
       </c>
-      <c r="W4" s="94" t="n">
+      <c r="Y4" s="94" t="n">
         <v>-4.74</v>
       </c>
-      <c r="X4" s="94" t="n">
+      <c r="Z4" s="94" t="n">
         <v>-4.98</v>
-      </c>
-      <c r="Y4" s="94" t="n">
-        <v>-4.23</v>
-      </c>
-      <c r="Z4" s="94" t="n">
-        <v>-4.23</v>
       </c>
       <c r="AA4" s="94" t="n">
         <v>-4.23</v>
       </c>
       <c r="AB4" s="94" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="AC4" s="94" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="AD4" s="94" t="n">
         <v>0.41</v>
       </c>
-      <c r="AC4" s="94" t="n">
+      <c r="AE4" s="94" t="n">
         <v>8.449999999999999</v>
-      </c>
-      <c r="AD4" s="94" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AE4" s="94" t="n">
-        <v>15.71</v>
       </c>
     </row>
     <row r="5">
@@ -6867,85 +6867,85 @@
         <v>16.68</v>
       </c>
       <c r="E5" s="94" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F5" s="94" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="G5" s="94" t="n">
         <v>32</v>
       </c>
-      <c r="F5" s="94" t="n">
+      <c r="H5" s="94" t="n">
         <v>37.27</v>
       </c>
-      <c r="G5" s="94" t="n">
+      <c r="I5" s="94" t="n">
         <v>63.72</v>
       </c>
-      <c r="H5" s="94" t="n">
+      <c r="J5" s="94" t="n">
         <v>63.72</v>
       </c>
-      <c r="I5" s="94" t="n">
+      <c r="K5" s="94" t="n">
         <v>75.73</v>
       </c>
-      <c r="J5" s="94" t="n">
+      <c r="L5" s="94" t="n">
         <v>74.39</v>
       </c>
-      <c r="K5" s="94" t="n">
+      <c r="M5" s="94" t="n">
         <v>85.98</v>
       </c>
-      <c r="L5" s="94" t="n">
+      <c r="N5" s="94" t="n">
         <v>81.19</v>
       </c>
-      <c r="M5" s="94" t="n">
+      <c r="O5" s="94" t="n">
         <v>68.56</v>
       </c>
-      <c r="N5" s="94" t="n">
+      <c r="P5" s="94" t="n">
         <v>68.56</v>
       </c>
-      <c r="O5" s="94" t="n">
+      <c r="Q5" s="94" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="P5" s="94" t="n">
+      <c r="R5" s="94" t="n">
         <v>74.51000000000001</v>
       </c>
-      <c r="Q5" s="94" t="n">
+      <c r="S5" s="94" t="n">
         <v>70.33</v>
       </c>
-      <c r="R5" s="94" t="n">
+      <c r="T5" s="94" t="n">
         <v>68.31999999999999</v>
       </c>
-      <c r="S5" s="94" t="n">
+      <c r="U5" s="94" t="n">
         <v>58.9</v>
       </c>
-      <c r="T5" s="94" t="n">
+      <c r="V5" s="94" t="n">
         <v>58.9</v>
       </c>
-      <c r="U5" s="94" t="n">
+      <c r="W5" s="94" t="n">
         <v>53.42</v>
       </c>
-      <c r="V5" s="94" t="n">
+      <c r="X5" s="94" t="n">
         <v>39.94</v>
       </c>
-      <c r="W5" s="94" t="n">
+      <c r="Y5" s="94" t="n">
         <v>23.39</v>
       </c>
-      <c r="X5" s="94" t="n">
+      <c r="Z5" s="94" t="n">
         <v>2.01</v>
-      </c>
-      <c r="Y5" s="94" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="Z5" s="94" t="n">
-        <v>29.66</v>
       </c>
       <c r="AA5" s="94" t="n">
         <v>29.66</v>
       </c>
       <c r="AB5" s="94" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AC5" s="94" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AD5" s="94" t="n">
         <v>42.58</v>
       </c>
-      <c r="AC5" s="94" t="n">
+      <c r="AE5" s="94" t="n">
         <v>38.88</v>
-      </c>
-      <c r="AD5" s="94" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AE5" s="94" t="n">
-        <v>16.11</v>
       </c>
     </row>
     <row r="6">
@@ -6969,114 +6969,114 @@
           <t>red</t>
         </is>
       </c>
-      <c r="E6" s="91" t="inlineStr">
+      <c r="E6" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="F6" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="G6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="F6" s="91" t="inlineStr">
+      <c r="H6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="G6" s="91" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="H6" s="91" t="inlineStr">
+      <c r="J6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="K6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="J6" s="92" t="inlineStr">
+      <c r="L6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K6" s="93" t="inlineStr">
+      <c r="M6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L6" s="93" t="inlineStr">
+      <c r="N6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M6" s="92" t="inlineStr">
+      <c r="O6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N6" s="92" t="inlineStr">
+      <c r="P6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O6" s="93" t="inlineStr">
+      <c r="Q6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P6" s="93" t="inlineStr">
+      <c r="R6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q6" s="92" t="inlineStr">
+      <c r="S6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R6" s="93" t="inlineStr">
+      <c r="T6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S6" s="93" t="inlineStr">
+      <c r="U6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="T6" s="93" t="inlineStr">
+      <c r="V6" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U6" s="92" t="inlineStr">
+      <c r="W6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V6" s="92" t="inlineStr">
+      <c r="X6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W6" s="91" t="inlineStr">
+      <c r="Y6" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X6" s="91" t="inlineStr">
+      <c r="Z6" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="Y6" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="Z6" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
       <c r="AA6" s="92" t="inlineStr">
@@ -7121,85 +7121,85 @@
         <v>6</v>
       </c>
       <c r="E7" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="94" t="n">
         <v>2.98</v>
       </c>
-      <c r="F7" s="94" t="n">
+      <c r="H7" s="94" t="n">
         <v>3.8</v>
       </c>
-      <c r="G7" s="94" t="n">
+      <c r="I7" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="94" t="n">
+      <c r="J7" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="94" t="n">
+      <c r="K7" s="94" t="n">
         <v>2.77</v>
       </c>
-      <c r="J7" s="94" t="n">
+      <c r="L7" s="94" t="n">
         <v>4.58</v>
       </c>
-      <c r="K7" s="94" t="n">
+      <c r="M7" s="94" t="n">
         <v>5.21</v>
       </c>
-      <c r="L7" s="94" t="n">
+      <c r="N7" s="94" t="n">
         <v>6.59</v>
       </c>
-      <c r="M7" s="94" t="n">
+      <c r="O7" s="94" t="n">
         <v>3.16</v>
       </c>
-      <c r="N7" s="94" t="n">
+      <c r="P7" s="94" t="n">
         <v>3.16</v>
       </c>
-      <c r="O7" s="94" t="n">
+      <c r="Q7" s="94" t="n">
         <v>3.57</v>
       </c>
-      <c r="P7" s="94" t="n">
+      <c r="R7" s="94" t="n">
         <v>6.54</v>
       </c>
-      <c r="Q7" s="94" t="n">
+      <c r="S7" s="94" t="n">
         <v>5.86</v>
       </c>
-      <c r="R7" s="94" t="n">
+      <c r="T7" s="94" t="n">
         <v>5.5</v>
       </c>
-      <c r="S7" s="94" t="n">
+      <c r="U7" s="94" t="n">
         <v>4.83</v>
       </c>
-      <c r="T7" s="94" t="n">
+      <c r="V7" s="94" t="n">
         <v>4.83</v>
       </c>
-      <c r="U7" s="94" t="n">
+      <c r="W7" s="94" t="n">
         <v>2.66</v>
       </c>
-      <c r="V7" s="94" t="n">
+      <c r="X7" s="94" t="n">
         <v>4.46</v>
       </c>
-      <c r="W7" s="94" t="n">
+      <c r="Y7" s="94" t="n">
         <v>-0.18</v>
       </c>
-      <c r="X7" s="94" t="n">
+      <c r="Z7" s="94" t="n">
         <v>-3.26</v>
-      </c>
-      <c r="Y7" s="94" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Z7" s="94" t="n">
-        <v>2.95</v>
       </c>
       <c r="AA7" s="94" t="n">
         <v>2.95</v>
       </c>
       <c r="AB7" s="94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC7" s="94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD7" s="94" t="n">
         <v>0.21</v>
       </c>
-      <c r="AC7" s="94" t="n">
+      <c r="AE7" s="94" t="n">
         <v>0.57</v>
-      </c>
-      <c r="AD7" s="94" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="AE7" s="94" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -7218,85 +7218,85 @@
         <v>7.73</v>
       </c>
       <c r="E8" s="94" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F8" s="94" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G8" s="94" t="n">
         <v>3.55</v>
       </c>
-      <c r="F8" s="94" t="n">
+      <c r="H8" s="94" t="n">
         <v>4.59</v>
       </c>
-      <c r="G8" s="94" t="n">
+      <c r="I8" s="94" t="n">
         <v>2.99</v>
       </c>
-      <c r="H8" s="94" t="n">
+      <c r="J8" s="94" t="n">
         <v>2.99</v>
       </c>
-      <c r="I8" s="94" t="n">
+      <c r="K8" s="94" t="n">
         <v>1.7</v>
       </c>
-      <c r="J8" s="94" t="n">
+      <c r="L8" s="94" t="n">
         <v>2.16</v>
       </c>
-      <c r="K8" s="94" t="n">
+      <c r="M8" s="94" t="n">
         <v>3.95</v>
       </c>
-      <c r="L8" s="94" t="n">
+      <c r="N8" s="94" t="n">
         <v>4.11</v>
       </c>
-      <c r="M8" s="94" t="n">
+      <c r="O8" s="94" t="n">
         <v>2.31</v>
       </c>
-      <c r="N8" s="94" t="n">
+      <c r="P8" s="94" t="n">
         <v>2.31</v>
       </c>
-      <c r="O8" s="94" t="n">
+      <c r="Q8" s="94" t="n">
         <v>1.64</v>
       </c>
-      <c r="P8" s="94" t="n">
+      <c r="R8" s="94" t="n">
         <v>3.66</v>
       </c>
-      <c r="Q8" s="94" t="n">
+      <c r="S8" s="94" t="n">
         <v>14.47</v>
       </c>
-      <c r="R8" s="94" t="n">
+      <c r="T8" s="94" t="n">
         <v>15.83</v>
       </c>
-      <c r="S8" s="94" t="n">
+      <c r="U8" s="94" t="n">
         <v>12.56</v>
       </c>
-      <c r="T8" s="94" t="n">
+      <c r="V8" s="94" t="n">
         <v>12.56</v>
       </c>
-      <c r="U8" s="94" t="n">
+      <c r="W8" s="94" t="n">
         <v>7.05</v>
       </c>
-      <c r="V8" s="94" t="n">
+      <c r="X8" s="94" t="n">
         <v>9.09</v>
       </c>
-      <c r="W8" s="94" t="n">
+      <c r="Y8" s="94" t="n">
         <v>-1.48</v>
       </c>
-      <c r="X8" s="94" t="n">
+      <c r="Z8" s="94" t="n">
         <v>-7.38</v>
-      </c>
-      <c r="Y8" s="94" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="Z8" s="94" t="n">
-        <v>-0.58</v>
       </c>
       <c r="AA8" s="94" t="n">
         <v>-0.58</v>
       </c>
       <c r="AB8" s="94" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="AC8" s="94" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="AD8" s="94" t="n">
         <v>17.24</v>
       </c>
-      <c r="AC8" s="94" t="n">
+      <c r="AE8" s="94" t="n">
         <v>38.43</v>
-      </c>
-      <c r="AD8" s="94" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="AE8" s="94" t="n">
-        <v>54.27</v>
       </c>
     </row>
     <row r="9">
@@ -7315,85 +7315,85 @@
         <v>59.87</v>
       </c>
       <c r="E9" s="94" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="F9" s="94" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="G9" s="94" t="n">
         <v>42.94</v>
       </c>
-      <c r="F9" s="94" t="n">
+      <c r="H9" s="94" t="n">
         <v>40.49</v>
       </c>
-      <c r="G9" s="94" t="n">
+      <c r="I9" s="94" t="n">
         <v>42.96</v>
       </c>
-      <c r="H9" s="94" t="n">
+      <c r="J9" s="94" t="n">
         <v>42.96</v>
       </c>
-      <c r="I9" s="94" t="n">
+      <c r="K9" s="94" t="n">
         <v>40.89</v>
       </c>
-      <c r="J9" s="94" t="n">
+      <c r="L9" s="94" t="n">
         <v>52.16</v>
       </c>
-      <c r="K9" s="94" t="n">
+      <c r="M9" s="94" t="n">
         <v>56.97</v>
       </c>
-      <c r="L9" s="94" t="n">
+      <c r="N9" s="94" t="n">
         <v>60.99</v>
       </c>
-      <c r="M9" s="94" t="n">
+      <c r="O9" s="94" t="n">
         <v>51.77</v>
       </c>
-      <c r="N9" s="94" t="n">
+      <c r="P9" s="94" t="n">
         <v>51.77</v>
       </c>
-      <c r="O9" s="94" t="n">
+      <c r="Q9" s="94" t="n">
         <v>60.45</v>
       </c>
-      <c r="P9" s="94" t="n">
+      <c r="R9" s="94" t="n">
         <v>58.91</v>
       </c>
-      <c r="Q9" s="94" t="n">
+      <c r="S9" s="94" t="n">
         <v>53.78</v>
       </c>
-      <c r="R9" s="94" t="n">
+      <c r="T9" s="94" t="n">
         <v>59.56</v>
       </c>
-      <c r="S9" s="94" t="n">
+      <c r="U9" s="94" t="n">
         <v>58.4</v>
       </c>
-      <c r="T9" s="94" t="n">
+      <c r="V9" s="94" t="n">
         <v>58.4</v>
       </c>
-      <c r="U9" s="94" t="n">
+      <c r="W9" s="94" t="n">
         <v>49.1</v>
       </c>
-      <c r="V9" s="94" t="n">
+      <c r="X9" s="94" t="n">
         <v>43.89</v>
       </c>
-      <c r="W9" s="94" t="n">
+      <c r="Y9" s="94" t="n">
         <v>18.5</v>
       </c>
-      <c r="X9" s="94" t="n">
+      <c r="Z9" s="94" t="n">
         <v>4.98</v>
-      </c>
-      <c r="Y9" s="94" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="Z9" s="94" t="n">
-        <v>22.95</v>
       </c>
       <c r="AA9" s="94" t="n">
         <v>22.95</v>
       </c>
       <c r="AB9" s="94" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="AC9" s="94" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="AD9" s="94" t="n">
         <v>26.81</v>
       </c>
-      <c r="AC9" s="94" t="n">
+      <c r="AE9" s="94" t="n">
         <v>28.13</v>
-      </c>
-      <c r="AD9" s="94" t="n">
-        <v>25.11</v>
-      </c>
-      <c r="AE9" s="94" t="n">
-        <v>29.08</v>
       </c>
     </row>
     <row r="10">
@@ -7417,134 +7417,134 @@
           <t>red</t>
         </is>
       </c>
-      <c r="E10" s="92" t="inlineStr">
+      <c r="E10" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="F10" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="G10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F10" s="92" t="inlineStr">
+      <c r="H10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G10" s="93" t="inlineStr">
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H10" s="93" t="inlineStr">
+      <c r="J10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I10" s="92" t="inlineStr">
+      <c r="K10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J10" s="93" t="inlineStr">
+      <c r="L10" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K10" s="92" t="inlineStr">
+      <c r="M10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L10" s="92" t="inlineStr">
+      <c r="N10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M10" s="92" t="inlineStr">
+      <c r="O10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N10" s="92" t="inlineStr">
+      <c r="P10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O10" s="92" t="inlineStr">
+      <c r="Q10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P10" s="92" t="inlineStr">
+      <c r="R10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q10" s="92" t="inlineStr">
+      <c r="S10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R10" s="92" t="inlineStr">
+      <c r="T10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S10" s="92" t="inlineStr">
+      <c r="U10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T10" s="92" t="inlineStr">
+      <c r="V10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U10" s="92" t="inlineStr">
+      <c r="W10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V10" s="91" t="inlineStr">
+      <c r="X10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W10" s="91" t="inlineStr">
+      <c r="Y10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X10" s="91" t="inlineStr">
+      <c r="Z10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y10" s="91" t="inlineStr">
+      <c r="AA10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z10" s="91" t="inlineStr">
+      <c r="AB10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA10" s="91" t="inlineStr">
+      <c r="AC10" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB10" s="92" t="inlineStr">
+      <c r="AD10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC10" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AD10" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE10" s="91" t="inlineStr">
@@ -7569,85 +7569,85 @@
         <v>-5.61</v>
       </c>
       <c r="E11" s="94" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="F11" s="94" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="G11" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="F11" s="94" t="n">
+      <c r="H11" s="94" t="n">
         <v>-7.59</v>
       </c>
-      <c r="G11" s="94" t="n">
+      <c r="I11" s="94" t="n">
         <v>-7.32</v>
       </c>
-      <c r="H11" s="94" t="n">
+      <c r="J11" s="94" t="n">
         <v>-7.32</v>
       </c>
-      <c r="I11" s="94" t="n">
+      <c r="K11" s="94" t="n">
         <v>-8.359999999999999</v>
       </c>
-      <c r="J11" s="94" t="n">
+      <c r="L11" s="94" t="n">
         <v>-7.39</v>
       </c>
-      <c r="K11" s="94" t="n">
+      <c r="M11" s="94" t="n">
         <v>-6.72</v>
       </c>
-      <c r="L11" s="94" t="n">
+      <c r="N11" s="94" t="n">
         <v>-5.22</v>
       </c>
-      <c r="M11" s="94" t="n">
+      <c r="O11" s="94" t="n">
         <v>-6.08</v>
       </c>
-      <c r="N11" s="94" t="n">
+      <c r="P11" s="94" t="n">
         <v>-6.08</v>
       </c>
-      <c r="O11" s="94" t="n">
+      <c r="Q11" s="94" t="n">
         <v>-8.039999999999999</v>
       </c>
-      <c r="P11" s="94" t="n">
+      <c r="R11" s="94" t="n">
         <v>-3.8</v>
       </c>
-      <c r="Q11" s="94" t="n">
+      <c r="S11" s="94" t="n">
         <v>-2.27</v>
       </c>
-      <c r="R11" s="94" t="n">
+      <c r="T11" s="94" t="n">
         <v>-3.87</v>
       </c>
-      <c r="S11" s="94" t="n">
+      <c r="U11" s="94" t="n">
         <v>-4.09</v>
       </c>
-      <c r="T11" s="94" t="n">
+      <c r="V11" s="94" t="n">
         <v>-4.09</v>
       </c>
-      <c r="U11" s="94" t="n">
+      <c r="W11" s="94" t="n">
         <v>-6.3</v>
       </c>
-      <c r="V11" s="94" t="n">
+      <c r="X11" s="94" t="n">
         <v>-7.74</v>
       </c>
-      <c r="W11" s="94" t="n">
+      <c r="Y11" s="94" t="n">
         <v>-8.710000000000001</v>
       </c>
-      <c r="X11" s="94" t="n">
+      <c r="Z11" s="94" t="n">
         <v>-12.29</v>
-      </c>
-      <c r="Y11" s="94" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="Z11" s="94" t="n">
-        <v>-3.56</v>
       </c>
       <c r="AA11" s="94" t="n">
         <v>-3.56</v>
       </c>
       <c r="AB11" s="94" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="AC11" s="94" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="AD11" s="94" t="n">
         <v>-4.61</v>
       </c>
-      <c r="AC11" s="94" t="n">
+      <c r="AE11" s="94" t="n">
         <v>-4.67</v>
-      </c>
-      <c r="AD11" s="94" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="AE11" s="94" t="n">
-        <v>-3.32</v>
       </c>
     </row>
     <row r="12">
@@ -7666,85 +7666,85 @@
         <v>-8.27</v>
       </c>
       <c r="E12" s="94" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="F12" s="94" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="G12" s="94" t="n">
         <v>-10.74</v>
       </c>
-      <c r="F12" s="94" t="n">
+      <c r="H12" s="94" t="n">
         <v>-10.09</v>
       </c>
-      <c r="G12" s="94" t="n">
+      <c r="I12" s="94" t="n">
         <v>-10.57</v>
       </c>
-      <c r="H12" s="94" t="n">
+      <c r="J12" s="94" t="n">
         <v>-10.57</v>
       </c>
-      <c r="I12" s="94" t="n">
+      <c r="K12" s="94" t="n">
         <v>-13.16</v>
       </c>
-      <c r="J12" s="94" t="n">
+      <c r="L12" s="94" t="n">
         <v>-12.94</v>
       </c>
-      <c r="K12" s="94" t="n">
+      <c r="M12" s="94" t="n">
         <v>-11.34</v>
       </c>
-      <c r="L12" s="94" t="n">
+      <c r="N12" s="94" t="n">
         <v>-11.83</v>
       </c>
-      <c r="M12" s="94" t="n">
+      <c r="O12" s="94" t="n">
         <v>-13.67</v>
       </c>
-      <c r="N12" s="94" t="n">
+      <c r="P12" s="94" t="n">
         <v>-13.67</v>
       </c>
-      <c r="O12" s="94" t="n">
+      <c r="Q12" s="94" t="n">
         <v>-13.64</v>
       </c>
-      <c r="P12" s="94" t="n">
+      <c r="R12" s="94" t="n">
         <v>-13.12</v>
       </c>
-      <c r="Q12" s="94" t="n">
+      <c r="S12" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="R12" s="94" t="n">
+      <c r="T12" s="94" t="n">
         <v>-5.25</v>
       </c>
-      <c r="S12" s="94" t="n">
+      <c r="U12" s="94" t="n">
         <v>-7.65</v>
       </c>
-      <c r="T12" s="94" t="n">
+      <c r="V12" s="94" t="n">
         <v>-7.65</v>
       </c>
-      <c r="U12" s="94" t="n">
+      <c r="W12" s="94" t="n">
         <v>-11.82</v>
       </c>
-      <c r="V12" s="94" t="n">
+      <c r="X12" s="94" t="n">
         <v>-11.54</v>
       </c>
-      <c r="W12" s="94" t="n">
+      <c r="Y12" s="94" t="n">
         <v>-16.84</v>
       </c>
-      <c r="X12" s="94" t="n">
+      <c r="Z12" s="94" t="n">
         <v>-20.74</v>
-      </c>
-      <c r="Y12" s="94" t="n">
-        <v>-19.01</v>
-      </c>
-      <c r="Z12" s="94" t="n">
-        <v>-19.01</v>
       </c>
       <c r="AA12" s="94" t="n">
         <v>-19.01</v>
       </c>
       <c r="AB12" s="94" t="n">
+        <v>-19.01</v>
+      </c>
+      <c r="AC12" s="94" t="n">
+        <v>-19.01</v>
+      </c>
+      <c r="AD12" s="94" t="n">
         <v>-3.24</v>
       </c>
-      <c r="AC12" s="94" t="n">
+      <c r="AE12" s="94" t="n">
         <v>11.48</v>
-      </c>
-      <c r="AD12" s="94" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="AE12" s="94" t="n">
-        <v>29.65</v>
       </c>
     </row>
     <row r="13">
@@ -7763,85 +7763,85 @@
         <v>67.06</v>
       </c>
       <c r="E13" s="94" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="F13" s="94" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="G13" s="94" t="n">
         <v>41.37</v>
       </c>
-      <c r="F13" s="94" t="n">
+      <c r="H13" s="94" t="n">
         <v>45.04</v>
       </c>
-      <c r="G13" s="94" t="n">
+      <c r="I13" s="94" t="n">
         <v>64.22</v>
       </c>
-      <c r="H13" s="94" t="n">
+      <c r="J13" s="94" t="n">
         <v>64.22</v>
       </c>
-      <c r="I13" s="94" t="n">
+      <c r="K13" s="94" t="n">
         <v>52.12</v>
       </c>
-      <c r="J13" s="94" t="n">
+      <c r="L13" s="94" t="n">
         <v>70.87</v>
       </c>
-      <c r="K13" s="94" t="n">
+      <c r="M13" s="94" t="n">
         <v>53.47</v>
       </c>
-      <c r="L13" s="94" t="n">
+      <c r="N13" s="94" t="n">
         <v>76.97</v>
       </c>
-      <c r="M13" s="94" t="n">
+      <c r="O13" s="94" t="n">
         <v>47.71</v>
       </c>
-      <c r="N13" s="94" t="n">
+      <c r="P13" s="94" t="n">
         <v>47.71</v>
       </c>
-      <c r="O13" s="94" t="n">
+      <c r="Q13" s="94" t="n">
         <v>38.86</v>
       </c>
-      <c r="P13" s="94" t="n">
+      <c r="R13" s="94" t="n">
         <v>36.55</v>
       </c>
-      <c r="Q13" s="94" t="n">
+      <c r="S13" s="94" t="n">
         <v>56.28</v>
       </c>
-      <c r="R13" s="94" t="n">
+      <c r="T13" s="94" t="n">
         <v>58.55</v>
       </c>
-      <c r="S13" s="94" t="n">
+      <c r="U13" s="94" t="n">
         <v>55.42</v>
       </c>
-      <c r="T13" s="94" t="n">
+      <c r="V13" s="94" t="n">
         <v>55.42</v>
       </c>
-      <c r="U13" s="94" t="n">
+      <c r="W13" s="94" t="n">
         <v>44.39</v>
       </c>
-      <c r="V13" s="94" t="n">
+      <c r="X13" s="94" t="n">
         <v>23.88</v>
       </c>
-      <c r="W13" s="94" t="n">
+      <c r="Y13" s="94" t="n">
         <v>14.93</v>
       </c>
-      <c r="X13" s="94" t="n">
+      <c r="Z13" s="94" t="n">
         <v>0.64</v>
-      </c>
-      <c r="Y13" s="94" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="Z13" s="94" t="n">
-        <v>5.09</v>
       </c>
       <c r="AA13" s="94" t="n">
         <v>5.09</v>
       </c>
       <c r="AB13" s="94" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AC13" s="94" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AD13" s="94" t="n">
         <v>16.8</v>
       </c>
-      <c r="AC13" s="94" t="n">
+      <c r="AE13" s="94" t="n">
         <v>6.77</v>
-      </c>
-      <c r="AD13" s="94" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AE13" s="94" t="n">
-        <v>14.43</v>
       </c>
     </row>
     <row r="14">
@@ -7895,109 +7895,109 @@
           <t>red</t>
         </is>
       </c>
-      <c r="K14" s="92" t="inlineStr">
+      <c r="K14" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="L14" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L14" s="92" t="inlineStr">
+      <c r="N14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M14" s="92" t="inlineStr">
+      <c r="O14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N14" s="92" t="inlineStr">
+      <c r="P14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O14" s="92" t="inlineStr">
+      <c r="Q14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P14" s="92" t="inlineStr">
+      <c r="R14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q14" s="92" t="inlineStr">
+      <c r="S14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R14" s="92" t="inlineStr">
+      <c r="T14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S14" s="92" t="inlineStr">
+      <c r="U14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T14" s="92" t="inlineStr">
+      <c r="V14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U14" s="92" t="inlineStr">
+      <c r="W14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V14" s="91" t="inlineStr">
+      <c r="X14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W14" s="91" t="inlineStr">
+      <c r="Y14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X14" s="91" t="inlineStr">
+      <c r="Z14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y14" s="91" t="inlineStr">
+      <c r="AA14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z14" s="91" t="inlineStr">
+      <c r="AB14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA14" s="91" t="inlineStr">
+      <c r="AC14" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB14" s="92" t="inlineStr">
+      <c r="AD14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC14" s="92" t="inlineStr">
+      <c r="AE14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD14" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AE14" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -8011,37 +8011,37 @@
         <v>11.31</v>
       </c>
       <c r="C15" s="94" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D15" s="94" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E15" s="94" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="D15" s="94" t="n">
+      <c r="F15" s="94" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="E15" s="94" t="n">
+      <c r="G15" s="94" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="F15" s="94" t="n">
+      <c r="H15" s="94" t="n">
         <v>9.5</v>
       </c>
-      <c r="G15" s="94" t="n">
+      <c r="I15" s="94" t="n">
         <v>11.57</v>
       </c>
-      <c r="H15" s="94" t="n">
+      <c r="J15" s="94" t="n">
         <v>11.57</v>
       </c>
-      <c r="I15" s="94" t="n">
+      <c r="K15" s="94" t="n">
         <v>10.77</v>
       </c>
-      <c r="J15" s="94" t="n">
+      <c r="L15" s="94" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="K15" s="94" t="n">
+      <c r="M15" s="94" t="n">
         <v>8.210000000000001</v>
-      </c>
-      <c r="L15" s="94" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="M15" s="94" t="n">
-        <v>9.25</v>
       </c>
       <c r="N15" s="94" t="n">
         <v>9.25</v>
@@ -8050,52 +8050,52 @@
         <v>9.25</v>
       </c>
       <c r="P15" s="94" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Q15" s="94" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="R15" s="94" t="n">
         <v>7.86</v>
       </c>
-      <c r="Q15" s="94" t="n">
+      <c r="S15" s="94" t="n">
         <v>11.3</v>
       </c>
-      <c r="R15" s="94" t="n">
+      <c r="T15" s="94" t="n">
         <v>11.43</v>
       </c>
-      <c r="S15" s="94" t="n">
+      <c r="U15" s="94" t="n">
         <v>10.81</v>
       </c>
-      <c r="T15" s="94" t="n">
+      <c r="V15" s="94" t="n">
         <v>10.81</v>
       </c>
-      <c r="U15" s="94" t="n">
+      <c r="W15" s="94" t="n">
         <v>8.48</v>
       </c>
-      <c r="V15" s="94" t="n">
+      <c r="X15" s="94" t="n">
         <v>5.32</v>
       </c>
-      <c r="W15" s="94" t="n">
+      <c r="Y15" s="94" t="n">
         <v>4.4</v>
       </c>
-      <c r="X15" s="94" t="n">
+      <c r="Z15" s="94" t="n">
         <v>1.96</v>
-      </c>
-      <c r="Y15" s="94" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="Z15" s="94" t="n">
-        <v>16.06</v>
       </c>
       <c r="AA15" s="94" t="n">
         <v>16.06</v>
       </c>
       <c r="AB15" s="94" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="AC15" s="94" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="AD15" s="94" t="n">
         <v>17.42</v>
       </c>
-      <c r="AC15" s="94" t="n">
+      <c r="AE15" s="94" t="n">
         <v>18.26</v>
-      </c>
-      <c r="AD15" s="94" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="AE15" s="94" t="n">
-        <v>16.89</v>
       </c>
     </row>
     <row r="16">
@@ -8108,37 +8108,37 @@
         <v>9.74</v>
       </c>
       <c r="C16" s="94" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D16" s="94" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="E16" s="94" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="D16" s="94" t="n">
+      <c r="F16" s="94" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="E16" s="94" t="n">
+      <c r="G16" s="94" t="n">
         <v>7.99</v>
       </c>
-      <c r="F16" s="94" t="n">
+      <c r="H16" s="94" t="n">
         <v>6.14</v>
       </c>
-      <c r="G16" s="94" t="n">
+      <c r="I16" s="94" t="n">
         <v>6.71</v>
       </c>
-      <c r="H16" s="94" t="n">
+      <c r="J16" s="94" t="n">
         <v>6.71</v>
       </c>
-      <c r="I16" s="94" t="n">
+      <c r="K16" s="94" t="n">
         <v>6.41</v>
       </c>
-      <c r="J16" s="94" t="n">
+      <c r="L16" s="94" t="n">
         <v>7.73</v>
       </c>
-      <c r="K16" s="94" t="n">
+      <c r="M16" s="94" t="n">
         <v>3.86</v>
-      </c>
-      <c r="L16" s="94" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M16" s="94" t="n">
-        <v>4.37</v>
       </c>
       <c r="N16" s="94" t="n">
         <v>4.37</v>
@@ -8147,52 +8147,52 @@
         <v>4.37</v>
       </c>
       <c r="P16" s="94" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q16" s="94" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="R16" s="94" t="n">
         <v>2.83</v>
       </c>
-      <c r="Q16" s="94" t="n">
+      <c r="S16" s="94" t="n">
         <v>3.18</v>
       </c>
-      <c r="R16" s="94" t="n">
+      <c r="T16" s="94" t="n">
         <v>6.67</v>
       </c>
-      <c r="S16" s="94" t="n">
+      <c r="U16" s="94" t="n">
         <v>3.09</v>
       </c>
-      <c r="T16" s="94" t="n">
+      <c r="V16" s="94" t="n">
         <v>3.09</v>
       </c>
-      <c r="U16" s="94" t="n">
+      <c r="W16" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="V16" s="94" t="n">
+      <c r="X16" s="94" t="n">
         <v>-3.93</v>
       </c>
-      <c r="W16" s="94" t="n">
+      <c r="Y16" s="94" t="n">
         <v>-5.29</v>
       </c>
-      <c r="X16" s="94" t="n">
+      <c r="Z16" s="94" t="n">
         <v>-3.92</v>
-      </c>
-      <c r="Y16" s="94" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="Z16" s="94" t="n">
-        <v>9.19</v>
       </c>
       <c r="AA16" s="94" t="n">
         <v>9.19</v>
       </c>
       <c r="AB16" s="94" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AC16" s="94" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AD16" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="AC16" s="94" t="n">
+      <c r="AE16" s="94" t="n">
         <v>2.07</v>
-      </c>
-      <c r="AD16" s="94" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AE16" s="94" t="n">
-        <v>4.38</v>
       </c>
     </row>
     <row r="17">
@@ -8205,37 +8205,37 @@
         <v>86.7</v>
       </c>
       <c r="C17" s="94" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="D17" s="94" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E17" s="94" t="n">
         <v>74.8</v>
       </c>
-      <c r="D17" s="94" t="n">
+      <c r="F17" s="94" t="n">
         <v>74.8</v>
       </c>
-      <c r="E17" s="94" t="n">
+      <c r="G17" s="94" t="n">
         <v>68.73999999999999</v>
       </c>
-      <c r="F17" s="94" t="n">
+      <c r="H17" s="94" t="n">
         <v>66.8</v>
       </c>
-      <c r="G17" s="94" t="n">
+      <c r="I17" s="94" t="n">
         <v>67.56</v>
       </c>
-      <c r="H17" s="94" t="n">
+      <c r="J17" s="94" t="n">
         <v>67.56</v>
       </c>
-      <c r="I17" s="94" t="n">
+      <c r="K17" s="94" t="n">
         <v>65.14</v>
       </c>
-      <c r="J17" s="94" t="n">
+      <c r="L17" s="94" t="n">
         <v>74.75</v>
       </c>
-      <c r="K17" s="94" t="n">
+      <c r="M17" s="94" t="n">
         <v>61.35</v>
-      </c>
-      <c r="L17" s="94" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="M17" s="94" t="n">
-        <v>55.56</v>
       </c>
       <c r="N17" s="94" t="n">
         <v>55.56</v>
@@ -8244,52 +8244,52 @@
         <v>55.56</v>
       </c>
       <c r="P17" s="94" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="Q17" s="94" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="R17" s="94" t="n">
         <v>42.49</v>
       </c>
-      <c r="Q17" s="94" t="n">
+      <c r="S17" s="94" t="n">
         <v>57.97</v>
       </c>
-      <c r="R17" s="94" t="n">
+      <c r="T17" s="94" t="n">
         <v>56.55</v>
       </c>
-      <c r="S17" s="94" t="n">
+      <c r="U17" s="94" t="n">
         <v>41.26</v>
       </c>
-      <c r="T17" s="94" t="n">
+      <c r="V17" s="94" t="n">
         <v>41.26</v>
       </c>
-      <c r="U17" s="94" t="n">
+      <c r="W17" s="94" t="n">
         <v>33.08</v>
       </c>
-      <c r="V17" s="94" t="n">
+      <c r="X17" s="94" t="n">
         <v>17.68</v>
       </c>
-      <c r="W17" s="94" t="n">
+      <c r="Y17" s="94" t="n">
         <v>12.74</v>
       </c>
-      <c r="X17" s="94" t="n">
+      <c r="Z17" s="94" t="n">
         <v>3.21</v>
-      </c>
-      <c r="Y17" s="94" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="Z17" s="94" t="n">
-        <v>18.53</v>
       </c>
       <c r="AA17" s="94" t="n">
         <v>18.53</v>
       </c>
       <c r="AB17" s="94" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AC17" s="94" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AD17" s="94" t="n">
         <v>31.84</v>
       </c>
-      <c r="AC17" s="94" t="n">
+      <c r="AE17" s="94" t="n">
         <v>32.06</v>
-      </c>
-      <c r="AD17" s="94" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="AE17" s="94" t="n">
-        <v>34.7</v>
       </c>
     </row>
     <row r="18">
@@ -8343,104 +8343,104 @@
           <t>red</t>
         </is>
       </c>
-      <c r="K18" s="92" t="inlineStr">
+      <c r="K18" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="L18" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L18" s="91" t="inlineStr">
+      <c r="N18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M18" s="92" t="inlineStr">
+      <c r="O18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N18" s="92" t="inlineStr">
+      <c r="P18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O18" s="92" t="inlineStr">
+      <c r="Q18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P18" s="91" t="inlineStr">
+      <c r="R18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Q18" s="93" t="inlineStr">
+      <c r="S18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R18" s="93" t="inlineStr">
+      <c r="T18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S18" s="92" t="inlineStr">
+      <c r="U18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T18" s="92" t="inlineStr">
+      <c r="V18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U18" s="92" t="inlineStr">
+      <c r="W18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V18" s="93" t="inlineStr">
+      <c r="X18" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W18" s="91" t="inlineStr">
+      <c r="Y18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X18" s="91" t="inlineStr">
+      <c r="Z18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y18" s="91" t="inlineStr">
+      <c r="AA18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z18" s="91" t="inlineStr">
+      <c r="AB18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA18" s="91" t="inlineStr">
+      <c r="AC18" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB18" s="92" t="inlineStr">
+      <c r="AD18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC18" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AD18" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE18" s="91" t="inlineStr">
@@ -8459,91 +8459,91 @@
         <v>-6.18</v>
       </c>
       <c r="C19" s="94" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="D19" s="94" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="E19" s="94" t="n">
         <v>-7.18</v>
       </c>
-      <c r="D19" s="94" t="n">
+      <c r="F19" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="E19" s="94" t="n">
+      <c r="G19" s="94" t="n">
         <v>-7.94</v>
       </c>
-      <c r="F19" s="94" t="n">
+      <c r="H19" s="94" t="n">
         <v>-8.93</v>
       </c>
-      <c r="G19" s="94" t="n">
+      <c r="I19" s="94" t="n">
         <v>-8.51</v>
       </c>
-      <c r="H19" s="94" t="n">
+      <c r="J19" s="94" t="n">
         <v>-8.51</v>
       </c>
-      <c r="I19" s="94" t="n">
+      <c r="K19" s="94" t="n">
         <v>-9.609999999999999</v>
       </c>
-      <c r="J19" s="94" t="n">
+      <c r="L19" s="94" t="n">
         <v>-10.59</v>
       </c>
-      <c r="K19" s="94" t="n">
+      <c r="M19" s="94" t="n">
         <v>-13.33</v>
       </c>
-      <c r="L19" s="94" t="n">
+      <c r="N19" s="94" t="n">
         <v>-15.7</v>
-      </c>
-      <c r="M19" s="94" t="n">
-        <v>-13.2</v>
-      </c>
-      <c r="N19" s="94" t="n">
-        <v>-13.2</v>
       </c>
       <c r="O19" s="94" t="n">
         <v>-13.2</v>
       </c>
       <c r="P19" s="94" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="Q19" s="94" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="R19" s="94" t="n">
         <v>-12.79</v>
       </c>
-      <c r="Q19" s="94" t="n">
+      <c r="S19" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="R19" s="94" t="n">
+      <c r="T19" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="S19" s="94" t="n">
+      <c r="U19" s="94" t="n">
         <v>-9.859999999999999</v>
       </c>
-      <c r="T19" s="94" t="n">
+      <c r="V19" s="94" t="n">
         <v>-9.859999999999999</v>
       </c>
-      <c r="U19" s="94" t="n">
+      <c r="W19" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="V19" s="94" t="n">
+      <c r="X19" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="W19" s="94" t="n">
+      <c r="Y19" s="94" t="n">
         <v>-14.49</v>
       </c>
-      <c r="X19" s="94" t="n">
+      <c r="Z19" s="94" t="n">
         <v>-14.46</v>
       </c>
-      <c r="Y19" s="94" t="n">
+      <c r="AA19" s="94" t="n">
         <v>-14.13</v>
       </c>
-      <c r="Z19" s="94" t="n">
+      <c r="AB19" s="94" t="n">
         <v>-14.13</v>
       </c>
-      <c r="AA19" s="94" t="n">
+      <c r="AC19" s="94" t="n">
         <v>-9.69</v>
       </c>
-      <c r="AB19" s="94" t="n">
+      <c r="AD19" s="94" t="n">
         <v>-4.57</v>
       </c>
-      <c r="AC19" s="94" t="n">
+      <c r="AE19" s="94" t="n">
         <v>-4.01</v>
-      </c>
-      <c r="AD19" s="94" t="n">
-        <v>-4.59</v>
-      </c>
-      <c r="AE19" s="94" t="n">
-        <v>-5.52</v>
       </c>
     </row>
     <row r="20">
@@ -8556,91 +8556,91 @@
         <v>-4.09</v>
       </c>
       <c r="C20" s="94" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="D20" s="94" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="E20" s="94" t="n">
         <v>-3.09</v>
       </c>
-      <c r="D20" s="94" t="n">
+      <c r="F20" s="94" t="n">
         <v>-2.51</v>
       </c>
-      <c r="E20" s="94" t="n">
+      <c r="G20" s="94" t="n">
         <v>-2.93</v>
       </c>
-      <c r="F20" s="94" t="n">
+      <c r="H20" s="94" t="n">
         <v>-3.1</v>
       </c>
-      <c r="G20" s="94" t="n">
+      <c r="I20" s="94" t="n">
         <v>-4.96</v>
       </c>
-      <c r="H20" s="94" t="n">
+      <c r="J20" s="94" t="n">
         <v>-4.96</v>
       </c>
-      <c r="I20" s="94" t="n">
+      <c r="K20" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="J20" s="94" t="n">
+      <c r="L20" s="94" t="n">
         <v>-7.69</v>
       </c>
-      <c r="K20" s="94" t="n">
+      <c r="M20" s="94" t="n">
         <v>-8.960000000000001</v>
       </c>
-      <c r="L20" s="94" t="n">
+      <c r="N20" s="94" t="n">
         <v>-11.22</v>
-      </c>
-      <c r="M20" s="94" t="n">
-        <v>-8.880000000000001</v>
-      </c>
-      <c r="N20" s="94" t="n">
-        <v>-8.880000000000001</v>
       </c>
       <c r="O20" s="94" t="n">
         <v>-8.880000000000001</v>
       </c>
       <c r="P20" s="94" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="Q20" s="94" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="R20" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="Q20" s="94" t="n">
+      <c r="S20" s="94" t="n">
         <v>-7.81</v>
       </c>
-      <c r="R20" s="94" t="n">
+      <c r="T20" s="94" t="n">
         <v>-7.82</v>
       </c>
-      <c r="S20" s="94" t="n">
+      <c r="U20" s="94" t="n">
         <v>-8.18</v>
       </c>
-      <c r="T20" s="94" t="n">
+      <c r="V20" s="94" t="n">
         <v>-8.18</v>
       </c>
-      <c r="U20" s="94" t="n">
+      <c r="W20" s="94" t="n">
         <v>-9.83</v>
       </c>
-      <c r="V20" s="94" t="n">
+      <c r="X20" s="94" t="n">
         <v>-6.16</v>
       </c>
-      <c r="W20" s="94" t="n">
+      <c r="Y20" s="94" t="n">
         <v>-14.97</v>
       </c>
-      <c r="X20" s="94" t="n">
+      <c r="Z20" s="94" t="n">
         <v>-12.95</v>
       </c>
-      <c r="Y20" s="94" t="n">
+      <c r="AA20" s="94" t="n">
         <v>-12.21</v>
       </c>
-      <c r="Z20" s="94" t="n">
+      <c r="AB20" s="94" t="n">
         <v>-12.21</v>
       </c>
-      <c r="AA20" s="94" t="n">
+      <c r="AC20" s="94" t="n">
         <v>-6.83</v>
       </c>
-      <c r="AB20" s="94" t="n">
+      <c r="AD20" s="94" t="n">
         <v>-1.39</v>
       </c>
-      <c r="AC20" s="94" t="n">
+      <c r="AE20" s="94" t="n">
         <v>-1.1</v>
-      </c>
-      <c r="AD20" s="94" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="AE20" s="94" t="n">
-        <v>-2.09</v>
       </c>
     </row>
     <row r="21">
@@ -8653,91 +8653,91 @@
         <v>99.72</v>
       </c>
       <c r="C21" s="94" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="D21" s="94" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="E21" s="94" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="D21" s="94" t="n">
+      <c r="F21" s="94" t="n">
         <v>97.11</v>
       </c>
-      <c r="E21" s="94" t="n">
+      <c r="G21" s="94" t="n">
         <v>96.43000000000001</v>
       </c>
-      <c r="F21" s="94" t="n">
+      <c r="H21" s="94" t="n">
         <v>93.39</v>
       </c>
-      <c r="G21" s="94" t="n">
+      <c r="I21" s="94" t="n">
         <v>93.06999999999999</v>
       </c>
-      <c r="H21" s="94" t="n">
+      <c r="J21" s="94" t="n">
         <v>93.06999999999999</v>
       </c>
-      <c r="I21" s="94" t="n">
+      <c r="K21" s="94" t="n">
         <v>90.36</v>
       </c>
-      <c r="J21" s="94" t="n">
+      <c r="L21" s="94" t="n">
         <v>79.64</v>
       </c>
-      <c r="K21" s="94" t="n">
+      <c r="M21" s="94" t="n">
         <v>63.01</v>
       </c>
-      <c r="L21" s="94" t="n">
+      <c r="N21" s="94" t="n">
         <v>7.46</v>
-      </c>
-      <c r="M21" s="94" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="N21" s="94" t="n">
-        <v>26.79</v>
       </c>
       <c r="O21" s="94" t="n">
         <v>26.79</v>
       </c>
       <c r="P21" s="94" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="Q21" s="94" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="R21" s="94" t="n">
         <v>21.03</v>
       </c>
-      <c r="Q21" s="94" t="n">
+      <c r="S21" s="94" t="n">
         <v>65.61</v>
       </c>
-      <c r="R21" s="94" t="n">
+      <c r="T21" s="94" t="n">
         <v>71.45999999999999</v>
       </c>
-      <c r="S21" s="94" t="n">
+      <c r="U21" s="94" t="n">
         <v>64.18000000000001</v>
       </c>
-      <c r="T21" s="94" t="n">
+      <c r="V21" s="94" t="n">
         <v>64.18000000000001</v>
       </c>
-      <c r="U21" s="94" t="n">
+      <c r="W21" s="94" t="n">
         <v>49.87</v>
       </c>
-      <c r="V21" s="94" t="n">
+      <c r="X21" s="94" t="n">
         <v>82.54000000000001</v>
       </c>
-      <c r="W21" s="94" t="n">
+      <c r="Y21" s="94" t="n">
         <v>1.75</v>
       </c>
-      <c r="X21" s="94" t="n">
+      <c r="Z21" s="94" t="n">
         <v>2.85</v>
       </c>
-      <c r="Y21" s="94" t="n">
+      <c r="AA21" s="94" t="n">
         <v>2.99</v>
       </c>
-      <c r="Z21" s="94" t="n">
+      <c r="AB21" s="94" t="n">
         <v>2.99</v>
       </c>
-      <c r="AA21" s="94" t="n">
+      <c r="AC21" s="94" t="n">
         <v>9.18</v>
       </c>
-      <c r="AB21" s="94" t="n">
+      <c r="AD21" s="94" t="n">
         <v>76.8</v>
       </c>
-      <c r="AC21" s="94" t="n">
+      <c r="AE21" s="94" t="n">
         <v>52.81</v>
-      </c>
-      <c r="AD21" s="94" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="AE21" s="94" t="n">
-        <v>5.59</v>
       </c>
     </row>
     <row r="22">
@@ -8786,109 +8786,109 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J22" s="92" t="inlineStr">
+      <c r="J22" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K22" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="L22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K22" s="92" t="inlineStr">
+      <c r="M22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L22" s="91" t="inlineStr">
+      <c r="N22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M22" s="91" t="inlineStr">
+      <c r="O22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N22" s="91" t="inlineStr">
+      <c r="P22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O22" s="91" t="inlineStr">
+      <c r="Q22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="P22" s="91" t="inlineStr">
+      <c r="R22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Q22" s="93" t="inlineStr">
+      <c r="S22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R22" s="93" t="inlineStr">
+      <c r="T22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S22" s="92" t="inlineStr">
+      <c r="U22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T22" s="92" t="inlineStr">
+      <c r="V22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U22" s="92" t="inlineStr">
+      <c r="W22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V22" s="93" t="inlineStr">
+      <c r="X22" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W22" s="91" t="inlineStr">
+      <c r="Y22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X22" s="91" t="inlineStr">
+      <c r="Z22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y22" s="91" t="inlineStr">
+      <c r="AA22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z22" s="91" t="inlineStr">
+      <c r="AB22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA22" s="91" t="inlineStr">
+      <c r="AC22" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB22" s="93" t="inlineStr">
+      <c r="AD22" s="93" t="inlineStr">
         <is>
           <t>red</t>
-        </is>
-      </c>
-      <c r="AC22" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AD22" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE22" s="91" t="inlineStr">
@@ -8904,94 +8904,94 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
+        <v>-7.89</v>
+      </c>
+      <c r="C23" s="94" t="n">
         <v>-7.92</v>
       </c>
-      <c r="C23" s="94" t="n">
+      <c r="D23" s="94" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="E23" s="94" t="n">
         <v>-8.539999999999999</v>
       </c>
-      <c r="D23" s="94" t="n">
+      <c r="F23" s="94" t="n">
         <v>-8.449999999999999</v>
       </c>
-      <c r="E23" s="94" t="n">
+      <c r="G23" s="94" t="n">
         <v>-9.02</v>
       </c>
-      <c r="F23" s="94" t="n">
+      <c r="H23" s="94" t="n">
         <v>-10.37</v>
       </c>
-      <c r="G23" s="94" t="n">
+      <c r="I23" s="94" t="n">
         <v>-10.29</v>
       </c>
-      <c r="H23" s="94" t="n">
+      <c r="J23" s="94" t="n">
         <v>-10.29</v>
       </c>
-      <c r="I23" s="94" t="n">
+      <c r="K23" s="94" t="n">
         <v>-10.61</v>
       </c>
-      <c r="J23" s="94" t="n">
+      <c r="L23" s="94" t="n">
         <v>-11.42</v>
       </c>
-      <c r="K23" s="94" t="n">
+      <c r="M23" s="94" t="n">
         <v>-11.79</v>
       </c>
-      <c r="L23" s="94" t="n">
+      <c r="N23" s="94" t="n">
         <v>-14.35</v>
-      </c>
-      <c r="M23" s="94" t="n">
-        <v>-11.36</v>
-      </c>
-      <c r="N23" s="94" t="n">
-        <v>-11.36</v>
       </c>
       <c r="O23" s="94" t="n">
         <v>-11.36</v>
       </c>
       <c r="P23" s="94" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="Q23" s="94" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="R23" s="94" t="n">
         <v>-9.9</v>
       </c>
-      <c r="Q23" s="94" t="n">
+      <c r="S23" s="94" t="n">
         <v>-7.17</v>
       </c>
-      <c r="R23" s="94" t="n">
+      <c r="T23" s="94" t="n">
         <v>-6.09</v>
       </c>
-      <c r="S23" s="94" t="n">
+      <c r="U23" s="94" t="n">
         <v>-6.96</v>
       </c>
-      <c r="T23" s="94" t="n">
+      <c r="V23" s="94" t="n">
         <v>-6.96</v>
       </c>
-      <c r="U23" s="94" t="n">
+      <c r="W23" s="94" t="n">
         <v>-6.88</v>
       </c>
-      <c r="V23" s="94" t="n">
+      <c r="X23" s="94" t="n">
         <v>-3.99</v>
       </c>
-      <c r="W23" s="94" t="n">
+      <c r="Y23" s="94" t="n">
         <v>-10.24</v>
       </c>
-      <c r="X23" s="94" t="n">
+      <c r="Z23" s="94" t="n">
         <v>-10.95</v>
       </c>
-      <c r="Y23" s="94" t="n">
+      <c r="AA23" s="94" t="n">
         <v>-9.91</v>
       </c>
-      <c r="Z23" s="94" t="n">
+      <c r="AB23" s="94" t="n">
         <v>-9.91</v>
       </c>
-      <c r="AA23" s="94" t="n">
+      <c r="AC23" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="AB23" s="94" t="n">
+      <c r="AD23" s="94" t="n">
         <v>-1.19</v>
       </c>
-      <c r="AC23" s="94" t="n">
+      <c r="AE23" s="94" t="n">
         <v>-0.95</v>
-      </c>
-      <c r="AD23" s="94" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="AE23" s="94" t="n">
-        <v>-2.32</v>
       </c>
     </row>
     <row r="24">
@@ -9001,191 +9001,191 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="C24" s="94" t="n">
         <v>-5.52</v>
       </c>
-      <c r="C24" s="94" t="n">
+      <c r="D24" s="94" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="E24" s="94" t="n">
         <v>-3.48</v>
       </c>
-      <c r="D24" s="94" t="n">
+      <c r="F24" s="94" t="n">
         <v>-2.69</v>
       </c>
-      <c r="E24" s="94" t="n">
+      <c r="G24" s="94" t="n">
         <v>-3.63</v>
       </c>
-      <c r="F24" s="94" t="n">
+      <c r="H24" s="94" t="n">
         <v>-3.68</v>
       </c>
-      <c r="G24" s="94" t="n">
+      <c r="I24" s="94" t="n">
         <v>-4.81</v>
       </c>
-      <c r="H24" s="94" t="n">
+      <c r="J24" s="94" t="n">
         <v>-4.81</v>
       </c>
-      <c r="I24" s="94" t="n">
+      <c r="K24" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="J24" s="94" t="n">
+      <c r="L24" s="94" t="n">
         <v>-6.56</v>
       </c>
-      <c r="K24" s="94" t="n">
+      <c r="M24" s="94" t="n">
         <v>-6.95</v>
       </c>
-      <c r="L24" s="94" t="n">
+      <c r="N24" s="94" t="n">
         <v>-9.92</v>
-      </c>
-      <c r="M24" s="94" t="n">
-        <v>-7.93</v>
-      </c>
-      <c r="N24" s="94" t="n">
-        <v>-7.93</v>
       </c>
       <c r="O24" s="94" t="n">
         <v>-7.93</v>
       </c>
       <c r="P24" s="94" t="n">
+        <v>-7.93</v>
+      </c>
+      <c r="Q24" s="94" t="n">
+        <v>-7.93</v>
+      </c>
+      <c r="R24" s="94" t="n">
         <v>-7.58</v>
       </c>
-      <c r="Q24" s="94" t="n">
+      <c r="S24" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="R24" s="94" t="n">
+      <c r="T24" s="94" t="n">
         <v>-6.36</v>
       </c>
-      <c r="S24" s="94" t="n">
+      <c r="U24" s="94" t="n">
         <v>-7</v>
       </c>
-      <c r="T24" s="94" t="n">
+      <c r="V24" s="94" t="n">
         <v>-7</v>
       </c>
-      <c r="U24" s="94" t="n">
+      <c r="W24" s="94" t="n">
         <v>-8.09</v>
       </c>
-      <c r="V24" s="94" t="n">
+      <c r="X24" s="94" t="n">
         <v>-4.99</v>
       </c>
-      <c r="W24" s="94" t="n">
+      <c r="Y24" s="94" t="n">
         <v>-12.58</v>
       </c>
-      <c r="X24" s="94" t="n">
+      <c r="Z24" s="94" t="n">
         <v>-11.43</v>
       </c>
-      <c r="Y24" s="94" t="n">
+      <c r="AA24" s="94" t="n">
         <v>-9.75</v>
       </c>
-      <c r="Z24" s="94" t="n">
+      <c r="AB24" s="94" t="n">
         <v>-9.75</v>
       </c>
-      <c r="AA24" s="94" t="n">
+      <c r="AC24" s="94" t="n">
         <v>-4.62</v>
       </c>
-      <c r="AB24" s="94" t="n">
+      <c r="AD24" s="94" t="n">
         <v>0.34</v>
       </c>
-      <c r="AC24" s="94" t="n">
+      <c r="AE24" s="94" t="n">
         <v>0.09</v>
       </c>
-      <c r="AD24" s="94" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="AE24" s="94" t="n">
-        <v>-1.02</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="95" t="inlineStr">
+      <c r="A25" s="76" t="inlineStr">
         <is>
           <t>us30:RS3</t>
         </is>
       </c>
       <c r="B25" s="94" t="n">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="C25" s="94" t="n">
         <v>94.98999999999999</v>
       </c>
-      <c r="C25" s="94" t="n">
+      <c r="D25" s="94" t="n">
+        <v>94.98999999999999</v>
+      </c>
+      <c r="E25" s="94" t="n">
         <v>87.84999999999999</v>
       </c>
-      <c r="D25" s="94" t="n">
+      <c r="F25" s="94" t="n">
         <v>85.86</v>
       </c>
-      <c r="E25" s="94" t="n">
+      <c r="G25" s="94" t="n">
         <v>82.65000000000001</v>
       </c>
-      <c r="F25" s="94" t="n">
+      <c r="H25" s="94" t="n">
         <v>74.47</v>
       </c>
-      <c r="G25" s="94" t="n">
+      <c r="I25" s="94" t="n">
         <v>71.01000000000001</v>
       </c>
-      <c r="H25" s="94" t="n">
+      <c r="J25" s="94" t="n">
         <v>71.01000000000001</v>
       </c>
-      <c r="I25" s="94" t="n">
+      <c r="K25" s="94" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="J25" s="94" t="n">
+      <c r="L25" s="94" t="n">
         <v>60.11</v>
       </c>
-      <c r="K25" s="94" t="n">
+      <c r="M25" s="94" t="n">
         <v>49.92</v>
       </c>
-      <c r="L25" s="94" t="n">
+      <c r="N25" s="94" t="n">
         <v>14.75</v>
-      </c>
-      <c r="M25" s="94" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="N25" s="94" t="n">
-        <v>26.69</v>
       </c>
       <c r="O25" s="94" t="n">
         <v>26.69</v>
       </c>
       <c r="P25" s="94" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="Q25" s="94" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="R25" s="94" t="n">
         <v>37.75</v>
       </c>
-      <c r="Q25" s="94" t="n">
+      <c r="S25" s="94" t="n">
         <v>59.6</v>
       </c>
-      <c r="R25" s="94" t="n">
+      <c r="T25" s="94" t="n">
         <v>65.2</v>
       </c>
-      <c r="S25" s="94" t="n">
+      <c r="U25" s="94" t="n">
         <v>60.21</v>
       </c>
-      <c r="T25" s="94" t="n">
+      <c r="V25" s="94" t="n">
         <v>60.21</v>
       </c>
-      <c r="U25" s="94" t="n">
+      <c r="W25" s="94" t="n">
         <v>50.88</v>
       </c>
-      <c r="V25" s="94" t="n">
+      <c r="X25" s="94" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="W25" s="94" t="n">
+      <c r="Y25" s="94" t="n">
         <v>4.25</v>
       </c>
-      <c r="X25" s="94" t="n">
+      <c r="Z25" s="94" t="n">
         <v>4.97</v>
       </c>
-      <c r="Y25" s="94" t="n">
+      <c r="AA25" s="94" t="n">
         <v>5.68</v>
       </c>
-      <c r="Z25" s="94" t="n">
+      <c r="AB25" s="94" t="n">
         <v>5.68</v>
       </c>
-      <c r="AA25" s="94" t="n">
+      <c r="AC25" s="94" t="n">
         <v>14.42</v>
       </c>
-      <c r="AB25" s="94" t="n">
+      <c r="AD25" s="94" t="n">
         <v>63.09</v>
       </c>
-      <c r="AC25" s="94" t="n">
+      <c r="AE25" s="94" t="n">
         <v>46.09</v>
-      </c>
-      <c r="AD25" s="94" t="n">
-        <v>46.81</v>
-      </c>
-      <c r="AE25" s="94" t="n">
-        <v>15.69</v>
       </c>
     </row>
     <row r="26">
@@ -9194,149 +9194,149 @@
           <t>ixic:EIDE</t>
         </is>
       </c>
-      <c r="B26" s="93" t="inlineStr">
+      <c r="B26" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="C26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="C26" s="93" t="inlineStr">
+      <c r="D26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="D26" s="93" t="inlineStr">
+      <c r="E26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="E26" s="93" t="inlineStr">
+      <c r="F26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F26" s="93" t="inlineStr">
+      <c r="G26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G26" s="93" t="inlineStr">
+      <c r="H26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H26" s="93" t="inlineStr">
+      <c r="I26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I26" s="93" t="inlineStr">
+      <c r="J26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J26" s="93" t="inlineStr">
+      <c r="K26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K26" s="92" t="inlineStr">
+      <c r="L26" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L26" s="91" t="inlineStr">
+      <c r="N26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M26" s="91" t="inlineStr">
+      <c r="O26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N26" s="91" t="inlineStr">
+      <c r="P26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O26" s="91" t="inlineStr">
+      <c r="Q26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="P26" s="91" t="inlineStr">
+      <c r="R26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Q26" s="93" t="inlineStr">
+      <c r="S26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R26" s="93" t="inlineStr">
+      <c r="T26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S26" s="92" t="inlineStr">
+      <c r="U26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T26" s="92" t="inlineStr">
+      <c r="V26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U26" s="92" t="inlineStr">
+      <c r="W26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V26" s="93" t="inlineStr">
+      <c r="X26" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W26" s="91" t="inlineStr">
+      <c r="Y26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X26" s="91" t="inlineStr">
+      <c r="Z26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y26" s="91" t="inlineStr">
+      <c r="AA26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z26" s="91" t="inlineStr">
+      <c r="AB26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA26" s="91" t="inlineStr">
+      <c r="AC26" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB26" s="92" t="inlineStr">
+      <c r="AD26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC26" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AD26" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE26" s="91" t="inlineStr">
@@ -9352,94 +9352,94 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="C27" s="94" t="n">
         <v>-8.710000000000001</v>
       </c>
-      <c r="C27" s="94" t="n">
+      <c r="D27" s="94" t="n">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="E27" s="94" t="n">
         <v>-9.890000000000001</v>
       </c>
-      <c r="D27" s="94" t="n">
+      <c r="F27" s="94" t="n">
         <v>-10.03</v>
       </c>
-      <c r="E27" s="94" t="n">
+      <c r="G27" s="94" t="n">
         <v>-11.04</v>
       </c>
-      <c r="F27" s="94" t="n">
+      <c r="H27" s="94" t="n">
         <v>-11.77</v>
       </c>
-      <c r="G27" s="94" t="n">
+      <c r="I27" s="94" t="n">
         <v>-11.46</v>
       </c>
-      <c r="H27" s="94" t="n">
+      <c r="J27" s="94" t="n">
         <v>-11.46</v>
       </c>
-      <c r="I27" s="94" t="n">
+      <c r="K27" s="94" t="n">
         <v>-13.01</v>
       </c>
-      <c r="J27" s="94" t="n">
+      <c r="L27" s="94" t="n">
         <v>-13.62</v>
       </c>
-      <c r="K27" s="94" t="n">
+      <c r="M27" s="94" t="n">
         <v>-18.31</v>
       </c>
-      <c r="L27" s="94" t="n">
+      <c r="N27" s="94" t="n">
         <v>-20.86</v>
-      </c>
-      <c r="M27" s="94" t="n">
-        <v>-18.61</v>
-      </c>
-      <c r="N27" s="94" t="n">
-        <v>-18.61</v>
       </c>
       <c r="O27" s="94" t="n">
         <v>-18.61</v>
       </c>
       <c r="P27" s="94" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="Q27" s="94" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="R27" s="94" t="n">
         <v>-17.46</v>
       </c>
-      <c r="Q27" s="94" t="n">
+      <c r="S27" s="94" t="n">
         <v>-14.3</v>
       </c>
-      <c r="R27" s="94" t="n">
+      <c r="T27" s="94" t="n">
         <v>-12.96</v>
       </c>
-      <c r="S27" s="94" t="n">
+      <c r="U27" s="94" t="n">
         <v>-14.28</v>
       </c>
-      <c r="T27" s="94" t="n">
+      <c r="V27" s="94" t="n">
         <v>-14.28</v>
       </c>
-      <c r="U27" s="94" t="n">
+      <c r="W27" s="94" t="n">
         <v>-13.95</v>
       </c>
-      <c r="V27" s="94" t="n">
+      <c r="X27" s="94" t="n">
         <v>-10.28</v>
       </c>
-      <c r="W27" s="94" t="n">
+      <c r="Y27" s="94" t="n">
         <v>-20.32</v>
       </c>
-      <c r="X27" s="94" t="n">
+      <c r="Z27" s="94" t="n">
         <v>-19.9</v>
       </c>
-      <c r="Y27" s="94" t="n">
+      <c r="AA27" s="94" t="n">
         <v>-20.02</v>
       </c>
-      <c r="Z27" s="94" t="n">
+      <c r="AB27" s="94" t="n">
         <v>-20.02</v>
       </c>
-      <c r="AA27" s="94" t="n">
+      <c r="AC27" s="94" t="n">
         <v>-16.68</v>
       </c>
-      <c r="AB27" s="94" t="n">
+      <c r="AD27" s="94" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AC27" s="94" t="n">
+      <c r="AE27" s="94" t="n">
         <v>-9.5</v>
-      </c>
-      <c r="AD27" s="94" t="n">
-        <v>-10.42</v>
-      </c>
-      <c r="AE27" s="94" t="n">
-        <v>-11.1</v>
       </c>
     </row>
     <row r="28">
@@ -9449,191 +9449,191 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="C28" s="94" t="n">
         <v>-5.3</v>
       </c>
-      <c r="C28" s="94" t="n">
+      <c r="D28" s="94" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="E28" s="94" t="n">
         <v>-3.95</v>
       </c>
-      <c r="D28" s="94" t="n">
+      <c r="F28" s="94" t="n">
         <v>-4.04</v>
       </c>
-      <c r="E28" s="94" t="n">
+      <c r="G28" s="94" t="n">
         <v>-4.27</v>
       </c>
-      <c r="F28" s="94" t="n">
+      <c r="H28" s="94" t="n">
         <v>-4.03</v>
       </c>
-      <c r="G28" s="94" t="n">
+      <c r="I28" s="94" t="n">
         <v>-6.58</v>
       </c>
-      <c r="H28" s="94" t="n">
+      <c r="J28" s="94" t="n">
         <v>-6.58</v>
       </c>
-      <c r="I28" s="94" t="n">
+      <c r="K28" s="94" t="n">
         <v>-8.27</v>
       </c>
-      <c r="J28" s="94" t="n">
+      <c r="L28" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="K28" s="94" t="n">
+      <c r="M28" s="94" t="n">
         <v>-11.98</v>
       </c>
-      <c r="L28" s="94" t="n">
+      <c r="N28" s="94" t="n">
         <v>-13.82</v>
-      </c>
-      <c r="M28" s="94" t="n">
-        <v>-10.89</v>
-      </c>
-      <c r="N28" s="94" t="n">
-        <v>-10.89</v>
       </c>
       <c r="O28" s="94" t="n">
         <v>-10.89</v>
       </c>
       <c r="P28" s="94" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="Q28" s="94" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R28" s="94" t="n">
         <v>-12.2</v>
       </c>
-      <c r="Q28" s="94" t="n">
+      <c r="S28" s="94" t="n">
         <v>-9.26</v>
       </c>
-      <c r="R28" s="94" t="n">
+      <c r="T28" s="94" t="n">
         <v>-8.970000000000001</v>
       </c>
-      <c r="S28" s="94" t="n">
+      <c r="U28" s="94" t="n">
         <v>-8.98</v>
       </c>
-      <c r="T28" s="94" t="n">
+      <c r="V28" s="94" t="n">
         <v>-8.98</v>
       </c>
-      <c r="U28" s="94" t="n">
+      <c r="W28" s="94" t="n">
         <v>-10.78</v>
       </c>
-      <c r="V28" s="94" t="n">
+      <c r="X28" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="W28" s="94" t="n">
+      <c r="Y28" s="94" t="n">
         <v>-17.48</v>
       </c>
-      <c r="X28" s="94" t="n">
+      <c r="Z28" s="94" t="n">
         <v>-14.94</v>
       </c>
-      <c r="Y28" s="94" t="n">
+      <c r="AA28" s="94" t="n">
         <v>-14.74</v>
       </c>
-      <c r="Z28" s="94" t="n">
+      <c r="AB28" s="94" t="n">
         <v>-14.74</v>
       </c>
-      <c r="AA28" s="94" t="n">
+      <c r="AC28" s="94" t="n">
         <v>-9.52</v>
       </c>
-      <c r="AB28" s="94" t="n">
+      <c r="AD28" s="94" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC28" s="94" t="n">
+      <c r="AE28" s="94" t="n">
         <v>-2.64</v>
       </c>
-      <c r="AD28" s="94" t="n">
-        <v>-4.62</v>
-      </c>
-      <c r="AE28" s="94" t="n">
-        <v>-3.32</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="95" t="inlineStr">
+      <c r="A29" s="76" t="inlineStr">
         <is>
           <t>ixic:RS2</t>
         </is>
       </c>
       <c r="B29" s="94" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="C29" s="94" t="n">
         <v>98.64</v>
       </c>
-      <c r="C29" s="94" t="n">
+      <c r="D29" s="94" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="E29" s="94" t="n">
         <v>96.5</v>
       </c>
-      <c r="D29" s="94" t="n">
+      <c r="F29" s="94" t="n">
         <v>83.88</v>
       </c>
-      <c r="E29" s="94" t="n">
+      <c r="G29" s="94" t="n">
         <v>93.43000000000001</v>
       </c>
-      <c r="F29" s="94" t="n">
+      <c r="H29" s="94" t="n">
         <v>89.7</v>
       </c>
-      <c r="G29" s="94" t="n">
+      <c r="I29" s="94" t="n">
         <v>94.42</v>
       </c>
-      <c r="H29" s="94" t="n">
+      <c r="J29" s="94" t="n">
         <v>94.42</v>
       </c>
-      <c r="I29" s="94" t="n">
+      <c r="K29" s="94" t="n">
         <v>91.56</v>
       </c>
-      <c r="J29" s="94" t="n">
+      <c r="L29" s="94" t="n">
         <v>81.56</v>
       </c>
-      <c r="K29" s="94" t="n">
+      <c r="M29" s="94" t="n">
         <v>60.97</v>
       </c>
-      <c r="L29" s="94" t="n">
+      <c r="N29" s="94" t="n">
         <v>5.28</v>
-      </c>
-      <c r="M29" s="94" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="N29" s="94" t="n">
-        <v>17.06</v>
       </c>
       <c r="O29" s="94" t="n">
         <v>17.06</v>
       </c>
       <c r="P29" s="94" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="Q29" s="94" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="R29" s="94" t="n">
         <v>18.06</v>
       </c>
-      <c r="Q29" s="94" t="n">
+      <c r="S29" s="94" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="R29" s="94" t="n">
+      <c r="T29" s="94" t="n">
         <v>68.98</v>
       </c>
-      <c r="S29" s="94" t="n">
+      <c r="U29" s="94" t="n">
         <v>63.72</v>
       </c>
-      <c r="T29" s="94" t="n">
+      <c r="V29" s="94" t="n">
         <v>63.72</v>
       </c>
-      <c r="U29" s="94" t="n">
+      <c r="W29" s="94" t="n">
         <v>50.49</v>
       </c>
-      <c r="V29" s="94" t="n">
+      <c r="X29" s="94" t="n">
         <v>83.98</v>
       </c>
-      <c r="W29" s="94" t="n">
+      <c r="Y29" s="94" t="n">
         <v>3.02</v>
       </c>
-      <c r="X29" s="94" t="n">
+      <c r="Z29" s="94" t="n">
         <v>5.56</v>
       </c>
-      <c r="Y29" s="94" t="n">
+      <c r="AA29" s="94" t="n">
         <v>3.7</v>
       </c>
-      <c r="Z29" s="94" t="n">
+      <c r="AB29" s="94" t="n">
         <v>3.7</v>
       </c>
-      <c r="AA29" s="94" t="n">
+      <c r="AC29" s="94" t="n">
         <v>9.58</v>
       </c>
-      <c r="AB29" s="94" t="n">
+      <c r="AD29" s="94" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="AC29" s="94" t="n">
+      <c r="AE29" s="94" t="n">
         <v>48.94</v>
-      </c>
-      <c r="AD29" s="94" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AE29" s="94" t="n">
-        <v>6.18</v>
       </c>
     </row>
     <row r="30">
@@ -9687,79 +9687,79 @@
           <t>red</t>
         </is>
       </c>
-      <c r="K30" s="92" t="inlineStr">
+      <c r="K30" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="L30" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L30" s="92" t="inlineStr">
+      <c r="N30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M30" s="93" t="inlineStr">
+      <c r="O30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N30" s="93" t="inlineStr">
+      <c r="P30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O30" s="93" t="inlineStr">
+      <c r="Q30" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P30" s="92" t="inlineStr">
+      <c r="R30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q30" s="92" t="inlineStr">
+      <c r="S30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R30" s="92" t="inlineStr">
+      <c r="T30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S30" s="92" t="inlineStr">
+      <c r="U30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T30" s="92" t="inlineStr">
+      <c r="V30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U30" s="92" t="inlineStr">
+      <c r="W30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V30" s="91" t="inlineStr">
+      <c r="X30" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W30" s="92" t="inlineStr">
+      <c r="Y30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="X30" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="Y30" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="Z30" s="91" t="inlineStr">
@@ -9803,91 +9803,91 @@
         <v>-5.72</v>
       </c>
       <c r="C31" s="94" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="D31" s="94" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="E31" s="94" t="n">
         <v>-6.13</v>
       </c>
-      <c r="D31" s="94" t="n">
+      <c r="F31" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="E31" s="94" t="n">
+      <c r="G31" s="94" t="n">
         <v>-6.73</v>
       </c>
-      <c r="F31" s="94" t="n">
+      <c r="H31" s="94" t="n">
         <v>-9.43</v>
       </c>
-      <c r="G31" s="94" t="n">
+      <c r="I31" s="94" t="n">
         <v>-9.640000000000001</v>
       </c>
-      <c r="H31" s="94" t="n">
+      <c r="J31" s="94" t="n">
         <v>-9.640000000000001</v>
       </c>
-      <c r="I31" s="94" t="n">
+      <c r="K31" s="94" t="n">
         <v>-11.1</v>
       </c>
-      <c r="J31" s="94" t="n">
+      <c r="L31" s="94" t="n">
         <v>-10.63</v>
       </c>
-      <c r="K31" s="94" t="n">
+      <c r="M31" s="94" t="n">
         <v>-13.51</v>
       </c>
-      <c r="L31" s="94" t="n">
+      <c r="N31" s="94" t="n">
         <v>-14.15</v>
       </c>
-      <c r="M31" s="94" t="n">
+      <c r="O31" s="94" t="n">
         <v>-13.08</v>
       </c>
-      <c r="N31" s="94" t="n">
+      <c r="P31" s="94" t="n">
         <v>-13.08</v>
       </c>
-      <c r="O31" s="94" t="n">
+      <c r="Q31" s="94" t="n">
         <v>-13.29</v>
       </c>
-      <c r="P31" s="94" t="n">
+      <c r="R31" s="94" t="n">
         <v>-13.09</v>
       </c>
-      <c r="Q31" s="94" t="n">
+      <c r="S31" s="94" t="n">
         <v>-11.91</v>
       </c>
-      <c r="R31" s="94" t="n">
+      <c r="T31" s="94" t="n">
         <v>-11.62</v>
       </c>
-      <c r="S31" s="94" t="n">
+      <c r="U31" s="94" t="n">
         <v>-12.93</v>
       </c>
-      <c r="T31" s="94" t="n">
+      <c r="V31" s="94" t="n">
         <v>-12.93</v>
       </c>
-      <c r="U31" s="94" t="n">
+      <c r="W31" s="94" t="n">
         <v>-9.98</v>
       </c>
-      <c r="V31" s="94" t="n">
+      <c r="X31" s="94" t="n">
         <v>-17.57</v>
       </c>
-      <c r="W31" s="94" t="n">
+      <c r="Y31" s="94" t="n">
         <v>-15.76</v>
       </c>
-      <c r="X31" s="94" t="n">
+      <c r="Z31" s="94" t="n">
         <v>-21.38</v>
       </c>
-      <c r="Y31" s="94" t="n">
+      <c r="AA31" s="94" t="n">
         <v>-15.51</v>
       </c>
-      <c r="Z31" s="94" t="n">
+      <c r="AB31" s="94" t="n">
         <v>-15.51</v>
       </c>
-      <c r="AA31" s="94" t="n">
+      <c r="AC31" s="94" t="n">
         <v>-13.34</v>
       </c>
-      <c r="AB31" s="94" t="n">
+      <c r="AD31" s="94" t="n">
         <v>-9.109999999999999</v>
       </c>
-      <c r="AC31" s="94" t="n">
+      <c r="AE31" s="94" t="n">
         <v>-10.7</v>
-      </c>
-      <c r="AD31" s="94" t="n">
-        <v>-11.58</v>
-      </c>
-      <c r="AE31" s="94" t="n">
-        <v>-6.19</v>
       </c>
     </row>
     <row r="32">
@@ -9900,91 +9900,91 @@
         <v>-6.48</v>
       </c>
       <c r="C32" s="94" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="D32" s="94" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="E32" s="94" t="n">
         <v>-7.67</v>
       </c>
-      <c r="D32" s="94" t="n">
+      <c r="F32" s="94" t="n">
         <v>-6.31</v>
       </c>
-      <c r="E32" s="94" t="n">
+      <c r="G32" s="94" t="n">
         <v>-5.59</v>
       </c>
-      <c r="F32" s="94" t="n">
+      <c r="H32" s="94" t="n">
         <v>-5.82</v>
       </c>
-      <c r="G32" s="94" t="n">
+      <c r="I32" s="94" t="n">
         <v>-8.640000000000001</v>
       </c>
-      <c r="H32" s="94" t="n">
+      <c r="J32" s="94" t="n">
         <v>-8.640000000000001</v>
       </c>
-      <c r="I32" s="94" t="n">
+      <c r="K32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="J32" s="94" t="n">
+      <c r="L32" s="94" t="n">
         <v>-10.37</v>
       </c>
-      <c r="K32" s="94" t="n">
+      <c r="M32" s="94" t="n">
         <v>-11.36</v>
       </c>
-      <c r="L32" s="94" t="n">
+      <c r="N32" s="94" t="n">
         <v>-9.58</v>
       </c>
-      <c r="M32" s="94" t="n">
+      <c r="O32" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="N32" s="94" t="n">
+      <c r="P32" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="O32" s="94" t="n">
+      <c r="Q32" s="94" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="P32" s="94" t="n">
+      <c r="R32" s="94" t="n">
         <v>-11.69</v>
       </c>
-      <c r="Q32" s="94" t="n">
+      <c r="S32" s="94" t="n">
         <v>-12.03</v>
       </c>
-      <c r="R32" s="94" t="n">
+      <c r="T32" s="94" t="n">
         <v>-12.82</v>
       </c>
-      <c r="S32" s="94" t="n">
+      <c r="U32" s="94" t="n">
         <v>-13.69</v>
       </c>
-      <c r="T32" s="94" t="n">
+      <c r="V32" s="94" t="n">
         <v>-13.69</v>
       </c>
-      <c r="U32" s="94" t="n">
+      <c r="W32" s="94" t="n">
         <v>-11.67</v>
       </c>
-      <c r="V32" s="94" t="n">
+      <c r="X32" s="94" t="n">
         <v>-20.54</v>
       </c>
-      <c r="W32" s="94" t="n">
+      <c r="Y32" s="94" t="n">
         <v>-16.65</v>
       </c>
-      <c r="X32" s="94" t="n">
+      <c r="Z32" s="94" t="n">
         <v>-20.93</v>
       </c>
-      <c r="Y32" s="94" t="n">
+      <c r="AA32" s="94" t="n">
         <v>-14</v>
       </c>
-      <c r="Z32" s="94" t="n">
+      <c r="AB32" s="94" t="n">
         <v>-14</v>
       </c>
-      <c r="AA32" s="94" t="n">
+      <c r="AC32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="AB32" s="94" t="n">
+      <c r="AD32" s="94" t="n">
         <v>-9.17</v>
       </c>
-      <c r="AC32" s="94" t="n">
+      <c r="AE32" s="94" t="n">
         <v>-7.79</v>
-      </c>
-      <c r="AD32" s="94" t="n">
-        <v>-7.61</v>
-      </c>
-      <c r="AE32" s="94" t="n">
-        <v>-1.82</v>
       </c>
     </row>
     <row r="33">
@@ -9997,91 +9997,91 @@
         <v>69.40000000000001</v>
       </c>
       <c r="C33" s="94" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="D33" s="94" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="E33" s="94" t="n">
         <v>66.23999999999999</v>
       </c>
-      <c r="D33" s="94" t="n">
+      <c r="F33" s="94" t="n">
         <v>62.56</v>
       </c>
-      <c r="E33" s="94" t="n">
+      <c r="G33" s="94" t="n">
         <v>61.46</v>
       </c>
-      <c r="F33" s="94" t="n">
+      <c r="H33" s="94" t="n">
         <v>60.72</v>
       </c>
-      <c r="G33" s="94" t="n">
+      <c r="I33" s="94" t="n">
         <v>59.65</v>
       </c>
-      <c r="H33" s="94" t="n">
+      <c r="J33" s="94" t="n">
         <v>59.65</v>
       </c>
-      <c r="I33" s="94" t="n">
+      <c r="K33" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="J33" s="94" t="n">
+      <c r="L33" s="94" t="n">
         <v>52.66</v>
       </c>
-      <c r="K33" s="94" t="n">
+      <c r="M33" s="94" t="n">
         <v>46.9</v>
       </c>
-      <c r="L33" s="94" t="n">
+      <c r="N33" s="94" t="n">
         <v>47.37</v>
       </c>
-      <c r="M33" s="94" t="n">
+      <c r="O33" s="94" t="n">
         <v>50.8</v>
       </c>
-      <c r="N33" s="94" t="n">
+      <c r="P33" s="94" t="n">
         <v>50.8</v>
       </c>
-      <c r="O33" s="94" t="n">
+      <c r="Q33" s="94" t="n">
         <v>48.19</v>
       </c>
-      <c r="P33" s="94" t="n">
+      <c r="R33" s="94" t="n">
         <v>44.82</v>
       </c>
-      <c r="Q33" s="94" t="n">
+      <c r="S33" s="94" t="n">
         <v>46.88</v>
       </c>
-      <c r="R33" s="94" t="n">
+      <c r="T33" s="94" t="n">
         <v>45.04</v>
       </c>
-      <c r="S33" s="94" t="n">
+      <c r="U33" s="94" t="n">
         <v>42.57</v>
       </c>
-      <c r="T33" s="94" t="n">
+      <c r="V33" s="94" t="n">
         <v>42.57</v>
       </c>
-      <c r="U33" s="94" t="n">
+      <c r="W33" s="94" t="n">
         <v>47.45</v>
       </c>
-      <c r="V33" s="94" t="n">
+      <c r="X33" s="94" t="n">
         <v>26.17</v>
       </c>
-      <c r="W33" s="94" t="n">
+      <c r="Y33" s="94" t="n">
         <v>31.21</v>
       </c>
-      <c r="X33" s="94" t="n">
+      <c r="Z33" s="94" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="Y33" s="94" t="n">
+      <c r="AA33" s="94" t="n">
         <v>14.64</v>
       </c>
-      <c r="Z33" s="94" t="n">
+      <c r="AB33" s="94" t="n">
         <v>14.64</v>
       </c>
-      <c r="AA33" s="94" t="n">
+      <c r="AC33" s="94" t="n">
         <v>18.88</v>
       </c>
-      <c r="AB33" s="94" t="n">
+      <c r="AD33" s="94" t="n">
         <v>25.75</v>
       </c>
-      <c r="AC33" s="94" t="n">
+      <c r="AE33" s="94" t="n">
         <v>23.21</v>
-      </c>
-      <c r="AD33" s="94" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="AE33" s="94" t="n">
-        <v>38.53</v>
       </c>
     </row>
     <row r="34">
@@ -10130,114 +10130,114 @@
           <t>red</t>
         </is>
       </c>
-      <c r="J34" s="92" t="inlineStr">
+      <c r="J34" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K34" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="L34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K34" s="92" t="inlineStr">
+      <c r="M34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L34" s="92" t="inlineStr">
+      <c r="N34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M34" s="92" t="inlineStr">
+      <c r="O34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N34" s="92" t="inlineStr">
+      <c r="P34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O34" s="92" t="inlineStr">
+      <c r="Q34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P34" s="92" t="inlineStr">
+      <c r="R34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q34" s="92" t="inlineStr">
+      <c r="S34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R34" s="93" t="inlineStr">
+      <c r="T34" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S34" s="92" t="inlineStr">
+      <c r="U34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T34" s="92" t="inlineStr">
+      <c r="V34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U34" s="92" t="inlineStr">
+      <c r="W34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V34" s="91" t="inlineStr">
+      <c r="X34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W34" s="91" t="inlineStr">
+      <c r="Y34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X34" s="91" t="inlineStr">
+      <c r="Z34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y34" s="91" t="inlineStr">
+      <c r="AA34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z34" s="91" t="inlineStr">
+      <c r="AB34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA34" s="91" t="inlineStr">
+      <c r="AC34" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB34" s="92" t="inlineStr">
+      <c r="AD34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC34" s="92" t="inlineStr">
+      <c r="AE34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD34" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AE34" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
-        <v>-2.13</v>
+        <v>-1.95</v>
       </c>
       <c r="C35" s="94" t="n">
         <v>-2.13</v>
@@ -10260,82 +10260,82 @@
         <v>-2.13</v>
       </c>
       <c r="F35" s="94" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="G35" s="94" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="H35" s="94" t="n">
         <v>-3.02</v>
       </c>
-      <c r="G35" s="94" t="n">
+      <c r="I35" s="94" t="n">
         <v>-2.41</v>
       </c>
-      <c r="H35" s="94" t="n">
+      <c r="J35" s="94" t="n">
         <v>-2.41</v>
       </c>
-      <c r="I35" s="94" t="n">
+      <c r="K35" s="94" t="n">
         <v>-1.54</v>
       </c>
-      <c r="J35" s="94" t="n">
+      <c r="L35" s="94" t="n">
         <v>-2.82</v>
       </c>
-      <c r="K35" s="94" t="n">
+      <c r="M35" s="94" t="n">
         <v>-4.2</v>
       </c>
-      <c r="L35" s="94" t="n">
+      <c r="N35" s="94" t="n">
         <v>-3.37</v>
       </c>
-      <c r="M35" s="94" t="n">
+      <c r="O35" s="94" t="n">
         <v>-1.87</v>
       </c>
-      <c r="N35" s="94" t="n">
+      <c r="P35" s="94" t="n">
         <v>-1.87</v>
       </c>
-      <c r="O35" s="94" t="n">
+      <c r="Q35" s="94" t="n">
         <v>-1.53</v>
       </c>
-      <c r="P35" s="94" t="n">
+      <c r="R35" s="94" t="n">
         <v>-1.53</v>
       </c>
-      <c r="Q35" s="94" t="n">
+      <c r="S35" s="94" t="n">
         <v>-0.64</v>
       </c>
-      <c r="R35" s="94" t="n">
+      <c r="T35" s="94" t="n">
         <v>0.89</v>
       </c>
-      <c r="S35" s="94" t="n">
+      <c r="U35" s="94" t="n">
         <v>-1.87</v>
       </c>
-      <c r="T35" s="94" t="n">
+      <c r="V35" s="94" t="n">
         <v>-1.87</v>
       </c>
-      <c r="U35" s="94" t="n">
+      <c r="W35" s="94" t="n">
         <v>-6.61</v>
       </c>
-      <c r="V35" s="94" t="n">
+      <c r="X35" s="94" t="n">
         <v>-12.24</v>
       </c>
-      <c r="W35" s="94" t="n">
+      <c r="Y35" s="94" t="n">
         <v>-9.109999999999999</v>
-      </c>
-      <c r="X35" s="94" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="Y35" s="94" t="n">
-        <v>-3.5</v>
       </c>
       <c r="Z35" s="94" t="n">
         <v>-3.5</v>
       </c>
       <c r="AA35" s="94" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="AB35" s="94" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="AC35" s="94" t="n">
         <v>-3.14</v>
       </c>
-      <c r="AB35" s="94" t="n">
+      <c r="AD35" s="94" t="n">
         <v>4.03</v>
       </c>
-      <c r="AC35" s="94" t="n">
+      <c r="AE35" s="94" t="n">
         <v>3.56</v>
-      </c>
-      <c r="AD35" s="94" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AE35" s="94" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="36">
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
-        <v>-2.28</v>
+        <v>-0.37</v>
       </c>
       <c r="C36" s="94" t="n">
         <v>-2.28</v>
@@ -10357,82 +10357,82 @@
         <v>-2.28</v>
       </c>
       <c r="F36" s="94" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="G36" s="94" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="H36" s="94" t="n">
         <v>-2.98</v>
       </c>
-      <c r="G36" s="94" t="n">
+      <c r="I36" s="94" t="n">
         <v>-2.34</v>
       </c>
-      <c r="H36" s="94" t="n">
+      <c r="J36" s="94" t="n">
         <v>-2.34</v>
       </c>
-      <c r="I36" s="94" t="n">
+      <c r="K36" s="94" t="n">
         <v>-3.05</v>
       </c>
-      <c r="J36" s="94" t="n">
+      <c r="L36" s="94" t="n">
         <v>-3.49</v>
       </c>
-      <c r="K36" s="94" t="n">
+      <c r="M36" s="94" t="n">
         <v>-4.44</v>
       </c>
-      <c r="L36" s="94" t="n">
+      <c r="N36" s="94" t="n">
         <v>-4</v>
       </c>
-      <c r="M36" s="94" t="n">
+      <c r="O36" s="94" t="n">
         <v>-4.07</v>
       </c>
-      <c r="N36" s="94" t="n">
+      <c r="P36" s="94" t="n">
         <v>-4.07</v>
       </c>
-      <c r="O36" s="94" t="n">
+      <c r="Q36" s="94" t="n">
         <v>-4.15</v>
       </c>
-      <c r="P36" s="94" t="n">
+      <c r="R36" s="94" t="n">
         <v>-5.43</v>
       </c>
-      <c r="Q36" s="94" t="n">
+      <c r="S36" s="94" t="n">
         <v>-4.49</v>
       </c>
-      <c r="R36" s="94" t="n">
+      <c r="T36" s="94" t="n">
         <v>-3.5</v>
       </c>
-      <c r="S36" s="94" t="n">
+      <c r="U36" s="94" t="n">
         <v>-4.46</v>
       </c>
-      <c r="T36" s="94" t="n">
+      <c r="V36" s="94" t="n">
         <v>-4.46</v>
       </c>
-      <c r="U36" s="94" t="n">
+      <c r="W36" s="94" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="V36" s="94" t="n">
+      <c r="X36" s="94" t="n">
         <v>-14.93</v>
       </c>
-      <c r="W36" s="94" t="n">
+      <c r="Y36" s="94" t="n">
         <v>-12.08</v>
-      </c>
-      <c r="X36" s="94" t="n">
-        <v>-5.88</v>
-      </c>
-      <c r="Y36" s="94" t="n">
-        <v>-5.88</v>
       </c>
       <c r="Z36" s="94" t="n">
         <v>-5.88</v>
       </c>
       <c r="AA36" s="94" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="AB36" s="94" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="AC36" s="94" t="n">
         <v>-4.06</v>
       </c>
-      <c r="AB36" s="94" t="n">
+      <c r="AD36" s="94" t="n">
         <v>3.6</v>
       </c>
-      <c r="AC36" s="94" t="n">
+      <c r="AE36" s="94" t="n">
         <v>3.73</v>
-      </c>
-      <c r="AD36" s="94" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AE36" s="94" t="n">
-        <v>3.08</v>
       </c>
     </row>
     <row r="37">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
-        <v>64.98</v>
+        <v>84.69</v>
       </c>
       <c r="C37" s="94" t="n">
         <v>64.98</v>
@@ -10454,82 +10454,82 @@
         <v>64.98</v>
       </c>
       <c r="F37" s="94" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="G37" s="94" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="H37" s="94" t="n">
         <v>67.08</v>
       </c>
-      <c r="G37" s="94" t="n">
+      <c r="I37" s="94" t="n">
         <v>74.89</v>
       </c>
-      <c r="H37" s="94" t="n">
+      <c r="J37" s="94" t="n">
         <v>74.89</v>
       </c>
-      <c r="I37" s="94" t="n">
+      <c r="K37" s="94" t="n">
         <v>69.08</v>
       </c>
-      <c r="J37" s="94" t="n">
+      <c r="L37" s="94" t="n">
         <v>54.26</v>
       </c>
-      <c r="K37" s="94" t="n">
+      <c r="M37" s="94" t="n">
         <v>28.66</v>
       </c>
-      <c r="L37" s="94" t="n">
+      <c r="N37" s="94" t="n">
         <v>39.12</v>
       </c>
-      <c r="M37" s="94" t="n">
+      <c r="O37" s="94" t="n">
         <v>55.49</v>
       </c>
-      <c r="N37" s="94" t="n">
+      <c r="P37" s="94" t="n">
         <v>55.49</v>
       </c>
-      <c r="O37" s="94" t="n">
+      <c r="Q37" s="94" t="n">
         <v>53.48</v>
       </c>
-      <c r="P37" s="94" t="n">
+      <c r="R37" s="94" t="n">
         <v>47.61</v>
       </c>
-      <c r="Q37" s="94" t="n">
+      <c r="S37" s="94" t="n">
         <v>60.4</v>
       </c>
-      <c r="R37" s="94" t="n">
+      <c r="T37" s="94" t="n">
         <v>70.22</v>
       </c>
-      <c r="S37" s="94" t="n">
+      <c r="U37" s="94" t="n">
         <v>64.94</v>
       </c>
-      <c r="T37" s="94" t="n">
+      <c r="V37" s="94" t="n">
         <v>64.94</v>
       </c>
-      <c r="U37" s="94" t="n">
+      <c r="W37" s="94" t="n">
         <v>47.09</v>
       </c>
-      <c r="V37" s="94" t="n">
+      <c r="X37" s="94" t="n">
         <v>1.27</v>
       </c>
-      <c r="W37" s="94" t="n">
+      <c r="Y37" s="94" t="n">
         <v>1.81</v>
-      </c>
-      <c r="X37" s="94" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="Y37" s="94" t="n">
-        <v>4.29</v>
       </c>
       <c r="Z37" s="94" t="n">
         <v>4.29</v>
       </c>
       <c r="AA37" s="94" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB37" s="94" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AC37" s="94" t="n">
         <v>5.54</v>
       </c>
-      <c r="AB37" s="94" t="n">
+      <c r="AD37" s="94" t="n">
         <v>50.33</v>
       </c>
-      <c r="AC37" s="94" t="n">
+      <c r="AE37" s="94" t="n">
         <v>48.76</v>
-      </c>
-      <c r="AD37" s="94" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AE37" s="94" t="n">
-        <v>17.82</v>
       </c>
     </row>
     <row r="38">
@@ -10578,114 +10578,114 @@
           <t>blue</t>
         </is>
       </c>
-      <c r="J38" s="93" t="inlineStr">
+      <c r="J38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="K38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="L38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K38" s="93" t="inlineStr">
+      <c r="M38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L38" s="93" t="inlineStr">
+      <c r="N38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M38" s="93" t="inlineStr">
+      <c r="O38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N38" s="93" t="inlineStr">
+      <c r="P38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O38" s="93" t="inlineStr">
+      <c r="Q38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P38" s="93" t="inlineStr">
+      <c r="R38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q38" s="93" t="inlineStr">
+      <c r="S38" s="93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R38" s="92" t="inlineStr">
+      <c r="T38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S38" s="92" t="inlineStr">
+      <c r="U38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T38" s="92" t="inlineStr">
+      <c r="V38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U38" s="91" t="inlineStr">
+      <c r="W38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V38" s="91" t="inlineStr">
+      <c r="X38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W38" s="91" t="inlineStr">
+      <c r="Y38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X38" s="91" t="inlineStr">
+      <c r="Z38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y38" s="91" t="inlineStr">
+      <c r="AA38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z38" s="91" t="inlineStr">
+      <c r="AB38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA38" s="91" t="inlineStr">
+      <c r="AC38" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB38" s="92" t="inlineStr">
+      <c r="AD38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC38" s="91" t="inlineStr">
+      <c r="AE38" s="91" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AD38" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="AE38" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -10696,94 +10696,94 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C39" s="94" t="n">
         <v>4.88</v>
       </c>
-      <c r="C39" s="94" t="n">
+      <c r="D39" s="94" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E39" s="94" t="n">
         <v>4.85</v>
       </c>
-      <c r="D39" s="94" t="n">
+      <c r="F39" s="94" t="n">
         <v>4.85</v>
       </c>
-      <c r="E39" s="94" t="n">
+      <c r="G39" s="94" t="n">
         <v>5.78</v>
       </c>
-      <c r="F39" s="94" t="n">
+      <c r="H39" s="94" t="n">
         <v>6.44</v>
       </c>
-      <c r="G39" s="94" t="n">
+      <c r="I39" s="94" t="n">
         <v>3.97</v>
       </c>
-      <c r="H39" s="94" t="n">
+      <c r="J39" s="94" t="n">
         <v>3.97</v>
       </c>
-      <c r="I39" s="94" t="n">
+      <c r="K39" s="94" t="n">
         <v>4.29</v>
       </c>
-      <c r="J39" s="94" t="n">
+      <c r="L39" s="94" t="n">
         <v>4.86</v>
       </c>
-      <c r="K39" s="94" t="n">
+      <c r="M39" s="94" t="n">
         <v>4.95</v>
       </c>
-      <c r="L39" s="94" t="n">
+      <c r="N39" s="94" t="n">
         <v>3.03</v>
-      </c>
-      <c r="M39" s="94" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N39" s="94" t="n">
-        <v>2.52</v>
       </c>
       <c r="O39" s="94" t="n">
         <v>2.52</v>
       </c>
       <c r="P39" s="94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q39" s="94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R39" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" s="94" t="n">
+      <c r="S39" s="94" t="n">
         <v>0.01</v>
-      </c>
-      <c r="R39" s="94" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="S39" s="94" t="n">
-        <v>-1.75</v>
       </c>
       <c r="T39" s="94" t="n">
         <v>-1.75</v>
       </c>
       <c r="U39" s="94" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="V39" s="94" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="W39" s="94" t="n">
         <v>-3.25</v>
       </c>
-      <c r="V39" s="94" t="n">
+      <c r="X39" s="94" t="n">
         <v>-3.25</v>
       </c>
-      <c r="W39" s="94" t="n">
+      <c r="Y39" s="94" t="n">
         <v>-4.07</v>
       </c>
-      <c r="X39" s="94" t="n">
+      <c r="Z39" s="94" t="n">
         <v>-5.77</v>
       </c>
-      <c r="Y39" s="94" t="n">
+      <c r="AA39" s="94" t="n">
         <v>-3.56</v>
       </c>
-      <c r="Z39" s="94" t="n">
+      <c r="AB39" s="94" t="n">
         <v>-3.56</v>
       </c>
-      <c r="AA39" s="94" t="n">
+      <c r="AC39" s="94" t="n">
         <v>-2.43</v>
       </c>
-      <c r="AB39" s="94" t="n">
+      <c r="AD39" s="94" t="n">
         <v>-1.73</v>
       </c>
-      <c r="AC39" s="94" t="n">
+      <c r="AE39" s="94" t="n">
         <v>-4.04</v>
-      </c>
-      <c r="AD39" s="94" t="n">
-        <v>-3.16</v>
-      </c>
-      <c r="AE39" s="94" t="n">
-        <v>-3.16</v>
       </c>
     </row>
     <row r="40">
@@ -10793,94 +10793,94 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C40" s="94" t="n">
         <v>2.18</v>
       </c>
-      <c r="C40" s="94" t="n">
+      <c r="D40" s="94" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E40" s="94" t="n">
         <v>0.65</v>
       </c>
-      <c r="D40" s="94" t="n">
+      <c r="F40" s="94" t="n">
         <v>0.65</v>
       </c>
-      <c r="E40" s="94" t="n">
+      <c r="G40" s="94" t="n">
         <v>1.13</v>
       </c>
-      <c r="F40" s="94" t="n">
+      <c r="H40" s="94" t="n">
         <v>0.35</v>
       </c>
-      <c r="G40" s="94" t="n">
+      <c r="I40" s="94" t="n">
         <v>-1.44</v>
       </c>
-      <c r="H40" s="94" t="n">
+      <c r="J40" s="94" t="n">
         <v>-1.44</v>
       </c>
-      <c r="I40" s="94" t="n">
+      <c r="K40" s="94" t="n">
         <v>-0.25</v>
       </c>
-      <c r="J40" s="94" t="n">
+      <c r="L40" s="94" t="n">
         <v>0.9</v>
       </c>
-      <c r="K40" s="94" t="n">
+      <c r="M40" s="94" t="n">
         <v>-0.59</v>
       </c>
-      <c r="L40" s="94" t="n">
+      <c r="N40" s="94" t="n">
         <v>-0.84</v>
-      </c>
-      <c r="M40" s="94" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="N40" s="94" t="n">
-        <v>-2.08</v>
       </c>
       <c r="O40" s="94" t="n">
         <v>-2.08</v>
       </c>
       <c r="P40" s="94" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="Q40" s="94" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="R40" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="Q40" s="94" t="n">
+      <c r="S40" s="94" t="n">
         <v>-5.53</v>
-      </c>
-      <c r="R40" s="94" t="n">
-        <v>-7.22</v>
-      </c>
-      <c r="S40" s="94" t="n">
-        <v>-7.22</v>
       </c>
       <c r="T40" s="94" t="n">
         <v>-7.22</v>
       </c>
       <c r="U40" s="94" t="n">
+        <v>-7.22</v>
+      </c>
+      <c r="V40" s="94" t="n">
+        <v>-7.22</v>
+      </c>
+      <c r="W40" s="94" t="n">
         <v>-9.390000000000001</v>
       </c>
-      <c r="V40" s="94" t="n">
+      <c r="X40" s="94" t="n">
         <v>-9.390000000000001</v>
       </c>
-      <c r="W40" s="94" t="n">
+      <c r="Y40" s="94" t="n">
         <v>-9.279999999999999</v>
       </c>
-      <c r="X40" s="94" t="n">
+      <c r="Z40" s="94" t="n">
         <v>-10.78</v>
       </c>
-      <c r="Y40" s="94" t="n">
+      <c r="AA40" s="94" t="n">
         <v>-7.39</v>
       </c>
-      <c r="Z40" s="94" t="n">
+      <c r="AB40" s="94" t="n">
         <v>-7.39</v>
       </c>
-      <c r="AA40" s="94" t="n">
+      <c r="AC40" s="94" t="n">
         <v>-6.51</v>
       </c>
-      <c r="AB40" s="94" t="n">
+      <c r="AD40" s="94" t="n">
         <v>-5.95</v>
       </c>
-      <c r="AC40" s="94" t="n">
+      <c r="AE40" s="94" t="n">
         <v>-6.87</v>
-      </c>
-      <c r="AD40" s="94" t="n">
-        <v>-4.48</v>
-      </c>
-      <c r="AE40" s="94" t="n">
-        <v>-4.48</v>
       </c>
     </row>
     <row r="41">
@@ -10890,94 +10890,94 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="C41" s="94" t="n">
         <v>69.62</v>
       </c>
-      <c r="C41" s="94" t="n">
+      <c r="D41" s="94" t="n">
+        <v>69.62</v>
+      </c>
+      <c r="E41" s="94" t="n">
         <v>68.2</v>
       </c>
-      <c r="D41" s="94" t="n">
+      <c r="F41" s="94" t="n">
         <v>68.2</v>
       </c>
-      <c r="E41" s="94" t="n">
+      <c r="G41" s="94" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="F41" s="94" t="n">
+      <c r="H41" s="94" t="n">
         <v>68.39</v>
       </c>
-      <c r="G41" s="94" t="n">
+      <c r="I41" s="94" t="n">
         <v>63.45</v>
       </c>
-      <c r="H41" s="94" t="n">
+      <c r="J41" s="94" t="n">
         <v>63.45</v>
       </c>
-      <c r="I41" s="94" t="n">
+      <c r="K41" s="94" t="n">
         <v>69.14</v>
       </c>
-      <c r="J41" s="94" t="n">
+      <c r="L41" s="94" t="n">
         <v>72.26000000000001</v>
       </c>
-      <c r="K41" s="94" t="n">
+      <c r="M41" s="94" t="n">
         <v>70.26000000000001</v>
       </c>
-      <c r="L41" s="94" t="n">
+      <c r="N41" s="94" t="n">
         <v>69.55</v>
-      </c>
-      <c r="M41" s="94" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="N41" s="94" t="n">
-        <v>66.25</v>
       </c>
       <c r="O41" s="94" t="n">
         <v>66.25</v>
       </c>
       <c r="P41" s="94" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="Q41" s="94" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="R41" s="94" t="n">
         <v>59.21</v>
       </c>
-      <c r="Q41" s="94" t="n">
+      <c r="S41" s="94" t="n">
         <v>57.58</v>
-      </c>
-      <c r="R41" s="94" t="n">
-        <v>48.04</v>
-      </c>
-      <c r="S41" s="94" t="n">
-        <v>48.04</v>
       </c>
       <c r="T41" s="94" t="n">
         <v>48.04</v>
       </c>
       <c r="U41" s="94" t="n">
+        <v>48.04</v>
+      </c>
+      <c r="V41" s="94" t="n">
+        <v>48.04</v>
+      </c>
+      <c r="W41" s="94" t="n">
         <v>37.55</v>
       </c>
-      <c r="V41" s="94" t="n">
+      <c r="X41" s="94" t="n">
         <v>37.55</v>
       </c>
-      <c r="W41" s="94" t="n">
+      <c r="Y41" s="94" t="n">
         <v>39.64</v>
       </c>
-      <c r="X41" s="94" t="n">
+      <c r="Z41" s="94" t="n">
         <v>29.52</v>
       </c>
-      <c r="Y41" s="94" t="n">
+      <c r="AA41" s="94" t="n">
         <v>42.69</v>
       </c>
-      <c r="Z41" s="94" t="n">
+      <c r="AB41" s="94" t="n">
         <v>42.69</v>
       </c>
-      <c r="AA41" s="94" t="n">
+      <c r="AC41" s="94" t="n">
         <v>51.3</v>
       </c>
-      <c r="AB41" s="94" t="n">
+      <c r="AD41" s="94" t="n">
         <v>54.73</v>
       </c>
-      <c r="AC41" s="94" t="n">
+      <c r="AE41" s="94" t="n">
         <v>49.08</v>
-      </c>
-      <c r="AD41" s="94" t="n">
-        <v>66.64</v>
-      </c>
-      <c r="AE41" s="94" t="n">
-        <v>66.64</v>
       </c>
     </row>
     <row r="42">
@@ -11031,109 +11031,109 @@
           <t>red</t>
         </is>
       </c>
-      <c r="K42" s="92" t="inlineStr">
+      <c r="K42" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="L42" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L42" s="92" t="inlineStr">
+      <c r="N42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M42" s="92" t="inlineStr">
+      <c r="O42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N42" s="92" t="inlineStr">
+      <c r="P42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O42" s="92" t="inlineStr">
+      <c r="Q42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P42" s="92" t="inlineStr">
+      <c r="R42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q42" s="92" t="inlineStr">
+      <c r="S42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R42" s="92" t="inlineStr">
+      <c r="T42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S42" s="92" t="inlineStr">
+      <c r="U42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T42" s="92" t="inlineStr">
+      <c r="V42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U42" s="92" t="inlineStr">
+      <c r="W42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V42" s="91" t="inlineStr">
+      <c r="X42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W42" s="91" t="inlineStr">
+      <c r="Y42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X42" s="91" t="inlineStr">
+      <c r="Z42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y42" s="91" t="inlineStr">
+      <c r="AA42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z42" s="91" t="inlineStr">
+      <c r="AB42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA42" s="91" t="inlineStr">
+      <c r="AC42" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB42" s="92" t="inlineStr">
+      <c r="AD42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC42" s="92" t="inlineStr">
+      <c r="AE42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD42" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AE42" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -11144,40 +11144,40 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="C43" s="94" t="n">
         <v>-1.72</v>
       </c>
-      <c r="C43" s="94" t="n">
+      <c r="D43" s="94" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E43" s="94" t="n">
         <v>-3.32</v>
       </c>
-      <c r="D43" s="94" t="n">
+      <c r="F43" s="94" t="n">
         <v>-3.32</v>
       </c>
-      <c r="E43" s="94" t="n">
+      <c r="G43" s="94" t="n">
         <v>-4.96</v>
       </c>
-      <c r="F43" s="94" t="n">
+      <c r="H43" s="94" t="n">
         <v>-4.63</v>
       </c>
-      <c r="G43" s="94" t="n">
+      <c r="I43" s="94" t="n">
         <v>-4.27</v>
       </c>
-      <c r="H43" s="94" t="n">
+      <c r="J43" s="94" t="n">
         <v>-4.27</v>
       </c>
-      <c r="I43" s="94" t="n">
+      <c r="K43" s="94" t="n">
         <v>-5</v>
       </c>
-      <c r="J43" s="94" t="n">
+      <c r="L43" s="94" t="n">
         <v>-5.37</v>
       </c>
-      <c r="K43" s="94" t="n">
+      <c r="M43" s="94" t="n">
         <v>-7.58</v>
-      </c>
-      <c r="L43" s="94" t="n">
-        <v>-7.69</v>
-      </c>
-      <c r="M43" s="94" t="n">
-        <v>-7.69</v>
       </c>
       <c r="N43" s="94" t="n">
         <v>-7.69</v>
@@ -11186,52 +11186,52 @@
         <v>-7.69</v>
       </c>
       <c r="P43" s="94" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="Q43" s="94" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="R43" s="94" t="n">
         <v>-6.47</v>
       </c>
-      <c r="Q43" s="94" t="n">
+      <c r="S43" s="94" t="n">
         <v>-5.6</v>
       </c>
-      <c r="R43" s="94" t="n">
+      <c r="T43" s="94" t="n">
         <v>-5.95</v>
       </c>
-      <c r="S43" s="94" t="n">
+      <c r="U43" s="94" t="n">
         <v>-7.85</v>
       </c>
-      <c r="T43" s="94" t="n">
+      <c r="V43" s="94" t="n">
         <v>-7.85</v>
       </c>
-      <c r="U43" s="94" t="n">
+      <c r="W43" s="94" t="n">
         <v>-6.66</v>
       </c>
-      <c r="V43" s="94" t="n">
+      <c r="X43" s="94" t="n">
         <v>-8.18</v>
       </c>
-      <c r="W43" s="94" t="n">
+      <c r="Y43" s="94" t="n">
         <v>-4.35</v>
       </c>
-      <c r="X43" s="94" t="n">
+      <c r="Z43" s="94" t="n">
         <v>-6.5</v>
       </c>
-      <c r="Y43" s="94" t="n">
+      <c r="AA43" s="94" t="n">
         <v>-2.1</v>
       </c>
-      <c r="Z43" s="94" t="n">
+      <c r="AB43" s="94" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AA43" s="94" t="n">
+      <c r="AC43" s="94" t="n">
         <v>1.45</v>
       </c>
-      <c r="AB43" s="94" t="n">
+      <c r="AD43" s="94" t="n">
         <v>5.45</v>
       </c>
-      <c r="AC43" s="94" t="n">
+      <c r="AE43" s="94" t="n">
         <v>5.17</v>
-      </c>
-      <c r="AD43" s="94" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AE43" s="94" t="n">
-        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -11241,40 +11241,40 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C44" s="94" t="n">
         <v>4.64</v>
       </c>
-      <c r="C44" s="94" t="n">
+      <c r="D44" s="94" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E44" s="94" t="n">
         <v>3.04</v>
       </c>
-      <c r="D44" s="94" t="n">
+      <c r="F44" s="94" t="n">
         <v>3.04</v>
       </c>
-      <c r="E44" s="94" t="n">
+      <c r="G44" s="94" t="n">
         <v>2.01</v>
       </c>
-      <c r="F44" s="94" t="n">
+      <c r="H44" s="94" t="n">
         <v>2.74</v>
       </c>
-      <c r="G44" s="94" t="n">
+      <c r="I44" s="94" t="n">
         <v>1.72</v>
       </c>
-      <c r="H44" s="94" t="n">
+      <c r="J44" s="94" t="n">
         <v>1.72</v>
       </c>
-      <c r="I44" s="94" t="n">
+      <c r="K44" s="94" t="n">
         <v>2.07</v>
       </c>
-      <c r="J44" s="94" t="n">
+      <c r="L44" s="94" t="n">
         <v>0.73</v>
       </c>
-      <c r="K44" s="94" t="n">
+      <c r="M44" s="94" t="n">
         <v>-2.46</v>
-      </c>
-      <c r="L44" s="94" t="n">
-        <v>-3.59</v>
-      </c>
-      <c r="M44" s="94" t="n">
-        <v>-3.59</v>
       </c>
       <c r="N44" s="94" t="n">
         <v>-3.59</v>
@@ -11283,52 +11283,52 @@
         <v>-3.59</v>
       </c>
       <c r="P44" s="94" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="Q44" s="94" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="R44" s="94" t="n">
         <v>-2.23</v>
       </c>
-      <c r="Q44" s="94" t="n">
+      <c r="S44" s="94" t="n">
         <v>-2.24</v>
       </c>
-      <c r="R44" s="94" t="n">
+      <c r="T44" s="94" t="n">
         <v>-2.99</v>
       </c>
-      <c r="S44" s="94" t="n">
+      <c r="U44" s="94" t="n">
         <v>-5.71</v>
       </c>
-      <c r="T44" s="94" t="n">
+      <c r="V44" s="94" t="n">
         <v>-5.71</v>
       </c>
-      <c r="U44" s="94" t="n">
+      <c r="W44" s="94" t="n">
         <v>-5.44</v>
       </c>
-      <c r="V44" s="94" t="n">
+      <c r="X44" s="94" t="n">
         <v>-9.85</v>
       </c>
-      <c r="W44" s="94" t="n">
+      <c r="Y44" s="94" t="n">
         <v>-6.37</v>
       </c>
-      <c r="X44" s="94" t="n">
+      <c r="Z44" s="94" t="n">
         <v>-7.54</v>
       </c>
-      <c r="Y44" s="94" t="n">
+      <c r="AA44" s="94" t="n">
         <v>-3.28</v>
       </c>
-      <c r="Z44" s="94" t="n">
+      <c r="AB44" s="94" t="n">
         <v>-3.28</v>
       </c>
-      <c r="AA44" s="94" t="n">
+      <c r="AC44" s="94" t="n">
         <v>-0.04</v>
       </c>
-      <c r="AB44" s="94" t="n">
+      <c r="AD44" s="94" t="n">
         <v>3.71</v>
       </c>
-      <c r="AC44" s="94" t="n">
+      <c r="AE44" s="94" t="n">
         <v>4.44</v>
-      </c>
-      <c r="AD44" s="94" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE44" s="94" t="n">
-        <v>5.25</v>
       </c>
     </row>
     <row r="45">
@@ -11338,40 +11338,40 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
+        <v>75.61</v>
+      </c>
+      <c r="C45" s="94" t="n">
         <v>85.77</v>
       </c>
-      <c r="C45" s="94" t="n">
+      <c r="D45" s="94" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="E45" s="94" t="n">
         <v>74.3</v>
       </c>
-      <c r="D45" s="94" t="n">
+      <c r="F45" s="94" t="n">
         <v>74.3</v>
       </c>
-      <c r="E45" s="94" t="n">
+      <c r="G45" s="94" t="n">
         <v>70.16</v>
       </c>
-      <c r="F45" s="94" t="n">
+      <c r="H45" s="94" t="n">
         <v>74.69</v>
       </c>
-      <c r="G45" s="94" t="n">
+      <c r="I45" s="94" t="n">
         <v>71.61</v>
       </c>
-      <c r="H45" s="94" t="n">
+      <c r="J45" s="94" t="n">
         <v>71.61</v>
       </c>
-      <c r="I45" s="94" t="n">
+      <c r="K45" s="94" t="n">
         <v>68.91</v>
       </c>
-      <c r="J45" s="94" t="n">
+      <c r="L45" s="94" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="K45" s="94" t="n">
+      <c r="M45" s="94" t="n">
         <v>53.63</v>
-      </c>
-      <c r="L45" s="94" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="M45" s="94" t="n">
-        <v>49.15</v>
       </c>
       <c r="N45" s="94" t="n">
         <v>49.15</v>
@@ -11380,52 +11380,52 @@
         <v>49.15</v>
       </c>
       <c r="P45" s="94" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="Q45" s="94" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="R45" s="94" t="n">
         <v>53.65</v>
       </c>
-      <c r="Q45" s="94" t="n">
+      <c r="S45" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="R45" s="94" t="n">
+      <c r="T45" s="94" t="n">
         <v>49.96</v>
       </c>
-      <c r="S45" s="94" t="n">
+      <c r="U45" s="94" t="n">
         <v>37.67</v>
       </c>
-      <c r="T45" s="94" t="n">
+      <c r="V45" s="94" t="n">
         <v>37.67</v>
       </c>
-      <c r="U45" s="94" t="n">
+      <c r="W45" s="94" t="n">
         <v>38.63</v>
       </c>
-      <c r="V45" s="94" t="n">
+      <c r="X45" s="94" t="n">
         <v>17.99</v>
       </c>
-      <c r="W45" s="94" t="n">
+      <c r="Y45" s="94" t="n">
         <v>23.76</v>
       </c>
-      <c r="X45" s="94" t="n">
+      <c r="Z45" s="94" t="n">
         <v>6.19</v>
       </c>
-      <c r="Y45" s="94" t="n">
+      <c r="AA45" s="94" t="n">
         <v>9.82</v>
       </c>
-      <c r="Z45" s="94" t="n">
+      <c r="AB45" s="94" t="n">
         <v>9.82</v>
       </c>
-      <c r="AA45" s="94" t="n">
+      <c r="AC45" s="94" t="n">
         <v>17.48</v>
       </c>
-      <c r="AB45" s="94" t="n">
+      <c r="AD45" s="94" t="n">
         <v>34.95</v>
       </c>
-      <c r="AC45" s="94" t="n">
+      <c r="AE45" s="94" t="n">
         <v>36.94</v>
-      </c>
-      <c r="AD45" s="94" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="AE45" s="94" t="n">
-        <v>28.39</v>
       </c>
     </row>
     <row r="46">
@@ -11514,74 +11514,74 @@
           <t>red</t>
         </is>
       </c>
-      <c r="R46" s="92" t="inlineStr">
+      <c r="R46" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="S46" s="93" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="T46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S46" s="92" t="inlineStr">
+      <c r="U46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T46" s="92" t="inlineStr">
+      <c r="V46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U46" s="92" t="inlineStr">
+      <c r="W46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V46" s="91" t="inlineStr">
+      <c r="X46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W46" s="91" t="inlineStr">
+      <c r="Y46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X46" s="91" t="inlineStr">
+      <c r="Z46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y46" s="91" t="inlineStr">
+      <c r="AA46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Z46" s="91" t="inlineStr">
+      <c r="AB46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AA46" s="91" t="inlineStr">
+      <c r="AC46" s="91" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AB46" s="92" t="inlineStr">
+      <c r="AD46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC46" s="92" t="inlineStr">
+      <c r="AE46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD46" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AE46" s="91" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -11592,40 +11592,40 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C47" s="94" t="n">
         <v>7.35</v>
       </c>
-      <c r="C47" s="94" t="n">
+      <c r="D47" s="94" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E47" s="94" t="n">
         <v>4.99</v>
       </c>
-      <c r="D47" s="94" t="n">
+      <c r="F47" s="94" t="n">
         <v>4.99</v>
       </c>
-      <c r="E47" s="94" t="n">
+      <c r="G47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="F47" s="94" t="n">
+      <c r="H47" s="94" t="n">
         <v>2.51</v>
       </c>
-      <c r="G47" s="94" t="n">
+      <c r="I47" s="94" t="n">
         <v>2.8</v>
       </c>
-      <c r="H47" s="94" t="n">
+      <c r="J47" s="94" t="n">
         <v>2.8</v>
       </c>
-      <c r="I47" s="94" t="n">
+      <c r="K47" s="94" t="n">
         <v>2.96</v>
       </c>
-      <c r="J47" s="94" t="n">
+      <c r="L47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="K47" s="94" t="n">
+      <c r="M47" s="94" t="n">
         <v>-0.47</v>
-      </c>
-      <c r="L47" s="94" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="M47" s="94" t="n">
-        <v>-0.96</v>
       </c>
       <c r="N47" s="94" t="n">
         <v>-0.96</v>
@@ -11634,95 +11634,95 @@
         <v>-0.96</v>
       </c>
       <c r="P47" s="94" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Q47" s="94" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="R47" s="94" t="n">
         <v>0.27</v>
       </c>
-      <c r="Q47" s="94" t="n">
+      <c r="S47" s="94" t="n">
         <v>1.01</v>
       </c>
-      <c r="R47" s="94" t="n">
+      <c r="T47" s="94" t="n">
         <v>-0.17</v>
       </c>
-      <c r="S47" s="94" t="n">
+      <c r="U47" s="94" t="n">
         <v>-2.53</v>
       </c>
-      <c r="T47" s="94" t="n">
+      <c r="V47" s="94" t="n">
         <v>-2.53</v>
       </c>
-      <c r="U47" s="94" t="n">
+      <c r="W47" s="94" t="n">
         <v>-0.45</v>
       </c>
-      <c r="V47" s="94" t="n">
+      <c r="X47" s="94" t="n">
         <v>-4.39</v>
       </c>
-      <c r="W47" s="94" t="n">
+      <c r="Y47" s="94" t="n">
         <v>0.04</v>
       </c>
-      <c r="X47" s="94" t="n">
+      <c r="Z47" s="94" t="n">
         <v>-1.7</v>
       </c>
-      <c r="Y47" s="94" t="n">
+      <c r="AA47" s="94" t="n">
         <v>2.11</v>
       </c>
-      <c r="Z47" s="94" t="n">
+      <c r="AB47" s="94" t="n">
         <v>2.11</v>
       </c>
-      <c r="AA47" s="94" t="n">
+      <c r="AC47" s="94" t="n">
         <v>6.89</v>
       </c>
-      <c r="AB47" s="94" t="n">
+      <c r="AD47" s="94" t="n">
         <v>10.14</v>
       </c>
-      <c r="AC47" s="94" t="n">
+      <c r="AE47" s="94" t="n">
         <v>10.81</v>
       </c>
-      <c r="AD47" s="94" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AE47" s="94" t="n">
-        <v>12.84</v>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" s="76" t="inlineStr">
+      <c r="A48" s="95" t="inlineStr">
         <is>
           <t>dax30:RNG120</t>
         </is>
       </c>
       <c r="B48" s="94" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="C48" s="94" t="n">
         <v>19.89</v>
       </c>
-      <c r="C48" s="94" t="n">
+      <c r="D48" s="94" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="E48" s="94" t="n">
         <v>17.49</v>
       </c>
-      <c r="D48" s="94" t="n">
+      <c r="F48" s="94" t="n">
         <v>17.49</v>
       </c>
-      <c r="E48" s="94" t="n">
+      <c r="G48" s="94" t="n">
         <v>16.47</v>
       </c>
-      <c r="F48" s="94" t="n">
+      <c r="H48" s="94" t="n">
         <v>16.74</v>
       </c>
-      <c r="G48" s="94" t="n">
+      <c r="I48" s="94" t="n">
         <v>15.5</v>
       </c>
-      <c r="H48" s="94" t="n">
+      <c r="J48" s="94" t="n">
         <v>15.5</v>
       </c>
-      <c r="I48" s="94" t="n">
+      <c r="K48" s="94" t="n">
         <v>13.28</v>
       </c>
-      <c r="J48" s="94" t="n">
+      <c r="L48" s="94" t="n">
         <v>12.44</v>
       </c>
-      <c r="K48" s="94" t="n">
+      <c r="M48" s="94" t="n">
         <v>9.4</v>
-      </c>
-      <c r="L48" s="94" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="M48" s="94" t="n">
-        <v>9.07</v>
       </c>
       <c r="N48" s="94" t="n">
         <v>9.07</v>
@@ -11731,52 +11731,52 @@
         <v>9.07</v>
       </c>
       <c r="P48" s="94" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="Q48" s="94" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="R48" s="94" t="n">
         <v>9.98</v>
       </c>
-      <c r="Q48" s="94" t="n">
+      <c r="S48" s="94" t="n">
         <v>9.43</v>
       </c>
-      <c r="R48" s="94" t="n">
+      <c r="T48" s="94" t="n">
         <v>7.67</v>
       </c>
-      <c r="S48" s="94" t="n">
+      <c r="U48" s="94" t="n">
         <v>3.65</v>
       </c>
-      <c r="T48" s="94" t="n">
+      <c r="V48" s="94" t="n">
         <v>3.65</v>
       </c>
-      <c r="U48" s="94" t="n">
+      <c r="W48" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="V48" s="94" t="n">
+      <c r="X48" s="94" t="n">
         <v>1.23</v>
       </c>
-      <c r="W48" s="94" t="n">
+      <c r="Y48" s="94" t="n">
         <v>4.08</v>
       </c>
-      <c r="X48" s="94" t="n">
+      <c r="Z48" s="94" t="n">
         <v>1.44</v>
       </c>
-      <c r="Y48" s="94" t="n">
+      <c r="AA48" s="94" t="n">
         <v>6.54</v>
       </c>
-      <c r="Z48" s="94" t="n">
+      <c r="AB48" s="94" t="n">
         <v>6.54</v>
       </c>
-      <c r="AA48" s="94" t="n">
+      <c r="AC48" s="94" t="n">
         <v>13.05</v>
       </c>
-      <c r="AB48" s="94" t="n">
+      <c r="AD48" s="94" t="n">
         <v>16.29</v>
       </c>
-      <c r="AC48" s="94" t="n">
+      <c r="AE48" s="94" t="n">
         <v>18.22</v>
-      </c>
-      <c r="AD48" s="94" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="AE48" s="94" t="n">
-        <v>17.47</v>
       </c>
     </row>
     <row r="49">
@@ -11786,40 +11786,40 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="C49" s="94" t="n">
         <v>85.54000000000001</v>
       </c>
-      <c r="C49" s="94" t="n">
+      <c r="D49" s="94" t="n">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="E49" s="94" t="n">
         <v>77.56</v>
       </c>
-      <c r="D49" s="94" t="n">
+      <c r="F49" s="94" t="n">
         <v>77.56</v>
       </c>
-      <c r="E49" s="94" t="n">
+      <c r="G49" s="94" t="n">
         <v>76.25</v>
       </c>
-      <c r="F49" s="94" t="n">
+      <c r="H49" s="94" t="n">
         <v>73.43000000000001</v>
       </c>
-      <c r="G49" s="94" t="n">
+      <c r="I49" s="94" t="n">
         <v>72.92</v>
       </c>
-      <c r="H49" s="94" t="n">
+      <c r="J49" s="94" t="n">
         <v>72.92</v>
       </c>
-      <c r="I49" s="94" t="n">
+      <c r="K49" s="94" t="n">
         <v>70.02</v>
       </c>
-      <c r="J49" s="94" t="n">
+      <c r="L49" s="94" t="n">
         <v>68.39</v>
       </c>
-      <c r="K49" s="94" t="n">
+      <c r="M49" s="94" t="n">
         <v>55.14</v>
-      </c>
-      <c r="L49" s="94" t="n">
-        <v>52.99</v>
-      </c>
-      <c r="M49" s="94" t="n">
-        <v>52.99</v>
       </c>
       <c r="N49" s="94" t="n">
         <v>52.99</v>
@@ -11828,52 +11828,52 @@
         <v>52.99</v>
       </c>
       <c r="P49" s="94" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="Q49" s="94" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="R49" s="94" t="n">
         <v>55.66</v>
       </c>
-      <c r="Q49" s="94" t="n">
+      <c r="S49" s="94" t="n">
         <v>54.62</v>
       </c>
-      <c r="R49" s="94" t="n">
+      <c r="T49" s="94" t="n">
         <v>49.48</v>
       </c>
-      <c r="S49" s="94" t="n">
+      <c r="U49" s="94" t="n">
         <v>38.14</v>
       </c>
-      <c r="T49" s="94" t="n">
+      <c r="V49" s="94" t="n">
         <v>38.14</v>
       </c>
-      <c r="U49" s="94" t="n">
+      <c r="W49" s="94" t="n">
         <v>40.61</v>
       </c>
-      <c r="V49" s="94" t="n">
+      <c r="X49" s="94" t="n">
         <v>20.28</v>
       </c>
-      <c r="W49" s="94" t="n">
+      <c r="Y49" s="94" t="n">
         <v>25.19</v>
       </c>
-      <c r="X49" s="94" t="n">
+      <c r="Z49" s="94" t="n">
         <v>10.68</v>
       </c>
-      <c r="Y49" s="94" t="n">
+      <c r="AA49" s="94" t="n">
         <v>14.84</v>
       </c>
-      <c r="Z49" s="94" t="n">
+      <c r="AB49" s="94" t="n">
         <v>14.84</v>
       </c>
-      <c r="AA49" s="94" t="n">
+      <c r="AC49" s="94" t="n">
         <v>25.18</v>
       </c>
-      <c r="AB49" s="94" t="n">
+      <c r="AD49" s="94" t="n">
         <v>39.55</v>
       </c>
-      <c r="AC49" s="94" t="n">
+      <c r="AE49" s="94" t="n">
         <v>44.2</v>
-      </c>
-      <c r="AD49" s="94" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="AE49" s="94" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：hk50:RS4:86.7&gt;=73;us500:RS2:99.72&gt;=85;us30:RS3:94.99&gt;=85;ixic:RS2:98.64&gt;=96</t>
+          <t>今日卖报：hk50:RS4:86.7&gt;=73;us500:RS2:99.72&gt;=85;dax30:RNG120:22.61&gt;=20</t>
         </is>
       </c>
     </row>
